--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12795"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>怪物ID</t>
   </si>
@@ -90,6 +90,12 @@
     <t>resource</t>
   </si>
   <si>
+    <t>trajectory_resource</t>
+  </si>
+  <si>
+    <t>hit_resource</t>
+  </si>
+  <si>
     <t>{道具id|权重}{道具id|权重}</t>
   </si>
 </sst>
@@ -98,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +115,88 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,83 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,26 +232,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,10 +255,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,37 +283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +325,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,19 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,37 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,25 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,31 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +531,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,23 +560,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:W338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1123,7 +1129,8 @@
     <col min="8" max="8" width="28.25" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="9.375"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1167,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1199,6 +1206,12 @@
       <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
@@ -1223,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1258,7 +1271,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1293,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1328,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1363,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1398,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1433,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1468,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1503,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1538,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1573,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1608,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1643,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -1678,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1713,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -1751,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -1789,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -1827,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -1865,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1903,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -1941,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -1979,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2017,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2055,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -2093,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2131,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2169,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2207,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2245,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
@@ -2283,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -2321,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2359,7 +2372,7 @@
         <v>30</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2397,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2443,7 +2456,7 @@
         <v>30</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2490,7 +2503,7 @@
         <v>30</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -2528,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -2566,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -2604,7 +2617,7 @@
         <v>30</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -2642,7 +2655,7 @@
         <v>30</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -2680,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -2718,7 +2731,7 @@
         <v>30</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -2756,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -2794,7 +2807,7 @@
         <v>30</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -2832,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -2870,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
@@ -2908,7 +2921,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -2946,7 +2959,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -2984,7 +2997,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -3022,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -3060,7 +3073,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -3098,7 +3111,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -3136,7 +3149,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -3174,7 +3187,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -3212,7 +3225,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -3250,7 +3263,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3288,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -3326,7 +3339,7 @@
         <v>40</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -3364,7 +3377,7 @@
         <v>40</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -3402,7 +3415,7 @@
         <v>40</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -3440,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I62" s="6">
         <v>1</v>
@@ -3478,7 +3491,7 @@
         <v>50</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -3516,7 +3529,7 @@
         <v>50</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -3554,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -3592,7 +3605,7 @@
         <v>50</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -3630,7 +3643,7 @@
         <v>50</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -3668,7 +3681,7 @@
         <v>50</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -3706,7 +3719,7 @@
         <v>50</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -3744,7 +3757,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -3782,7 +3795,7 @@
         <v>50</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -3820,7 +3833,7 @@
         <v>50</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -3858,7 +3871,7 @@
         <v>50</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -3896,7 +3909,7 @@
         <v>50</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -3934,7 +3947,7 @@
         <v>50</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -3972,7 +3985,7 @@
         <v>50</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4010,7 +4023,7 @@
         <v>50</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -4049,7 +4062,7 @@
         <v>60</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -4088,7 +4101,7 @@
         <v>60</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -4127,7 +4140,7 @@
         <v>60</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -4166,7 +4179,7 @@
         <v>60</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -4205,7 +4218,7 @@
         <v>60</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -4244,7 +4257,7 @@
         <v>60</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -4283,7 +4296,7 @@
         <v>60</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -4322,7 +4335,7 @@
         <v>60</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4361,7 +4374,7 @@
         <v>60</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -4400,7 +4413,7 @@
         <v>60</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -4439,7 +4452,7 @@
         <v>60</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -4478,7 +4491,7 @@
         <v>60</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -4517,7 +4530,7 @@
         <v>60</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -4556,7 +4569,7 @@
         <v>60</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -4595,7 +4608,7 @@
         <v>60</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I92" s="6">
         <v>1</v>
@@ -4634,7 +4647,7 @@
         <v>70</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -4673,7 +4686,7 @@
         <v>70</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -4712,7 +4725,7 @@
         <v>70</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -4751,7 +4764,7 @@
         <v>70</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -4790,7 +4803,7 @@
         <v>70</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -4829,7 +4842,7 @@
         <v>70</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -4868,7 +4881,7 @@
         <v>70</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -4907,7 +4920,7 @@
         <v>70</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -4946,7 +4959,7 @@
         <v>70</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -4985,7 +4998,7 @@
         <v>70</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5024,7 +5037,7 @@
         <v>70</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5063,7 +5076,7 @@
         <v>70</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5102,7 +5115,7 @@
         <v>70</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5141,7 +5154,7 @@
         <v>70</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5180,7 +5193,7 @@
         <v>70</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
@@ -5219,7 +5232,7 @@
         <v>80</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -5258,7 +5271,7 @@
         <v>80</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -5297,7 +5310,7 @@
         <v>80</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -5336,7 +5349,7 @@
         <v>80</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -5375,7 +5388,7 @@
         <v>80</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -5414,7 +5427,7 @@
         <v>80</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -5453,7 +5466,7 @@
         <v>80</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -5492,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -5531,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -5570,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -5609,7 +5622,7 @@
         <v>80</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -5648,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -5687,7 +5700,7 @@
         <v>80</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -5726,7 +5739,7 @@
         <v>80</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -5765,7 +5778,7 @@
         <v>80</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I122" s="6">
         <v>1</v>
@@ -5804,7 +5817,7 @@
         <v>90</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -5843,7 +5856,7 @@
         <v>90</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -5882,7 +5895,7 @@
         <v>90</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -5921,7 +5934,7 @@
         <v>90</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -5960,7 +5973,7 @@
         <v>90</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -5999,7 +6012,7 @@
         <v>90</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -6038,7 +6051,7 @@
         <v>90</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -6077,7 +6090,7 @@
         <v>90</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -6116,7 +6129,7 @@
         <v>90</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -6155,7 +6168,7 @@
         <v>90</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -6194,7 +6207,7 @@
         <v>90</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -6233,7 +6246,7 @@
         <v>90</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -6272,7 +6285,7 @@
         <v>90</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -6311,7 +6324,7 @@
         <v>90</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -6350,7 +6363,7 @@
         <v>90</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I137" s="5">
         <v>1</v>
@@ -6389,7 +6402,7 @@
         <v>100</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -6428,7 +6441,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -6467,7 +6480,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -6506,7 +6519,7 @@
         <v>100</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -6545,7 +6558,7 @@
         <v>100</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -6584,7 +6597,7 @@
         <v>100</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -6623,7 +6636,7 @@
         <v>100</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -6662,7 +6675,7 @@
         <v>100</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -6701,7 +6714,7 @@
         <v>100</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -6740,7 +6753,7 @@
         <v>100</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -6779,7 +6792,7 @@
         <v>100</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -6818,7 +6831,7 @@
         <v>100</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -6857,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -6896,7 +6909,7 @@
         <v>100</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -6935,7 +6948,7 @@
         <v>100</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I152" s="6">
         <v>1</v>
@@ -6974,7 +6987,7 @@
         <v>110</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -7013,7 +7026,7 @@
         <v>110</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -7052,7 +7065,7 @@
         <v>110</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -7091,7 +7104,7 @@
         <v>110</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -7130,7 +7143,7 @@
         <v>110</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -7169,7 +7182,7 @@
         <v>110</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -7208,7 +7221,7 @@
         <v>110</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -7247,7 +7260,7 @@
         <v>110</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -7286,7 +7299,7 @@
         <v>110</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -7325,7 +7338,7 @@
         <v>110</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -7364,7 +7377,7 @@
         <v>110</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -7403,7 +7416,7 @@
         <v>110</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -7442,7 +7455,7 @@
         <v>110</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -7481,7 +7494,7 @@
         <v>110</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -7520,7 +7533,7 @@
         <v>110</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -7559,7 +7572,7 @@
         <v>120</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -7598,7 +7611,7 @@
         <v>120</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -7637,7 +7650,7 @@
         <v>120</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -7676,7 +7689,7 @@
         <v>120</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -7715,7 +7728,7 @@
         <v>120</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -7754,7 +7767,7 @@
         <v>120</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -7793,7 +7806,7 @@
         <v>120</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -7832,7 +7845,7 @@
         <v>120</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -7871,7 +7884,7 @@
         <v>120</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -7910,7 +7923,7 @@
         <v>120</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -7949,7 +7962,7 @@
         <v>120</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -7988,7 +8001,7 @@
         <v>120</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -8027,7 +8040,7 @@
         <v>120</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -8066,7 +8079,7 @@
         <v>120</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -8105,7 +8118,7 @@
         <v>120</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I182" s="6">
         <v>1</v>
@@ -8144,7 +8157,7 @@
         <v>130</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -8183,7 +8196,7 @@
         <v>130</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -8222,7 +8235,7 @@
         <v>130</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -8261,7 +8274,7 @@
         <v>130</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -8300,7 +8313,7 @@
         <v>130</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -8339,7 +8352,7 @@
         <v>130</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -8378,7 +8391,7 @@
         <v>130</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -8417,7 +8430,7 @@
         <v>130</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -8456,7 +8469,7 @@
         <v>130</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -8495,7 +8508,7 @@
         <v>130</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -8534,7 +8547,7 @@
         <v>130</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -8573,7 +8586,7 @@
         <v>130</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -8612,7 +8625,7 @@
         <v>130</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -8651,7 +8664,7 @@
         <v>130</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -8690,7 +8703,7 @@
         <v>130</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
@@ -8729,7 +8742,7 @@
         <v>140</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -8768,7 +8781,7 @@
         <v>140</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -8807,7 +8820,7 @@
         <v>140</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -8846,7 +8859,7 @@
         <v>140</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -8885,7 +8898,7 @@
         <v>140</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -8924,7 +8937,7 @@
         <v>140</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -8963,7 +8976,7 @@
         <v>140</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9002,7 +9015,7 @@
         <v>140</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -9041,7 +9054,7 @@
         <v>140</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -9080,7 +9093,7 @@
         <v>140</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -9119,7 +9132,7 @@
         <v>140</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -9158,7 +9171,7 @@
         <v>140</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -9197,7 +9210,7 @@
         <v>140</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -9236,7 +9249,7 @@
         <v>140</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -9275,7 +9288,7 @@
         <v>140</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I212" s="6">
         <v>1</v>
@@ -9314,7 +9327,7 @@
         <v>150</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -9353,7 +9366,7 @@
         <v>150</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -9392,7 +9405,7 @@
         <v>150</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -9431,7 +9444,7 @@
         <v>150</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -9470,7 +9483,7 @@
         <v>150</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -9509,7 +9522,7 @@
         <v>150</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -9548,7 +9561,7 @@
         <v>150</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -9587,7 +9600,7 @@
         <v>150</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -9626,7 +9639,7 @@
         <v>150</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -9665,7 +9678,7 @@
         <v>150</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -9704,7 +9717,7 @@
         <v>150</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -9743,7 +9756,7 @@
         <v>150</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -9782,7 +9795,7 @@
         <v>150</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -9821,7 +9834,7 @@
         <v>150</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -9860,7 +9873,7 @@
         <v>150</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I227" s="5">
         <v>1</v>
@@ -9899,7 +9912,7 @@
         <v>160</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -9938,7 +9951,7 @@
         <v>160</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -9977,7 +9990,7 @@
         <v>160</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -10016,7 +10029,7 @@
         <v>160</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -10055,7 +10068,7 @@
         <v>160</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -10094,7 +10107,7 @@
         <v>160</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -10133,7 +10146,7 @@
         <v>160</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -10172,7 +10185,7 @@
         <v>160</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -10211,7 +10224,7 @@
         <v>160</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -10250,7 +10263,7 @@
         <v>160</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -10289,7 +10302,7 @@
         <v>160</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -10328,7 +10341,7 @@
         <v>160</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -10367,7 +10380,7 @@
         <v>160</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -10406,7 +10419,7 @@
         <v>160</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -10445,7 +10458,7 @@
         <v>160</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I242" s="6">
         <v>1</v>
@@ -10484,7 +10497,7 @@
         <v>170</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -10523,7 +10536,7 @@
         <v>170</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -10562,7 +10575,7 @@
         <v>170</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -10601,7 +10614,7 @@
         <v>170</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -10640,7 +10653,7 @@
         <v>170</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -10679,7 +10692,7 @@
         <v>170</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -10718,7 +10731,7 @@
         <v>170</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -10757,7 +10770,7 @@
         <v>170</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -10796,7 +10809,7 @@
         <v>170</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -10835,7 +10848,7 @@
         <v>170</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -10874,7 +10887,7 @@
         <v>170</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -10913,7 +10926,7 @@
         <v>170</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -10952,7 +10965,7 @@
         <v>170</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -10991,7 +11004,7 @@
         <v>170</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -11030,7 +11043,7 @@
         <v>170</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
@@ -11069,7 +11082,7 @@
         <v>180</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -11108,7 +11121,7 @@
         <v>180</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -11147,7 +11160,7 @@
         <v>180</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -11186,7 +11199,7 @@
         <v>180</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -11225,7 +11238,7 @@
         <v>180</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -11264,7 +11277,7 @@
         <v>180</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -11303,7 +11316,7 @@
         <v>180</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -11342,7 +11355,7 @@
         <v>180</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -11381,7 +11394,7 @@
         <v>180</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -11420,7 +11433,7 @@
         <v>180</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -11459,7 +11472,7 @@
         <v>180</v>
       </c>
       <c r="H268" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -11498,7 +11511,7 @@
         <v>180</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -11537,7 +11550,7 @@
         <v>180</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -11576,7 +11589,7 @@
         <v>180</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -11615,7 +11628,7 @@
         <v>180</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I272" s="6">
         <v>1</v>
@@ -11654,7 +11667,7 @@
         <v>190</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -11693,7 +11706,7 @@
         <v>190</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -11732,7 +11745,7 @@
         <v>190</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -11771,7 +11784,7 @@
         <v>190</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -11810,7 +11823,7 @@
         <v>190</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -11849,7 +11862,7 @@
         <v>190</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -11888,7 +11901,7 @@
         <v>190</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -11927,7 +11940,7 @@
         <v>190</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -11966,7 +11979,7 @@
         <v>190</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -12005,7 +12018,7 @@
         <v>190</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -12044,7 +12057,7 @@
         <v>190</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -12083,7 +12096,7 @@
         <v>190</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -12122,7 +12135,7 @@
         <v>190</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -12161,7 +12174,7 @@
         <v>190</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -12200,7 +12213,7 @@
         <v>190</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
@@ -12239,7 +12252,7 @@
         <v>200</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -12278,7 +12291,7 @@
         <v>200</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -12317,7 +12330,7 @@
         <v>200</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -12356,7 +12369,7 @@
         <v>200</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -12395,7 +12408,7 @@
         <v>200</v>
       </c>
       <c r="H292" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -12434,7 +12447,7 @@
         <v>200</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -12473,7 +12486,7 @@
         <v>200</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -12512,7 +12525,7 @@
         <v>200</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -12551,7 +12564,7 @@
         <v>200</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -12590,7 +12603,7 @@
         <v>200</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -12629,7 +12642,7 @@
         <v>200</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -12668,7 +12681,7 @@
         <v>200</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -12707,7 +12720,7 @@
         <v>200</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -12746,7 +12759,7 @@
         <v>200</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -12785,7 +12798,7 @@
         <v>200</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I302" s="6">
         <v>1</v>
@@ -12824,7 +12837,7 @@
         <v>210</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -12863,7 +12876,7 @@
         <v>210</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -12902,7 +12915,7 @@
         <v>210</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -12941,7 +12954,7 @@
         <v>210</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -12980,7 +12993,7 @@
         <v>210</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -13019,7 +13032,7 @@
         <v>210</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -13058,7 +13071,7 @@
         <v>210</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -13097,7 +13110,7 @@
         <v>210</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -13136,7 +13149,7 @@
         <v>210</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -13175,7 +13188,7 @@
         <v>210</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -13214,7 +13227,7 @@
         <v>210</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -13253,7 +13266,7 @@
         <v>210</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -13292,7 +13305,7 @@
         <v>210</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -13331,7 +13344,7 @@
         <v>210</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -13370,7 +13383,7 @@
         <v>210</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I317" s="5">
         <v>1</v>
@@ -13405,7 +13418,7 @@
         <v>40</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -13440,7 +13453,7 @@
         <v>80</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -13475,7 +13488,7 @@
         <v>120</v>
       </c>
       <c r="H320" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -13510,7 +13523,7 @@
         <v>160</v>
       </c>
       <c r="H321" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -13545,7 +13558,7 @@
         <v>200</v>
       </c>
       <c r="H322" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -13580,7 +13593,7 @@
         <v>240</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -13615,7 +13628,7 @@
         <v>280</v>
       </c>
       <c r="H324" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -13650,7 +13663,7 @@
         <v>320</v>
       </c>
       <c r="H325" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -13685,7 +13698,7 @@
         <v>360</v>
       </c>
       <c r="H326" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -13720,7 +13733,7 @@
         <v>400</v>
       </c>
       <c r="H327" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -13755,7 +13768,7 @@
         <v>440</v>
       </c>
       <c r="H328" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -13790,7 +13803,7 @@
         <v>480</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -13825,7 +13838,7 @@
         <v>520</v>
       </c>
       <c r="H330" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -13860,7 +13873,7 @@
         <v>560</v>
       </c>
       <c r="H331" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -13895,7 +13908,7 @@
         <v>600</v>
       </c>
       <c r="H332" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -13930,7 +13943,7 @@
         <v>640</v>
       </c>
       <c r="H333" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -13965,7 +13978,7 @@
         <v>680</v>
       </c>
       <c r="H334" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -14000,7 +14013,7 @@
         <v>720</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -14035,7 +14048,7 @@
         <v>760</v>
       </c>
       <c r="H336" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -14070,7 +14083,7 @@
         <v>800</v>
       </c>
       <c r="H337" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>
@@ -14105,7 +14118,7 @@
         <v>840</v>
       </c>
       <c r="H338" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I338" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12795"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +109,58 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,14 +173,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,25 +209,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,21 +234,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,41 +249,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,7 +277,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,85 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,79 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +549,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,45 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:W338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,7 +1270,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>10001003</v>
       </c>
@@ -1303,6 +1303,12 @@
       </c>
       <c r="K5" s="5">
         <v>20002</v>
+      </c>
+      <c r="L5">
+        <v>30001</v>
+      </c>
+      <c r="M5">
+        <v>30002</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>10001006</v>
       </c>
@@ -1408,6 +1414,12 @@
       </c>
       <c r="K8" s="5">
         <v>20002</v>
+      </c>
+      <c r="L8">
+        <v>30001</v>
+      </c>
+      <c r="M8">
+        <v>30002</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1480,7 +1492,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>10001009</v>
       </c>
@@ -1514,8 +1526,14 @@
       <c r="K11" s="3">
         <v>20002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>30001</v>
+      </c>
+      <c r="M11">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>10001010</v>
       </c>
@@ -1548,6 +1566,12 @@
       </c>
       <c r="K12" s="3">
         <v>20002</v>
+      </c>
+      <c r="L12">
+        <v>30001</v>
+      </c>
+      <c r="M12">
+        <v>30002</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1655,7 +1679,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>10001014</v>
       </c>
@@ -1689,8 +1713,14 @@
       <c r="K16" s="3">
         <v>20002</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>30001</v>
+      </c>
+      <c r="M16">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>10001015</v>
       </c>
@@ -1723,6 +1753,12 @@
       </c>
       <c r="K17" s="3">
         <v>20002</v>
+      </c>
+      <c r="L17">
+        <v>30001</v>
+      </c>
+      <c r="M17">
+        <v>30002</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:11">
@@ -3528,7 +3564,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:13">
       <c r="A65" s="5">
         <v>10005003</v>
       </c>
@@ -3565,6 +3601,12 @@
       <c r="K65" s="5">
         <v>20002</v>
       </c>
+      <c r="L65">
+        <v>30001</v>
+      </c>
+      <c r="M65">
+        <v>30002</v>
+      </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5">
@@ -3642,7 +3684,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:13">
       <c r="A68" s="5">
         <v>10005006</v>
       </c>
@@ -3679,6 +3721,12 @@
       <c r="K68" s="5">
         <v>20002</v>
       </c>
+      <c r="L68">
+        <v>30001</v>
+      </c>
+      <c r="M68">
+        <v>30002</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5">
@@ -3756,7 +3804,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:13">
       <c r="A71" s="5">
         <v>10005009</v>
       </c>
@@ -3793,8 +3841,14 @@
       <c r="K71" s="5">
         <v>20002</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>30001</v>
+      </c>
+      <c r="M71">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="5">
         <v>10005010</v>
       </c>
@@ -3831,6 +3885,12 @@
       <c r="K72" s="5">
         <v>20002</v>
       </c>
+      <c r="L72">
+        <v>30001</v>
+      </c>
+      <c r="M72">
+        <v>30002</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
@@ -3946,7 +4006,7 @@
         <v>20037</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:13">
       <c r="A76" s="5">
         <v>10005014</v>
       </c>
@@ -3983,8 +4043,14 @@
       <c r="K76" s="5">
         <v>20002</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>30001</v>
+      </c>
+      <c r="M76">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="5">
         <v>10005015</v>
       </c>
@@ -4021,6 +4087,12 @@
       <c r="K77" s="5">
         <v>20002</v>
       </c>
+      <c r="L77">
+        <v>30001</v>
+      </c>
+      <c r="M77">
+        <v>30002</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:11">
       <c r="A78" s="6">
@@ -5855,7 +5927,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:13">
       <c r="A125" s="5">
         <v>10009003</v>
       </c>
@@ -5893,6 +5965,12 @@
       <c r="K125" s="5">
         <v>20002</v>
       </c>
+      <c r="L125">
+        <v>30001</v>
+      </c>
+      <c r="M125">
+        <v>30002</v>
+      </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
@@ -5972,7 +6050,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:13">
       <c r="A128" s="5">
         <v>10009006</v>
       </c>
@@ -6010,6 +6088,12 @@
       <c r="K128" s="5">
         <v>20002</v>
       </c>
+      <c r="L128">
+        <v>30001</v>
+      </c>
+      <c r="M128">
+        <v>30002</v>
+      </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
@@ -6089,7 +6173,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:13">
       <c r="A131" s="5">
         <v>10009009</v>
       </c>
@@ -6127,8 +6211,14 @@
       <c r="K131" s="3">
         <v>20002</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>30001</v>
+      </c>
+      <c r="M131">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="5">
         <v>10009010</v>
       </c>
@@ -6166,6 +6256,12 @@
       <c r="K132" s="3">
         <v>20002</v>
       </c>
+      <c r="L132">
+        <v>30001</v>
+      </c>
+      <c r="M132">
+        <v>30002</v>
+      </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
@@ -6284,7 +6380,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:13">
       <c r="A136" s="5">
         <v>10009014</v>
       </c>
@@ -6322,8 +6418,14 @@
       <c r="K136" s="3">
         <v>20002</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>30001</v>
+      </c>
+      <c r="M136">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="5">
         <v>10009015</v>
       </c>
@@ -6361,6 +6463,12 @@
       <c r="K137" s="3">
         <v>20002</v>
       </c>
+      <c r="L137">
+        <v>30001</v>
+      </c>
+      <c r="M137">
+        <v>30002</v>
+      </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:11">
       <c r="A138" s="6">
@@ -8195,7 +8303,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:13">
       <c r="A185" s="5">
         <v>100013003</v>
       </c>
@@ -8233,6 +8341,12 @@
       <c r="K185" s="5">
         <v>20002</v>
       </c>
+      <c r="L185">
+        <v>30001</v>
+      </c>
+      <c r="M185">
+        <v>30002</v>
+      </c>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="5">
@@ -8312,7 +8426,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:13">
       <c r="A188" s="5">
         <v>100013006</v>
       </c>
@@ -8350,6 +8464,12 @@
       <c r="K188" s="5">
         <v>20002</v>
       </c>
+      <c r="L188">
+        <v>30001</v>
+      </c>
+      <c r="M188">
+        <v>30002</v>
+      </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="5">
@@ -8429,7 +8549,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:13">
       <c r="A191" s="5">
         <v>100013009</v>
       </c>
@@ -8467,8 +8587,14 @@
       <c r="K191" s="5">
         <v>20002</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>30001</v>
+      </c>
+      <c r="M191">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="5">
         <v>100013010</v>
       </c>
@@ -8506,6 +8632,12 @@
       <c r="K192" s="5">
         <v>20002</v>
       </c>
+      <c r="L192">
+        <v>30001</v>
+      </c>
+      <c r="M192">
+        <v>30002</v>
+      </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="5">
@@ -8624,7 +8756,7 @@
         <v>20037</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:13">
       <c r="A196" s="5">
         <v>100013014</v>
       </c>
@@ -8662,8 +8794,14 @@
       <c r="K196" s="5">
         <v>20002</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>30001</v>
+      </c>
+      <c r="M196">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="5">
         <v>100013015</v>
       </c>
@@ -8701,6 +8839,12 @@
       <c r="K197" s="5">
         <v>20002</v>
       </c>
+      <c r="L197">
+        <v>30001</v>
+      </c>
+      <c r="M197">
+        <v>30002</v>
+      </c>
     </row>
     <row r="198" s="1" customFormat="1" spans="1:11">
       <c r="A198" s="6">
@@ -11120,7 +11264,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="260" s="1" customFormat="1" spans="1:11">
+    <row r="260" s="1" customFormat="1" spans="1:13">
       <c r="A260" s="6">
         <v>100018003</v>
       </c>
@@ -11158,6 +11302,12 @@
       <c r="K260" s="6">
         <v>20002</v>
       </c>
+      <c r="L260" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M260" s="1">
+        <v>30002</v>
+      </c>
     </row>
     <row r="261" s="1" customFormat="1" spans="1:11">
       <c r="A261" s="6">
@@ -11237,7 +11387,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="263" s="1" customFormat="1" spans="1:11">
+    <row r="263" s="1" customFormat="1" spans="1:13">
       <c r="A263" s="6">
         <v>100018006</v>
       </c>
@@ -11275,6 +11425,12 @@
       <c r="K263" s="6">
         <v>20002</v>
       </c>
+      <c r="L263" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M263" s="1">
+        <v>30002</v>
+      </c>
     </row>
     <row r="264" s="1" customFormat="1" spans="1:11">
       <c r="A264" s="6">
@@ -11354,7 +11510,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="266" s="1" customFormat="1" spans="1:11">
+    <row r="266" s="1" customFormat="1" spans="1:13">
       <c r="A266" s="6">
         <v>100018009</v>
       </c>
@@ -11392,8 +11548,14 @@
       <c r="K266" s="6">
         <v>20002</v>
       </c>
-    </row>
-    <row r="267" s="1" customFormat="1" spans="1:11">
+      <c r="L266" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M266" s="1">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="267" s="1" customFormat="1" spans="1:13">
       <c r="A267" s="6">
         <v>100018010</v>
       </c>
@@ -11431,6 +11593,12 @@
       <c r="K267" s="6">
         <v>20002</v>
       </c>
+      <c r="L267" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M267" s="1">
+        <v>30002</v>
+      </c>
     </row>
     <row r="268" s="1" customFormat="1" spans="1:11">
       <c r="A268" s="6">
@@ -11549,7 +11717,7 @@
         <v>20037</v>
       </c>
     </row>
-    <row r="271" s="1" customFormat="1" spans="1:11">
+    <row r="271" s="1" customFormat="1" spans="1:13">
       <c r="A271" s="6">
         <v>100018014</v>
       </c>
@@ -11587,8 +11755,14 @@
       <c r="K271" s="6">
         <v>20002</v>
       </c>
-    </row>
-    <row r="272" s="1" customFormat="1" spans="1:11">
+      <c r="L271" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M271" s="1">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="272" s="1" customFormat="1" spans="1:13">
       <c r="A272" s="6">
         <v>100018015</v>
       </c>
@@ -11625,6 +11799,12 @@
       </c>
       <c r="K272" s="6">
         <v>20002</v>
+      </c>
+      <c r="L272" s="1">
+        <v>30001</v>
+      </c>
+      <c r="M272" s="1">
+        <v>30002</v>
       </c>
     </row>
     <row r="273" spans="1:11">

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="27840" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,8 +364,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -379,17 +379,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,7 +425,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,23 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +463,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,62 +516,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,19 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,37 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +591,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,25 +633,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,31 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,13 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,26 +746,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,16 +766,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -812,34 +799,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,37 +863,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,94 +899,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:W337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M335" sqref="M335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2175,10 +2175,10 @@
         <v>20014</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:13">
@@ -2307,10 +2307,10 @@
         <v>20014</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:13">
@@ -2439,10 +2439,10 @@
         <v>20014</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:13">
@@ -2483,10 +2483,10 @@
         <v>20014</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:13">
@@ -2659,10 +2659,10 @@
         <v>20014</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M30" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:13">
@@ -2703,10 +2703,10 @@
         <v>20014</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M31" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2835,7 +2835,7 @@
         <v>20010</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>20010</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>20010</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>20010</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>20010</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>20010</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>20013</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:13">
@@ -3644,10 +3644,10 @@
         <v>20013</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:13">
@@ -3776,10 +3776,10 @@
         <v>20013</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:13">
@@ -3820,10 +3820,10 @@
         <v>20013</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M56" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:13">
@@ -3996,10 +3996,10 @@
         <v>20013</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M60" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:13">
@@ -4040,10 +4040,10 @@
         <v>20013</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M61" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4835,10 +4835,10 @@
         <v>20014</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M79" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:13">
@@ -4970,10 +4970,10 @@
         <v>20014</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M82" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:13">
@@ -5105,10 +5105,10 @@
         <v>20014</v>
       </c>
       <c r="L85" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M85" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:13">
@@ -5150,10 +5150,10 @@
         <v>20014</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M86" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:13">
@@ -5330,10 +5330,10 @@
         <v>20014</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M90" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:13">
@@ -5375,10 +5375,10 @@
         <v>20014</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M91" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5510,7 +5510,7 @@
         <v>20017</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>20017</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>20017</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>20017</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>20017</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>20017</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -6185,7 +6185,7 @@
         <v>20022</v>
       </c>
       <c r="L109" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M109" s="1">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>20022</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M112" s="1">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>20022</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M115" s="1">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>20022</v>
       </c>
       <c r="L116" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M116" s="1">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>20022</v>
       </c>
       <c r="L120" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M120" s="1">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>20022</v>
       </c>
       <c r="L121" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M121" s="1">
         <v>0</v>
@@ -7535,10 +7535,10 @@
         <v>20014</v>
       </c>
       <c r="L139" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M139" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:13">
@@ -7670,10 +7670,10 @@
         <v>20014</v>
       </c>
       <c r="L142" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M142" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:13">
@@ -7805,10 +7805,10 @@
         <v>20014</v>
       </c>
       <c r="L145" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M145" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:13">
@@ -7850,10 +7850,10 @@
         <v>20014</v>
       </c>
       <c r="L146" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M146" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:13">
@@ -8030,10 +8030,10 @@
         <v>20014</v>
       </c>
       <c r="L150" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M150" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:13">
@@ -8075,10 +8075,10 @@
         <v>20014</v>
       </c>
       <c r="L151" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M151" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -8210,7 +8210,7 @@
         <v>20010</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>20010</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         <v>20010</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>20010</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>20010</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>20010</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>30003</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -8885,10 +8885,10 @@
         <v>20013</v>
       </c>
       <c r="L169" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M169" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" spans="1:13">
@@ -9020,10 +9020,10 @@
         <v>20013</v>
       </c>
       <c r="L172" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M172" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="1:13">
@@ -9155,10 +9155,10 @@
         <v>20013</v>
       </c>
       <c r="L175" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M175" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" spans="1:13">
@@ -9200,10 +9200,10 @@
         <v>20013</v>
       </c>
       <c r="L176" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M176" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" spans="1:13">
@@ -9380,10 +9380,10 @@
         <v>20013</v>
       </c>
       <c r="L180" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M180" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" spans="1:13">
@@ -9425,10 +9425,10 @@
         <v>20013</v>
       </c>
       <c r="L181" s="1">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M181" s="1">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -10235,10 +10235,10 @@
         <v>20014</v>
       </c>
       <c r="L199" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M199" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="1:13">
@@ -10370,10 +10370,10 @@
         <v>20014</v>
       </c>
       <c r="L202" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M202" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" spans="1:13">
@@ -10505,10 +10505,10 @@
         <v>20014</v>
       </c>
       <c r="L205" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M205" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" spans="1:13">
@@ -10550,10 +10550,10 @@
         <v>20014</v>
       </c>
       <c r="L206" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M206" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" spans="1:13">
@@ -10730,10 +10730,10 @@
         <v>20014</v>
       </c>
       <c r="L210" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M210" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" spans="1:13">
@@ -10775,10 +10775,10 @@
         <v>20014</v>
       </c>
       <c r="L211" s="1">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M211" s="1">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -10910,7 +10910,7 @@
         <v>20017</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -11045,7 +11045,7 @@
         <v>20017</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -11180,7 +11180,7 @@
         <v>20017</v>
       </c>
       <c r="L220">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>20017</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -11405,7 +11405,7 @@
         <v>20017</v>
       </c>
       <c r="L225">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>20017</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>20022</v>
       </c>
       <c r="L229" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M229" s="1">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>20022</v>
       </c>
       <c r="L232" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M232" s="1">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>20022</v>
       </c>
       <c r="L235" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M235" s="1">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>20022</v>
       </c>
       <c r="L236" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M236" s="1">
         <v>0</v>
@@ -12080,7 +12080,7 @@
         <v>20022</v>
       </c>
       <c r="L240" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M240" s="1">
         <v>0</v>
@@ -12125,7 +12125,7 @@
         <v>20022</v>
       </c>
       <c r="L241" s="1">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M241" s="1">
         <v>0</v>
@@ -12260,10 +12260,10 @@
         <v>20013</v>
       </c>
       <c r="L244">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M244">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -12395,10 +12395,10 @@
         <v>20013</v>
       </c>
       <c r="L247">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -12530,10 +12530,10 @@
         <v>20013</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M250">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -12575,10 +12575,10 @@
         <v>20013</v>
       </c>
       <c r="L251">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M251">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -12755,10 +12755,10 @@
         <v>20013</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M255">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -12800,10 +12800,10 @@
         <v>20013</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="M256">
-        <v>0</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="257" s="1" customFormat="1" spans="1:13">
@@ -13610,10 +13610,10 @@
         <v>20014</v>
       </c>
       <c r="L274">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M274">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -13745,10 +13745,10 @@
         <v>20014</v>
       </c>
       <c r="L277">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M277">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -13880,10 +13880,10 @@
         <v>20014</v>
       </c>
       <c r="L280">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M280">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -13925,10 +13925,10 @@
         <v>20014</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M281">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -14105,10 +14105,10 @@
         <v>20014</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M285">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -14150,10 +14150,10 @@
         <v>20014</v>
       </c>
       <c r="L286">
-        <v>0</v>
+        <v>30005</v>
       </c>
       <c r="M286">
-        <v>0</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="287" s="1" customFormat="1" spans="1:13">
@@ -14285,7 +14285,7 @@
         <v>20017</v>
       </c>
       <c r="L289" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M289" s="1">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         <v>20017</v>
       </c>
       <c r="L292" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M292" s="1">
         <v>0</v>
@@ -14555,7 +14555,7 @@
         <v>20017</v>
       </c>
       <c r="L295" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M295" s="1">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>20017</v>
       </c>
       <c r="L296" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M296" s="1">
         <v>0</v>
@@ -14780,7 +14780,7 @@
         <v>20017</v>
       </c>
       <c r="L300" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M300" s="1">
         <v>0</v>
@@ -14825,7 +14825,7 @@
         <v>20017</v>
       </c>
       <c r="L301" s="1">
-        <v>0</v>
+        <v>30007</v>
       </c>
       <c r="M301" s="1">
         <v>0</v>
@@ -14960,7 +14960,7 @@
         <v>20022</v>
       </c>
       <c r="L304">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>20022</v>
       </c>
       <c r="L307">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M307">
         <v>0</v>
@@ -15230,7 +15230,7 @@
         <v>20022</v>
       </c>
       <c r="L310">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M310">
         <v>0</v>
@@ -15275,7 +15275,7 @@
         <v>20022</v>
       </c>
       <c r="L311">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M311">
         <v>0</v>
@@ -15455,7 +15455,7 @@
         <v>20022</v>
       </c>
       <c r="L315">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M315">
         <v>0</v>
@@ -15500,7 +15500,7 @@
         <v>20022</v>
       </c>
       <c r="L316">
-        <v>0</v>
+        <v>30008</v>
       </c>
       <c r="M316">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="M322" s="2">
-        <v>0</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:13">
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="M323" s="2">
-        <v>0</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:13">
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="M331" s="2">
-        <v>0</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:13">
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="M332" s="2">
-        <v>0</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:13">
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="M335" s="2">
-        <v>0</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:13">

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12210"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -378,16 +378,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,9 +409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,72 +421,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,13 +441,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -516,7 +509,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,13 +585,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,115 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +766,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,17 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,39 +835,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M335" sqref="M335"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1439,13 +1439,13 @@
         <v>10001001</v>
       </c>
       <c r="B2" s="3">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1480,13 +1480,13 @@
         <v>10001002</v>
       </c>
       <c r="B3" s="3">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1521,13 +1521,13 @@
         <v>10001003</v>
       </c>
       <c r="B4" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1562,13 +1562,13 @@
         <v>10001004</v>
       </c>
       <c r="B5" s="3">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1603,13 +1603,13 @@
         <v>10001005</v>
       </c>
       <c r="B6" s="3">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1644,13 +1644,13 @@
         <v>10001006</v>
       </c>
       <c r="B7" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1685,13 +1685,13 @@
         <v>10001007</v>
       </c>
       <c r="B8" s="3">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1726,13 +1726,13 @@
         <v>10001008</v>
       </c>
       <c r="B9" s="3">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1767,13 +1767,13 @@
         <v>10001009</v>
       </c>
       <c r="B10" s="3">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1808,13 +1808,13 @@
         <v>10001010</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1849,13 +1849,13 @@
         <v>10001011</v>
       </c>
       <c r="B12" s="3">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1890,13 +1890,13 @@
         <v>10001012</v>
       </c>
       <c r="B13" s="3">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1931,13 +1931,13 @@
         <v>10001013</v>
       </c>
       <c r="B14" s="3">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>10001014</v>
       </c>
       <c r="B15" s="3">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2013,13 +2013,13 @@
         <v>10001015</v>
       </c>
       <c r="B16" s="3">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -2054,16 +2054,13 @@
         <v>10002001</v>
       </c>
       <c r="B17" s="4">
-        <f>ROUND(B2+(B2/2),0)</f>
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4">
-        <f>ROUND(C2+(C2/2),0)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4">
-        <f>ROUND(D2+(D2/2),0)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2098,16 +2095,13 @@
         <v>10002002</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B31" si="0">ROUND(B3+(B3/2),0)</f>
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:C31" si="1">ROUND(C3+(C3/2),0)</f>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D31" si="2">ROUND(D3+(D3/2),0)</f>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2142,16 +2136,13 @@
         <v>10002003</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2186,16 +2177,13 @@
         <v>10002004</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2230,16 +2218,13 @@
         <v>10002005</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2274,16 +2259,13 @@
         <v>10002006</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2318,16 +2300,13 @@
         <v>10002007</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2362,16 +2341,13 @@
         <v>10002008</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2406,16 +2382,13 @@
         <v>10002009</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2450,16 +2423,13 @@
         <v>10002010</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2494,16 +2464,13 @@
         <v>10002011</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2538,16 +2505,13 @@
         <v>10002012</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2582,16 +2546,13 @@
         <v>10002013</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2626,16 +2587,13 @@
         <v>10002014</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -2670,16 +2628,13 @@
         <v>10002015</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2714,16 +2669,13 @@
         <v>10003001</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" ref="B32:B95" si="3">ROUND(B17+(B17/2),0)</f>
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:C95" si="4">ROUND(C17+(C17/2),0)</f>
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32:D95" si="5">ROUND(D17+(D17/2),0)</f>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2758,16 +2710,13 @@
         <v>10003002</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2802,16 +2751,13 @@
         <v>10003003</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>396</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2854,16 +2800,13 @@
         <v>10003004</v>
       </c>
       <c r="B35" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>411</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2907,16 +2850,13 @@
         <v>10003005</v>
       </c>
       <c r="B36" s="5">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>426</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2951,16 +2891,13 @@
         <v>10003006</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2995,16 +2932,13 @@
         <v>10003007</v>
       </c>
       <c r="B38" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -3039,16 +2973,13 @@
         <v>10003008</v>
       </c>
       <c r="B39" s="5">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>471</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -3083,16 +3014,13 @@
         <v>10003009</v>
       </c>
       <c r="B40" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>486</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -3127,16 +3055,13 @@
         <v>10003010</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3171,16 +3096,13 @@
         <v>10003011</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>516</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -3215,16 +3137,13 @@
         <v>10003012</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -3259,16 +3178,13 @@
         <v>10003013</v>
       </c>
       <c r="B44" s="5">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>546</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -3303,16 +3219,13 @@
         <v>10003014</v>
       </c>
       <c r="B45" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>561</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -3347,16 +3260,13 @@
         <v>10003015</v>
       </c>
       <c r="B46" s="5">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>576</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -3391,16 +3301,13 @@
         <v>10004001</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>591</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3435,16 +3342,13 @@
         <v>10004002</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>606</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3479,16 +3383,13 @@
         <v>10004003</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>621</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3523,16 +3424,13 @@
         <v>10004004</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>636</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -3567,16 +3465,13 @@
         <v>10004005</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>651</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -3611,16 +3506,13 @@
         <v>10004006</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>666</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -3655,16 +3547,13 @@
         <v>10004007</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>681</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
@@ -3699,16 +3588,13 @@
         <v>10004008</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>696</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -3743,16 +3629,13 @@
         <v>10004009</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>711</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
@@ -3787,16 +3670,13 @@
         <v>10004010</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>726</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3831,16 +3711,13 @@
         <v>10004011</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>741</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
@@ -3875,16 +3752,13 @@
         <v>10004012</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="3"/>
-        <v>270</v>
+        <v>756</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -3919,16 +3793,13 @@
         <v>10004013</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>771</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -3963,16 +3834,13 @@
         <v>10004014</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>786</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -4007,16 +3875,13 @@
         <v>10004015</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>801</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
@@ -4051,16 +3916,13 @@
         <v>10005001</v>
       </c>
       <c r="B62" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>816</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -4095,16 +3957,13 @@
         <v>10005002</v>
       </c>
       <c r="B63" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>831</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -4139,16 +3998,13 @@
         <v>10005003</v>
       </c>
       <c r="B64" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>846</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -4183,16 +4039,13 @@
         <v>10005004</v>
       </c>
       <c r="B65" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>861</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -4227,16 +4080,13 @@
         <v>10005005</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>876</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -4271,16 +4121,13 @@
         <v>10005006</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>891</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4315,16 +4162,13 @@
         <v>10005007</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>906</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
@@ -4359,16 +4203,13 @@
         <v>10005008</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>921</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -4403,16 +4244,13 @@
         <v>10005009</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>936</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -4447,16 +4285,13 @@
         <v>10005010</v>
       </c>
       <c r="B71" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>951</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -4491,16 +4326,13 @@
         <v>10005011</v>
       </c>
       <c r="B72" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>966</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -4535,16 +4367,13 @@
         <v>10005012</v>
       </c>
       <c r="B73" s="5">
-        <f t="shared" si="3"/>
-        <v>405</v>
+        <v>981</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="5"/>
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -4579,16 +4408,13 @@
         <v>10005013</v>
       </c>
       <c r="B74" s="5">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>996</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E74" s="5">
         <v>1</v>
@@ -4623,16 +4449,13 @@
         <v>10005014</v>
       </c>
       <c r="B75" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>1011</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -4667,16 +4490,13 @@
         <v>10005015</v>
       </c>
       <c r="B76" s="5">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -4711,16 +4531,13 @@
         <v>10006001</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1041</v>
       </c>
       <c r="C77" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -4756,16 +4573,13 @@
         <v>10006002</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1056</v>
       </c>
       <c r="C78" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -4774,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" ref="G78:G141" si="6">G63+10</f>
+        <f t="shared" ref="G78:G141" si="0">G63+10</f>
         <v>60</v>
       </c>
       <c r="H78" s="6" t="s">
@@ -4801,16 +4615,13 @@
         <v>10006003</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1071</v>
       </c>
       <c r="C79" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -4819,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H79" s="6" t="s">
@@ -4846,16 +4657,13 @@
         <v>10006004</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1086</v>
       </c>
       <c r="C80" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -4864,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H80" s="6" t="s">
@@ -4891,16 +4699,13 @@
         <v>10006005</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1101</v>
       </c>
       <c r="C81" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -4909,7 +4714,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H81" s="6" t="s">
@@ -4936,16 +4741,13 @@
         <v>10006006</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1116</v>
       </c>
       <c r="C82" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -4954,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -4981,16 +4783,13 @@
         <v>10006007</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1131</v>
       </c>
       <c r="C83" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -4999,7 +4798,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H83" s="6" t="s">
@@ -5026,16 +4825,13 @@
         <v>10006008</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1146</v>
       </c>
       <c r="C84" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -5044,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H84" s="6" t="s">
@@ -5071,16 +4867,13 @@
         <v>10006009</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1161</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -5089,7 +4882,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H85" s="6" t="s">
@@ -5116,16 +4909,13 @@
         <v>10006010</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1176</v>
       </c>
       <c r="C86" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -5134,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H86" s="6" t="s">
@@ -5161,16 +4951,13 @@
         <v>10006011</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1191</v>
       </c>
       <c r="C87" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -5179,7 +4966,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H87" s="6" t="s">
@@ -5206,16 +4993,13 @@
         <v>10006012</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="3"/>
-        <v>608</v>
+        <v>1206</v>
       </c>
       <c r="C88" s="6">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -5224,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H88" s="6" t="s">
@@ -5251,16 +5035,13 @@
         <v>10006013</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1221</v>
       </c>
       <c r="C89" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
@@ -5269,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H89" s="6" t="s">
@@ -5296,16 +5077,13 @@
         <v>10006014</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1236</v>
       </c>
       <c r="C90" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
@@ -5314,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H90" s="6" t="s">
@@ -5341,16 +5119,13 @@
         <v>10006015</v>
       </c>
       <c r="B91" s="6">
-        <f t="shared" si="3"/>
-        <v>305</v>
+        <v>1251</v>
       </c>
       <c r="C91" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
@@ -5359,7 +5134,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H91" s="6" t="s">
@@ -5386,16 +5161,13 @@
         <v>10007001</v>
       </c>
       <c r="B92" s="5">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1266</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -5404,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -5431,16 +5203,13 @@
         <v>10007002</v>
       </c>
       <c r="B93" s="5">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1281</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -5449,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -5476,16 +5245,13 @@
         <v>10007003</v>
       </c>
       <c r="B94" s="5">
-        <f t="shared" si="3"/>
-        <v>458</v>
+        <v>1296</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="4"/>
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
@@ -5494,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H94" s="5" t="s">
@@ -5521,16 +5287,13 @@
         <v>10007004</v>
       </c>
       <c r="B95" s="5">
-        <f t="shared" si="3"/>
-        <v>912</v>
+        <v>1311</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="4"/>
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -5539,7 +5302,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -5566,16 +5329,13 @@
         <v>10007005</v>
       </c>
       <c r="B96" s="5">
-        <f t="shared" ref="B96:B159" si="7">ROUND(B81+(B81/2),0)</f>
-        <v>1368</v>
+        <v>1326</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" ref="C96:C159" si="8">ROUND(C81+(C81/2),0)</f>
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" ref="D96:D159" si="9">ROUND(D81+(D81/2),0)</f>
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
@@ -5584,7 +5344,7 @@
         <v>10</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -5611,16 +5371,13 @@
         <v>10007006</v>
       </c>
       <c r="B97" s="5">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <v>1341</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -5629,7 +5386,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -5656,16 +5413,13 @@
         <v>10007007</v>
       </c>
       <c r="B98" s="5">
-        <f t="shared" si="7"/>
-        <v>912</v>
+        <v>1356</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="8"/>
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="9"/>
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
@@ -5674,7 +5428,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H98" s="5" t="s">
@@ -5701,16 +5455,13 @@
         <v>10007008</v>
       </c>
       <c r="B99" s="5">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -5719,7 +5470,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -5746,16 +5497,13 @@
         <v>10007009</v>
       </c>
       <c r="B100" s="5">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <v>1386</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -5764,7 +5512,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -5791,16 +5539,13 @@
         <v>10007010</v>
       </c>
       <c r="B101" s="5">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <v>1401</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -5809,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -5836,16 +5581,13 @@
         <v>10007011</v>
       </c>
       <c r="B102" s="5">
-        <f t="shared" si="7"/>
-        <v>912</v>
+        <v>1416</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="8"/>
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="9"/>
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="E102" s="5">
         <v>1</v>
@@ -5854,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -5881,16 +5623,13 @@
         <v>10007012</v>
       </c>
       <c r="B103" s="5">
-        <f t="shared" si="7"/>
-        <v>912</v>
+        <v>1431</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="8"/>
-        <v>230</v>
+        <v>391</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="9"/>
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -5899,7 +5638,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -5926,16 +5665,13 @@
         <v>10007013</v>
       </c>
       <c r="B104" s="5">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1446</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -5944,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -5971,16 +5707,13 @@
         <v>10007014</v>
       </c>
       <c r="B105" s="5">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <v>1461</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -5989,7 +5722,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -6016,16 +5749,13 @@
         <v>10007015</v>
       </c>
       <c r="B106" s="5">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <v>1476</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -6034,7 +5764,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -6061,16 +5791,13 @@
         <v>10008001</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1491</v>
       </c>
       <c r="C107" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -6079,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H107" s="6" t="s">
@@ -6106,16 +5833,13 @@
         <v>10008002</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1506</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -6124,7 +5848,7 @@
         <v>10</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H108" s="6" t="s">
@@ -6151,16 +5875,13 @@
         <v>10008003</v>
       </c>
       <c r="B109" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1521</v>
       </c>
       <c r="C109" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -6169,7 +5890,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H109" s="6" t="s">
@@ -6196,16 +5917,13 @@
         <v>10008004</v>
       </c>
       <c r="B110" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1536</v>
       </c>
       <c r="C110" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
@@ -6214,7 +5932,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H110" s="6" t="s">
@@ -6241,16 +5959,13 @@
         <v>10008005</v>
       </c>
       <c r="B111" s="6">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1551</v>
       </c>
       <c r="C111" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>423</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
@@ -6259,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H111" s="6" t="s">
@@ -6286,16 +6001,13 @@
         <v>10008006</v>
       </c>
       <c r="B112" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1566</v>
       </c>
       <c r="C112" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="E112" s="6">
         <v>1</v>
@@ -6304,7 +6016,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H112" s="6" t="s">
@@ -6331,16 +6043,13 @@
         <v>10008007</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1581</v>
       </c>
       <c r="C113" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -6349,7 +6058,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H113" s="6" t="s">
@@ -6376,16 +6085,13 @@
         <v>10008008</v>
       </c>
       <c r="B114" s="6">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1596</v>
       </c>
       <c r="C114" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -6394,7 +6100,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H114" s="6" t="s">
@@ -6421,16 +6127,13 @@
         <v>10008009</v>
       </c>
       <c r="B115" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1611</v>
       </c>
       <c r="C115" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -6439,7 +6142,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H115" s="6" t="s">
@@ -6466,16 +6169,13 @@
         <v>10008010</v>
       </c>
       <c r="B116" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1626</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>443</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -6484,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H116" s="6" t="s">
@@ -6511,16 +6211,13 @@
         <v>10008011</v>
       </c>
       <c r="B117" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1641</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -6529,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H117" s="6" t="s">
@@ -6556,16 +6253,13 @@
         <v>10008012</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" si="7"/>
-        <v>1368</v>
+        <v>1656</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" si="8"/>
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -6574,7 +6268,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H118" s="6" t="s">
@@ -6601,16 +6295,13 @@
         <v>10008013</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1671</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -6619,7 +6310,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H119" s="6" t="s">
@@ -6646,16 +6337,13 @@
         <v>10008014</v>
       </c>
       <c r="B120" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1686</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>341</v>
       </c>
       <c r="E120" s="6">
         <v>1</v>
@@ -6664,7 +6352,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H120" s="6" t="s">
@@ -6691,16 +6379,13 @@
         <v>10008015</v>
       </c>
       <c r="B121" s="6">
-        <f t="shared" si="7"/>
-        <v>687</v>
+        <v>1701</v>
       </c>
       <c r="C121" s="6">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -6709,7 +6394,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H121" s="6" t="s">
@@ -6736,16 +6421,13 @@
         <v>10009001</v>
       </c>
       <c r="B122" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1716</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="E122" s="5">
         <v>1</v>
@@ -6754,7 +6436,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -6781,16 +6463,13 @@
         <v>10009002</v>
       </c>
       <c r="B123" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1731</v>
       </c>
       <c r="C123" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -6799,7 +6478,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -6826,16 +6505,13 @@
         <v>10009003</v>
       </c>
       <c r="B124" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1746</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>475</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="E124" s="5">
         <v>1</v>
@@ -6844,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -6871,16 +6547,13 @@
         <v>10009004</v>
       </c>
       <c r="B125" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1761</v>
       </c>
       <c r="C125" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -6889,7 +6562,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -6916,16 +6589,13 @@
         <v>10009005</v>
       </c>
       <c r="B126" s="5">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1776</v>
       </c>
       <c r="C126" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>483</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -6934,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -6961,16 +6631,13 @@
         <v>10009006</v>
       </c>
       <c r="B127" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1791</v>
       </c>
       <c r="C127" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>487</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>362</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -6979,7 +6646,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -7006,16 +6673,13 @@
         <v>10009007</v>
       </c>
       <c r="B128" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1806</v>
       </c>
       <c r="C128" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D128" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -7024,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -7051,16 +6715,13 @@
         <v>10009008</v>
       </c>
       <c r="B129" s="5">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1821</v>
       </c>
       <c r="C129" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>495</v>
       </c>
       <c r="D129" s="5">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
@@ -7069,7 +6730,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -7096,16 +6757,13 @@
         <v>10009009</v>
       </c>
       <c r="B130" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1836</v>
       </c>
       <c r="C130" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>499</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>371</v>
       </c>
       <c r="E130" s="5">
         <v>1</v>
@@ -7114,7 +6772,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -7141,16 +6799,13 @@
         <v>10009010</v>
       </c>
       <c r="B131" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1851</v>
       </c>
       <c r="C131" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>503</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -7159,7 +6814,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -7186,16 +6841,13 @@
         <v>10009011</v>
       </c>
       <c r="B132" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1866</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -7204,7 +6856,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -7231,16 +6883,13 @@
         <v>10009012</v>
       </c>
       <c r="B133" s="5">
-        <f t="shared" si="7"/>
-        <v>2052</v>
+        <v>1881</v>
       </c>
       <c r="C133" s="5">
-        <f t="shared" si="8"/>
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="9"/>
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -7249,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -7276,16 +6925,13 @@
         <v>10009013</v>
       </c>
       <c r="B134" s="5">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1896</v>
       </c>
       <c r="C134" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>515</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -7294,7 +6940,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -7321,16 +6967,13 @@
         <v>10009014</v>
       </c>
       <c r="B135" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1911</v>
       </c>
       <c r="C135" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>519</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>386</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -7339,7 +6982,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -7366,16 +7009,13 @@
         <v>10009015</v>
       </c>
       <c r="B136" s="5">
-        <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1926</v>
       </c>
       <c r="C136" s="5">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>523</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="9"/>
-        <v>140</v>
+        <v>389</v>
       </c>
       <c r="E136" s="5">
         <v>1</v>
@@ -7384,7 +7024,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -7411,16 +7051,13 @@
         <v>100010001</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1941</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>527</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E137" s="6">
         <v>1</v>
@@ -7429,7 +7066,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H137" s="6" t="s">
@@ -7456,16 +7093,13 @@
         <v>100010002</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1956</v>
       </c>
       <c r="C138" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>531</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E138" s="6">
         <v>1</v>
@@ -7474,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H138" s="6" t="s">
@@ -7501,16 +7135,13 @@
         <v>100010003</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>1971</v>
       </c>
       <c r="C139" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>535</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="E139" s="6">
         <v>1</v>
@@ -7519,7 +7150,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H139" s="6" t="s">
@@ -7546,16 +7177,13 @@
         <v>100010004</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>1986</v>
       </c>
       <c r="C140" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>539</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E140" s="6">
         <v>1</v>
@@ -7564,7 +7192,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H140" s="6" t="s">
@@ -7591,16 +7219,13 @@
         <v>100010005</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2001</v>
       </c>
       <c r="C141" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>543</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>404</v>
       </c>
       <c r="E141" s="6">
         <v>1</v>
@@ -7609,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H141" s="6" t="s">
@@ -7636,16 +7261,13 @@
         <v>100010006</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>2016</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>547</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>407</v>
       </c>
       <c r="E142" s="6">
         <v>1</v>
@@ -7654,7 +7276,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" ref="G142:G205" si="10">G127+10</f>
+        <f t="shared" ref="G142:G205" si="1">G127+10</f>
         <v>100</v>
       </c>
       <c r="H142" s="6" t="s">
@@ -7681,16 +7303,13 @@
         <v>100010007</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>2031</v>
       </c>
       <c r="C143" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>551</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E143" s="6">
         <v>1</v>
@@ -7699,7 +7318,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H143" s="6" t="s">
@@ -7726,16 +7345,13 @@
         <v>100010008</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2046</v>
       </c>
       <c r="C144" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>555</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="E144" s="6">
         <v>1</v>
@@ -7744,7 +7360,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H144" s="6" t="s">
@@ -7771,16 +7387,13 @@
         <v>100010009</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>2061</v>
       </c>
       <c r="C145" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>559</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="E145" s="6">
         <v>1</v>
@@ -7789,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H145" s="6" t="s">
@@ -7816,16 +7429,13 @@
         <v>100010010</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>2076</v>
       </c>
       <c r="C146" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>563</v>
       </c>
       <c r="D146" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>419</v>
       </c>
       <c r="E146" s="6">
         <v>1</v>
@@ -7834,7 +7444,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H146" s="6" t="s">
@@ -7861,16 +7471,13 @@
         <v>100010011</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>2091</v>
       </c>
       <c r="C147" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>567</v>
       </c>
       <c r="D147" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="E147" s="6">
         <v>1</v>
@@ -7879,7 +7486,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H147" s="6" t="s">
@@ -7906,16 +7513,13 @@
         <v>100010012</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="7"/>
-        <v>3078</v>
+        <v>2106</v>
       </c>
       <c r="C148" s="6">
-        <f t="shared" si="8"/>
-        <v>777</v>
+        <v>571</v>
       </c>
       <c r="D148" s="6">
-        <f t="shared" si="9"/>
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="E148" s="6">
         <v>1</v>
@@ -7924,7 +7528,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H148" s="6" t="s">
@@ -7951,16 +7555,13 @@
         <v>100010013</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2121</v>
       </c>
       <c r="C149" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>575</v>
       </c>
       <c r="D149" s="6">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="E149" s="6">
         <v>1</v>
@@ -7969,7 +7570,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H149" s="6" t="s">
@@ -7996,16 +7597,13 @@
         <v>100010014</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>2136</v>
       </c>
       <c r="C150" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>579</v>
       </c>
       <c r="D150" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>431</v>
       </c>
       <c r="E150" s="6">
         <v>1</v>
@@ -8014,7 +7612,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H150" s="6" t="s">
@@ -8041,16 +7639,13 @@
         <v>100010015</v>
       </c>
       <c r="B151" s="6">
-        <f t="shared" si="7"/>
-        <v>1547</v>
+        <v>2151</v>
       </c>
       <c r="C151" s="6">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>583</v>
       </c>
       <c r="D151" s="6">
-        <f t="shared" si="9"/>
-        <v>210</v>
+        <v>434</v>
       </c>
       <c r="E151" s="6">
         <v>1</v>
@@ -8059,7 +7654,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H151" s="6" t="s">
@@ -8086,16 +7681,13 @@
         <v>100011001</v>
       </c>
       <c r="B152" s="5">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2166</v>
       </c>
       <c r="C152" s="5">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>587</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>437</v>
       </c>
       <c r="E152" s="5">
         <v>1</v>
@@ -8104,7 +7696,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -8131,16 +7723,13 @@
         <v>100011002</v>
       </c>
       <c r="B153" s="5">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2181</v>
       </c>
       <c r="C153" s="5">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>591</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>440</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -8149,7 +7738,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -8176,16 +7765,13 @@
         <v>100011003</v>
       </c>
       <c r="B154" s="5">
-        <f t="shared" si="7"/>
-        <v>2321</v>
+        <v>2196</v>
       </c>
       <c r="C154" s="5">
-        <f t="shared" si="8"/>
-        <v>1749</v>
+        <v>595</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="9"/>
-        <v>315</v>
+        <v>443</v>
       </c>
       <c r="E154" s="5">
         <v>1</v>
@@ -8194,7 +7780,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -8221,16 +7807,13 @@
         <v>100011004</v>
       </c>
       <c r="B155" s="5">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2211</v>
       </c>
       <c r="C155" s="5">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>599</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>446</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -8239,7 +7822,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -8266,16 +7849,13 @@
         <v>100011005</v>
       </c>
       <c r="B156" s="5">
-        <f t="shared" si="7"/>
-        <v>6926</v>
+        <v>2226</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" si="8"/>
-        <v>1749</v>
+        <v>603</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="9"/>
-        <v>912</v>
+        <v>449</v>
       </c>
       <c r="E156" s="5">
         <v>1</v>
@@ -8284,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -8311,16 +7891,13 @@
         <v>100011006</v>
       </c>
       <c r="B157" s="5">
-        <f t="shared" si="7"/>
-        <v>2321</v>
+        <v>2241</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" si="8"/>
-        <v>1749</v>
+        <v>607</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="9"/>
-        <v>315</v>
+        <v>452</v>
       </c>
       <c r="E157" s="5">
         <v>1</v>
@@ -8329,7 +7906,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -8356,16 +7933,13 @@
         <v>100011007</v>
       </c>
       <c r="B158" s="5">
-        <f t="shared" si="7"/>
-        <v>4617</v>
+        <v>2256</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" si="8"/>
-        <v>1166</v>
+        <v>611</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="9"/>
-        <v>608</v>
+        <v>455</v>
       </c>
       <c r="E158" s="5">
         <v>1</v>
@@ -8374,7 +7948,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -8401,16 +7975,13 @@
         <v>100011008</v>
       </c>
       <c r="B159" s="5">
-        <f t="shared" si="7"/>
-        <v>6926</v>
+        <v>2271</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" si="8"/>
-        <v>1749</v>
+        <v>615</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="9"/>
-        <v>912</v>
+        <v>458</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -8419,7 +7990,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -8446,16 +8017,13 @@
         <v>100011009</v>
       </c>
       <c r="B160" s="5">
-        <f t="shared" ref="B160:B223" si="11">ROUND(B145+(B145/2),0)</f>
-        <v>2321</v>
+        <v>2286</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" ref="C160:C223" si="12">ROUND(C145+(C145/2),0)</f>
-        <v>1749</v>
+        <v>619</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" ref="D160:D223" si="13">ROUND(D145+(D145/2),0)</f>
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="E160" s="5">
         <v>1</v>
@@ -8464,7 +8032,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -8491,16 +8059,13 @@
         <v>100011010</v>
       </c>
       <c r="B161" s="5">
-        <f t="shared" si="11"/>
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>623</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="13"/>
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -8509,7 +8074,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -8536,16 +8101,13 @@
         <v>100011011</v>
       </c>
       <c r="B162" s="5">
-        <f t="shared" si="11"/>
-        <v>4617</v>
+        <v>2316</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" si="12"/>
-        <v>1166</v>
+        <v>627</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="13"/>
-        <v>608</v>
+        <v>467</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -8554,7 +8116,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -8581,16 +8143,13 @@
         <v>100011012</v>
       </c>
       <c r="B163" s="5">
-        <f t="shared" si="11"/>
-        <v>4617</v>
+        <v>2331</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" si="12"/>
-        <v>1166</v>
+        <v>631</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="13"/>
-        <v>608</v>
+        <v>470</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -8599,7 +8158,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -8626,16 +8185,13 @@
         <v>100011013</v>
       </c>
       <c r="B164" s="5">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2346</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>635</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>473</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -8644,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -8671,16 +8227,13 @@
         <v>100011014</v>
       </c>
       <c r="B165" s="5">
-        <f t="shared" si="11"/>
-        <v>2321</v>
+        <v>2361</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>639</v>
       </c>
       <c r="D165" s="5">
-        <f t="shared" si="13"/>
-        <v>315</v>
+        <v>476</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -8689,7 +8242,7 @@
         <v>10</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -8716,16 +8269,13 @@
         <v>100011015</v>
       </c>
       <c r="B166" s="5">
-        <f t="shared" si="11"/>
-        <v>2321</v>
+        <v>2376</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>643</v>
       </c>
       <c r="D166" s="5">
-        <f t="shared" si="13"/>
-        <v>315</v>
+        <v>479</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -8734,7 +8284,7 @@
         <v>10</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -8761,16 +8311,13 @@
         <v>100012001</v>
       </c>
       <c r="B167" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2391</v>
       </c>
       <c r="C167" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>647</v>
       </c>
       <c r="D167" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>482</v>
       </c>
       <c r="E167" s="6">
         <v>1</v>
@@ -8779,7 +8326,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H167" s="6" t="s">
@@ -8806,16 +8353,13 @@
         <v>100012002</v>
       </c>
       <c r="B168" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2406</v>
       </c>
       <c r="C168" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>651</v>
       </c>
       <c r="D168" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>485</v>
       </c>
       <c r="E168" s="6">
         <v>1</v>
@@ -8824,7 +8368,7 @@
         <v>10</v>
       </c>
       <c r="G168" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H168" s="6" t="s">
@@ -8851,16 +8395,13 @@
         <v>100012003</v>
       </c>
       <c r="B169" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2421</v>
       </c>
       <c r="C169" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>655</v>
       </c>
       <c r="D169" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="E169" s="6">
         <v>1</v>
@@ -8869,7 +8410,7 @@
         <v>10</v>
       </c>
       <c r="G169" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H169" s="6" t="s">
@@ -8896,16 +8437,13 @@
         <v>100012004</v>
       </c>
       <c r="B170" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2436</v>
       </c>
       <c r="C170" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>659</v>
       </c>
       <c r="D170" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>491</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
@@ -8914,7 +8452,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H170" s="6" t="s">
@@ -8941,16 +8479,13 @@
         <v>100012005</v>
       </c>
       <c r="B171" s="6">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2451</v>
       </c>
       <c r="C171" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>663</v>
       </c>
       <c r="D171" s="6">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>494</v>
       </c>
       <c r="E171" s="6">
         <v>1</v>
@@ -8959,7 +8494,7 @@
         <v>10</v>
       </c>
       <c r="G171" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H171" s="6" t="s">
@@ -8986,16 +8521,13 @@
         <v>100012006</v>
       </c>
       <c r="B172" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2466</v>
       </c>
       <c r="C172" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>667</v>
       </c>
       <c r="D172" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="E172" s="6">
         <v>1</v>
@@ -9004,7 +8536,7 @@
         <v>10</v>
       </c>
       <c r="G172" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H172" s="6" t="s">
@@ -9031,16 +8563,13 @@
         <v>100012007</v>
       </c>
       <c r="B173" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2481</v>
       </c>
       <c r="C173" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>671</v>
       </c>
       <c r="D173" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>500</v>
       </c>
       <c r="E173" s="6">
         <v>1</v>
@@ -9049,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="G173" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H173" s="6" t="s">
@@ -9076,16 +8605,13 @@
         <v>100012008</v>
       </c>
       <c r="B174" s="6">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2496</v>
       </c>
       <c r="C174" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>675</v>
       </c>
       <c r="D174" s="6">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>503</v>
       </c>
       <c r="E174" s="6">
         <v>1</v>
@@ -9094,7 +8620,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H174" s="6" t="s">
@@ -9121,16 +8647,13 @@
         <v>100012009</v>
       </c>
       <c r="B175" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2511</v>
       </c>
       <c r="C175" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>679</v>
       </c>
       <c r="D175" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="E175" s="6">
         <v>1</v>
@@ -9139,7 +8662,7 @@
         <v>10</v>
       </c>
       <c r="G175" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H175" s="6" t="s">
@@ -9166,16 +8689,13 @@
         <v>100012010</v>
       </c>
       <c r="B176" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2526</v>
       </c>
       <c r="C176" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>683</v>
       </c>
       <c r="D176" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="E176" s="6">
         <v>1</v>
@@ -9184,7 +8704,7 @@
         <v>10</v>
       </c>
       <c r="G176" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H176" s="6" t="s">
@@ -9211,16 +8731,13 @@
         <v>100012011</v>
       </c>
       <c r="B177" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2541</v>
       </c>
       <c r="C177" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>687</v>
       </c>
       <c r="D177" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>512</v>
       </c>
       <c r="E177" s="6">
         <v>1</v>
@@ -9229,7 +8746,7 @@
         <v>10</v>
       </c>
       <c r="G177" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H177" s="6" t="s">
@@ -9256,16 +8773,13 @@
         <v>100012012</v>
       </c>
       <c r="B178" s="6">
-        <f t="shared" si="11"/>
-        <v>6926</v>
+        <v>2556</v>
       </c>
       <c r="C178" s="6">
-        <f t="shared" si="12"/>
-        <v>1749</v>
+        <v>691</v>
       </c>
       <c r="D178" s="6">
-        <f t="shared" si="13"/>
-        <v>912</v>
+        <v>515</v>
       </c>
       <c r="E178" s="6">
         <v>1</v>
@@ -9274,7 +8788,7 @@
         <v>10</v>
       </c>
       <c r="G178" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H178" s="6" t="s">
@@ -9301,16 +8815,13 @@
         <v>100012013</v>
       </c>
       <c r="B179" s="6">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2571</v>
       </c>
       <c r="C179" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>695</v>
       </c>
       <c r="D179" s="6">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>518</v>
       </c>
       <c r="E179" s="6">
         <v>1</v>
@@ -9319,7 +8830,7 @@
         <v>10</v>
       </c>
       <c r="G179" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H179" s="6" t="s">
@@ -9346,16 +8857,13 @@
         <v>100012014</v>
       </c>
       <c r="B180" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2586</v>
       </c>
       <c r="C180" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>699</v>
       </c>
       <c r="D180" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
@@ -9364,7 +8872,7 @@
         <v>10</v>
       </c>
       <c r="G180" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H180" s="6" t="s">
@@ -9391,16 +8899,13 @@
         <v>100012015</v>
       </c>
       <c r="B181" s="6">
-        <f t="shared" si="11"/>
-        <v>3482</v>
+        <v>2601</v>
       </c>
       <c r="C181" s="6">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>703</v>
       </c>
       <c r="D181" s="6">
-        <f t="shared" si="13"/>
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="E181" s="6">
         <v>1</v>
@@ -9409,7 +8914,7 @@
         <v>10</v>
       </c>
       <c r="G181" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -9436,16 +8941,13 @@
         <v>100013001</v>
       </c>
       <c r="B182" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2616</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>707</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>527</v>
       </c>
       <c r="E182" s="5">
         <v>1</v>
@@ -9454,7 +8956,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H182" s="5" t="s">
@@ -9481,16 +8983,13 @@
         <v>100013002</v>
       </c>
       <c r="B183" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2631</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>711</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>530</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -9499,7 +8998,7 @@
         <v>10</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H183" s="5" t="s">
@@ -9526,16 +9025,13 @@
         <v>100013003</v>
       </c>
       <c r="B184" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2646</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>715</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>533</v>
       </c>
       <c r="E184" s="5">
         <v>1</v>
@@ -9544,7 +9040,7 @@
         <v>10</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H184" s="5" t="s">
@@ -9571,16 +9067,13 @@
         <v>100013004</v>
       </c>
       <c r="B185" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2661</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>719</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>536</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -9589,7 +9082,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H185" s="5" t="s">
@@ -9616,16 +9109,13 @@
         <v>100013005</v>
       </c>
       <c r="B186" s="5">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2676</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>723</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>539</v>
       </c>
       <c r="E186" s="5">
         <v>1</v>
@@ -9634,7 +9124,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H186" s="5" t="s">
@@ -9661,16 +9151,13 @@
         <v>100013006</v>
       </c>
       <c r="B187" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2691</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>727</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>542</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
@@ -9679,7 +9166,7 @@
         <v>10</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H187" s="5" t="s">
@@ -9706,16 +9193,13 @@
         <v>100013007</v>
       </c>
       <c r="B188" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2706</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>731</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>545</v>
       </c>
       <c r="E188" s="5">
         <v>1</v>
@@ -9724,7 +9208,7 @@
         <v>10</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H188" s="5" t="s">
@@ -9751,16 +9235,13 @@
         <v>100013008</v>
       </c>
       <c r="B189" s="5">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2721</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>735</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>548</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
@@ -9769,7 +9250,7 @@
         <v>10</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H189" s="5" t="s">
@@ -9796,16 +9277,13 @@
         <v>100013009</v>
       </c>
       <c r="B190" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2736</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>739</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>551</v>
       </c>
       <c r="E190" s="5">
         <v>1</v>
@@ -9814,7 +9292,7 @@
         <v>10</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H190" s="5" t="s">
@@ -9841,16 +9319,13 @@
         <v>100013010</v>
       </c>
       <c r="B191" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2751</v>
       </c>
       <c r="C191" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>743</v>
       </c>
       <c r="D191" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>554</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -9859,7 +9334,7 @@
         <v>10</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H191" s="5" t="s">
@@ -9886,16 +9361,13 @@
         <v>100013011</v>
       </c>
       <c r="B192" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2766</v>
       </c>
       <c r="C192" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>747</v>
       </c>
       <c r="D192" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>557</v>
       </c>
       <c r="E192" s="5">
         <v>1</v>
@@ -9904,7 +9376,7 @@
         <v>10</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H192" s="5" t="s">
@@ -9931,16 +9403,13 @@
         <v>100013012</v>
       </c>
       <c r="B193" s="5">
-        <f t="shared" si="11"/>
-        <v>10389</v>
+        <v>2781</v>
       </c>
       <c r="C193" s="5">
-        <f t="shared" si="12"/>
-        <v>2624</v>
+        <v>751</v>
       </c>
       <c r="D193" s="5">
-        <f t="shared" si="13"/>
-        <v>1368</v>
+        <v>560</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
@@ -9949,7 +9418,7 @@
         <v>10</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H193" s="5" t="s">
@@ -9976,16 +9445,13 @@
         <v>100013013</v>
       </c>
       <c r="B194" s="5">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2796</v>
       </c>
       <c r="C194" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>755</v>
       </c>
       <c r="D194" s="5">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>563</v>
       </c>
       <c r="E194" s="5">
         <v>1</v>
@@ -9994,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H194" s="5" t="s">
@@ -10021,16 +9487,13 @@
         <v>100013014</v>
       </c>
       <c r="B195" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2811</v>
       </c>
       <c r="C195" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>759</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>566</v>
       </c>
       <c r="E195" s="5">
         <v>1</v>
@@ -10039,7 +9502,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H195" s="5" t="s">
@@ -10066,16 +9529,13 @@
         <v>100013015</v>
       </c>
       <c r="B196" s="5">
-        <f t="shared" si="11"/>
-        <v>5223</v>
+        <v>2826</v>
       </c>
       <c r="C196" s="5">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>763</v>
       </c>
       <c r="D196" s="5">
-        <f t="shared" si="13"/>
-        <v>710</v>
+        <v>569</v>
       </c>
       <c r="E196" s="5">
         <v>1</v>
@@ -10084,7 +9544,7 @@
         <v>10</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="H196" s="5" t="s">
@@ -10111,16 +9571,13 @@
         <v>100014001</v>
       </c>
       <c r="B197" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2841</v>
       </c>
       <c r="C197" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>767</v>
       </c>
       <c r="D197" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>572</v>
       </c>
       <c r="E197" s="6">
         <v>1</v>
@@ -10129,7 +9586,7 @@
         <v>10</v>
       </c>
       <c r="G197" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H197" s="6" t="s">
@@ -10156,16 +9613,13 @@
         <v>100014002</v>
       </c>
       <c r="B198" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2856</v>
       </c>
       <c r="C198" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>771</v>
       </c>
       <c r="D198" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>575</v>
       </c>
       <c r="E198" s="6">
         <v>1</v>
@@ -10174,7 +9628,7 @@
         <v>10</v>
       </c>
       <c r="G198" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H198" s="6" t="s">
@@ -10201,16 +9655,13 @@
         <v>100014003</v>
       </c>
       <c r="B199" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>2871</v>
       </c>
       <c r="C199" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>775</v>
       </c>
       <c r="D199" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>578</v>
       </c>
       <c r="E199" s="6">
         <v>1</v>
@@ -10219,7 +9670,7 @@
         <v>10</v>
       </c>
       <c r="G199" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H199" s="6" t="s">
@@ -10246,16 +9697,13 @@
         <v>100014004</v>
       </c>
       <c r="B200" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2886</v>
       </c>
       <c r="C200" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>779</v>
       </c>
       <c r="D200" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>581</v>
       </c>
       <c r="E200" s="6">
         <v>1</v>
@@ -10264,7 +9712,7 @@
         <v>10</v>
       </c>
       <c r="G200" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H200" s="6" t="s">
@@ -10291,16 +9739,13 @@
         <v>100014005</v>
       </c>
       <c r="B201" s="6">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>2901</v>
       </c>
       <c r="C201" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>783</v>
       </c>
       <c r="D201" s="6">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>584</v>
       </c>
       <c r="E201" s="6">
         <v>1</v>
@@ -10309,7 +9754,7 @@
         <v>10</v>
       </c>
       <c r="G201" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H201" s="6" t="s">
@@ -10336,16 +9781,13 @@
         <v>100014006</v>
       </c>
       <c r="B202" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>2916</v>
       </c>
       <c r="C202" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>787</v>
       </c>
       <c r="D202" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>587</v>
       </c>
       <c r="E202" s="6">
         <v>1</v>
@@ -10354,7 +9796,7 @@
         <v>10</v>
       </c>
       <c r="G202" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H202" s="6" t="s">
@@ -10381,16 +9823,13 @@
         <v>100014007</v>
       </c>
       <c r="B203" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2931</v>
       </c>
       <c r="C203" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>791</v>
       </c>
       <c r="D203" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>590</v>
       </c>
       <c r="E203" s="6">
         <v>1</v>
@@ -10399,7 +9838,7 @@
         <v>10</v>
       </c>
       <c r="G203" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H203" s="6" t="s">
@@ -10426,16 +9865,13 @@
         <v>100014008</v>
       </c>
       <c r="B204" s="6">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>2946</v>
       </c>
       <c r="C204" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>795</v>
       </c>
       <c r="D204" s="6">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>593</v>
       </c>
       <c r="E204" s="6">
         <v>1</v>
@@ -10444,7 +9880,7 @@
         <v>10</v>
       </c>
       <c r="G204" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H204" s="6" t="s">
@@ -10471,16 +9907,13 @@
         <v>100014009</v>
       </c>
       <c r="B205" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>2961</v>
       </c>
       <c r="C205" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>799</v>
       </c>
       <c r="D205" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>596</v>
       </c>
       <c r="E205" s="6">
         <v>1</v>
@@ -10489,7 +9922,7 @@
         <v>10</v>
       </c>
       <c r="G205" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="H205" s="6" t="s">
@@ -10516,16 +9949,13 @@
         <v>100014010</v>
       </c>
       <c r="B206" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>2976</v>
       </c>
       <c r="C206" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>803</v>
       </c>
       <c r="D206" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>599</v>
       </c>
       <c r="E206" s="6">
         <v>1</v>
@@ -10534,7 +9964,7 @@
         <v>10</v>
       </c>
       <c r="G206" s="6">
-        <f t="shared" ref="G206:G269" si="14">G191+10</f>
+        <f t="shared" ref="G206:G269" si="2">G191+10</f>
         <v>140</v>
       </c>
       <c r="H206" s="6" t="s">
@@ -10561,16 +9991,13 @@
         <v>100014011</v>
       </c>
       <c r="B207" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>2991</v>
       </c>
       <c r="C207" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>807</v>
       </c>
       <c r="D207" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>602</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
@@ -10579,7 +10006,7 @@
         <v>10</v>
       </c>
       <c r="G207" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H207" s="6" t="s">
@@ -10606,16 +10033,13 @@
         <v>100014012</v>
       </c>
       <c r="B208" s="6">
-        <f t="shared" si="11"/>
-        <v>15584</v>
+        <v>3006</v>
       </c>
       <c r="C208" s="6">
-        <f t="shared" si="12"/>
-        <v>3936</v>
+        <v>811</v>
       </c>
       <c r="D208" s="6">
-        <f t="shared" si="13"/>
-        <v>2052</v>
+        <v>605</v>
       </c>
       <c r="E208" s="6">
         <v>1</v>
@@ -10624,7 +10048,7 @@
         <v>10</v>
       </c>
       <c r="G208" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H208" s="6" t="s">
@@ -10651,16 +10075,13 @@
         <v>100014013</v>
       </c>
       <c r="B209" s="6">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3021</v>
       </c>
       <c r="C209" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>815</v>
       </c>
       <c r="D209" s="6">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>608</v>
       </c>
       <c r="E209" s="6">
         <v>1</v>
@@ -10669,7 +10090,7 @@
         <v>10</v>
       </c>
       <c r="G209" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H209" s="6" t="s">
@@ -10696,16 +10117,13 @@
         <v>100014014</v>
       </c>
       <c r="B210" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>3036</v>
       </c>
       <c r="C210" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>819</v>
       </c>
       <c r="D210" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>611</v>
       </c>
       <c r="E210" s="6">
         <v>1</v>
@@ -10714,7 +10132,7 @@
         <v>10</v>
       </c>
       <c r="G210" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H210" s="6" t="s">
@@ -10741,16 +10159,13 @@
         <v>100014015</v>
       </c>
       <c r="B211" s="6">
-        <f t="shared" si="11"/>
-        <v>7835</v>
+        <v>3051</v>
       </c>
       <c r="C211" s="6">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>823</v>
       </c>
       <c r="D211" s="6">
-        <f t="shared" si="13"/>
-        <v>1065</v>
+        <v>614</v>
       </c>
       <c r="E211" s="6">
         <v>1</v>
@@ -10759,7 +10174,7 @@
         <v>10</v>
       </c>
       <c r="G211" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H211" s="6" t="s">
@@ -10786,16 +10201,13 @@
         <v>100015001</v>
       </c>
       <c r="B212" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3066</v>
       </c>
       <c r="C212" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>827</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>617</v>
       </c>
       <c r="E212" s="5">
         <v>1</v>
@@ -10804,7 +10216,7 @@
         <v>10</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H212" s="5" t="s">
@@ -10831,16 +10243,13 @@
         <v>100015002</v>
       </c>
       <c r="B213" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3081</v>
       </c>
       <c r="C213" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>831</v>
       </c>
       <c r="D213" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>620</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -10849,7 +10258,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H213" s="5" t="s">
@@ -10876,16 +10285,13 @@
         <v>100015003</v>
       </c>
       <c r="B214" s="5">
-        <f t="shared" si="11"/>
-        <v>11753</v>
+        <v>3096</v>
       </c>
       <c r="C214" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>835</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" si="13"/>
-        <v>1598</v>
+        <v>623</v>
       </c>
       <c r="E214" s="5">
         <v>1</v>
@@ -10894,7 +10300,7 @@
         <v>10</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H214" s="5" t="s">
@@ -10921,16 +10327,13 @@
         <v>100015004</v>
       </c>
       <c r="B215" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3111</v>
       </c>
       <c r="C215" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>839</v>
       </c>
       <c r="D215" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>626</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -10939,7 +10342,7 @@
         <v>10</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H215" s="5" t="s">
@@ -10966,16 +10369,13 @@
         <v>100015005</v>
       </c>
       <c r="B216" s="5">
-        <f t="shared" si="11"/>
-        <v>35064</v>
+        <v>3126</v>
       </c>
       <c r="C216" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>843</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" si="13"/>
-        <v>4617</v>
+        <v>629</v>
       </c>
       <c r="E216" s="5">
         <v>1</v>
@@ -10984,7 +10384,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H216" s="5" t="s">
@@ -11011,16 +10411,13 @@
         <v>100015006</v>
       </c>
       <c r="B217" s="5">
-        <f t="shared" si="11"/>
-        <v>11753</v>
+        <v>3141</v>
       </c>
       <c r="C217" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>847</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" si="13"/>
-        <v>1598</v>
+        <v>632</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
@@ -11029,7 +10426,7 @@
         <v>10</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H217" s="5" t="s">
@@ -11056,16 +10453,13 @@
         <v>100015007</v>
       </c>
       <c r="B218" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3156</v>
       </c>
       <c r="C218" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>851</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>635</v>
       </c>
       <c r="E218" s="5">
         <v>1</v>
@@ -11074,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H218" s="5" t="s">
@@ -11101,16 +10495,13 @@
         <v>100015008</v>
       </c>
       <c r="B219" s="5">
-        <f t="shared" si="11"/>
-        <v>35064</v>
+        <v>3171</v>
       </c>
       <c r="C219" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>855</v>
       </c>
       <c r="D219" s="5">
-        <f t="shared" si="13"/>
-        <v>4617</v>
+        <v>638</v>
       </c>
       <c r="E219" s="5">
         <v>1</v>
@@ -11119,7 +10510,7 @@
         <v>10</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H219" s="5" t="s">
@@ -11146,16 +10537,13 @@
         <v>100015009</v>
       </c>
       <c r="B220" s="5">
-        <f t="shared" si="11"/>
-        <v>11753</v>
+        <v>3186</v>
       </c>
       <c r="C220" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>859</v>
       </c>
       <c r="D220" s="5">
-        <f t="shared" si="13"/>
-        <v>1598</v>
+        <v>641</v>
       </c>
       <c r="E220" s="5">
         <v>1</v>
@@ -11164,7 +10552,7 @@
         <v>10</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H220" s="5" t="s">
@@ -11191,16 +10579,13 @@
         <v>100015010</v>
       </c>
       <c r="B221" s="5">
-        <f t="shared" si="11"/>
-        <v>11753</v>
+        <v>3201</v>
       </c>
       <c r="C221" s="5">
-        <f t="shared" si="12"/>
-        <v>8856</v>
+        <v>863</v>
       </c>
       <c r="D221" s="5">
-        <f t="shared" si="13"/>
-        <v>1598</v>
+        <v>644</v>
       </c>
       <c r="E221" s="5">
         <v>1</v>
@@ -11209,7 +10594,7 @@
         <v>10</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H221" s="5" t="s">
@@ -11236,16 +10621,13 @@
         <v>100015011</v>
       </c>
       <c r="B222" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3216</v>
       </c>
       <c r="C222" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>867</v>
       </c>
       <c r="D222" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>647</v>
       </c>
       <c r="E222" s="5">
         <v>1</v>
@@ -11254,7 +10636,7 @@
         <v>10</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H222" s="5" t="s">
@@ -11281,16 +10663,13 @@
         <v>100015012</v>
       </c>
       <c r="B223" s="5">
-        <f t="shared" si="11"/>
-        <v>23376</v>
+        <v>3231</v>
       </c>
       <c r="C223" s="5">
-        <f t="shared" si="12"/>
-        <v>5904</v>
+        <v>871</v>
       </c>
       <c r="D223" s="5">
-        <f t="shared" si="13"/>
-        <v>3078</v>
+        <v>650</v>
       </c>
       <c r="E223" s="5">
         <v>1</v>
@@ -11299,7 +10678,7 @@
         <v>10</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H223" s="5" t="s">
@@ -11326,16 +10705,13 @@
         <v>100015013</v>
       </c>
       <c r="B224" s="5">
-        <f t="shared" ref="B224:B287" si="15">ROUND(B209+(B209/2),0)</f>
-        <v>35064</v>
+        <v>3246</v>
       </c>
       <c r="C224" s="5">
-        <f t="shared" ref="C224:C287" si="16">ROUND(C209+(C209/2),0)</f>
-        <v>8856</v>
+        <v>875</v>
       </c>
       <c r="D224" s="5">
-        <f t="shared" ref="D224:D287" si="17">ROUND(D209+(D209/2),0)</f>
-        <v>4617</v>
+        <v>653</v>
       </c>
       <c r="E224" s="5">
         <v>1</v>
@@ -11344,7 +10720,7 @@
         <v>10</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H224" s="5" t="s">
@@ -11371,16 +10747,13 @@
         <v>100015014</v>
       </c>
       <c r="B225" s="5">
-        <f t="shared" si="15"/>
-        <v>11753</v>
+        <v>3261</v>
       </c>
       <c r="C225" s="5">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>879</v>
       </c>
       <c r="D225" s="5">
-        <f t="shared" si="17"/>
-        <v>1598</v>
+        <v>656</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -11389,7 +10762,7 @@
         <v>10</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H225" s="5" t="s">
@@ -11416,16 +10789,13 @@
         <v>100015015</v>
       </c>
       <c r="B226" s="5">
-        <f t="shared" si="15"/>
-        <v>11753</v>
+        <v>3276</v>
       </c>
       <c r="C226" s="5">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>883</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" si="17"/>
-        <v>1598</v>
+        <v>659</v>
       </c>
       <c r="E226" s="5">
         <v>1</v>
@@ -11434,7 +10804,7 @@
         <v>10</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H226" s="5" t="s">
@@ -11461,16 +10831,13 @@
         <v>100016001</v>
       </c>
       <c r="B227" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3291</v>
       </c>
       <c r="C227" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>887</v>
       </c>
       <c r="D227" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>662</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
@@ -11479,7 +10846,7 @@
         <v>10</v>
       </c>
       <c r="G227" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H227" s="6" t="s">
@@ -11506,16 +10873,13 @@
         <v>100016002</v>
       </c>
       <c r="B228" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3306</v>
       </c>
       <c r="C228" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>891</v>
       </c>
       <c r="D228" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>665</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
@@ -11524,7 +10888,7 @@
         <v>10</v>
       </c>
       <c r="G228" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H228" s="6" t="s">
@@ -11551,16 +10915,13 @@
         <v>100016003</v>
       </c>
       <c r="B229" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3321</v>
       </c>
       <c r="C229" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>895</v>
       </c>
       <c r="D229" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>668</v>
       </c>
       <c r="E229" s="6">
         <v>1</v>
@@ -11569,7 +10930,7 @@
         <v>10</v>
       </c>
       <c r="G229" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H229" s="6" t="s">
@@ -11596,16 +10957,13 @@
         <v>100016004</v>
       </c>
       <c r="B230" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3336</v>
       </c>
       <c r="C230" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>899</v>
       </c>
       <c r="D230" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>671</v>
       </c>
       <c r="E230" s="6">
         <v>1</v>
@@ -11614,7 +10972,7 @@
         <v>10</v>
       </c>
       <c r="G230" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H230" s="6" t="s">
@@ -11641,16 +10999,13 @@
         <v>100016005</v>
       </c>
       <c r="B231" s="6">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3351</v>
       </c>
       <c r="C231" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>903</v>
       </c>
       <c r="D231" s="6">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>674</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
@@ -11659,7 +11014,7 @@
         <v>10</v>
       </c>
       <c r="G231" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H231" s="6" t="s">
@@ -11686,16 +11041,13 @@
         <v>100016006</v>
       </c>
       <c r="B232" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3366</v>
       </c>
       <c r="C232" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>907</v>
       </c>
       <c r="D232" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>677</v>
       </c>
       <c r="E232" s="6">
         <v>1</v>
@@ -11704,7 +11056,7 @@
         <v>10</v>
       </c>
       <c r="G232" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H232" s="6" t="s">
@@ -11731,16 +11083,13 @@
         <v>100016007</v>
       </c>
       <c r="B233" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3381</v>
       </c>
       <c r="C233" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>911</v>
       </c>
       <c r="D233" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>680</v>
       </c>
       <c r="E233" s="6">
         <v>1</v>
@@ -11749,7 +11098,7 @@
         <v>10</v>
       </c>
       <c r="G233" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H233" s="6" t="s">
@@ -11776,16 +11125,13 @@
         <v>100016008</v>
       </c>
       <c r="B234" s="6">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3396</v>
       </c>
       <c r="C234" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>915</v>
       </c>
       <c r="D234" s="6">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>683</v>
       </c>
       <c r="E234" s="6">
         <v>1</v>
@@ -11794,7 +11140,7 @@
         <v>10</v>
       </c>
       <c r="G234" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H234" s="6" t="s">
@@ -11821,16 +11167,13 @@
         <v>100016009</v>
       </c>
       <c r="B235" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3411</v>
       </c>
       <c r="C235" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>919</v>
       </c>
       <c r="D235" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>686</v>
       </c>
       <c r="E235" s="6">
         <v>1</v>
@@ -11839,7 +11182,7 @@
         <v>10</v>
       </c>
       <c r="G235" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H235" s="6" t="s">
@@ -11866,16 +11209,13 @@
         <v>100016010</v>
       </c>
       <c r="B236" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3426</v>
       </c>
       <c r="C236" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>923</v>
       </c>
       <c r="D236" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>689</v>
       </c>
       <c r="E236" s="6">
         <v>1</v>
@@ -11884,7 +11224,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H236" s="6" t="s">
@@ -11911,16 +11251,13 @@
         <v>100016011</v>
       </c>
       <c r="B237" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3441</v>
       </c>
       <c r="C237" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>927</v>
       </c>
       <c r="D237" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>692</v>
       </c>
       <c r="E237" s="6">
         <v>1</v>
@@ -11929,7 +11266,7 @@
         <v>10</v>
       </c>
       <c r="G237" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H237" s="6" t="s">
@@ -11956,16 +11293,13 @@
         <v>100016012</v>
       </c>
       <c r="B238" s="6">
-        <f t="shared" si="15"/>
-        <v>35064</v>
+        <v>3456</v>
       </c>
       <c r="C238" s="6">
-        <f t="shared" si="16"/>
-        <v>8856</v>
+        <v>931</v>
       </c>
       <c r="D238" s="6">
-        <f t="shared" si="17"/>
-        <v>4617</v>
+        <v>695</v>
       </c>
       <c r="E238" s="6">
         <v>1</v>
@@ -11974,7 +11308,7 @@
         <v>10</v>
       </c>
       <c r="G238" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H238" s="6" t="s">
@@ -12001,16 +11335,13 @@
         <v>100016013</v>
       </c>
       <c r="B239" s="6">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3471</v>
       </c>
       <c r="C239" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>935</v>
       </c>
       <c r="D239" s="6">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>698</v>
       </c>
       <c r="E239" s="6">
         <v>1</v>
@@ -12019,7 +11350,7 @@
         <v>10</v>
       </c>
       <c r="G239" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H239" s="6" t="s">
@@ -12046,16 +11377,13 @@
         <v>100016014</v>
       </c>
       <c r="B240" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3486</v>
       </c>
       <c r="C240" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>939</v>
       </c>
       <c r="D240" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>701</v>
       </c>
       <c r="E240" s="6">
         <v>1</v>
@@ -12064,7 +11392,7 @@
         <v>10</v>
       </c>
       <c r="G240" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H240" s="6" t="s">
@@ -12091,16 +11419,13 @@
         <v>100016015</v>
       </c>
       <c r="B241" s="6">
-        <f t="shared" si="15"/>
-        <v>17630</v>
+        <v>3501</v>
       </c>
       <c r="C241" s="6">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>943</v>
       </c>
       <c r="D241" s="6">
-        <f t="shared" si="17"/>
-        <v>2397</v>
+        <v>704</v>
       </c>
       <c r="E241" s="6">
         <v>1</v>
@@ -12109,7 +11434,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H241" s="6" t="s">
@@ -12136,16 +11461,13 @@
         <v>100017001</v>
       </c>
       <c r="B242" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3516</v>
       </c>
       <c r="C242" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>947</v>
       </c>
       <c r="D242" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>707</v>
       </c>
       <c r="E242" s="5">
         <v>1</v>
@@ -12154,7 +11476,7 @@
         <v>10</v>
       </c>
       <c r="G242" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H242" s="5" t="s">
@@ -12181,16 +11503,13 @@
         <v>100017002</v>
       </c>
       <c r="B243" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3531</v>
       </c>
       <c r="C243" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>951</v>
       </c>
       <c r="D243" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>710</v>
       </c>
       <c r="E243" s="5">
         <v>1</v>
@@ -12199,7 +11518,7 @@
         <v>10</v>
       </c>
       <c r="G243" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H243" s="5" t="s">
@@ -12226,16 +11545,13 @@
         <v>100017003</v>
       </c>
       <c r="B244" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3546</v>
       </c>
       <c r="C244" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>955</v>
       </c>
       <c r="D244" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>713</v>
       </c>
       <c r="E244" s="5">
         <v>1</v>
@@ -12244,7 +11560,7 @@
         <v>10</v>
       </c>
       <c r="G244" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H244" s="5" t="s">
@@ -12271,16 +11587,13 @@
         <v>100017004</v>
       </c>
       <c r="B245" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3561</v>
       </c>
       <c r="C245" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>959</v>
       </c>
       <c r="D245" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>716</v>
       </c>
       <c r="E245" s="5">
         <v>1</v>
@@ -12289,7 +11602,7 @@
         <v>10</v>
       </c>
       <c r="G245" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H245" s="5" t="s">
@@ -12316,16 +11629,13 @@
         <v>100017005</v>
       </c>
       <c r="B246" s="5">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3576</v>
       </c>
       <c r="C246" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>963</v>
       </c>
       <c r="D246" s="5">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>719</v>
       </c>
       <c r="E246" s="5">
         <v>1</v>
@@ -12334,7 +11644,7 @@
         <v>10</v>
       </c>
       <c r="G246" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H246" s="5" t="s">
@@ -12361,16 +11671,13 @@
         <v>100017006</v>
       </c>
       <c r="B247" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3591</v>
       </c>
       <c r="C247" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>967</v>
       </c>
       <c r="D247" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>722</v>
       </c>
       <c r="E247" s="5">
         <v>1</v>
@@ -12379,7 +11686,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H247" s="5" t="s">
@@ -12406,16 +11713,13 @@
         <v>100017007</v>
       </c>
       <c r="B248" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3606</v>
       </c>
       <c r="C248" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>971</v>
       </c>
       <c r="D248" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>725</v>
       </c>
       <c r="E248" s="5">
         <v>1</v>
@@ -12424,7 +11728,7 @@
         <v>10</v>
       </c>
       <c r="G248" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H248" s="5" t="s">
@@ -12451,16 +11755,13 @@
         <v>100017008</v>
       </c>
       <c r="B249" s="5">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3621</v>
       </c>
       <c r="C249" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>975</v>
       </c>
       <c r="D249" s="5">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>728</v>
       </c>
       <c r="E249" s="5">
         <v>1</v>
@@ -12469,7 +11770,7 @@
         <v>10</v>
       </c>
       <c r="G249" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H249" s="5" t="s">
@@ -12496,16 +11797,13 @@
         <v>100017009</v>
       </c>
       <c r="B250" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3636</v>
       </c>
       <c r="C250" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>979</v>
       </c>
       <c r="D250" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>731</v>
       </c>
       <c r="E250" s="5">
         <v>1</v>
@@ -12514,7 +11812,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H250" s="5" t="s">
@@ -12541,16 +11839,13 @@
         <v>100017010</v>
       </c>
       <c r="B251" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3651</v>
       </c>
       <c r="C251" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>983</v>
       </c>
       <c r="D251" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>734</v>
       </c>
       <c r="E251" s="5">
         <v>1</v>
@@ -12559,7 +11854,7 @@
         <v>10</v>
       </c>
       <c r="G251" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H251" s="5" t="s">
@@ -12586,16 +11881,13 @@
         <v>100017011</v>
       </c>
       <c r="B252" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3666</v>
       </c>
       <c r="C252" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>987</v>
       </c>
       <c r="D252" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>737</v>
       </c>
       <c r="E252" s="5">
         <v>1</v>
@@ -12604,7 +11896,7 @@
         <v>10</v>
       </c>
       <c r="G252" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H252" s="5" t="s">
@@ -12631,16 +11923,13 @@
         <v>100017012</v>
       </c>
       <c r="B253" s="5">
-        <f t="shared" si="15"/>
-        <v>52596</v>
+        <v>3681</v>
       </c>
       <c r="C253" s="5">
-        <f t="shared" si="16"/>
-        <v>13284</v>
+        <v>991</v>
       </c>
       <c r="D253" s="5">
-        <f t="shared" si="17"/>
-        <v>6926</v>
+        <v>740</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
@@ -12649,7 +11938,7 @@
         <v>10</v>
       </c>
       <c r="G253" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H253" s="5" t="s">
@@ -12676,16 +11965,13 @@
         <v>100017013</v>
       </c>
       <c r="B254" s="5">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3696</v>
       </c>
       <c r="C254" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>995</v>
       </c>
       <c r="D254" s="5">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>743</v>
       </c>
       <c r="E254" s="5">
         <v>1</v>
@@ -12694,7 +11980,7 @@
         <v>10</v>
       </c>
       <c r="G254" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H254" s="5" t="s">
@@ -12721,16 +12007,13 @@
         <v>100017014</v>
       </c>
       <c r="B255" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3711</v>
       </c>
       <c r="C255" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>999</v>
       </c>
       <c r="D255" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>746</v>
       </c>
       <c r="E255" s="5">
         <v>1</v>
@@ -12739,7 +12022,7 @@
         <v>10</v>
       </c>
       <c r="G255" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H255" s="5" t="s">
@@ -12766,16 +12049,13 @@
         <v>100017015</v>
       </c>
       <c r="B256" s="5">
-        <f t="shared" si="15"/>
-        <v>26445</v>
+        <v>3726</v>
       </c>
       <c r="C256" s="5">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1003</v>
       </c>
       <c r="D256" s="5">
-        <f t="shared" si="17"/>
-        <v>3596</v>
+        <v>749</v>
       </c>
       <c r="E256" s="5">
         <v>1</v>
@@ -12784,7 +12064,7 @@
         <v>10</v>
       </c>
       <c r="G256" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="H256" s="5" t="s">
@@ -12811,16 +12091,13 @@
         <v>100018001</v>
       </c>
       <c r="B257" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3741</v>
       </c>
       <c r="C257" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1007</v>
       </c>
       <c r="D257" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>752</v>
       </c>
       <c r="E257" s="6">
         <v>1</v>
@@ -12829,7 +12106,7 @@
         <v>10</v>
       </c>
       <c r="G257" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H257" s="6" t="s">
@@ -12856,16 +12133,13 @@
         <v>100018002</v>
       </c>
       <c r="B258" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3756</v>
       </c>
       <c r="C258" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1011</v>
       </c>
       <c r="D258" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>755</v>
       </c>
       <c r="E258" s="6">
         <v>1</v>
@@ -12874,7 +12148,7 @@
         <v>10</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H258" s="6" t="s">
@@ -12901,16 +12175,13 @@
         <v>100018003</v>
       </c>
       <c r="B259" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3771</v>
       </c>
       <c r="C259" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1015</v>
       </c>
       <c r="D259" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>758</v>
       </c>
       <c r="E259" s="6">
         <v>1</v>
@@ -12919,7 +12190,7 @@
         <v>10</v>
       </c>
       <c r="G259" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H259" s="6" t="s">
@@ -12946,16 +12217,13 @@
         <v>100018004</v>
       </c>
       <c r="B260" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3786</v>
       </c>
       <c r="C260" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1019</v>
       </c>
       <c r="D260" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>761</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
@@ -12964,7 +12232,7 @@
         <v>10</v>
       </c>
       <c r="G260" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H260" s="6" t="s">
@@ -12991,16 +12259,13 @@
         <v>100018005</v>
       </c>
       <c r="B261" s="6">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>3801</v>
       </c>
       <c r="C261" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1023</v>
       </c>
       <c r="D261" s="6">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>764</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
@@ -13009,7 +12274,7 @@
         <v>10</v>
       </c>
       <c r="G261" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H261" s="6" t="s">
@@ -13036,16 +12301,13 @@
         <v>100018006</v>
       </c>
       <c r="B262" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3816</v>
       </c>
       <c r="C262" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1027</v>
       </c>
       <c r="D262" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>767</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
@@ -13054,7 +12316,7 @@
         <v>10</v>
       </c>
       <c r="G262" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H262" s="6" t="s">
@@ -13081,16 +12343,13 @@
         <v>100018007</v>
       </c>
       <c r="B263" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3831</v>
       </c>
       <c r="C263" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1031</v>
       </c>
       <c r="D263" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>770</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
@@ -13099,7 +12358,7 @@
         <v>10</v>
       </c>
       <c r="G263" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H263" s="6" t="s">
@@ -13126,16 +12385,13 @@
         <v>100018008</v>
       </c>
       <c r="B264" s="6">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>3846</v>
       </c>
       <c r="C264" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1035</v>
       </c>
       <c r="D264" s="6">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>773</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
@@ -13144,7 +12400,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H264" s="6" t="s">
@@ -13171,16 +12427,13 @@
         <v>100018009</v>
       </c>
       <c r="B265" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3861</v>
       </c>
       <c r="C265" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1039</v>
       </c>
       <c r="D265" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>776</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
@@ -13189,7 +12442,7 @@
         <v>10</v>
       </c>
       <c r="G265" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H265" s="6" t="s">
@@ -13216,16 +12469,13 @@
         <v>100018010</v>
       </c>
       <c r="B266" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3876</v>
       </c>
       <c r="C266" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1043</v>
       </c>
       <c r="D266" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>779</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
@@ -13234,7 +12484,7 @@
         <v>10</v>
       </c>
       <c r="G266" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H266" s="6" t="s">
@@ -13261,16 +12511,13 @@
         <v>100018011</v>
       </c>
       <c r="B267" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3891</v>
       </c>
       <c r="C267" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1047</v>
       </c>
       <c r="D267" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>782</v>
       </c>
       <c r="E267" s="6">
         <v>1</v>
@@ -13279,7 +12526,7 @@
         <v>10</v>
       </c>
       <c r="G267" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H267" s="6" t="s">
@@ -13306,16 +12553,13 @@
         <v>100018012</v>
       </c>
       <c r="B268" s="6">
-        <f t="shared" si="15"/>
-        <v>78894</v>
+        <v>3906</v>
       </c>
       <c r="C268" s="6">
-        <f t="shared" si="16"/>
-        <v>19926</v>
+        <v>1051</v>
       </c>
       <c r="D268" s="6">
-        <f t="shared" si="17"/>
-        <v>10389</v>
+        <v>785</v>
       </c>
       <c r="E268" s="6">
         <v>1</v>
@@ -13324,7 +12568,7 @@
         <v>10</v>
       </c>
       <c r="G268" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H268" s="6" t="s">
@@ -13351,16 +12595,13 @@
         <v>100018013</v>
       </c>
       <c r="B269" s="6">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>3921</v>
       </c>
       <c r="C269" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1055</v>
       </c>
       <c r="D269" s="6">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>788</v>
       </c>
       <c r="E269" s="6">
         <v>1</v>
@@ -13369,7 +12610,7 @@
         <v>10</v>
       </c>
       <c r="G269" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H269" s="6" t="s">
@@ -13396,16 +12637,13 @@
         <v>100018014</v>
       </c>
       <c r="B270" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3936</v>
       </c>
       <c r="C270" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1059</v>
       </c>
       <c r="D270" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>791</v>
       </c>
       <c r="E270" s="6">
         <v>1</v>
@@ -13414,7 +12652,7 @@
         <v>10</v>
       </c>
       <c r="G270" s="6">
-        <f t="shared" ref="G270:G316" si="18">G255+10</f>
+        <f t="shared" ref="G270:G316" si="3">G255+10</f>
         <v>180</v>
       </c>
       <c r="H270" s="6" t="s">
@@ -13441,16 +12679,13 @@
         <v>100018015</v>
       </c>
       <c r="B271" s="6">
-        <f t="shared" si="15"/>
-        <v>39668</v>
+        <v>3951</v>
       </c>
       <c r="C271" s="6">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1063</v>
       </c>
       <c r="D271" s="6">
-        <f t="shared" si="17"/>
-        <v>5394</v>
+        <v>794</v>
       </c>
       <c r="E271" s="6">
         <v>1</v>
@@ -13459,7 +12694,7 @@
         <v>10</v>
       </c>
       <c r="G271" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="H271" s="6" t="s">
@@ -13486,16 +12721,13 @@
         <v>100019001</v>
       </c>
       <c r="B272" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>3966</v>
       </c>
       <c r="C272" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1067</v>
       </c>
       <c r="D272" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>797</v>
       </c>
       <c r="E272" s="5">
         <v>1</v>
@@ -13504,7 +12736,7 @@
         <v>10</v>
       </c>
       <c r="G272" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H272" s="5" t="s">
@@ -13531,16 +12763,13 @@
         <v>100019002</v>
       </c>
       <c r="B273" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>3981</v>
       </c>
       <c r="C273" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1071</v>
       </c>
       <c r="D273" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>800</v>
       </c>
       <c r="E273" s="5">
         <v>1</v>
@@ -13549,7 +12778,7 @@
         <v>10</v>
       </c>
       <c r="G273" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H273" s="5" t="s">
@@ -13576,16 +12805,13 @@
         <v>100019003</v>
       </c>
       <c r="B274" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>3996</v>
       </c>
       <c r="C274" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1075</v>
       </c>
       <c r="D274" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>803</v>
       </c>
       <c r="E274" s="5">
         <v>1</v>
@@ -13594,7 +12820,7 @@
         <v>10</v>
       </c>
       <c r="G274" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H274" s="5" t="s">
@@ -13621,16 +12847,13 @@
         <v>100019004</v>
       </c>
       <c r="B275" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>4011</v>
       </c>
       <c r="C275" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1079</v>
       </c>
       <c r="D275" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>806</v>
       </c>
       <c r="E275" s="5">
         <v>1</v>
@@ -13639,7 +12862,7 @@
         <v>10</v>
       </c>
       <c r="G275" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H275" s="5" t="s">
@@ -13666,16 +12889,13 @@
         <v>100019005</v>
       </c>
       <c r="B276" s="5">
-        <f t="shared" si="15"/>
-        <v>177512</v>
+        <v>4026</v>
       </c>
       <c r="C276" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1083</v>
       </c>
       <c r="D276" s="5">
-        <f t="shared" si="17"/>
-        <v>23376</v>
+        <v>809</v>
       </c>
       <c r="E276" s="5">
         <v>1</v>
@@ -13684,7 +12904,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H276" s="5" t="s">
@@ -13711,16 +12931,13 @@
         <v>100019006</v>
       </c>
       <c r="B277" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>4041</v>
       </c>
       <c r="C277" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1087</v>
       </c>
       <c r="D277" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>812</v>
       </c>
       <c r="E277" s="5">
         <v>1</v>
@@ -13729,7 +12946,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H277" s="5" t="s">
@@ -13756,16 +12973,13 @@
         <v>100019007</v>
       </c>
       <c r="B278" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>4056</v>
       </c>
       <c r="C278" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1091</v>
       </c>
       <c r="D278" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>815</v>
       </c>
       <c r="E278" s="5">
         <v>1</v>
@@ -13774,7 +12988,7 @@
         <v>10</v>
       </c>
       <c r="G278" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H278" s="5" t="s">
@@ -13801,16 +13015,13 @@
         <v>100019008</v>
       </c>
       <c r="B279" s="5">
-        <f t="shared" si="15"/>
-        <v>177512</v>
+        <v>4071</v>
       </c>
       <c r="C279" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1095</v>
       </c>
       <c r="D279" s="5">
-        <f t="shared" si="17"/>
-        <v>23376</v>
+        <v>818</v>
       </c>
       <c r="E279" s="5">
         <v>1</v>
@@ -13819,7 +13030,7 @@
         <v>10</v>
       </c>
       <c r="G279" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H279" s="5" t="s">
@@ -13846,16 +13057,13 @@
         <v>100019009</v>
       </c>
       <c r="B280" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>4086</v>
       </c>
       <c r="C280" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1099</v>
       </c>
       <c r="D280" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>821</v>
       </c>
       <c r="E280" s="5">
         <v>1</v>
@@ -13864,7 +13072,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H280" s="5" t="s">
@@ -13891,16 +13099,13 @@
         <v>100019010</v>
       </c>
       <c r="B281" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>4101</v>
       </c>
       <c r="C281" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1103</v>
       </c>
       <c r="D281" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>824</v>
       </c>
       <c r="E281" s="5">
         <v>1</v>
@@ -13909,7 +13114,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H281" s="5" t="s">
@@ -13936,16 +13141,13 @@
         <v>100019011</v>
       </c>
       <c r="B282" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>4116</v>
       </c>
       <c r="C282" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1107</v>
       </c>
       <c r="D282" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>827</v>
       </c>
       <c r="E282" s="5">
         <v>1</v>
@@ -13954,7 +13156,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H282" s="5" t="s">
@@ -13981,16 +13183,13 @@
         <v>100019012</v>
       </c>
       <c r="B283" s="5">
-        <f t="shared" si="15"/>
-        <v>118341</v>
+        <v>4131</v>
       </c>
       <c r="C283" s="5">
-        <f t="shared" si="16"/>
-        <v>29889</v>
+        <v>1111</v>
       </c>
       <c r="D283" s="5">
-        <f t="shared" si="17"/>
-        <v>15584</v>
+        <v>830</v>
       </c>
       <c r="E283" s="5">
         <v>1</v>
@@ -13999,7 +13198,7 @@
         <v>10</v>
       </c>
       <c r="G283" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H283" s="5" t="s">
@@ -14026,16 +13225,13 @@
         <v>100019013</v>
       </c>
       <c r="B284" s="5">
-        <f t="shared" si="15"/>
-        <v>177512</v>
+        <v>4146</v>
       </c>
       <c r="C284" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1115</v>
       </c>
       <c r="D284" s="5">
-        <f t="shared" si="17"/>
-        <v>23376</v>
+        <v>833</v>
       </c>
       <c r="E284" s="5">
         <v>1</v>
@@ -14044,7 +13240,7 @@
         <v>10</v>
       </c>
       <c r="G284" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H284" s="5" t="s">
@@ -14071,16 +13267,13 @@
         <v>100019014</v>
       </c>
       <c r="B285" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>4161</v>
       </c>
       <c r="C285" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1119</v>
       </c>
       <c r="D285" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>836</v>
       </c>
       <c r="E285" s="5">
         <v>1</v>
@@ -14089,7 +13282,7 @@
         <v>10</v>
       </c>
       <c r="G285" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H285" s="5" t="s">
@@ -14116,16 +13309,13 @@
         <v>100019015</v>
       </c>
       <c r="B286" s="5">
-        <f t="shared" si="15"/>
-        <v>59502</v>
+        <v>4176</v>
       </c>
       <c r="C286" s="5">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1123</v>
       </c>
       <c r="D286" s="5">
-        <f t="shared" si="17"/>
-        <v>8091</v>
+        <v>839</v>
       </c>
       <c r="E286" s="5">
         <v>1</v>
@@ -14134,7 +13324,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="H286" s="5" t="s">
@@ -14161,16 +13351,13 @@
         <v>100020001</v>
       </c>
       <c r="B287" s="6">
-        <f t="shared" si="15"/>
-        <v>177512</v>
+        <v>4191</v>
       </c>
       <c r="C287" s="6">
-        <f t="shared" si="16"/>
-        <v>44834</v>
+        <v>1127</v>
       </c>
       <c r="D287" s="6">
-        <f t="shared" si="17"/>
-        <v>23376</v>
+        <v>842</v>
       </c>
       <c r="E287" s="6">
         <v>1</v>
@@ -14179,7 +13366,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H287" s="6" t="s">
@@ -14206,16 +13393,13 @@
         <v>100020002</v>
       </c>
       <c r="B288" s="6">
-        <f t="shared" ref="B288:B316" si="19">ROUND(B273+(B273/2),0)</f>
-        <v>177512</v>
+        <v>4206</v>
       </c>
       <c r="C288" s="6">
-        <f t="shared" ref="C288:C316" si="20">ROUND(C273+(C273/2),0)</f>
-        <v>44834</v>
+        <v>1131</v>
       </c>
       <c r="D288" s="6">
-        <f t="shared" ref="D288:D316" si="21">ROUND(D273+(D273/2),0)</f>
-        <v>23376</v>
+        <v>845</v>
       </c>
       <c r="E288" s="6">
         <v>1</v>
@@ -14224,7 +13408,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H288" s="6" t="s">
@@ -14251,16 +13435,13 @@
         <v>100020003</v>
       </c>
       <c r="B289" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4221</v>
       </c>
       <c r="C289" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1135</v>
       </c>
       <c r="D289" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>848</v>
       </c>
       <c r="E289" s="6">
         <v>1</v>
@@ -14269,7 +13450,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H289" s="6" t="s">
@@ -14296,16 +13477,13 @@
         <v>100020004</v>
       </c>
       <c r="B290" s="6">
-        <f t="shared" si="19"/>
-        <v>177512</v>
+        <v>4236</v>
       </c>
       <c r="C290" s="6">
-        <f t="shared" si="20"/>
-        <v>44834</v>
+        <v>1139</v>
       </c>
       <c r="D290" s="6">
-        <f t="shared" si="21"/>
-        <v>23376</v>
+        <v>851</v>
       </c>
       <c r="E290" s="6">
         <v>1</v>
@@ -14314,7 +13492,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H290" s="6" t="s">
@@ -14341,16 +13519,13 @@
         <v>100020005</v>
       </c>
       <c r="B291" s="6">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4251</v>
       </c>
       <c r="C291" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1143</v>
       </c>
       <c r="D291" s="6">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>854</v>
       </c>
       <c r="E291" s="6">
         <v>1</v>
@@ -14359,7 +13534,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H291" s="6" t="s">
@@ -14386,16 +13561,13 @@
         <v>100020006</v>
       </c>
       <c r="B292" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4266</v>
       </c>
       <c r="C292" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1147</v>
       </c>
       <c r="D292" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>857</v>
       </c>
       <c r="E292" s="6">
         <v>1</v>
@@ -14404,7 +13576,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H292" s="6" t="s">
@@ -14431,16 +13603,13 @@
         <v>100020007</v>
       </c>
       <c r="B293" s="6">
-        <f t="shared" si="19"/>
-        <v>177512</v>
+        <v>4281</v>
       </c>
       <c r="C293" s="6">
-        <f t="shared" si="20"/>
-        <v>44834</v>
+        <v>1151</v>
       </c>
       <c r="D293" s="6">
-        <f t="shared" si="21"/>
-        <v>23376</v>
+        <v>860</v>
       </c>
       <c r="E293" s="6">
         <v>1</v>
@@ -14449,7 +13618,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H293" s="6" t="s">
@@ -14476,16 +13645,13 @@
         <v>100020008</v>
       </c>
       <c r="B294" s="6">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4296</v>
       </c>
       <c r="C294" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1155</v>
       </c>
       <c r="D294" s="6">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>863</v>
       </c>
       <c r="E294" s="6">
         <v>1</v>
@@ -14494,7 +13660,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H294" s="6" t="s">
@@ -14521,16 +13687,13 @@
         <v>100020009</v>
       </c>
       <c r="B295" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4311</v>
       </c>
       <c r="C295" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1159</v>
       </c>
       <c r="D295" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>866</v>
       </c>
       <c r="E295" s="6">
         <v>1</v>
@@ -14539,7 +13702,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H295" s="6" t="s">
@@ -14566,16 +13729,13 @@
         <v>100020010</v>
       </c>
       <c r="B296" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4326</v>
       </c>
       <c r="C296" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1163</v>
       </c>
       <c r="D296" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>869</v>
       </c>
       <c r="E296" s="6">
         <v>1</v>
@@ -14584,7 +13744,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H296" s="6" t="s">
@@ -14611,16 +13771,13 @@
         <v>100020011</v>
       </c>
       <c r="B297" s="6">
-        <f t="shared" si="19"/>
-        <v>177512</v>
+        <v>4341</v>
       </c>
       <c r="C297" s="6">
-        <f t="shared" si="20"/>
-        <v>44834</v>
+        <v>1167</v>
       </c>
       <c r="D297" s="6">
-        <f t="shared" si="21"/>
-        <v>23376</v>
+        <v>872</v>
       </c>
       <c r="E297" s="6">
         <v>1</v>
@@ -14629,7 +13786,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H297" s="6" t="s">
@@ -14656,16 +13813,13 @@
         <v>100020012</v>
       </c>
       <c r="B298" s="6">
-        <f t="shared" si="19"/>
-        <v>177512</v>
+        <v>4356</v>
       </c>
       <c r="C298" s="6">
-        <f t="shared" si="20"/>
-        <v>44834</v>
+        <v>1171</v>
       </c>
       <c r="D298" s="6">
-        <f t="shared" si="21"/>
-        <v>23376</v>
+        <v>875</v>
       </c>
       <c r="E298" s="6">
         <v>1</v>
@@ -14674,7 +13828,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H298" s="6" t="s">
@@ -14701,16 +13855,13 @@
         <v>100020013</v>
       </c>
       <c r="B299" s="6">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4371</v>
       </c>
       <c r="C299" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1175</v>
       </c>
       <c r="D299" s="6">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>878</v>
       </c>
       <c r="E299" s="6">
         <v>1</v>
@@ -14719,7 +13870,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H299" s="6" t="s">
@@ -14746,16 +13897,13 @@
         <v>100020014</v>
       </c>
       <c r="B300" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4386</v>
       </c>
       <c r="C300" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1179</v>
       </c>
       <c r="D300" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>881</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
@@ -14764,7 +13912,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H300" s="6" t="s">
@@ -14791,16 +13939,13 @@
         <v>100020015</v>
       </c>
       <c r="B301" s="6">
-        <f t="shared" si="19"/>
-        <v>89253</v>
+        <v>4401</v>
       </c>
       <c r="C301" s="6">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1183</v>
       </c>
       <c r="D301" s="6">
-        <f t="shared" si="21"/>
-        <v>12137</v>
+        <v>884</v>
       </c>
       <c r="E301" s="6">
         <v>1</v>
@@ -14809,7 +13954,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="H301" s="6" t="s">
@@ -14836,16 +13981,13 @@
         <v>100021001</v>
       </c>
       <c r="B302" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4416</v>
       </c>
       <c r="C302" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1187</v>
       </c>
       <c r="D302" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>887</v>
       </c>
       <c r="E302" s="5">
         <v>1</v>
@@ -14854,7 +13996,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H302" s="5" t="s">
@@ -14881,16 +14023,13 @@
         <v>100021002</v>
       </c>
       <c r="B303" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4431</v>
       </c>
       <c r="C303" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1191</v>
       </c>
       <c r="D303" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>890</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -14899,7 +14038,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H303" s="5" t="s">
@@ -14926,16 +14065,13 @@
         <v>100021003</v>
       </c>
       <c r="B304" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4446</v>
       </c>
       <c r="C304" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1195</v>
       </c>
       <c r="D304" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>893</v>
       </c>
       <c r="E304" s="5">
         <v>1</v>
@@ -14944,7 +14080,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H304" s="5" t="s">
@@ -14971,16 +14107,13 @@
         <v>100021004</v>
       </c>
       <c r="B305" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4461</v>
       </c>
       <c r="C305" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1199</v>
       </c>
       <c r="D305" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>896</v>
       </c>
       <c r="E305" s="5">
         <v>1</v>
@@ -14989,7 +14122,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H305" s="5" t="s">
@@ -15016,16 +14149,13 @@
         <v>100021005</v>
       </c>
       <c r="B306" s="5">
-        <f t="shared" si="19"/>
-        <v>399402</v>
+        <v>4476</v>
       </c>
       <c r="C306" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1203</v>
       </c>
       <c r="D306" s="5">
-        <f t="shared" si="21"/>
-        <v>52596</v>
+        <v>899</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -15034,7 +14164,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H306" s="5" t="s">
@@ -15061,16 +14191,13 @@
         <v>100021006</v>
       </c>
       <c r="B307" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4491</v>
       </c>
       <c r="C307" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1207</v>
       </c>
       <c r="D307" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>902</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -15079,7 +14206,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H307" s="5" t="s">
@@ -15106,16 +14233,13 @@
         <v>100021007</v>
       </c>
       <c r="B308" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4506</v>
       </c>
       <c r="C308" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1211</v>
       </c>
       <c r="D308" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>905</v>
       </c>
       <c r="E308" s="5">
         <v>1</v>
@@ -15124,7 +14248,7 @@
         <v>10</v>
       </c>
       <c r="G308" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H308" s="5" t="s">
@@ -15151,16 +14275,13 @@
         <v>100021008</v>
       </c>
       <c r="B309" s="5">
-        <f t="shared" si="19"/>
-        <v>399402</v>
+        <v>4521</v>
       </c>
       <c r="C309" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1215</v>
       </c>
       <c r="D309" s="5">
-        <f t="shared" si="21"/>
-        <v>52596</v>
+        <v>908</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -15169,7 +14290,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H309" s="5" t="s">
@@ -15196,16 +14317,13 @@
         <v>100021009</v>
       </c>
       <c r="B310" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4536</v>
       </c>
       <c r="C310" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1219</v>
       </c>
       <c r="D310" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>911</v>
       </c>
       <c r="E310" s="5">
         <v>1</v>
@@ -15214,7 +14332,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H310" s="5" t="s">
@@ -15241,16 +14359,13 @@
         <v>100021010</v>
       </c>
       <c r="B311" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4551</v>
       </c>
       <c r="C311" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1223</v>
       </c>
       <c r="D311" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>914</v>
       </c>
       <c r="E311" s="5">
         <v>1</v>
@@ -15259,7 +14374,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H311" s="5" t="s">
@@ -15286,16 +14401,13 @@
         <v>100021011</v>
       </c>
       <c r="B312" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4566</v>
       </c>
       <c r="C312" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1227</v>
       </c>
       <c r="D312" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>917</v>
       </c>
       <c r="E312" s="5">
         <v>1</v>
@@ -15304,7 +14416,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H312" s="5" t="s">
@@ -15331,16 +14443,13 @@
         <v>100021012</v>
       </c>
       <c r="B313" s="5">
-        <f t="shared" si="19"/>
-        <v>266268</v>
+        <v>4581</v>
       </c>
       <c r="C313" s="5">
-        <f t="shared" si="20"/>
-        <v>67251</v>
+        <v>1231</v>
       </c>
       <c r="D313" s="5">
-        <f t="shared" si="21"/>
-        <v>35064</v>
+        <v>920</v>
       </c>
       <c r="E313" s="5">
         <v>1</v>
@@ -15349,7 +14458,7 @@
         <v>10</v>
       </c>
       <c r="G313" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H313" s="5" t="s">
@@ -15376,16 +14485,13 @@
         <v>100021013</v>
       </c>
       <c r="B314" s="5">
-        <f t="shared" si="19"/>
-        <v>399402</v>
+        <v>4596</v>
       </c>
       <c r="C314" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1235</v>
       </c>
       <c r="D314" s="5">
-        <f t="shared" si="21"/>
-        <v>52596</v>
+        <v>923</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -15394,7 +14500,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H314" s="5" t="s">
@@ -15421,16 +14527,13 @@
         <v>100021014</v>
       </c>
       <c r="B315" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4611</v>
       </c>
       <c r="C315" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1239</v>
       </c>
       <c r="D315" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>926</v>
       </c>
       <c r="E315" s="5">
         <v>1</v>
@@ -15439,7 +14542,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H315" s="5" t="s">
@@ -15466,16 +14569,13 @@
         <v>100021015</v>
       </c>
       <c r="B316" s="5">
-        <f t="shared" si="19"/>
-        <v>133880</v>
+        <v>4626</v>
       </c>
       <c r="C316" s="5">
-        <f t="shared" si="20"/>
-        <v>100877</v>
+        <v>1243</v>
       </c>
       <c r="D316" s="5">
-        <f t="shared" si="21"/>
-        <v>18206</v>
+        <v>929</v>
       </c>
       <c r="E316" s="5">
         <v>1</v>
@@ -15484,7 +14584,7 @@
         <v>10</v>
       </c>
       <c r="G316" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="H316" s="5" t="s">
@@ -15511,13 +14611,16 @@
         <v>20001001</v>
       </c>
       <c r="B317" s="9">
-        <v>200</v>
+        <f>ROUND(B16*1.5,0)</f>
+        <v>219</v>
       </c>
       <c r="C317" s="9">
+        <f>ROUND(C16*1.5,0)</f>
+        <v>71</v>
+      </c>
+      <c r="D317" s="9">
+        <f>ROUND(D16*1.5,0)</f>
         <v>50</v>
-      </c>
-      <c r="D317" s="9">
-        <v>25</v>
       </c>
       <c r="E317" s="9">
         <v>1</v>
@@ -15552,13 +14655,16 @@
         <v>20002001</v>
       </c>
       <c r="B318" s="9">
-        <v>300</v>
+        <f>ROUND(B31*1.5,0)</f>
+        <v>527</v>
       </c>
       <c r="C318" s="9">
-        <v>75</v>
+        <f>ROUND(C31*1.5,0)</f>
+        <v>155</v>
       </c>
       <c r="D318" s="9">
-        <v>38</v>
+        <f>ROUND(D31*1.5,0)</f>
+        <v>111</v>
       </c>
       <c r="E318" s="9">
         <v>1</v>
@@ -15592,14 +14698,17 @@
       <c r="A319" s="8">
         <v>20003001</v>
       </c>
-      <c r="B319" s="8">
-        <v>450</v>
-      </c>
-      <c r="C319" s="8">
-        <v>113</v>
-      </c>
-      <c r="D319" s="8">
-        <v>58</v>
+      <c r="B319" s="9">
+        <f>ROUND(B46*1.5,0)</f>
+        <v>864</v>
+      </c>
+      <c r="C319" s="9">
+        <f>ROUND(C46*1.5,0)</f>
+        <v>245</v>
+      </c>
+      <c r="D319" s="9">
+        <f>ROUND(D46*1.5,0)</f>
+        <v>179</v>
       </c>
       <c r="E319" s="9">
         <v>1</v>
@@ -15633,14 +14742,17 @@
       <c r="A320" s="8">
         <v>20004001</v>
       </c>
-      <c r="B320" s="8">
-        <v>675</v>
-      </c>
-      <c r="C320" s="8">
-        <v>170</v>
-      </c>
-      <c r="D320" s="8">
-        <v>88</v>
+      <c r="B320" s="9">
+        <f>ROUND(B61*1.5,0)</f>
+        <v>1202</v>
+      </c>
+      <c r="C320" s="9">
+        <f>ROUND(C61*1.5,0)</f>
+        <v>335</v>
+      </c>
+      <c r="D320" s="9">
+        <f>ROUND(D61*1.5,0)</f>
+        <v>246</v>
       </c>
       <c r="E320" s="9">
         <v>1</v>
@@ -15674,14 +14786,17 @@
       <c r="A321" s="8">
         <v>20005001</v>
       </c>
-      <c r="B321" s="8">
-        <v>1013</v>
-      </c>
-      <c r="C321" s="8">
-        <v>255</v>
-      </c>
-      <c r="D321" s="8">
-        <v>133</v>
+      <c r="B321" s="9">
+        <f>ROUND(B76*1.5,0)</f>
+        <v>1539</v>
+      </c>
+      <c r="C321" s="9">
+        <f>ROUND(C76*1.5,0)</f>
+        <v>425</v>
+      </c>
+      <c r="D321" s="9">
+        <f>ROUND(D76*1.5,0)</f>
+        <v>314</v>
       </c>
       <c r="E321" s="9">
         <v>1</v>
@@ -15715,14 +14830,17 @@
       <c r="A322" s="8">
         <v>20006001</v>
       </c>
-      <c r="B322" s="8">
-        <v>1520</v>
-      </c>
-      <c r="C322" s="8">
-        <v>383</v>
-      </c>
-      <c r="D322" s="8">
-        <v>200</v>
+      <c r="B322" s="9">
+        <f>ROUND(B91*1.5,0)</f>
+        <v>1877</v>
+      </c>
+      <c r="C322" s="9">
+        <f>ROUND(C91*1.5,0)</f>
+        <v>515</v>
+      </c>
+      <c r="D322" s="9">
+        <f>ROUND(D91*1.5,0)</f>
+        <v>381</v>
       </c>
       <c r="E322" s="9">
         <v>1</v>
@@ -15756,14 +14874,17 @@
       <c r="A323" s="8">
         <v>20007001</v>
       </c>
-      <c r="B323" s="8">
-        <v>2280</v>
-      </c>
-      <c r="C323" s="8">
-        <v>575</v>
-      </c>
-      <c r="D323" s="8">
-        <v>300</v>
+      <c r="B323" s="9">
+        <f>ROUND(B106*1.5,0)</f>
+        <v>2214</v>
+      </c>
+      <c r="C323" s="9">
+        <f>ROUND(C106*1.5,0)</f>
+        <v>605</v>
+      </c>
+      <c r="D323" s="9">
+        <f>ROUND(D106*1.5,0)</f>
+        <v>449</v>
       </c>
       <c r="E323" s="9">
         <v>1</v>
@@ -15797,14 +14918,17 @@
       <c r="A324" s="8">
         <v>20008001</v>
       </c>
-      <c r="B324" s="8">
-        <v>3420</v>
-      </c>
-      <c r="C324" s="8">
-        <v>863</v>
-      </c>
-      <c r="D324" s="8">
-        <v>450</v>
+      <c r="B324" s="9">
+        <f>ROUND(B121*1.5,0)</f>
+        <v>2552</v>
+      </c>
+      <c r="C324" s="9">
+        <f>ROUND(C121*1.5,0)</f>
+        <v>695</v>
+      </c>
+      <c r="D324" s="9">
+        <f>ROUND(D121*1.5,0)</f>
+        <v>516</v>
       </c>
       <c r="E324" s="9">
         <v>1</v>
@@ -15838,14 +14962,17 @@
       <c r="A325" s="8">
         <v>20009001</v>
       </c>
-      <c r="B325" s="8">
-        <v>5130</v>
-      </c>
-      <c r="C325" s="8">
-        <v>1295</v>
-      </c>
-      <c r="D325" s="8">
-        <v>675</v>
+      <c r="B325" s="9">
+        <f>ROUND(B136*1.5,0)</f>
+        <v>2889</v>
+      </c>
+      <c r="C325" s="9">
+        <f>ROUND(C136*1.5,0)</f>
+        <v>785</v>
+      </c>
+      <c r="D325" s="9">
+        <f>ROUND(D136*1.5,0)</f>
+        <v>584</v>
       </c>
       <c r="E325" s="9">
         <v>1</v>
@@ -15879,14 +15006,17 @@
       <c r="A326" s="8">
         <v>20010001</v>
       </c>
-      <c r="B326" s="8">
-        <v>7695</v>
-      </c>
-      <c r="C326" s="8">
-        <v>1943</v>
-      </c>
-      <c r="D326" s="8">
-        <v>1013</v>
+      <c r="B326" s="9">
+        <f>ROUND(B151*1.5,0)</f>
+        <v>3227</v>
+      </c>
+      <c r="C326" s="9">
+        <f>ROUND(C151*1.5,0)</f>
+        <v>875</v>
+      </c>
+      <c r="D326" s="9">
+        <f>ROUND(D151*1.5,0)</f>
+        <v>651</v>
       </c>
       <c r="E326" s="9">
         <v>1</v>
@@ -15920,14 +15050,17 @@
       <c r="A327" s="8">
         <v>20011001</v>
       </c>
-      <c r="B327" s="8">
-        <v>11543</v>
-      </c>
-      <c r="C327" s="8">
-        <v>2915</v>
-      </c>
-      <c r="D327" s="8">
-        <v>1520</v>
+      <c r="B327" s="9">
+        <f>ROUND(B166*1.5,0)</f>
+        <v>3564</v>
+      </c>
+      <c r="C327" s="9">
+        <f>ROUND(C166*1.5,0)</f>
+        <v>965</v>
+      </c>
+      <c r="D327" s="9">
+        <f>ROUND(D166*1.5,0)</f>
+        <v>719</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -15961,14 +15094,17 @@
       <c r="A328" s="8">
         <v>20012001</v>
       </c>
-      <c r="B328" s="8">
-        <v>17315</v>
-      </c>
-      <c r="C328" s="8">
-        <v>4373</v>
-      </c>
-      <c r="D328" s="8">
-        <v>2280</v>
+      <c r="B328" s="9">
+        <f>ROUND(B181*1.5,0)</f>
+        <v>3902</v>
+      </c>
+      <c r="C328" s="9">
+        <f>ROUND(C181*1.5,0)</f>
+        <v>1055</v>
+      </c>
+      <c r="D328" s="9">
+        <f>ROUND(D181*1.5,0)</f>
+        <v>786</v>
       </c>
       <c r="E328" s="9">
         <v>1</v>
@@ -16002,14 +15138,17 @@
       <c r="A329" s="8">
         <v>20013001</v>
       </c>
-      <c r="B329" s="8">
-        <v>25973</v>
-      </c>
-      <c r="C329" s="8">
-        <v>6560</v>
-      </c>
-      <c r="D329" s="8">
-        <v>3420</v>
+      <c r="B329" s="9">
+        <f>ROUND(B196*1.5,0)</f>
+        <v>4239</v>
+      </c>
+      <c r="C329" s="9">
+        <f>ROUND(C196*1.5,0)</f>
+        <v>1145</v>
+      </c>
+      <c r="D329" s="9">
+        <f>ROUND(D196*1.5,0)</f>
+        <v>854</v>
       </c>
       <c r="E329" s="9">
         <v>1</v>
@@ -16043,14 +15182,17 @@
       <c r="A330" s="8">
         <v>20014001</v>
       </c>
-      <c r="B330" s="8">
-        <v>38960</v>
-      </c>
-      <c r="C330" s="8">
-        <v>9840</v>
-      </c>
-      <c r="D330" s="8">
-        <v>5130</v>
+      <c r="B330" s="9">
+        <f>ROUND(B211*1.5,0)</f>
+        <v>4577</v>
+      </c>
+      <c r="C330" s="9">
+        <f>ROUND(C211*1.5,0)</f>
+        <v>1235</v>
+      </c>
+      <c r="D330" s="9">
+        <f>ROUND(D211*1.5,0)</f>
+        <v>921</v>
       </c>
       <c r="E330" s="9">
         <v>1</v>
@@ -16084,14 +15226,17 @@
       <c r="A331" s="8">
         <v>20015001</v>
       </c>
-      <c r="B331" s="8">
-        <v>58440</v>
-      </c>
-      <c r="C331" s="8">
-        <v>14760</v>
-      </c>
-      <c r="D331" s="8">
-        <v>7695</v>
+      <c r="B331" s="9">
+        <f>ROUND(B226*1.5,0)</f>
+        <v>4914</v>
+      </c>
+      <c r="C331" s="9">
+        <f>ROUND(C226*1.5,0)</f>
+        <v>1325</v>
+      </c>
+      <c r="D331" s="9">
+        <f>ROUND(D226*1.5,0)</f>
+        <v>989</v>
       </c>
       <c r="E331" s="9">
         <v>1</v>
@@ -16125,14 +15270,17 @@
       <c r="A332" s="8">
         <v>20016001</v>
       </c>
-      <c r="B332" s="8">
-        <v>87660</v>
-      </c>
-      <c r="C332" s="8">
-        <v>22140</v>
-      </c>
-      <c r="D332" s="8">
-        <v>11543</v>
+      <c r="B332" s="9">
+        <f>ROUND(B241*1.5,0)</f>
+        <v>5252</v>
+      </c>
+      <c r="C332" s="9">
+        <f>ROUND(C241*1.5,0)</f>
+        <v>1415</v>
+      </c>
+      <c r="D332" s="9">
+        <f>ROUND(D241*1.5,0)</f>
+        <v>1056</v>
       </c>
       <c r="E332" s="9">
         <v>1</v>
@@ -16166,14 +15314,17 @@
       <c r="A333" s="8">
         <v>20017001</v>
       </c>
-      <c r="B333" s="8">
-        <v>131490</v>
-      </c>
-      <c r="C333" s="8">
-        <v>33210</v>
-      </c>
-      <c r="D333" s="8">
-        <v>17315</v>
+      <c r="B333" s="9">
+        <f>ROUND(B256*1.5,0)</f>
+        <v>5589</v>
+      </c>
+      <c r="C333" s="9">
+        <f>ROUND(C256*1.5,0)</f>
+        <v>1505</v>
+      </c>
+      <c r="D333" s="9">
+        <f>ROUND(D256*1.5,0)</f>
+        <v>1124</v>
       </c>
       <c r="E333" s="9">
         <v>1</v>
@@ -16207,14 +15358,17 @@
       <c r="A334" s="8">
         <v>20018001</v>
       </c>
-      <c r="B334" s="8">
-        <v>197235</v>
-      </c>
-      <c r="C334" s="8">
-        <v>49815</v>
-      </c>
-      <c r="D334" s="8">
-        <v>25973</v>
+      <c r="B334" s="9">
+        <f>ROUND(B271*1.5,0)</f>
+        <v>5927</v>
+      </c>
+      <c r="C334" s="9">
+        <f>ROUND(C271*1.5,0)</f>
+        <v>1595</v>
+      </c>
+      <c r="D334" s="9">
+        <f>ROUND(D271*1.5,0)</f>
+        <v>1191</v>
       </c>
       <c r="E334" s="9">
         <v>1</v>
@@ -16248,14 +15402,17 @@
       <c r="A335" s="8">
         <v>20019001</v>
       </c>
-      <c r="B335" s="8">
-        <v>295853</v>
-      </c>
-      <c r="C335" s="8">
-        <v>74723</v>
-      </c>
-      <c r="D335" s="8">
-        <v>38960</v>
+      <c r="B335" s="9">
+        <f>ROUND(B286*1.5,0)</f>
+        <v>6264</v>
+      </c>
+      <c r="C335" s="9">
+        <f>ROUND(C286*1.5,0)</f>
+        <v>1685</v>
+      </c>
+      <c r="D335" s="9">
+        <f>ROUND(D286*1.5,0)</f>
+        <v>1259</v>
       </c>
       <c r="E335" s="9">
         <v>1</v>
@@ -16289,14 +15446,17 @@
       <c r="A336" s="8">
         <v>20020001</v>
       </c>
-      <c r="B336" s="8">
-        <v>443780</v>
-      </c>
-      <c r="C336" s="8">
-        <v>112085</v>
-      </c>
-      <c r="D336" s="8">
-        <v>58440</v>
+      <c r="B336" s="9">
+        <f>ROUND(B301*1.5,0)</f>
+        <v>6602</v>
+      </c>
+      <c r="C336" s="9">
+        <f>ROUND(C301*1.5,0)</f>
+        <v>1775</v>
+      </c>
+      <c r="D336" s="9">
+        <f>ROUND(D301*1.5,0)</f>
+        <v>1326</v>
       </c>
       <c r="E336" s="9">
         <v>1</v>
@@ -16330,14 +15490,17 @@
       <c r="A337" s="8">
         <v>20021001</v>
       </c>
-      <c r="B337" s="8">
-        <v>665670</v>
-      </c>
-      <c r="C337" s="8">
-        <v>168128</v>
-      </c>
-      <c r="D337" s="8">
-        <v>87660</v>
+      <c r="B337" s="9">
+        <f>ROUND(B316*1.5,0)</f>
+        <v>6939</v>
+      </c>
+      <c r="C337" s="9">
+        <f>ROUND(C316*1.5,0)</f>
+        <v>1865</v>
+      </c>
+      <c r="D337" s="9">
+        <f>ROUND(D316*1.5,0)</f>
+        <v>1394</v>
       </c>
       <c r="E337" s="9">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$337</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -338,7 +338,7 @@
     <t>die_crystal</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>death fell</t>
   </si>
   <si>
     <t>monster_speed</t>
@@ -356,7 +356,67 @@
     <t>hit_resource</t>
   </si>
   <si>
-    <t>{道具id|权重}{道具id|权重}</t>
+    <t>{1000001,20}</t>
+  </si>
+  <si>
+    <t>{1000002,20}</t>
+  </si>
+  <si>
+    <t>{1000003,20}</t>
+  </si>
+  <si>
+    <t>{1000004,20}</t>
+  </si>
+  <si>
+    <t>{1000005,20}</t>
+  </si>
+  <si>
+    <t>{1000006,20}</t>
+  </si>
+  <si>
+    <t>{1000007,20}</t>
+  </si>
+  <si>
+    <t>{1000008,20}</t>
+  </si>
+  <si>
+    <t>{1000009,20}</t>
+  </si>
+  <si>
+    <t>{1000010,20}</t>
+  </si>
+  <si>
+    <t>{1000011,20}</t>
+  </si>
+  <si>
+    <t>{1000012,20}</t>
+  </si>
+  <si>
+    <t>{1000013,20}</t>
+  </si>
+  <si>
+    <t>{1000014,20}</t>
+  </si>
+  <si>
+    <t>{1000015,20}</t>
+  </si>
+  <si>
+    <t>{2000001,20}</t>
+  </si>
+  <si>
+    <t>{2000002,20}</t>
+  </si>
+  <si>
+    <t>{2000003,20}</t>
+  </si>
+  <si>
+    <t>{2000004,20}</t>
+  </si>
+  <si>
+    <t>{2000005,20}</t>
+  </si>
+  <si>
+    <t>{2000006,20}</t>
   </si>
 </sst>
 </file>
@@ -378,9 +438,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +467,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -409,8 +489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,21 +537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +561,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,29 +576,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +603,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +651,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,19 +699,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,31 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,37 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,55 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,17 +806,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,8 +818,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,24 +841,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,22 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="J342" sqref="J342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1498,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1539,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1580,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1621,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1662,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1703,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1744,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1785,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1826,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1867,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1908,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1949,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1990,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2031,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2113,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2154,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2195,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2236,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2277,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2318,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2359,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2400,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2441,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -2482,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2523,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2564,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2605,7 +2665,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2646,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -2686,7 +2746,7 @@
       <c r="G32" s="5">
         <v>30</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="5">
@@ -2727,8 +2787,8 @@
       <c r="G33" s="5">
         <v>30</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>13</v>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2768,8 +2828,8 @@
       <c r="G34" s="5">
         <v>30</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>13</v>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2817,8 +2877,8 @@
       <c r="G35" s="5">
         <v>30</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>13</v>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2867,8 +2927,8 @@
       <c r="G36" s="5">
         <v>30</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>13</v>
+      <c r="H36" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2908,8 +2968,8 @@
       <c r="G37" s="5">
         <v>30</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>13</v>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -2949,8 +3009,8 @@
       <c r="G38" s="5">
         <v>30</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>13</v>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -2990,8 +3050,8 @@
       <c r="G39" s="5">
         <v>30</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>13</v>
+      <c r="H39" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3031,8 +3091,8 @@
       <c r="G40" s="5">
         <v>30</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>13</v>
+      <c r="H40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3072,8 +3132,8 @@
       <c r="G41" s="5">
         <v>30</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>13</v>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3113,8 +3173,8 @@
       <c r="G42" s="5">
         <v>30</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>13</v>
+      <c r="H42" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -3154,8 +3214,8 @@
       <c r="G43" s="5">
         <v>30</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>13</v>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -3195,8 +3255,8 @@
       <c r="G44" s="5">
         <v>30</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>13</v>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3236,8 +3296,8 @@
       <c r="G45" s="5">
         <v>30</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>13</v>
+      <c r="H45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -3277,8 +3337,8 @@
       <c r="G46" s="5">
         <v>30</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>13</v>
+      <c r="H46" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -3318,7 +3378,7 @@
       <c r="G47" s="6">
         <v>40</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I47" s="6">
@@ -3359,8 +3419,8 @@
       <c r="G48" s="6">
         <v>40</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>13</v>
+      <c r="H48" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -3400,8 +3460,8 @@
       <c r="G49" s="6">
         <v>40</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>13</v>
+      <c r="H49" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -3441,8 +3501,8 @@
       <c r="G50" s="6">
         <v>40</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>13</v>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -3482,8 +3542,8 @@
       <c r="G51" s="6">
         <v>40</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>13</v>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -3523,8 +3583,8 @@
       <c r="G52" s="6">
         <v>40</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>13</v>
+      <c r="H52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -3564,8 +3624,8 @@
       <c r="G53" s="6">
         <v>40</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>13</v>
+      <c r="H53" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -3605,8 +3665,8 @@
       <c r="G54" s="6">
         <v>40</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>13</v>
+      <c r="H54" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -3646,8 +3706,8 @@
       <c r="G55" s="6">
         <v>40</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>13</v>
+      <c r="H55" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -3687,8 +3747,8 @@
       <c r="G56" s="6">
         <v>40</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>13</v>
+      <c r="H56" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -3728,8 +3788,8 @@
       <c r="G57" s="6">
         <v>40</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
+      <c r="H57" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3769,8 +3829,8 @@
       <c r="G58" s="6">
         <v>40</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>13</v>
+      <c r="H58" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -3810,8 +3870,8 @@
       <c r="G59" s="6">
         <v>40</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>13</v>
+      <c r="H59" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -3851,8 +3911,8 @@
       <c r="G60" s="6">
         <v>40</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>13</v>
+      <c r="H60" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -3892,8 +3952,8 @@
       <c r="G61" s="6">
         <v>40</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>13</v>
+      <c r="H61" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -3933,7 +3993,7 @@
       <c r="G62" s="5">
         <v>50</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I62" s="5">
@@ -3974,8 +4034,8 @@
       <c r="G63" s="5">
         <v>50</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>13</v>
+      <c r="H63" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -4015,8 +4075,8 @@
       <c r="G64" s="5">
         <v>50</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>13</v>
+      <c r="H64" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -4056,8 +4116,8 @@
       <c r="G65" s="5">
         <v>50</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>13</v>
+      <c r="H65" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -4097,8 +4157,8 @@
       <c r="G66" s="5">
         <v>50</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>13</v>
+      <c r="H66" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4138,8 +4198,8 @@
       <c r="G67" s="5">
         <v>50</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>13</v>
+      <c r="H67" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -4179,8 +4239,8 @@
       <c r="G68" s="5">
         <v>50</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>13</v>
+      <c r="H68" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4220,8 +4280,8 @@
       <c r="G69" s="5">
         <v>50</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>13</v>
+      <c r="H69" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4261,8 +4321,8 @@
       <c r="G70" s="5">
         <v>50</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>13</v>
+      <c r="H70" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4302,8 +4362,8 @@
       <c r="G71" s="5">
         <v>50</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>13</v>
+      <c r="H71" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4343,8 +4403,8 @@
       <c r="G72" s="5">
         <v>50</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>13</v>
+      <c r="H72" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4384,8 +4444,8 @@
       <c r="G73" s="5">
         <v>50</v>
       </c>
-      <c r="H73" s="5" t="s">
-        <v>13</v>
+      <c r="H73" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4425,8 +4485,8 @@
       <c r="G74" s="5">
         <v>50</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>13</v>
+      <c r="H74" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4466,8 +4526,8 @@
       <c r="G75" s="5">
         <v>50</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>13</v>
+      <c r="H75" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4507,8 +4567,8 @@
       <c r="G76" s="5">
         <v>50</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>13</v>
+      <c r="H76" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4549,7 +4609,7 @@
         <f>G62+10</f>
         <v>60</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I77" s="6">
@@ -4591,8 +4651,8 @@
         <f t="shared" ref="G78:G141" si="0">G63+10</f>
         <v>60</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>13</v>
+      <c r="H78" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -4633,8 +4693,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
+      <c r="H79" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -4675,8 +4735,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>13</v>
+      <c r="H80" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -4717,8 +4777,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
+      <c r="H81" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -4759,8 +4819,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>13</v>
+      <c r="H82" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -4801,8 +4861,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
+      <c r="H83" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -4843,8 +4903,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>13</v>
+      <c r="H84" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -4885,8 +4945,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
+      <c r="H85" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4927,8 +4987,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>13</v>
+      <c r="H86" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -4969,8 +5029,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
+      <c r="H87" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -5011,8 +5071,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>13</v>
+      <c r="H88" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -5053,8 +5113,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
+      <c r="H89" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -5095,8 +5155,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>13</v>
+      <c r="H90" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -5137,8 +5197,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
+      <c r="H91" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -5179,7 +5239,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="5">
@@ -5221,8 +5281,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H93" s="5" t="s">
-        <v>13</v>
+      <c r="H93" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -5263,8 +5323,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>13</v>
+      <c r="H94" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -5305,8 +5365,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>13</v>
+      <c r="H95" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5347,8 +5407,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>13</v>
+      <c r="H96" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5389,8 +5449,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>13</v>
+      <c r="H97" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5431,8 +5491,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>13</v>
+      <c r="H98" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5473,8 +5533,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>13</v>
+      <c r="H99" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5515,8 +5575,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H100" s="5" t="s">
-        <v>13</v>
+      <c r="H100" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5557,8 +5617,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>13</v>
+      <c r="H101" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5599,8 +5659,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H102" s="5" t="s">
-        <v>13</v>
+      <c r="H102" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5641,8 +5701,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H103" s="5" t="s">
-        <v>13</v>
+      <c r="H103" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5683,8 +5743,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H104" s="5" t="s">
-        <v>13</v>
+      <c r="H104" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5725,8 +5785,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H105" s="5" t="s">
-        <v>13</v>
+      <c r="H105" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5767,8 +5827,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H106" s="5" t="s">
-        <v>13</v>
+      <c r="H106" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5809,7 +5869,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="6">
@@ -5851,8 +5911,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>13</v>
+      <c r="H108" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -5893,8 +5953,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>13</v>
+      <c r="H109" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -5935,8 +5995,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H110" s="6" t="s">
-        <v>13</v>
+      <c r="H110" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -5977,8 +6037,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>13</v>
+      <c r="H111" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6019,8 +6079,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>13</v>
+      <c r="H112" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6061,8 +6121,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H113" s="6" t="s">
-        <v>13</v>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6103,8 +6163,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>13</v>
+      <c r="H114" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -6145,8 +6205,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>13</v>
+      <c r="H115" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -6187,8 +6247,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>13</v>
+      <c r="H116" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -6229,8 +6289,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>13</v>
+      <c r="H117" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6271,8 +6331,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>13</v>
+      <c r="H118" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6313,8 +6373,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>13</v>
+      <c r="H119" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -6355,8 +6415,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>13</v>
+      <c r="H120" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -6397,8 +6457,8 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H121" s="6" t="s">
-        <v>13</v>
+      <c r="H121" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -6439,7 +6499,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I122" s="5">
@@ -6481,8 +6541,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H123" s="5" t="s">
-        <v>13</v>
+      <c r="H123" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -6523,8 +6583,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H124" s="5" t="s">
-        <v>13</v>
+      <c r="H124" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -6565,8 +6625,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H125" s="5" t="s">
-        <v>13</v>
+      <c r="H125" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -6607,8 +6667,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H126" s="5" t="s">
-        <v>13</v>
+      <c r="H126" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -6649,8 +6709,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H127" s="5" t="s">
-        <v>13</v>
+      <c r="H127" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -6691,8 +6751,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H128" s="5" t="s">
-        <v>13</v>
+      <c r="H128" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -6733,8 +6793,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H129" s="5" t="s">
-        <v>13</v>
+      <c r="H129" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -6775,8 +6835,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H130" s="5" t="s">
-        <v>13</v>
+      <c r="H130" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -6817,8 +6877,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H131" s="5" t="s">
-        <v>13</v>
+      <c r="H131" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -6859,8 +6919,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H132" s="5" t="s">
-        <v>13</v>
+      <c r="H132" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -6901,8 +6961,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H133" s="5" t="s">
-        <v>13</v>
+      <c r="H133" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -6943,8 +7003,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H134" s="5" t="s">
-        <v>13</v>
+      <c r="H134" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -6985,8 +7045,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H135" s="5" t="s">
-        <v>13</v>
+      <c r="H135" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -7027,8 +7087,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H136" s="5" t="s">
-        <v>13</v>
+      <c r="H136" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -7069,7 +7129,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="H137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I137" s="6">
@@ -7111,8 +7171,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H138" s="6" t="s">
-        <v>13</v>
+      <c r="H138" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -7153,8 +7213,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H139" s="6" t="s">
-        <v>13</v>
+      <c r="H139" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -7195,8 +7255,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H140" s="6" t="s">
-        <v>13</v>
+      <c r="H140" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -7237,8 +7297,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H141" s="6" t="s">
-        <v>13</v>
+      <c r="H141" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -7279,8 +7339,8 @@
         <f t="shared" ref="G142:G205" si="1">G127+10</f>
         <v>100</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>13</v>
+      <c r="H142" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -7321,8 +7381,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H143" s="6" t="s">
-        <v>13</v>
+      <c r="H143" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -7363,8 +7423,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H144" s="6" t="s">
-        <v>13</v>
+      <c r="H144" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -7405,8 +7465,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H145" s="6" t="s">
-        <v>13</v>
+      <c r="H145" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -7447,8 +7507,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H146" s="6" t="s">
-        <v>13</v>
+      <c r="H146" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -7489,8 +7549,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H147" s="6" t="s">
-        <v>13</v>
+      <c r="H147" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -7531,8 +7591,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H148" s="6" t="s">
-        <v>13</v>
+      <c r="H148" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -7573,8 +7633,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H149" s="6" t="s">
-        <v>13</v>
+      <c r="H149" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -7615,8 +7675,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H150" s="6" t="s">
-        <v>13</v>
+      <c r="H150" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -7657,8 +7717,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H151" s="6" t="s">
-        <v>13</v>
+      <c r="H151" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -7699,7 +7759,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I152" s="5">
@@ -7741,8 +7801,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H153" s="5" t="s">
-        <v>13</v>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -7783,8 +7843,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H154" s="5" t="s">
-        <v>13</v>
+      <c r="H154" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -7825,8 +7885,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H155" s="5" t="s">
-        <v>13</v>
+      <c r="H155" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -7867,8 +7927,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H156" s="5" t="s">
-        <v>13</v>
+      <c r="H156" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -7909,8 +7969,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H157" s="5" t="s">
-        <v>13</v>
+      <c r="H157" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -7951,8 +8011,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H158" s="5" t="s">
-        <v>13</v>
+      <c r="H158" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -7993,8 +8053,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H159" s="5" t="s">
-        <v>13</v>
+      <c r="H159" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -8035,8 +8095,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H160" s="5" t="s">
-        <v>13</v>
+      <c r="H160" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -8077,8 +8137,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H161" s="5" t="s">
-        <v>13</v>
+      <c r="H161" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -8119,8 +8179,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H162" s="5" t="s">
-        <v>13</v>
+      <c r="H162" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -8161,8 +8221,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H163" s="5" t="s">
-        <v>13</v>
+      <c r="H163" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -8203,8 +8263,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H164" s="5" t="s">
-        <v>13</v>
+      <c r="H164" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -8245,8 +8305,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H165" s="5" t="s">
-        <v>13</v>
+      <c r="H165" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -8287,8 +8347,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="H166" s="5" t="s">
-        <v>13</v>
+      <c r="H166" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -8329,7 +8389,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H167" s="6" t="s">
+      <c r="H167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I167" s="6">
@@ -8371,8 +8431,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H168" s="6" t="s">
-        <v>13</v>
+      <c r="H168" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -8413,8 +8473,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H169" s="6" t="s">
-        <v>13</v>
+      <c r="H169" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -8455,8 +8515,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H170" s="6" t="s">
-        <v>13</v>
+      <c r="H170" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -8497,8 +8557,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H171" s="6" t="s">
-        <v>13</v>
+      <c r="H171" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -8539,8 +8599,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H172" s="6" t="s">
-        <v>13</v>
+      <c r="H172" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -8581,8 +8641,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H173" s="6" t="s">
-        <v>13</v>
+      <c r="H173" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -8623,8 +8683,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H174" s="6" t="s">
-        <v>13</v>
+      <c r="H174" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -8665,8 +8725,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H175" s="6" t="s">
-        <v>13</v>
+      <c r="H175" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -8707,8 +8767,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H176" s="6" t="s">
-        <v>13</v>
+      <c r="H176" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -8749,8 +8809,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H177" s="6" t="s">
-        <v>13</v>
+      <c r="H177" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -8791,8 +8851,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H178" s="6" t="s">
-        <v>13</v>
+      <c r="H178" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -8833,8 +8893,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H179" s="6" t="s">
-        <v>13</v>
+      <c r="H179" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -8875,8 +8935,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H180" s="6" t="s">
-        <v>13</v>
+      <c r="H180" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -8917,8 +8977,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="H181" s="6" t="s">
-        <v>13</v>
+      <c r="H181" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -8959,7 +9019,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="H182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I182" s="5">
@@ -9001,8 +9061,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H183" s="5" t="s">
-        <v>13</v>
+      <c r="H183" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -9043,8 +9103,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H184" s="5" t="s">
-        <v>13</v>
+      <c r="H184" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9085,8 +9145,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H185" s="5" t="s">
-        <v>13</v>
+      <c r="H185" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -9127,8 +9187,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H186" s="5" t="s">
-        <v>13</v>
+      <c r="H186" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -9169,8 +9229,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H187" s="5" t="s">
-        <v>13</v>
+      <c r="H187" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -9211,8 +9271,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H188" s="5" t="s">
-        <v>13</v>
+      <c r="H188" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -9253,8 +9313,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H189" s="5" t="s">
-        <v>13</v>
+      <c r="H189" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -9295,8 +9355,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H190" s="5" t="s">
-        <v>13</v>
+      <c r="H190" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -9337,8 +9397,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H191" s="5" t="s">
-        <v>13</v>
+      <c r="H191" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -9379,8 +9439,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H192" s="5" t="s">
-        <v>13</v>
+      <c r="H192" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -9421,8 +9481,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H193" s="5" t="s">
-        <v>13</v>
+      <c r="H193" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -9463,8 +9523,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H194" s="5" t="s">
-        <v>13</v>
+      <c r="H194" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -9505,8 +9565,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H195" s="5" t="s">
-        <v>13</v>
+      <c r="H195" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -9547,8 +9607,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="H196" s="5" t="s">
-        <v>13</v>
+      <c r="H196" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -9589,7 +9649,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H197" s="6" t="s">
+      <c r="H197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I197" s="6">
@@ -9631,8 +9691,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H198" s="6" t="s">
-        <v>13</v>
+      <c r="H198" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -9673,8 +9733,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H199" s="6" t="s">
-        <v>13</v>
+      <c r="H199" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -9715,8 +9775,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H200" s="6" t="s">
-        <v>13</v>
+      <c r="H200" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -9757,8 +9817,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H201" s="6" t="s">
-        <v>13</v>
+      <c r="H201" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -9799,8 +9859,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H202" s="6" t="s">
-        <v>13</v>
+      <c r="H202" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -9841,8 +9901,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H203" s="6" t="s">
-        <v>13</v>
+      <c r="H203" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -9883,8 +9943,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H204" s="6" t="s">
-        <v>13</v>
+      <c r="H204" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9925,8 +9985,8 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="H205" s="6" t="s">
-        <v>13</v>
+      <c r="H205" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -9967,8 +10027,8 @@
         <f t="shared" ref="G206:G269" si="2">G191+10</f>
         <v>140</v>
       </c>
-      <c r="H206" s="6" t="s">
-        <v>13</v>
+      <c r="H206" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -10009,8 +10069,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H207" s="6" t="s">
-        <v>13</v>
+      <c r="H207" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -10051,8 +10111,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H208" s="6" t="s">
-        <v>13</v>
+      <c r="H208" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -10093,8 +10153,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H209" s="6" t="s">
-        <v>13</v>
+      <c r="H209" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -10135,8 +10195,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H210" s="6" t="s">
-        <v>13</v>
+      <c r="H210" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -10177,8 +10237,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H211" s="6" t="s">
-        <v>13</v>
+      <c r="H211" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -10219,7 +10279,7 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H212" s="5" t="s">
+      <c r="H212" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I212" s="5">
@@ -10261,8 +10321,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H213" s="5" t="s">
-        <v>13</v>
+      <c r="H213" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -10303,8 +10363,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H214" s="5" t="s">
-        <v>13</v>
+      <c r="H214" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -10345,8 +10405,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H215" s="5" t="s">
-        <v>13</v>
+      <c r="H215" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -10387,8 +10447,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H216" s="5" t="s">
-        <v>13</v>
+      <c r="H216" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -10429,8 +10489,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H217" s="5" t="s">
-        <v>13</v>
+      <c r="H217" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -10471,8 +10531,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H218" s="5" t="s">
-        <v>13</v>
+      <c r="H218" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -10513,8 +10573,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H219" s="5" t="s">
-        <v>13</v>
+      <c r="H219" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -10555,8 +10615,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H220" s="5" t="s">
-        <v>13</v>
+      <c r="H220" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -10597,8 +10657,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H221" s="5" t="s">
-        <v>13</v>
+      <c r="H221" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -10639,8 +10699,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H222" s="5" t="s">
-        <v>13</v>
+      <c r="H222" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -10681,8 +10741,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H223" s="5" t="s">
-        <v>13</v>
+      <c r="H223" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -10723,8 +10783,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H224" s="5" t="s">
-        <v>13</v>
+      <c r="H224" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -10765,8 +10825,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H225" s="5" t="s">
-        <v>13</v>
+      <c r="H225" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -10807,8 +10867,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H226" s="5" t="s">
-        <v>13</v>
+      <c r="H226" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -10849,7 +10909,7 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H227" s="6" t="s">
+      <c r="H227" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I227" s="6">
@@ -10891,8 +10951,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H228" s="6" t="s">
-        <v>13</v>
+      <c r="H228" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -10933,8 +10993,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H229" s="6" t="s">
-        <v>13</v>
+      <c r="H229" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -10975,8 +11035,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H230" s="6" t="s">
-        <v>13</v>
+      <c r="H230" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -11017,8 +11077,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H231" s="6" t="s">
-        <v>13</v>
+      <c r="H231" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -11059,8 +11119,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H232" s="6" t="s">
-        <v>13</v>
+      <c r="H232" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -11101,8 +11161,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H233" s="6" t="s">
-        <v>13</v>
+      <c r="H233" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -11143,8 +11203,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H234" s="6" t="s">
-        <v>13</v>
+      <c r="H234" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -11185,8 +11245,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H235" s="6" t="s">
-        <v>13</v>
+      <c r="H235" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -11227,8 +11287,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H236" s="6" t="s">
-        <v>13</v>
+      <c r="H236" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -11269,8 +11329,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H237" s="6" t="s">
-        <v>13</v>
+      <c r="H237" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -11311,8 +11371,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H238" s="6" t="s">
-        <v>13</v>
+      <c r="H238" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -11353,8 +11413,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H239" s="6" t="s">
-        <v>13</v>
+      <c r="H239" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -11395,8 +11455,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H240" s="6" t="s">
-        <v>13</v>
+      <c r="H240" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -11437,8 +11497,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H241" s="6" t="s">
-        <v>13</v>
+      <c r="H241" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -11479,7 +11539,7 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H242" s="5" t="s">
+      <c r="H242" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I242" s="5">
@@ -11521,8 +11581,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H243" s="5" t="s">
-        <v>13</v>
+      <c r="H243" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -11563,8 +11623,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H244" s="5" t="s">
-        <v>13</v>
+      <c r="H244" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -11605,8 +11665,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H245" s="5" t="s">
-        <v>13</v>
+      <c r="H245" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -11647,8 +11707,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H246" s="5" t="s">
-        <v>13</v>
+      <c r="H246" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -11689,8 +11749,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H247" s="5" t="s">
-        <v>13</v>
+      <c r="H247" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -11731,8 +11791,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H248" s="5" t="s">
-        <v>13</v>
+      <c r="H248" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -11773,8 +11833,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H249" s="5" t="s">
-        <v>13</v>
+      <c r="H249" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -11815,8 +11875,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H250" s="5" t="s">
-        <v>13</v>
+      <c r="H250" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -11857,8 +11917,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H251" s="5" t="s">
-        <v>13</v>
+      <c r="H251" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -11899,8 +11959,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H252" s="5" t="s">
-        <v>13</v>
+      <c r="H252" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -11941,8 +12001,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H253" s="5" t="s">
-        <v>13</v>
+      <c r="H253" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -11983,8 +12043,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H254" s="5" t="s">
-        <v>13</v>
+      <c r="H254" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -12025,8 +12085,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H255" s="5" t="s">
-        <v>13</v>
+      <c r="H255" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -12067,8 +12127,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="H256" s="5" t="s">
-        <v>13</v>
+      <c r="H256" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -12109,7 +12169,7 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H257" s="6" t="s">
+      <c r="H257" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I257" s="6">
@@ -12151,8 +12211,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H258" s="6" t="s">
-        <v>13</v>
+      <c r="H258" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -12193,8 +12253,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H259" s="6" t="s">
-        <v>13</v>
+      <c r="H259" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -12235,8 +12295,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H260" s="6" t="s">
-        <v>13</v>
+      <c r="H260" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -12277,8 +12337,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H261" s="6" t="s">
-        <v>13</v>
+      <c r="H261" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -12319,8 +12379,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H262" s="6" t="s">
-        <v>13</v>
+      <c r="H262" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -12361,8 +12421,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H263" s="6" t="s">
-        <v>13</v>
+      <c r="H263" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -12403,8 +12463,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H264" s="6" t="s">
-        <v>13</v>
+      <c r="H264" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -12445,8 +12505,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H265" s="6" t="s">
-        <v>13</v>
+      <c r="H265" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -12487,8 +12547,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H266" s="6" t="s">
-        <v>13</v>
+      <c r="H266" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -12529,8 +12589,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H267" s="6" t="s">
-        <v>13</v>
+      <c r="H267" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -12571,8 +12631,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H268" s="6" t="s">
-        <v>13</v>
+      <c r="H268" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -12613,8 +12673,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H269" s="6" t="s">
-        <v>13</v>
+      <c r="H269" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -12655,8 +12715,8 @@
         <f t="shared" ref="G270:G316" si="3">G255+10</f>
         <v>180</v>
       </c>
-      <c r="H270" s="6" t="s">
-        <v>13</v>
+      <c r="H270" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -12697,8 +12757,8 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="H271" s="6" t="s">
-        <v>13</v>
+      <c r="H271" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -12739,7 +12799,7 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H272" s="5" t="s">
+      <c r="H272" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I272" s="5">
@@ -12781,8 +12841,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H273" s="5" t="s">
-        <v>13</v>
+      <c r="H273" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -12823,8 +12883,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H274" s="5" t="s">
-        <v>13</v>
+      <c r="H274" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -12865,8 +12925,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H275" s="5" t="s">
-        <v>13</v>
+      <c r="H275" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -12907,8 +12967,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H276" s="5" t="s">
-        <v>13</v>
+      <c r="H276" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -12949,8 +13009,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H277" s="5" t="s">
-        <v>13</v>
+      <c r="H277" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -12991,8 +13051,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H278" s="5" t="s">
-        <v>13</v>
+      <c r="H278" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -13033,8 +13093,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H279" s="5" t="s">
-        <v>13</v>
+      <c r="H279" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -13075,8 +13135,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H280" s="5" t="s">
-        <v>13</v>
+      <c r="H280" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -13117,8 +13177,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H281" s="5" t="s">
-        <v>13</v>
+      <c r="H281" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -13159,8 +13219,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H282" s="5" t="s">
-        <v>13</v>
+      <c r="H282" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -13201,8 +13261,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H283" s="5" t="s">
-        <v>13</v>
+      <c r="H283" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -13243,8 +13303,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H284" s="5" t="s">
-        <v>13</v>
+      <c r="H284" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -13285,8 +13345,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H285" s="5" t="s">
-        <v>13</v>
+      <c r="H285" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -13327,8 +13387,8 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="H286" s="5" t="s">
-        <v>13</v>
+      <c r="H286" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -13369,7 +13429,7 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H287" s="6" t="s">
+      <c r="H287" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I287" s="6">
@@ -13411,8 +13471,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H288" s="6" t="s">
-        <v>13</v>
+      <c r="H288" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -13453,8 +13513,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H289" s="6" t="s">
-        <v>13</v>
+      <c r="H289" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -13495,8 +13555,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H290" s="6" t="s">
-        <v>13</v>
+      <c r="H290" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -13537,8 +13597,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H291" s="6" t="s">
-        <v>13</v>
+      <c r="H291" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -13579,8 +13639,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H292" s="6" t="s">
-        <v>13</v>
+      <c r="H292" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -13621,8 +13681,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H293" s="6" t="s">
-        <v>13</v>
+      <c r="H293" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -13663,8 +13723,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H294" s="6" t="s">
-        <v>13</v>
+      <c r="H294" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -13705,8 +13765,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H295" s="6" t="s">
-        <v>13</v>
+      <c r="H295" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -13747,8 +13807,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H296" s="6" t="s">
-        <v>13</v>
+      <c r="H296" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -13789,8 +13849,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H297" s="6" t="s">
-        <v>13</v>
+      <c r="H297" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -13831,8 +13891,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H298" s="6" t="s">
-        <v>13</v>
+      <c r="H298" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -13873,8 +13933,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H299" s="6" t="s">
-        <v>13</v>
+      <c r="H299" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -13915,8 +13975,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H300" s="6" t="s">
-        <v>13</v>
+      <c r="H300" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -13957,8 +14017,8 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="H301" s="6" t="s">
-        <v>13</v>
+      <c r="H301" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -13999,7 +14059,7 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H302" s="5" t="s">
+      <c r="H302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I302" s="5">
@@ -14041,8 +14101,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H303" s="5" t="s">
-        <v>13</v>
+      <c r="H303" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -14083,8 +14143,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H304" s="5" t="s">
-        <v>13</v>
+      <c r="H304" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -14125,8 +14185,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H305" s="5" t="s">
-        <v>13</v>
+      <c r="H305" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -14167,8 +14227,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H306" s="5" t="s">
-        <v>13</v>
+      <c r="H306" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -14209,8 +14269,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H307" s="5" t="s">
-        <v>13</v>
+      <c r="H307" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -14251,8 +14311,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H308" s="5" t="s">
-        <v>13</v>
+      <c r="H308" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -14293,8 +14353,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H309" s="5" t="s">
-        <v>13</v>
+      <c r="H309" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -14335,8 +14395,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H310" s="5" t="s">
-        <v>13</v>
+      <c r="H310" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -14377,8 +14437,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H311" s="5" t="s">
-        <v>13</v>
+      <c r="H311" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -14419,8 +14479,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H312" s="5" t="s">
-        <v>13</v>
+      <c r="H312" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -14461,8 +14521,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H313" s="5" t="s">
-        <v>13</v>
+      <c r="H313" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -14503,8 +14563,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H314" s="5" t="s">
-        <v>13</v>
+      <c r="H314" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -14545,8 +14605,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H315" s="5" t="s">
-        <v>13</v>
+      <c r="H315" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -14587,8 +14647,8 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="H316" s="5" t="s">
-        <v>13</v>
+      <c r="H316" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -14632,7 +14692,7 @@
         <v>40</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -14676,7 +14736,7 @@
         <v>80</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -14720,7 +14780,7 @@
         <v>120</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -14764,7 +14824,7 @@
         <v>160</v>
       </c>
       <c r="H320" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -14808,7 +14868,7 @@
         <v>200</v>
       </c>
       <c r="H321" s="9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -14852,7 +14912,7 @@
         <v>240</v>
       </c>
       <c r="H322" s="9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -14896,7 +14956,7 @@
         <v>280</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -14940,7 +15000,7 @@
         <v>320</v>
       </c>
       <c r="H324" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -14984,7 +15044,7 @@
         <v>360</v>
       </c>
       <c r="H325" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -15028,7 +15088,7 @@
         <v>400</v>
       </c>
       <c r="H326" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -15072,7 +15132,7 @@
         <v>440</v>
       </c>
       <c r="H327" s="9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -15116,7 +15176,7 @@
         <v>480</v>
       </c>
       <c r="H328" s="9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -15160,7 +15220,7 @@
         <v>520</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -15204,7 +15264,7 @@
         <v>560</v>
       </c>
       <c r="H330" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -15248,7 +15308,7 @@
         <v>600</v>
       </c>
       <c r="H331" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -15292,7 +15352,7 @@
         <v>640</v>
       </c>
       <c r="H332" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -15336,7 +15396,7 @@
         <v>680</v>
       </c>
       <c r="H333" s="9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -15380,7 +15440,7 @@
         <v>720</v>
       </c>
       <c r="H334" s="9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -15424,7 +15484,7 @@
         <v>760</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -15468,7 +15528,7 @@
         <v>800</v>
       </c>
       <c r="H336" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -15512,7 +15572,7 @@
         <v>840</v>
       </c>
       <c r="H337" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -424,10 +424,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -438,15 +438,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,10 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,23 +493,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,47 +530,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,14 +554,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,6 +570,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,49 +627,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,25 +711,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,55 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,24 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -841,10 +823,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -868,8 +848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,6 +865,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="J342" sqref="J342"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1499,13 +1499,13 @@
         <v>10001001</v>
       </c>
       <c r="B2" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
@@ -1540,13 +1540,13 @@
         <v>10001002</v>
       </c>
       <c r="B3" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -1581,13 +1581,13 @@
         <v>10001003</v>
       </c>
       <c r="B4" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
@@ -1622,13 +1622,13 @@
         <v>10001004</v>
       </c>
       <c r="B5" s="3">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
@@ -1663,13 +1663,13 @@
         <v>10001005</v>
       </c>
       <c r="B6" s="3">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
@@ -1704,13 +1704,13 @@
         <v>10001006</v>
       </c>
       <c r="B7" s="3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>18</v>
@@ -1745,13 +1745,13 @@
         <v>10001007</v>
       </c>
       <c r="B8" s="3">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
@@ -1786,13 +1786,13 @@
         <v>10001008</v>
       </c>
       <c r="B9" s="3">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
@@ -1827,13 +1827,13 @@
         <v>10001009</v>
       </c>
       <c r="B10" s="3">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>21</v>
@@ -1868,13 +1868,13 @@
         <v>10001010</v>
       </c>
       <c r="B11" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>22</v>
@@ -1909,13 +1909,13 @@
         <v>10001011</v>
       </c>
       <c r="B12" s="3">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>23</v>
@@ -1950,13 +1950,13 @@
         <v>10001012</v>
       </c>
       <c r="B13" s="3">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>24</v>
@@ -1991,13 +1991,13 @@
         <v>10001013</v>
       </c>
       <c r="B14" s="3">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>25</v>
@@ -2032,13 +2032,13 @@
         <v>10001014</v>
       </c>
       <c r="B15" s="3">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>26</v>
@@ -2073,13 +2073,13 @@
         <v>10001015</v>
       </c>
       <c r="B16" s="3">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
@@ -2114,13 +2114,13 @@
         <v>10002001</v>
       </c>
       <c r="B17" s="4">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="C17" s="4">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
@@ -2155,13 +2155,13 @@
         <v>10002002</v>
       </c>
       <c r="B18" s="4">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C18" s="4">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>14</v>
@@ -2196,13 +2196,13 @@
         <v>10002003</v>
       </c>
       <c r="B19" s="4">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C19" s="4">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
@@ -2237,13 +2237,13 @@
         <v>10002004</v>
       </c>
       <c r="B20" s="4">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="C20" s="4">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>16</v>
@@ -2278,13 +2278,13 @@
         <v>10002005</v>
       </c>
       <c r="B21" s="4">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="C21" s="4">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>17</v>
@@ -2319,13 +2319,13 @@
         <v>10002006</v>
       </c>
       <c r="B22" s="4">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>18</v>
@@ -2360,13 +2360,13 @@
         <v>10002007</v>
       </c>
       <c r="B23" s="4">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="C23" s="4">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>19</v>
@@ -2401,13 +2401,13 @@
         <v>10002008</v>
       </c>
       <c r="B24" s="4">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="C24" s="4">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
@@ -2442,13 +2442,13 @@
         <v>10002009</v>
       </c>
       <c r="B25" s="4">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C25" s="4">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>21</v>
@@ -2483,13 +2483,13 @@
         <v>10002010</v>
       </c>
       <c r="B26" s="4">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C26" s="4">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>22</v>
@@ -2524,13 +2524,13 @@
         <v>10002011</v>
       </c>
       <c r="B27" s="4">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="C27" s="4">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>23</v>
@@ -2565,13 +2565,13 @@
         <v>10002012</v>
       </c>
       <c r="B28" s="4">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="C28" s="4">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>24</v>
@@ -2606,13 +2606,13 @@
         <v>10002013</v>
       </c>
       <c r="B29" s="4">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="C29" s="4">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>25</v>
@@ -2647,13 +2647,13 @@
         <v>10002014</v>
       </c>
       <c r="B30" s="4">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="C30" s="4">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>26</v>
@@ -2688,13 +2688,13 @@
         <v>10002015</v>
       </c>
       <c r="B31" s="4">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C31" s="4">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>27</v>
@@ -2729,13 +2729,13 @@
         <v>10003001</v>
       </c>
       <c r="B32" s="5">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="C32" s="5">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>13</v>
@@ -2770,13 +2770,13 @@
         <v>10003002</v>
       </c>
       <c r="B33" s="5">
-        <v>381</v>
+        <v>496</v>
       </c>
       <c r="C33" s="5">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D33" s="5">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>14</v>
@@ -2811,13 +2811,13 @@
         <v>10003003</v>
       </c>
       <c r="B34" s="5">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="C34" s="5">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>15</v>
@@ -2860,13 +2860,13 @@
         <v>10003004</v>
       </c>
       <c r="B35" s="5">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="C35" s="5">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="D35" s="5">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2875,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>16</v>
@@ -2910,13 +2910,13 @@
         <v>10003005</v>
       </c>
       <c r="B36" s="5">
-        <v>426</v>
+        <v>568</v>
       </c>
       <c r="C36" s="5">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D36" s="5">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>17</v>
@@ -2951,13 +2951,13 @@
         <v>10003006</v>
       </c>
       <c r="B37" s="5">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="C37" s="5">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="D37" s="5">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -2992,13 +2992,13 @@
         <v>10003007</v>
       </c>
       <c r="B38" s="5">
-        <v>456</v>
+        <v>616</v>
       </c>
       <c r="C38" s="5">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="D38" s="5">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>19</v>
@@ -3033,13 +3033,13 @@
         <v>10003008</v>
       </c>
       <c r="B39" s="5">
-        <v>471</v>
+        <v>640</v>
       </c>
       <c r="C39" s="5">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>20</v>
@@ -3074,13 +3074,13 @@
         <v>10003009</v>
       </c>
       <c r="B40" s="5">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="C40" s="5">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="D40" s="5">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -3089,7 +3089,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>21</v>
@@ -3115,13 +3115,13 @@
         <v>10003010</v>
       </c>
       <c r="B41" s="5">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="C41" s="5">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D41" s="5">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>22</v>
@@ -3156,13 +3156,13 @@
         <v>10003011</v>
       </c>
       <c r="B42" s="5">
-        <v>516</v>
+        <v>712</v>
       </c>
       <c r="C42" s="5">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -3171,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>23</v>
@@ -3197,13 +3197,13 @@
         <v>10003012</v>
       </c>
       <c r="B43" s="5">
-        <v>531</v>
+        <v>736</v>
       </c>
       <c r="C43" s="5">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D43" s="5">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>24</v>
@@ -3238,13 +3238,13 @@
         <v>10003013</v>
       </c>
       <c r="B44" s="5">
-        <v>546</v>
+        <v>760</v>
       </c>
       <c r="C44" s="5">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="D44" s="5">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>25</v>
@@ -3279,13 +3279,13 @@
         <v>10003014</v>
       </c>
       <c r="B45" s="5">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="C45" s="5">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>26</v>
@@ -3320,13 +3320,13 @@
         <v>10003015</v>
       </c>
       <c r="B46" s="5">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="C46" s="5">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="D46" s="5">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>27</v>
@@ -3361,13 +3361,13 @@
         <v>10004001</v>
       </c>
       <c r="B47" s="6">
-        <v>591</v>
+        <v>838</v>
       </c>
       <c r="C47" s="6">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D47" s="6">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>13</v>
@@ -3402,13 +3402,13 @@
         <v>10004002</v>
       </c>
       <c r="B48" s="6">
-        <v>606</v>
+        <v>868</v>
       </c>
       <c r="C48" s="6">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>14</v>
@@ -3443,13 +3443,13 @@
         <v>10004003</v>
       </c>
       <c r="B49" s="6">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="C49" s="6">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>15</v>
@@ -3484,13 +3484,13 @@
         <v>10004004</v>
       </c>
       <c r="B50" s="6">
-        <v>636</v>
+        <v>928</v>
       </c>
       <c r="C50" s="6">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D50" s="6">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>16</v>
@@ -3525,13 +3525,13 @@
         <v>10004005</v>
       </c>
       <c r="B51" s="6">
-        <v>651</v>
+        <v>958</v>
       </c>
       <c r="C51" s="6">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="D51" s="6">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>17</v>
@@ -3566,13 +3566,13 @@
         <v>10004006</v>
       </c>
       <c r="B52" s="6">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C52" s="6">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D52" s="6">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>18</v>
@@ -3607,13 +3607,13 @@
         <v>10004007</v>
       </c>
       <c r="B53" s="6">
-        <v>681</v>
+        <v>1018</v>
       </c>
       <c r="C53" s="6">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>19</v>
@@ -3648,13 +3648,13 @@
         <v>10004008</v>
       </c>
       <c r="B54" s="6">
-        <v>696</v>
+        <v>1048</v>
       </c>
       <c r="C54" s="6">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="D54" s="6">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>20</v>
@@ -3689,13 +3689,13 @@
         <v>10004009</v>
       </c>
       <c r="B55" s="6">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C55" s="6">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D55" s="6">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>21</v>
@@ -3730,13 +3730,13 @@
         <v>10004010</v>
       </c>
       <c r="B56" s="6">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="C56" s="6">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="D56" s="6">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>22</v>
@@ -3771,13 +3771,13 @@
         <v>10004011</v>
       </c>
       <c r="B57" s="6">
-        <v>741</v>
+        <v>1138</v>
       </c>
       <c r="C57" s="6">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="D57" s="6">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
@@ -3786,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>23</v>
@@ -3812,13 +3812,13 @@
         <v>10004012</v>
       </c>
       <c r="B58" s="6">
-        <v>756</v>
+        <v>1168</v>
       </c>
       <c r="C58" s="6">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="D58" s="6">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>24</v>
@@ -3853,13 +3853,13 @@
         <v>10004013</v>
       </c>
       <c r="B59" s="6">
-        <v>771</v>
+        <v>1198</v>
       </c>
       <c r="C59" s="6">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="D59" s="6">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>25</v>
@@ -3894,13 +3894,13 @@
         <v>10004014</v>
       </c>
       <c r="B60" s="6">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="C60" s="6">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="D60" s="6">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>26</v>
@@ -3935,13 +3935,13 @@
         <v>10004015</v>
       </c>
       <c r="B61" s="6">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="C61" s="6">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="D61" s="6">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="6">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>27</v>
@@ -3976,13 +3976,13 @@
         <v>10005001</v>
       </c>
       <c r="B62" s="5">
-        <v>816</v>
+        <v>1294</v>
       </c>
       <c r="C62" s="5">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="D62" s="5">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>13</v>
@@ -4017,13 +4017,13 @@
         <v>10005002</v>
       </c>
       <c r="B63" s="5">
-        <v>831</v>
+        <v>1330</v>
       </c>
       <c r="C63" s="5">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="D63" s="5">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -4032,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>14</v>
@@ -4058,13 +4058,13 @@
         <v>10005003</v>
       </c>
       <c r="B64" s="5">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="C64" s="5">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="D64" s="5">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>15</v>
@@ -4099,13 +4099,13 @@
         <v>10005004</v>
       </c>
       <c r="B65" s="5">
-        <v>861</v>
+        <v>1402</v>
       </c>
       <c r="C65" s="5">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="D65" s="5">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>16</v>
@@ -4140,13 +4140,13 @@
         <v>10005005</v>
       </c>
       <c r="B66" s="5">
-        <v>876</v>
+        <v>1438</v>
       </c>
       <c r="C66" s="5">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="D66" s="5">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>17</v>
@@ -4181,13 +4181,13 @@
         <v>10005006</v>
       </c>
       <c r="B67" s="5">
-        <v>891</v>
+        <v>982</v>
       </c>
       <c r="C67" s="5">
-        <v>247</v>
+        <v>140</v>
       </c>
       <c r="D67" s="5">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
@@ -4222,13 +4222,13 @@
         <v>10005007</v>
       </c>
       <c r="B68" s="5">
-        <v>906</v>
+        <v>1510</v>
       </c>
       <c r="C68" s="5">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="D68" s="5">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>19</v>
@@ -4263,13 +4263,13 @@
         <v>10005008</v>
       </c>
       <c r="B69" s="5">
-        <v>921</v>
+        <v>1546</v>
       </c>
       <c r="C69" s="5">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="D69" s="5">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -4278,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>20</v>
@@ -4304,13 +4304,13 @@
         <v>10005009</v>
       </c>
       <c r="B70" s="5">
-        <v>936</v>
+        <v>1054</v>
       </c>
       <c r="C70" s="5">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="D70" s="5">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>21</v>
@@ -4345,13 +4345,13 @@
         <v>10005010</v>
       </c>
       <c r="B71" s="5">
-        <v>951</v>
+        <v>1078</v>
       </c>
       <c r="C71" s="5">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="D71" s="5">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>22</v>
@@ -4386,13 +4386,13 @@
         <v>10005011</v>
       </c>
       <c r="B72" s="5">
-        <v>966</v>
+        <v>1654</v>
       </c>
       <c r="C72" s="5">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="D72" s="5">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>23</v>
@@ -4427,13 +4427,13 @@
         <v>10005012</v>
       </c>
       <c r="B73" s="5">
-        <v>981</v>
+        <v>1690</v>
       </c>
       <c r="C73" s="5">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="D73" s="5">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>24</v>
@@ -4468,13 +4468,13 @@
         <v>10005013</v>
       </c>
       <c r="B74" s="5">
-        <v>996</v>
+        <v>1726</v>
       </c>
       <c r="C74" s="5">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="D74" s="5">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="E74" s="5">
         <v>1</v>
@@ -4483,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>25</v>
@@ -4509,13 +4509,13 @@
         <v>10005014</v>
       </c>
       <c r="B75" s="5">
-        <v>1011</v>
+        <v>1174</v>
       </c>
       <c r="C75" s="5">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D75" s="5">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -4524,7 +4524,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>26</v>
@@ -4550,13 +4550,13 @@
         <v>10005015</v>
       </c>
       <c r="B76" s="5">
-        <v>1026</v>
+        <v>1198</v>
       </c>
       <c r="C76" s="5">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D76" s="5">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>27</v>
@@ -4591,13 +4591,13 @@
         <v>10006001</v>
       </c>
       <c r="B77" s="6">
-        <v>1041</v>
+        <v>1840</v>
       </c>
       <c r="C77" s="6">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="D77" s="6">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -4606,8 +4606,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="6">
-        <f>G62+10</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>13</v>
@@ -4633,13 +4632,13 @@
         <v>10006002</v>
       </c>
       <c r="B78" s="6">
-        <v>1056</v>
+        <v>1882</v>
       </c>
       <c r="C78" s="6">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="D78" s="6">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -4648,8 +4647,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" ref="G78:G141" si="0">G63+10</f>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>14</v>
@@ -4675,13 +4673,13 @@
         <v>10006003</v>
       </c>
       <c r="B79" s="6">
-        <v>1071</v>
+        <v>1282</v>
       </c>
       <c r="C79" s="6">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="D79" s="6">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -4690,8 +4688,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>15</v>
@@ -4717,13 +4714,13 @@
         <v>10006004</v>
       </c>
       <c r="B80" s="6">
-        <v>1086</v>
+        <v>1966</v>
       </c>
       <c r="C80" s="6">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="D80" s="6">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -4732,8 +4729,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>16</v>
@@ -4759,13 +4755,13 @@
         <v>10006005</v>
       </c>
       <c r="B81" s="6">
-        <v>1101</v>
+        <v>2008</v>
       </c>
       <c r="C81" s="6">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="D81" s="6">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -4774,8 +4770,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>17</v>
@@ -4801,13 +4796,13 @@
         <v>10006006</v>
       </c>
       <c r="B82" s="6">
-        <v>1116</v>
+        <v>1366</v>
       </c>
       <c r="C82" s="6">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="D82" s="6">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -4816,8 +4811,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>18</v>
@@ -4843,13 +4837,13 @@
         <v>10006007</v>
       </c>
       <c r="B83" s="6">
-        <v>1131</v>
+        <v>2092</v>
       </c>
       <c r="C83" s="6">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="D83" s="6">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -4858,8 +4852,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>19</v>
@@ -4885,13 +4878,13 @@
         <v>10006008</v>
       </c>
       <c r="B84" s="6">
-        <v>1146</v>
+        <v>2134</v>
       </c>
       <c r="C84" s="6">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="D84" s="6">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -4900,8 +4893,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>20</v>
@@ -4927,13 +4919,13 @@
         <v>10006009</v>
       </c>
       <c r="B85" s="6">
-        <v>1161</v>
+        <v>1450</v>
       </c>
       <c r="C85" s="6">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="D85" s="6">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -4942,8 +4934,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>21</v>
@@ -4969,13 +4960,13 @@
         <v>10006010</v>
       </c>
       <c r="B86" s="6">
-        <v>1176</v>
+        <v>1478</v>
       </c>
       <c r="C86" s="6">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="D86" s="6">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -4984,8 +4975,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>22</v>
@@ -5011,13 +5001,13 @@
         <v>10006011</v>
       </c>
       <c r="B87" s="6">
-        <v>1191</v>
+        <v>2260</v>
       </c>
       <c r="C87" s="6">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="D87" s="6">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -5026,8 +5016,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>23</v>
@@ -5053,13 +5042,13 @@
         <v>10006012</v>
       </c>
       <c r="B88" s="6">
-        <v>1206</v>
+        <v>2302</v>
       </c>
       <c r="C88" s="6">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="D88" s="6">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -5068,8 +5057,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>24</v>
@@ -5095,13 +5083,13 @@
         <v>10006013</v>
       </c>
       <c r="B89" s="6">
-        <v>1221</v>
+        <v>2344</v>
       </c>
       <c r="C89" s="6">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="D89" s="6">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
@@ -5110,8 +5098,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>25</v>
@@ -5137,13 +5124,13 @@
         <v>10006014</v>
       </c>
       <c r="B90" s="6">
-        <v>1236</v>
+        <v>1590</v>
       </c>
       <c r="C90" s="6">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D90" s="6">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
@@ -5152,8 +5139,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>26</v>
@@ -5179,13 +5165,13 @@
         <v>10006015</v>
       </c>
       <c r="B91" s="6">
-        <v>1251</v>
+        <v>1618</v>
       </c>
       <c r="C91" s="6">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D91" s="6">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
@@ -5194,8 +5180,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>27</v>
@@ -5221,13 +5206,13 @@
         <v>10007001</v>
       </c>
       <c r="B92" s="5">
-        <v>1266</v>
+        <v>2476</v>
       </c>
       <c r="C92" s="5">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="D92" s="5">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -5236,8 +5221,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>13</v>
@@ -5263,13 +5247,13 @@
         <v>10007002</v>
       </c>
       <c r="B93" s="5">
-        <v>1281</v>
+        <v>2524</v>
       </c>
       <c r="C93" s="5">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="D93" s="5">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -5278,8 +5262,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>14</v>
@@ -5305,13 +5288,13 @@
         <v>10007003</v>
       </c>
       <c r="B94" s="5">
-        <v>1296</v>
+        <v>1714</v>
       </c>
       <c r="C94" s="5">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D94" s="5">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
@@ -5320,8 +5303,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>15</v>
@@ -5347,13 +5329,13 @@
         <v>10007004</v>
       </c>
       <c r="B95" s="5">
-        <v>1311</v>
+        <v>2620</v>
       </c>
       <c r="C95" s="5">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="D95" s="5">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="E95" s="5">
         <v>1</v>
@@ -5362,8 +5344,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>16</v>
@@ -5389,13 +5370,13 @@
         <v>10007005</v>
       </c>
       <c r="B96" s="5">
-        <v>1326</v>
+        <v>2668</v>
       </c>
       <c r="C96" s="5">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="D96" s="5">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
@@ -5404,8 +5385,7 @@
         <v>10</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>17</v>
@@ -5431,13 +5411,13 @@
         <v>10007006</v>
       </c>
       <c r="B97" s="5">
-        <v>1341</v>
+        <v>1810</v>
       </c>
       <c r="C97" s="5">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D97" s="5">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -5446,8 +5426,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>18</v>
@@ -5473,13 +5452,13 @@
         <v>10007007</v>
       </c>
       <c r="B98" s="5">
-        <v>1356</v>
+        <v>2764</v>
       </c>
       <c r="C98" s="5">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="D98" s="5">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
@@ -5488,8 +5467,7 @@
         <v>10</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>19</v>
@@ -5515,13 +5493,13 @@
         <v>10007008</v>
       </c>
       <c r="B99" s="5">
-        <v>1371</v>
+        <v>2812</v>
       </c>
       <c r="C99" s="5">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="D99" s="5">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -5530,8 +5508,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>20</v>
@@ -5557,13 +5534,13 @@
         <v>10007009</v>
       </c>
       <c r="B100" s="5">
-        <v>1386</v>
+        <v>1906</v>
       </c>
       <c r="C100" s="5">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="D100" s="5">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -5572,8 +5549,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>21</v>
@@ -5599,13 +5575,13 @@
         <v>10007010</v>
       </c>
       <c r="B101" s="5">
-        <v>1401</v>
+        <v>1938</v>
       </c>
       <c r="C101" s="5">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="D101" s="5">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
@@ -5614,8 +5590,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>22</v>
@@ -5641,13 +5616,13 @@
         <v>10007011</v>
       </c>
       <c r="B102" s="5">
-        <v>1416</v>
+        <v>2956</v>
       </c>
       <c r="C102" s="5">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="D102" s="5">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="E102" s="5">
         <v>1</v>
@@ -5656,8 +5631,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>23</v>
@@ -5683,13 +5657,13 @@
         <v>10007012</v>
       </c>
       <c r="B103" s="5">
-        <v>1431</v>
+        <v>3004</v>
       </c>
       <c r="C103" s="5">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="D103" s="5">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -5698,8 +5672,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>24</v>
@@ -5725,13 +5698,13 @@
         <v>10007013</v>
       </c>
       <c r="B104" s="5">
-        <v>1446</v>
+        <v>3052</v>
       </c>
       <c r="C104" s="5">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D104" s="5">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -5740,8 +5713,7 @@
         <v>10</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>25</v>
@@ -5767,13 +5739,13 @@
         <v>10007014</v>
       </c>
       <c r="B105" s="5">
-        <v>1461</v>
+        <v>2066</v>
       </c>
       <c r="C105" s="5">
-        <v>399</v>
+        <v>283</v>
       </c>
       <c r="D105" s="5">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -5782,8 +5754,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>26</v>
@@ -5809,13 +5780,13 @@
         <v>10007015</v>
       </c>
       <c r="B106" s="5">
-        <v>1476</v>
+        <v>2098</v>
       </c>
       <c r="C106" s="5">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="D106" s="5">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -5824,8 +5795,7 @@
         <v>10</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>27</v>
@@ -5851,13 +5821,13 @@
         <v>10008001</v>
       </c>
       <c r="B107" s="6">
-        <v>1491</v>
+        <v>3202</v>
       </c>
       <c r="C107" s="6">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D107" s="6">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -5866,8 +5836,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>13</v>
@@ -5893,13 +5862,13 @@
         <v>10008002</v>
       </c>
       <c r="B108" s="6">
-        <v>1506</v>
+        <v>3256</v>
       </c>
       <c r="C108" s="6">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D108" s="6">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -5908,8 +5877,7 @@
         <v>10</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>14</v>
@@ -5935,13 +5903,13 @@
         <v>10008003</v>
       </c>
       <c r="B109" s="6">
-        <v>1521</v>
+        <v>2206</v>
       </c>
       <c r="C109" s="6">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="D109" s="6">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -5950,8 +5918,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>15</v>
@@ -5977,13 +5944,13 @@
         <v>10008004</v>
       </c>
       <c r="B110" s="6">
-        <v>1536</v>
+        <v>3364</v>
       </c>
       <c r="C110" s="6">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D110" s="6">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
@@ -5992,8 +5959,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>16</v>
@@ -6019,13 +5985,13 @@
         <v>10008005</v>
       </c>
       <c r="B111" s="6">
-        <v>1551</v>
+        <v>3418</v>
       </c>
       <c r="C111" s="6">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D111" s="6">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
@@ -6034,8 +6000,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>17</v>
@@ -6061,13 +6026,13 @@
         <v>10008006</v>
       </c>
       <c r="B112" s="6">
-        <v>1566</v>
+        <v>2314</v>
       </c>
       <c r="C112" s="6">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="D112" s="6">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="E112" s="6">
         <v>1</v>
@@ -6076,8 +6041,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>18</v>
@@ -6103,13 +6067,13 @@
         <v>10008007</v>
       </c>
       <c r="B113" s="6">
-        <v>1581</v>
+        <v>3526</v>
       </c>
       <c r="C113" s="6">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D113" s="6">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -6118,8 +6082,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>19</v>
@@ -6145,13 +6108,13 @@
         <v>10008008</v>
       </c>
       <c r="B114" s="6">
-        <v>1596</v>
+        <v>3580</v>
       </c>
       <c r="C114" s="6">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D114" s="6">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -6160,8 +6123,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>20</v>
@@ -6187,13 +6149,13 @@
         <v>10008009</v>
       </c>
       <c r="B115" s="6">
-        <v>1611</v>
+        <v>2422</v>
       </c>
       <c r="C115" s="6">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="D115" s="6">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -6202,8 +6164,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>21</v>
@@ -6229,13 +6190,13 @@
         <v>10008010</v>
       </c>
       <c r="B116" s="6">
-        <v>1626</v>
+        <v>2458</v>
       </c>
       <c r="C116" s="6">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="D116" s="6">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -6244,8 +6205,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>22</v>
@@ -6271,13 +6231,13 @@
         <v>10008011</v>
       </c>
       <c r="B117" s="6">
-        <v>1641</v>
+        <v>3742</v>
       </c>
       <c r="C117" s="6">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="D117" s="6">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -6286,8 +6246,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>23</v>
@@ -6313,13 +6272,13 @@
         <v>10008012</v>
       </c>
       <c r="B118" s="6">
-        <v>1656</v>
+        <v>3796</v>
       </c>
       <c r="C118" s="6">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="D118" s="6">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -6328,8 +6287,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>24</v>
@@ -6355,13 +6313,13 @@
         <v>10008013</v>
       </c>
       <c r="B119" s="6">
-        <v>1671</v>
+        <v>3850</v>
       </c>
       <c r="C119" s="6">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D119" s="6">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -6370,8 +6328,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>25</v>
@@ -6397,13 +6354,13 @@
         <v>10008014</v>
       </c>
       <c r="B120" s="6">
-        <v>1686</v>
+        <v>2602</v>
       </c>
       <c r="C120" s="6">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="D120" s="6">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="E120" s="6">
         <v>1</v>
@@ -6412,8 +6369,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>26</v>
@@ -6439,13 +6395,13 @@
         <v>10008015</v>
       </c>
       <c r="B121" s="6">
-        <v>1701</v>
+        <v>2638</v>
       </c>
       <c r="C121" s="6">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="D121" s="6">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -6454,8 +6410,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>27</v>
@@ -6481,13 +6436,13 @@
         <v>10009001</v>
       </c>
       <c r="B122" s="5">
-        <v>1716</v>
+        <v>4018</v>
       </c>
       <c r="C122" s="5">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="D122" s="5">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="E122" s="5">
         <v>1</v>
@@ -6496,8 +6451,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>13</v>
@@ -6523,13 +6477,13 @@
         <v>10009002</v>
       </c>
       <c r="B123" s="5">
-        <v>1731</v>
+        <v>4078</v>
       </c>
       <c r="C123" s="5">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="D123" s="5">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="E123" s="5">
         <v>1</v>
@@ -6538,8 +6492,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>14</v>
@@ -6565,13 +6518,13 @@
         <v>10009003</v>
       </c>
       <c r="B124" s="5">
-        <v>1746</v>
+        <v>2758</v>
       </c>
       <c r="C124" s="5">
-        <v>475</v>
+        <v>377</v>
       </c>
       <c r="D124" s="5">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="E124" s="5">
         <v>1</v>
@@ -6580,8 +6533,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>15</v>
@@ -6607,13 +6559,13 @@
         <v>10009004</v>
       </c>
       <c r="B125" s="5">
-        <v>1761</v>
+        <v>4198</v>
       </c>
       <c r="C125" s="5">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="D125" s="5">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -6622,8 +6574,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>16</v>
@@ -6649,13 +6600,13 @@
         <v>10009005</v>
       </c>
       <c r="B126" s="5">
-        <v>1776</v>
+        <v>4258</v>
       </c>
       <c r="C126" s="5">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="D126" s="5">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -6664,8 +6615,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>17</v>
@@ -6691,13 +6641,13 @@
         <v>10009006</v>
       </c>
       <c r="B127" s="5">
-        <v>1791</v>
+        <v>2878</v>
       </c>
       <c r="C127" s="5">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="D127" s="5">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -6706,8 +6656,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>18</v>
@@ -6733,13 +6682,13 @@
         <v>10009007</v>
       </c>
       <c r="B128" s="5">
-        <v>1806</v>
+        <v>4378</v>
       </c>
       <c r="C128" s="5">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="D128" s="5">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -6748,8 +6697,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>19</v>
@@ -6775,13 +6723,13 @@
         <v>10009008</v>
       </c>
       <c r="B129" s="5">
-        <v>1821</v>
+        <v>4438</v>
       </c>
       <c r="C129" s="5">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="D129" s="5">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="E129" s="5">
         <v>1</v>
@@ -6790,8 +6738,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>20</v>
@@ -6817,13 +6764,13 @@
         <v>10009009</v>
       </c>
       <c r="B130" s="5">
-        <v>1836</v>
+        <v>2998</v>
       </c>
       <c r="C130" s="5">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="D130" s="5">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="E130" s="5">
         <v>1</v>
@@ -6832,8 +6779,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>21</v>
@@ -6859,13 +6805,13 @@
         <v>10009010</v>
       </c>
       <c r="B131" s="5">
-        <v>1851</v>
+        <v>3038</v>
       </c>
       <c r="C131" s="5">
-        <v>503</v>
+        <v>412</v>
       </c>
       <c r="D131" s="5">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -6874,8 +6820,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>22</v>
@@ -6901,13 +6846,13 @@
         <v>10009011</v>
       </c>
       <c r="B132" s="5">
-        <v>1866</v>
+        <v>4618</v>
       </c>
       <c r="C132" s="5">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="D132" s="5">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -6916,8 +6861,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>23</v>
@@ -6943,13 +6887,13 @@
         <v>10009012</v>
       </c>
       <c r="B133" s="5">
-        <v>1881</v>
+        <v>4678</v>
       </c>
       <c r="C133" s="5">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="D133" s="5">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -6958,8 +6902,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>24</v>
@@ -6985,13 +6928,13 @@
         <v>10009013</v>
       </c>
       <c r="B134" s="5">
-        <v>1896</v>
+        <v>4738</v>
       </c>
       <c r="C134" s="5">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="D134" s="5">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -7000,8 +6943,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>25</v>
@@ -7027,13 +6969,13 @@
         <v>10009014</v>
       </c>
       <c r="B135" s="5">
-        <v>1911</v>
+        <v>3198</v>
       </c>
       <c r="C135" s="5">
-        <v>519</v>
+        <v>432</v>
       </c>
       <c r="D135" s="5">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -7042,8 +6984,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>26</v>
@@ -7069,13 +7010,13 @@
         <v>10009015</v>
       </c>
       <c r="B136" s="5">
-        <v>1926</v>
+        <v>3238</v>
       </c>
       <c r="C136" s="5">
-        <v>523</v>
+        <v>437</v>
       </c>
       <c r="D136" s="5">
-        <v>389</v>
+        <v>314</v>
       </c>
       <c r="E136" s="5">
         <v>1</v>
@@ -7084,8 +7025,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>27</v>
@@ -7111,13 +7051,13 @@
         <v>100010001</v>
       </c>
       <c r="B137" s="6">
-        <v>1941</v>
+        <v>4924</v>
       </c>
       <c r="C137" s="6">
-        <v>527</v>
+        <v>627</v>
       </c>
       <c r="D137" s="6">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="E137" s="6">
         <v>1</v>
@@ -7126,8 +7066,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>13</v>
@@ -7153,13 +7092,13 @@
         <v>100010002</v>
       </c>
       <c r="B138" s="6">
-        <v>1956</v>
+        <v>4990</v>
       </c>
       <c r="C138" s="6">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="D138" s="6">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="E138" s="6">
         <v>1</v>
@@ -7168,8 +7107,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>14</v>
@@ -7195,13 +7133,13 @@
         <v>100010003</v>
       </c>
       <c r="B139" s="6">
-        <v>1971</v>
+        <v>3370</v>
       </c>
       <c r="C139" s="6">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="D139" s="6">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="E139" s="6">
         <v>1</v>
@@ -7210,8 +7148,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>15</v>
@@ -7237,13 +7174,13 @@
         <v>100010004</v>
       </c>
       <c r="B140" s="6">
-        <v>1986</v>
+        <v>5122</v>
       </c>
       <c r="C140" s="6">
-        <v>539</v>
+        <v>657</v>
       </c>
       <c r="D140" s="6">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="E140" s="6">
         <v>1</v>
@@ -7252,8 +7189,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>16</v>
@@ -7279,13 +7215,13 @@
         <v>100010005</v>
       </c>
       <c r="B141" s="6">
-        <v>2001</v>
+        <v>5188</v>
       </c>
       <c r="C141" s="6">
-        <v>543</v>
+        <v>667</v>
       </c>
       <c r="D141" s="6">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="E141" s="6">
         <v>1</v>
@@ -7294,8 +7230,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>17</v>
@@ -7321,13 +7256,13 @@
         <v>100010006</v>
       </c>
       <c r="B142" s="6">
-        <v>2016</v>
+        <v>3502</v>
       </c>
       <c r="C142" s="6">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="D142" s="6">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="E142" s="6">
         <v>1</v>
@@ -7336,8 +7271,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" ref="G142:G205" si="1">G127+10</f>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>18</v>
@@ -7363,13 +7297,13 @@
         <v>100010007</v>
       </c>
       <c r="B143" s="6">
-        <v>2031</v>
+        <v>5320</v>
       </c>
       <c r="C143" s="6">
-        <v>551</v>
+        <v>687</v>
       </c>
       <c r="D143" s="6">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="E143" s="6">
         <v>1</v>
@@ -7378,8 +7312,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>19</v>
@@ -7405,13 +7338,13 @@
         <v>100010008</v>
       </c>
       <c r="B144" s="6">
-        <v>2046</v>
+        <v>5386</v>
       </c>
       <c r="C144" s="6">
-        <v>555</v>
+        <v>697</v>
       </c>
       <c r="D144" s="6">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E144" s="6">
         <v>1</v>
@@ -7420,8 +7353,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>20</v>
@@ -7447,13 +7379,13 @@
         <v>100010009</v>
       </c>
       <c r="B145" s="6">
-        <v>2061</v>
+        <v>3634</v>
       </c>
       <c r="C145" s="6">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="D145" s="6">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E145" s="6">
         <v>1</v>
@@ -7462,8 +7394,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>21</v>
@@ -7489,13 +7420,13 @@
         <v>100010010</v>
       </c>
       <c r="B146" s="6">
-        <v>2076</v>
+        <v>3678</v>
       </c>
       <c r="C146" s="6">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="D146" s="6">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="E146" s="6">
         <v>1</v>
@@ -7504,8 +7435,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>22</v>
@@ -7531,13 +7461,13 @@
         <v>100010011</v>
       </c>
       <c r="B147" s="6">
-        <v>2091</v>
+        <v>5584</v>
       </c>
       <c r="C147" s="6">
-        <v>567</v>
+        <v>727</v>
       </c>
       <c r="D147" s="6">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="E147" s="6">
         <v>1</v>
@@ -7546,8 +7476,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>23</v>
@@ -7573,13 +7502,13 @@
         <v>100010012</v>
       </c>
       <c r="B148" s="6">
-        <v>2106</v>
+        <v>5650</v>
       </c>
       <c r="C148" s="6">
-        <v>571</v>
+        <v>737</v>
       </c>
       <c r="D148" s="6">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="E148" s="6">
         <v>1</v>
@@ -7588,8 +7517,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>24</v>
@@ -7615,13 +7543,13 @@
         <v>100010013</v>
       </c>
       <c r="B149" s="6">
-        <v>2121</v>
+        <v>5716</v>
       </c>
       <c r="C149" s="6">
-        <v>575</v>
+        <v>747</v>
       </c>
       <c r="D149" s="6">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="E149" s="6">
         <v>1</v>
@@ -7630,8 +7558,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>25</v>
@@ -7657,13 +7584,13 @@
         <v>100010014</v>
       </c>
       <c r="B150" s="6">
-        <v>2136</v>
+        <v>3854</v>
       </c>
       <c r="C150" s="6">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="D150" s="6">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="E150" s="6">
         <v>1</v>
@@ -7672,8 +7599,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>26</v>
@@ -7699,13 +7625,13 @@
         <v>100010015</v>
       </c>
       <c r="B151" s="6">
-        <v>2151</v>
+        <v>3898</v>
       </c>
       <c r="C151" s="6">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="D151" s="6">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="E151" s="6">
         <v>1</v>
@@ -7714,8 +7640,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>27</v>
@@ -7741,13 +7666,13 @@
         <v>100011001</v>
       </c>
       <c r="B152" s="5">
-        <v>2166</v>
+        <v>5920</v>
       </c>
       <c r="C152" s="5">
-        <v>587</v>
+        <v>777</v>
       </c>
       <c r="D152" s="5">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="E152" s="5">
         <v>1</v>
@@ -7756,8 +7681,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>13</v>
@@ -7783,13 +7707,13 @@
         <v>100011002</v>
       </c>
       <c r="B153" s="5">
-        <v>2181</v>
+        <v>5992</v>
       </c>
       <c r="C153" s="5">
-        <v>591</v>
+        <v>787</v>
       </c>
       <c r="D153" s="5">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -7798,8 +7722,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>14</v>
@@ -7825,13 +7748,13 @@
         <v>100011003</v>
       </c>
       <c r="B154" s="5">
-        <v>2196</v>
+        <v>4042</v>
       </c>
       <c r="C154" s="5">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="D154" s="5">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="E154" s="5">
         <v>1</v>
@@ -7840,8 +7763,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>15</v>
@@ -7867,13 +7789,13 @@
         <v>100011004</v>
       </c>
       <c r="B155" s="5">
-        <v>2211</v>
+        <v>6136</v>
       </c>
       <c r="C155" s="5">
-        <v>599</v>
+        <v>807</v>
       </c>
       <c r="D155" s="5">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -7882,8 +7804,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>16</v>
@@ -7909,13 +7830,13 @@
         <v>100011005</v>
       </c>
       <c r="B156" s="5">
-        <v>2226</v>
+        <v>6208</v>
       </c>
       <c r="C156" s="5">
-        <v>603</v>
+        <v>817</v>
       </c>
       <c r="D156" s="5">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="E156" s="5">
         <v>1</v>
@@ -7924,8 +7845,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>17</v>
@@ -7951,13 +7871,13 @@
         <v>100011006</v>
       </c>
       <c r="B157" s="5">
-        <v>2241</v>
+        <v>4186</v>
       </c>
       <c r="C157" s="5">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="D157" s="5">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E157" s="5">
         <v>1</v>
@@ -7966,8 +7886,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>18</v>
@@ -7993,13 +7912,13 @@
         <v>100011007</v>
       </c>
       <c r="B158" s="5">
-        <v>2256</v>
+        <v>6352</v>
       </c>
       <c r="C158" s="5">
-        <v>611</v>
+        <v>837</v>
       </c>
       <c r="D158" s="5">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E158" s="5">
         <v>1</v>
@@ -8008,8 +7927,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>19</v>
@@ -8035,13 +7953,13 @@
         <v>100011008</v>
       </c>
       <c r="B159" s="5">
-        <v>2271</v>
+        <v>6424</v>
       </c>
       <c r="C159" s="5">
-        <v>615</v>
+        <v>847</v>
       </c>
       <c r="D159" s="5">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -8050,8 +7968,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>20</v>
@@ -8077,13 +7994,13 @@
         <v>100011009</v>
       </c>
       <c r="B160" s="5">
-        <v>2286</v>
+        <v>4330</v>
       </c>
       <c r="C160" s="5">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="D160" s="5">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="E160" s="5">
         <v>1</v>
@@ -8092,8 +8009,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>21</v>
@@ -8119,13 +8035,13 @@
         <v>100011010</v>
       </c>
       <c r="B161" s="5">
-        <v>2301</v>
+        <v>4378</v>
       </c>
       <c r="C161" s="5">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="D161" s="5">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -8134,8 +8050,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>22</v>
@@ -8161,13 +8076,13 @@
         <v>100011011</v>
       </c>
       <c r="B162" s="5">
-        <v>2316</v>
+        <v>6640</v>
       </c>
       <c r="C162" s="5">
-        <v>627</v>
+        <v>877</v>
       </c>
       <c r="D162" s="5">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -8176,8 +8091,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>23</v>
@@ -8203,13 +8117,13 @@
         <v>100011012</v>
       </c>
       <c r="B163" s="5">
-        <v>2331</v>
+        <v>6712</v>
       </c>
       <c r="C163" s="5">
-        <v>631</v>
+        <v>887</v>
       </c>
       <c r="D163" s="5">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -8218,8 +8132,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>24</v>
@@ -8245,13 +8158,13 @@
         <v>100011013</v>
       </c>
       <c r="B164" s="5">
-        <v>2346</v>
+        <v>6784</v>
       </c>
       <c r="C164" s="5">
-        <v>635</v>
+        <v>897</v>
       </c>
       <c r="D164" s="5">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -8260,8 +8173,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>25</v>
@@ -8287,13 +8199,13 @@
         <v>100011014</v>
       </c>
       <c r="B165" s="5">
-        <v>2361</v>
+        <v>4570</v>
       </c>
       <c r="C165" s="5">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="D165" s="5">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="E165" s="5">
         <v>1</v>
@@ -8302,8 +8214,7 @@
         <v>10</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>26</v>
@@ -8329,13 +8240,13 @@
         <v>100011015</v>
       </c>
       <c r="B166" s="5">
-        <v>2376</v>
+        <v>4618</v>
       </c>
       <c r="C166" s="5">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="D166" s="5">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -8344,8 +8255,7 @@
         <v>10</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>27</v>
@@ -8371,13 +8281,13 @@
         <v>100012001</v>
       </c>
       <c r="B167" s="6">
-        <v>2391</v>
+        <v>7006</v>
       </c>
       <c r="C167" s="6">
-        <v>647</v>
+        <v>929</v>
       </c>
       <c r="D167" s="6">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E167" s="6">
         <v>1</v>
@@ -8386,8 +8296,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>13</v>
@@ -8413,13 +8322,13 @@
         <v>100012002</v>
       </c>
       <c r="B168" s="6">
-        <v>2406</v>
+        <v>7084</v>
       </c>
       <c r="C168" s="6">
-        <v>651</v>
+        <v>941</v>
       </c>
       <c r="D168" s="6">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E168" s="6">
         <v>1</v>
@@ -8428,8 +8337,7 @@
         <v>10</v>
       </c>
       <c r="G168" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>14</v>
@@ -8455,13 +8363,13 @@
         <v>100012003</v>
       </c>
       <c r="B169" s="6">
-        <v>2421</v>
+        <v>4774</v>
       </c>
       <c r="C169" s="6">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="D169" s="6">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E169" s="6">
         <v>1</v>
@@ -8470,8 +8378,7 @@
         <v>10</v>
       </c>
       <c r="G169" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>15</v>
@@ -8497,13 +8404,13 @@
         <v>100012004</v>
       </c>
       <c r="B170" s="6">
-        <v>2436</v>
+        <v>7240</v>
       </c>
       <c r="C170" s="6">
-        <v>659</v>
+        <v>965</v>
       </c>
       <c r="D170" s="6">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
@@ -8512,8 +8419,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>16</v>
@@ -8539,13 +8445,13 @@
         <v>100012005</v>
       </c>
       <c r="B171" s="6">
-        <v>2451</v>
+        <v>7318</v>
       </c>
       <c r="C171" s="6">
-        <v>663</v>
+        <v>977</v>
       </c>
       <c r="D171" s="6">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E171" s="6">
         <v>1</v>
@@ -8554,8 +8460,7 @@
         <v>10</v>
       </c>
       <c r="G171" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>17</v>
@@ -8581,13 +8486,13 @@
         <v>100012006</v>
       </c>
       <c r="B172" s="6">
-        <v>2466</v>
+        <v>4930</v>
       </c>
       <c r="C172" s="6">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D172" s="6">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E172" s="6">
         <v>1</v>
@@ -8596,8 +8501,7 @@
         <v>10</v>
       </c>
       <c r="G172" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>18</v>
@@ -8623,13 +8527,13 @@
         <v>100012007</v>
       </c>
       <c r="B173" s="6">
-        <v>2481</v>
+        <v>7474</v>
       </c>
       <c r="C173" s="6">
-        <v>671</v>
+        <v>1001</v>
       </c>
       <c r="D173" s="6">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E173" s="6">
         <v>1</v>
@@ -8638,8 +8542,7 @@
         <v>10</v>
       </c>
       <c r="G173" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>19</v>
@@ -8665,13 +8568,13 @@
         <v>100012008</v>
       </c>
       <c r="B174" s="6">
-        <v>2496</v>
+        <v>7552</v>
       </c>
       <c r="C174" s="6">
-        <v>675</v>
+        <v>1013</v>
       </c>
       <c r="D174" s="6">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E174" s="6">
         <v>1</v>
@@ -8680,8 +8583,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>20</v>
@@ -8707,13 +8609,13 @@
         <v>100012009</v>
       </c>
       <c r="B175" s="6">
-        <v>2511</v>
+        <v>5086</v>
       </c>
       <c r="C175" s="6">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D175" s="6">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E175" s="6">
         <v>1</v>
@@ -8722,8 +8624,7 @@
         <v>10</v>
       </c>
       <c r="G175" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>21</v>
@@ -8749,13 +8650,13 @@
         <v>100012010</v>
       </c>
       <c r="B176" s="6">
-        <v>2526</v>
+        <v>5138</v>
       </c>
       <c r="C176" s="6">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D176" s="6">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="E176" s="6">
         <v>1</v>
@@ -8764,8 +8665,7 @@
         <v>10</v>
       </c>
       <c r="G176" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>22</v>
@@ -8791,13 +8691,13 @@
         <v>100012011</v>
       </c>
       <c r="B177" s="6">
-        <v>2541</v>
+        <v>7786</v>
       </c>
       <c r="C177" s="6">
-        <v>687</v>
+        <v>1049</v>
       </c>
       <c r="D177" s="6">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E177" s="6">
         <v>1</v>
@@ -8806,8 +8706,7 @@
         <v>10</v>
       </c>
       <c r="G177" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>23</v>
@@ -8833,13 +8732,13 @@
         <v>100012012</v>
       </c>
       <c r="B178" s="6">
-        <v>2556</v>
+        <v>7864</v>
       </c>
       <c r="C178" s="6">
-        <v>691</v>
+        <v>1061</v>
       </c>
       <c r="D178" s="6">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="E178" s="6">
         <v>1</v>
@@ -8848,8 +8747,7 @@
         <v>10</v>
       </c>
       <c r="G178" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>24</v>
@@ -8875,13 +8773,13 @@
         <v>100012013</v>
       </c>
       <c r="B179" s="6">
-        <v>2571</v>
+        <v>7942</v>
       </c>
       <c r="C179" s="6">
-        <v>695</v>
+        <v>1073</v>
       </c>
       <c r="D179" s="6">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="E179" s="6">
         <v>1</v>
@@ -8890,8 +8788,7 @@
         <v>10</v>
       </c>
       <c r="G179" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>25</v>
@@ -8917,13 +8814,13 @@
         <v>100012014</v>
       </c>
       <c r="B180" s="6">
-        <v>2586</v>
+        <v>5346</v>
       </c>
       <c r="C180" s="6">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="D180" s="6">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
@@ -8932,8 +8829,7 @@
         <v>10</v>
       </c>
       <c r="G180" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>26</v>
@@ -8959,13 +8855,13 @@
         <v>100012015</v>
       </c>
       <c r="B181" s="6">
-        <v>2601</v>
+        <v>5398</v>
       </c>
       <c r="C181" s="6">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="D181" s="6">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="E181" s="6">
         <v>1</v>
@@ -8974,8 +8870,7 @@
         <v>10</v>
       </c>
       <c r="G181" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>27</v>
@@ -9001,13 +8896,13 @@
         <v>100013001</v>
       </c>
       <c r="B182" s="5">
-        <v>2616</v>
+        <v>8182</v>
       </c>
       <c r="C182" s="5">
-        <v>707</v>
+        <v>1109</v>
       </c>
       <c r="D182" s="5">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="E182" s="5">
         <v>1</v>
@@ -9016,8 +8911,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>13</v>
@@ -9043,13 +8937,13 @@
         <v>100013002</v>
       </c>
       <c r="B183" s="5">
-        <v>2631</v>
+        <v>8266</v>
       </c>
       <c r="C183" s="5">
-        <v>711</v>
+        <v>1121</v>
       </c>
       <c r="D183" s="5">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -9058,8 +8952,7 @@
         <v>10</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>14</v>
@@ -9085,13 +8978,13 @@
         <v>100013003</v>
       </c>
       <c r="B184" s="5">
-        <v>2646</v>
+        <v>5566</v>
       </c>
       <c r="C184" s="5">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="D184" s="5">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="E184" s="5">
         <v>1</v>
@@ -9100,8 +8993,7 @@
         <v>10</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>15</v>
@@ -9127,13 +9019,13 @@
         <v>100013004</v>
       </c>
       <c r="B185" s="5">
-        <v>2661</v>
+        <v>8434</v>
       </c>
       <c r="C185" s="5">
-        <v>719</v>
+        <v>1145</v>
       </c>
       <c r="D185" s="5">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="E185" s="5">
         <v>1</v>
@@ -9142,8 +9034,7 @@
         <v>10</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>16</v>
@@ -9169,13 +9060,13 @@
         <v>100013005</v>
       </c>
       <c r="B186" s="5">
-        <v>2676</v>
+        <v>8518</v>
       </c>
       <c r="C186" s="5">
-        <v>723</v>
+        <v>1157</v>
       </c>
       <c r="D186" s="5">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="E186" s="5">
         <v>1</v>
@@ -9184,8 +9075,7 @@
         <v>10</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>17</v>
@@ -9211,13 +9101,13 @@
         <v>100013006</v>
       </c>
       <c r="B187" s="5">
-        <v>2691</v>
+        <v>5734</v>
       </c>
       <c r="C187" s="5">
-        <v>727</v>
+        <v>764</v>
       </c>
       <c r="D187" s="5">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="E187" s="5">
         <v>1</v>
@@ -9226,8 +9116,7 @@
         <v>10</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>18</v>
@@ -9253,13 +9142,13 @@
         <v>100013007</v>
       </c>
       <c r="B188" s="5">
-        <v>2706</v>
+        <v>8686</v>
       </c>
       <c r="C188" s="5">
-        <v>731</v>
+        <v>1181</v>
       </c>
       <c r="D188" s="5">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="E188" s="5">
         <v>1</v>
@@ -9268,8 +9157,7 @@
         <v>10</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>19</v>
@@ -9295,13 +9183,13 @@
         <v>100013008</v>
       </c>
       <c r="B189" s="5">
-        <v>2721</v>
+        <v>8770</v>
       </c>
       <c r="C189" s="5">
-        <v>735</v>
+        <v>1193</v>
       </c>
       <c r="D189" s="5">
-        <v>548</v>
+        <v>603</v>
       </c>
       <c r="E189" s="5">
         <v>1</v>
@@ -9310,8 +9198,7 @@
         <v>10</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>20</v>
@@ -9337,13 +9224,13 @@
         <v>100013009</v>
       </c>
       <c r="B190" s="5">
-        <v>2736</v>
+        <v>5902</v>
       </c>
       <c r="C190" s="5">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="D190" s="5">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="E190" s="5">
         <v>1</v>
@@ -9352,8 +9239,7 @@
         <v>10</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>21</v>
@@ -9379,13 +9265,13 @@
         <v>100013010</v>
       </c>
       <c r="B191" s="5">
-        <v>2751</v>
+        <v>5958</v>
       </c>
       <c r="C191" s="5">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="D191" s="5">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -9394,8 +9280,7 @@
         <v>10</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>22</v>
@@ -9421,13 +9306,13 @@
         <v>100013011</v>
       </c>
       <c r="B192" s="5">
-        <v>2766</v>
+        <v>9022</v>
       </c>
       <c r="C192" s="5">
-        <v>747</v>
+        <v>1229</v>
       </c>
       <c r="D192" s="5">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="E192" s="5">
         <v>1</v>
@@ -9436,8 +9321,7 @@
         <v>10</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>23</v>
@@ -9463,13 +9347,13 @@
         <v>100013012</v>
       </c>
       <c r="B193" s="5">
-        <v>2781</v>
+        <v>9106</v>
       </c>
       <c r="C193" s="5">
-        <v>751</v>
+        <v>1241</v>
       </c>
       <c r="D193" s="5">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="E193" s="5">
         <v>1</v>
@@ -9478,8 +9362,7 @@
         <v>10</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>24</v>
@@ -9505,13 +9388,13 @@
         <v>100013013</v>
       </c>
       <c r="B194" s="5">
-        <v>2796</v>
+        <v>9190</v>
       </c>
       <c r="C194" s="5">
-        <v>755</v>
+        <v>1253</v>
       </c>
       <c r="D194" s="5">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="E194" s="5">
         <v>1</v>
@@ -9520,8 +9403,7 @@
         <v>10</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>25</v>
@@ -9547,13 +9429,13 @@
         <v>100013014</v>
       </c>
       <c r="B195" s="5">
-        <v>2811</v>
+        <v>6182</v>
       </c>
       <c r="C195" s="5">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="D195" s="5">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="E195" s="5">
         <v>1</v>
@@ -9562,8 +9444,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>26</v>
@@ -9589,13 +9470,13 @@
         <v>100013015</v>
       </c>
       <c r="B196" s="5">
-        <v>2826</v>
+        <v>6238</v>
       </c>
       <c r="C196" s="5">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="D196" s="5">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="E196" s="5">
         <v>1</v>
@@ -9604,8 +9485,7 @@
         <v>10</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>27</v>
@@ -9631,13 +9511,13 @@
         <v>100014001</v>
       </c>
       <c r="B197" s="6">
-        <v>2841</v>
+        <v>9448</v>
       </c>
       <c r="C197" s="6">
-        <v>767</v>
+        <v>1291</v>
       </c>
       <c r="D197" s="6">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="E197" s="6">
         <v>1</v>
@@ -9646,8 +9526,7 @@
         <v>10</v>
       </c>
       <c r="G197" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>13</v>
@@ -9673,13 +9552,13 @@
         <v>100014002</v>
       </c>
       <c r="B198" s="6">
-        <v>2856</v>
+        <v>9538</v>
       </c>
       <c r="C198" s="6">
-        <v>771</v>
+        <v>1305</v>
       </c>
       <c r="D198" s="6">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="E198" s="6">
         <v>1</v>
@@ -9688,8 +9567,7 @@
         <v>10</v>
       </c>
       <c r="G198" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>14</v>
@@ -9715,13 +9593,13 @@
         <v>100014003</v>
       </c>
       <c r="B199" s="6">
-        <v>2871</v>
+        <v>6418</v>
       </c>
       <c r="C199" s="6">
-        <v>775</v>
+        <v>851</v>
       </c>
       <c r="D199" s="6">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="E199" s="6">
         <v>1</v>
@@ -9730,8 +9608,7 @@
         <v>10</v>
       </c>
       <c r="G199" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>15</v>
@@ -9757,13 +9634,13 @@
         <v>100014004</v>
       </c>
       <c r="B200" s="6">
-        <v>2886</v>
+        <v>9718</v>
       </c>
       <c r="C200" s="6">
-        <v>779</v>
+        <v>1333</v>
       </c>
       <c r="D200" s="6">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="E200" s="6">
         <v>1</v>
@@ -9772,8 +9649,7 @@
         <v>10</v>
       </c>
       <c r="G200" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>16</v>
@@ -9799,13 +9675,13 @@
         <v>100014005</v>
       </c>
       <c r="B201" s="6">
-        <v>2901</v>
+        <v>9808</v>
       </c>
       <c r="C201" s="6">
-        <v>783</v>
+        <v>1347</v>
       </c>
       <c r="D201" s="6">
-        <v>584</v>
+        <v>680</v>
       </c>
       <c r="E201" s="6">
         <v>1</v>
@@ -9814,8 +9690,7 @@
         <v>10</v>
       </c>
       <c r="G201" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>17</v>
@@ -9841,13 +9716,13 @@
         <v>100014006</v>
       </c>
       <c r="B202" s="6">
-        <v>2916</v>
+        <v>6598</v>
       </c>
       <c r="C202" s="6">
-        <v>787</v>
+        <v>875</v>
       </c>
       <c r="D202" s="6">
-        <v>587</v>
+        <v>686</v>
       </c>
       <c r="E202" s="6">
         <v>1</v>
@@ -9856,8 +9731,7 @@
         <v>10</v>
       </c>
       <c r="G202" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>18</v>
@@ -9883,13 +9757,13 @@
         <v>100014007</v>
       </c>
       <c r="B203" s="6">
-        <v>2931</v>
+        <v>9988</v>
       </c>
       <c r="C203" s="6">
-        <v>791</v>
+        <v>1375</v>
       </c>
       <c r="D203" s="6">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="E203" s="6">
         <v>1</v>
@@ -9898,8 +9772,7 @@
         <v>10</v>
       </c>
       <c r="G203" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H203" s="4" t="s">
         <v>19</v>
@@ -9925,13 +9798,13 @@
         <v>100014008</v>
       </c>
       <c r="B204" s="6">
-        <v>2946</v>
+        <v>10078</v>
       </c>
       <c r="C204" s="6">
-        <v>795</v>
+        <v>1389</v>
       </c>
       <c r="D204" s="6">
-        <v>593</v>
+        <v>701</v>
       </c>
       <c r="E204" s="6">
         <v>1</v>
@@ -9940,8 +9813,7 @@
         <v>10</v>
       </c>
       <c r="G204" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>20</v>
@@ -9967,13 +9839,13 @@
         <v>100014009</v>
       </c>
       <c r="B205" s="6">
-        <v>2961</v>
+        <v>6778</v>
       </c>
       <c r="C205" s="6">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="D205" s="6">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="E205" s="6">
         <v>1</v>
@@ -9982,8 +9854,7 @@
         <v>10</v>
       </c>
       <c r="G205" s="6">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H205" s="4" t="s">
         <v>21</v>
@@ -10009,13 +9880,13 @@
         <v>100014010</v>
       </c>
       <c r="B206" s="6">
-        <v>2976</v>
+        <v>6838</v>
       </c>
       <c r="C206" s="6">
-        <v>803</v>
+        <v>907</v>
       </c>
       <c r="D206" s="6">
-        <v>599</v>
+        <v>714</v>
       </c>
       <c r="E206" s="6">
         <v>1</v>
@@ -10024,8 +9895,7 @@
         <v>10</v>
       </c>
       <c r="G206" s="6">
-        <f t="shared" ref="G206:G269" si="2">G191+10</f>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>22</v>
@@ -10051,13 +9921,13 @@
         <v>100014011</v>
       </c>
       <c r="B207" s="6">
-        <v>2991</v>
+        <v>10348</v>
       </c>
       <c r="C207" s="6">
-        <v>807</v>
+        <v>1431</v>
       </c>
       <c r="D207" s="6">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
@@ -10066,8 +9936,7 @@
         <v>10</v>
       </c>
       <c r="G207" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>23</v>
@@ -10093,13 +9962,13 @@
         <v>100014012</v>
       </c>
       <c r="B208" s="6">
-        <v>3006</v>
+        <v>10438</v>
       </c>
       <c r="C208" s="6">
-        <v>811</v>
+        <v>1445</v>
       </c>
       <c r="D208" s="6">
-        <v>605</v>
+        <v>729</v>
       </c>
       <c r="E208" s="6">
         <v>1</v>
@@ -10108,8 +9977,7 @@
         <v>10</v>
       </c>
       <c r="G208" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>24</v>
@@ -10135,13 +10003,13 @@
         <v>100014013</v>
       </c>
       <c r="B209" s="6">
-        <v>3021</v>
+        <v>10528</v>
       </c>
       <c r="C209" s="6">
-        <v>815</v>
+        <v>1459</v>
       </c>
       <c r="D209" s="6">
-        <v>608</v>
+        <v>736</v>
       </c>
       <c r="E209" s="6">
         <v>1</v>
@@ -10150,8 +10018,7 @@
         <v>10</v>
       </c>
       <c r="G209" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>25</v>
@@ -10177,13 +10044,13 @@
         <v>100014014</v>
       </c>
       <c r="B210" s="6">
-        <v>3036</v>
+        <v>7078</v>
       </c>
       <c r="C210" s="6">
-        <v>819</v>
+        <v>939</v>
       </c>
       <c r="D210" s="6">
-        <v>611</v>
+        <v>742</v>
       </c>
       <c r="E210" s="6">
         <v>1</v>
@@ -10192,8 +10059,7 @@
         <v>10</v>
       </c>
       <c r="G210" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>26</v>
@@ -10219,13 +10085,13 @@
         <v>100014015</v>
       </c>
       <c r="B211" s="6">
-        <v>3051</v>
+        <v>7138</v>
       </c>
       <c r="C211" s="6">
-        <v>823</v>
+        <v>947</v>
       </c>
       <c r="D211" s="6">
-        <v>614</v>
+        <v>749</v>
       </c>
       <c r="E211" s="6">
         <v>1</v>
@@ -10234,8 +10100,7 @@
         <v>10</v>
       </c>
       <c r="G211" s="6">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>27</v>
@@ -10261,13 +10126,13 @@
         <v>100015001</v>
       </c>
       <c r="B212" s="5">
-        <v>3066</v>
+        <v>10804</v>
       </c>
       <c r="C212" s="5">
-        <v>827</v>
+        <v>1501</v>
       </c>
       <c r="D212" s="5">
-        <v>617</v>
+        <v>757</v>
       </c>
       <c r="E212" s="5">
         <v>1</v>
@@ -10276,8 +10141,7 @@
         <v>10</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>13</v>
@@ -10303,13 +10167,13 @@
         <v>100015002</v>
       </c>
       <c r="B213" s="5">
-        <v>3081</v>
+        <v>10900</v>
       </c>
       <c r="C213" s="5">
-        <v>831</v>
+        <v>1515</v>
       </c>
       <c r="D213" s="5">
-        <v>620</v>
+        <v>764</v>
       </c>
       <c r="E213" s="5">
         <v>1</v>
@@ -10318,8 +10182,7 @@
         <v>10</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>14</v>
@@ -10345,13 +10208,13 @@
         <v>100015003</v>
       </c>
       <c r="B214" s="5">
-        <v>3096</v>
+        <v>7330</v>
       </c>
       <c r="C214" s="5">
-        <v>835</v>
+        <v>971</v>
       </c>
       <c r="D214" s="5">
-        <v>623</v>
+        <v>770</v>
       </c>
       <c r="E214" s="5">
         <v>1</v>
@@ -10360,8 +10223,7 @@
         <v>10</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>15</v>
@@ -10387,13 +10249,13 @@
         <v>100015004</v>
       </c>
       <c r="B215" s="5">
-        <v>3111</v>
+        <v>11092</v>
       </c>
       <c r="C215" s="5">
-        <v>839</v>
+        <v>1543</v>
       </c>
       <c r="D215" s="5">
-        <v>626</v>
+        <v>778</v>
       </c>
       <c r="E215" s="5">
         <v>1</v>
@@ -10402,8 +10264,7 @@
         <v>10</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H215" s="3" t="s">
         <v>16</v>
@@ -10429,13 +10290,13 @@
         <v>100015005</v>
       </c>
       <c r="B216" s="5">
-        <v>3126</v>
+        <v>11188</v>
       </c>
       <c r="C216" s="5">
-        <v>843</v>
+        <v>1557</v>
       </c>
       <c r="D216" s="5">
-        <v>629</v>
+        <v>785</v>
       </c>
       <c r="E216" s="5">
         <v>1</v>
@@ -10444,8 +10305,7 @@
         <v>10</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>17</v>
@@ -10471,13 +10331,13 @@
         <v>100015006</v>
       </c>
       <c r="B217" s="5">
-        <v>3141</v>
+        <v>7522</v>
       </c>
       <c r="C217" s="5">
-        <v>847</v>
+        <v>995</v>
       </c>
       <c r="D217" s="5">
-        <v>632</v>
+        <v>791</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
@@ -10486,8 +10346,7 @@
         <v>10</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>18</v>
@@ -10513,13 +10372,13 @@
         <v>100015007</v>
       </c>
       <c r="B218" s="5">
-        <v>3156</v>
+        <v>11380</v>
       </c>
       <c r="C218" s="5">
-        <v>851</v>
+        <v>1585</v>
       </c>
       <c r="D218" s="5">
-        <v>635</v>
+        <v>799</v>
       </c>
       <c r="E218" s="5">
         <v>1</v>
@@ -10528,8 +10387,7 @@
         <v>10</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>19</v>
@@ -10555,13 +10413,13 @@
         <v>100015008</v>
       </c>
       <c r="B219" s="5">
-        <v>3171</v>
+        <v>11476</v>
       </c>
       <c r="C219" s="5">
-        <v>855</v>
+        <v>1599</v>
       </c>
       <c r="D219" s="5">
-        <v>638</v>
+        <v>806</v>
       </c>
       <c r="E219" s="5">
         <v>1</v>
@@ -10570,8 +10428,7 @@
         <v>10</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>20</v>
@@ -10597,13 +10454,13 @@
         <v>100015009</v>
       </c>
       <c r="B220" s="5">
-        <v>3186</v>
+        <v>7714</v>
       </c>
       <c r="C220" s="5">
-        <v>859</v>
+        <v>1019</v>
       </c>
       <c r="D220" s="5">
-        <v>641</v>
+        <v>812</v>
       </c>
       <c r="E220" s="5">
         <v>1</v>
@@ -10612,8 +10469,7 @@
         <v>10</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>21</v>
@@ -10639,13 +10495,13 @@
         <v>100015010</v>
       </c>
       <c r="B221" s="5">
-        <v>3201</v>
+        <v>7778</v>
       </c>
       <c r="C221" s="5">
-        <v>863</v>
+        <v>1027</v>
       </c>
       <c r="D221" s="5">
-        <v>644</v>
+        <v>819</v>
       </c>
       <c r="E221" s="5">
         <v>1</v>
@@ -10654,8 +10510,7 @@
         <v>10</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H221" s="3" t="s">
         <v>22</v>
@@ -10681,13 +10536,13 @@
         <v>100015011</v>
       </c>
       <c r="B222" s="5">
-        <v>3216</v>
+        <v>11764</v>
       </c>
       <c r="C222" s="5">
-        <v>867</v>
+        <v>1641</v>
       </c>
       <c r="D222" s="5">
-        <v>647</v>
+        <v>827</v>
       </c>
       <c r="E222" s="5">
         <v>1</v>
@@ -10696,8 +10551,7 @@
         <v>10</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>23</v>
@@ -10723,13 +10577,13 @@
         <v>100015012</v>
       </c>
       <c r="B223" s="5">
-        <v>3231</v>
+        <v>11860</v>
       </c>
       <c r="C223" s="5">
-        <v>871</v>
+        <v>1655</v>
       </c>
       <c r="D223" s="5">
-        <v>650</v>
+        <v>834</v>
       </c>
       <c r="E223" s="5">
         <v>1</v>
@@ -10738,8 +10592,7 @@
         <v>10</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>24</v>
@@ -10765,13 +10618,13 @@
         <v>100015013</v>
       </c>
       <c r="B224" s="5">
-        <v>3246</v>
+        <v>11956</v>
       </c>
       <c r="C224" s="5">
-        <v>875</v>
+        <v>1669</v>
       </c>
       <c r="D224" s="5">
-        <v>653</v>
+        <v>841</v>
       </c>
       <c r="E224" s="5">
         <v>1</v>
@@ -10780,8 +10633,7 @@
         <v>10</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>25</v>
@@ -10807,13 +10659,13 @@
         <v>100015014</v>
       </c>
       <c r="B225" s="5">
-        <v>3261</v>
+        <v>8034</v>
       </c>
       <c r="C225" s="5">
-        <v>879</v>
+        <v>1059</v>
       </c>
       <c r="D225" s="5">
-        <v>656</v>
+        <v>847</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -10822,8 +10674,7 @@
         <v>10</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>26</v>
@@ -10849,13 +10700,13 @@
         <v>100015015</v>
       </c>
       <c r="B226" s="5">
-        <v>3276</v>
+        <v>8098</v>
       </c>
       <c r="C226" s="5">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="D226" s="5">
-        <v>659</v>
+        <v>854</v>
       </c>
       <c r="E226" s="5">
         <v>1</v>
@@ -10864,8 +10715,7 @@
         <v>10</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>27</v>
@@ -10891,13 +10741,13 @@
         <v>100016001</v>
       </c>
       <c r="B227" s="6">
-        <v>3291</v>
+        <v>12250</v>
       </c>
       <c r="C227" s="6">
-        <v>887</v>
+        <v>1713</v>
       </c>
       <c r="D227" s="6">
-        <v>662</v>
+        <v>863</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
@@ -10906,8 +10756,7 @@
         <v>10</v>
       </c>
       <c r="G227" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>13</v>
@@ -10933,13 +10782,13 @@
         <v>100016002</v>
       </c>
       <c r="B228" s="6">
-        <v>3306</v>
+        <v>12352</v>
       </c>
       <c r="C228" s="6">
-        <v>891</v>
+        <v>1729</v>
       </c>
       <c r="D228" s="6">
-        <v>665</v>
+        <v>871</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
@@ -10948,8 +10797,7 @@
         <v>10</v>
       </c>
       <c r="G228" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>14</v>
@@ -10975,13 +10823,13 @@
         <v>100016003</v>
       </c>
       <c r="B229" s="6">
-        <v>3321</v>
+        <v>8302</v>
       </c>
       <c r="C229" s="6">
-        <v>895</v>
+        <v>1094</v>
       </c>
       <c r="D229" s="6">
-        <v>668</v>
+        <v>878</v>
       </c>
       <c r="E229" s="6">
         <v>1</v>
@@ -10990,8 +10838,7 @@
         <v>10</v>
       </c>
       <c r="G229" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>15</v>
@@ -11017,13 +10864,13 @@
         <v>100016004</v>
       </c>
       <c r="B230" s="6">
-        <v>3336</v>
+        <v>12556</v>
       </c>
       <c r="C230" s="6">
-        <v>899</v>
+        <v>1761</v>
       </c>
       <c r="D230" s="6">
-        <v>671</v>
+        <v>887</v>
       </c>
       <c r="E230" s="6">
         <v>1</v>
@@ -11032,8 +10879,7 @@
         <v>10</v>
       </c>
       <c r="G230" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>16</v>
@@ -11059,13 +10905,13 @@
         <v>100016005</v>
       </c>
       <c r="B231" s="6">
-        <v>3351</v>
+        <v>12658</v>
       </c>
       <c r="C231" s="6">
-        <v>903</v>
+        <v>1777</v>
       </c>
       <c r="D231" s="6">
-        <v>674</v>
+        <v>895</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
@@ -11074,8 +10920,7 @@
         <v>10</v>
       </c>
       <c r="G231" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>17</v>
@@ -11101,13 +10946,13 @@
         <v>100016006</v>
       </c>
       <c r="B232" s="6">
-        <v>3366</v>
+        <v>8506</v>
       </c>
       <c r="C232" s="6">
-        <v>907</v>
+        <v>1121</v>
       </c>
       <c r="D232" s="6">
-        <v>677</v>
+        <v>902</v>
       </c>
       <c r="E232" s="6">
         <v>1</v>
@@ -11116,8 +10961,7 @@
         <v>10</v>
       </c>
       <c r="G232" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>18</v>
@@ -11143,14 +10987,14 @@
         <v>100016007</v>
       </c>
       <c r="B233" s="6">
-        <v>3381</v>
+        <v>12862</v>
       </c>
       <c r="C233" s="6">
+        <v>1809</v>
+      </c>
+      <c r="D233" s="6">
         <v>911</v>
       </c>
-      <c r="D233" s="6">
-        <v>680</v>
-      </c>
       <c r="E233" s="6">
         <v>1</v>
       </c>
@@ -11158,8 +11002,7 @@
         <v>10</v>
       </c>
       <c r="G233" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>19</v>
@@ -11185,13 +11028,13 @@
         <v>100016008</v>
       </c>
       <c r="B234" s="6">
-        <v>3396</v>
+        <v>12964</v>
       </c>
       <c r="C234" s="6">
-        <v>915</v>
+        <v>1825</v>
       </c>
       <c r="D234" s="6">
-        <v>683</v>
+        <v>919</v>
       </c>
       <c r="E234" s="6">
         <v>1</v>
@@ -11200,8 +11043,7 @@
         <v>10</v>
       </c>
       <c r="G234" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>20</v>
@@ -11227,13 +11069,13 @@
         <v>100016009</v>
       </c>
       <c r="B235" s="6">
-        <v>3411</v>
+        <v>8710</v>
       </c>
       <c r="C235" s="6">
-        <v>919</v>
+        <v>1148</v>
       </c>
       <c r="D235" s="6">
-        <v>686</v>
+        <v>926</v>
       </c>
       <c r="E235" s="6">
         <v>1</v>
@@ -11242,8 +11084,7 @@
         <v>10</v>
       </c>
       <c r="G235" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>21</v>
@@ -11269,13 +11110,13 @@
         <v>100016010</v>
       </c>
       <c r="B236" s="6">
-        <v>3426</v>
+        <v>8778</v>
       </c>
       <c r="C236" s="6">
-        <v>923</v>
+        <v>1157</v>
       </c>
       <c r="D236" s="6">
-        <v>689</v>
+        <v>934</v>
       </c>
       <c r="E236" s="6">
         <v>1</v>
@@ -11284,8 +11125,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>22</v>
@@ -11311,13 +11151,13 @@
         <v>100016011</v>
       </c>
       <c r="B237" s="6">
-        <v>3441</v>
+        <v>13270</v>
       </c>
       <c r="C237" s="6">
-        <v>927</v>
+        <v>1873</v>
       </c>
       <c r="D237" s="6">
-        <v>692</v>
+        <v>943</v>
       </c>
       <c r="E237" s="6">
         <v>1</v>
@@ -11326,8 +11166,7 @@
         <v>10</v>
       </c>
       <c r="G237" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>23</v>
@@ -11353,13 +11192,13 @@
         <v>100016012</v>
       </c>
       <c r="B238" s="6">
-        <v>3456</v>
+        <v>13372</v>
       </c>
       <c r="C238" s="6">
-        <v>931</v>
+        <v>1889</v>
       </c>
       <c r="D238" s="6">
-        <v>695</v>
+        <v>951</v>
       </c>
       <c r="E238" s="6">
         <v>1</v>
@@ -11368,8 +11207,7 @@
         <v>10</v>
       </c>
       <c r="G238" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>24</v>
@@ -11395,13 +11233,13 @@
         <v>100016013</v>
       </c>
       <c r="B239" s="6">
-        <v>3471</v>
+        <v>13474</v>
       </c>
       <c r="C239" s="6">
-        <v>935</v>
+        <v>1905</v>
       </c>
       <c r="D239" s="6">
-        <v>698</v>
+        <v>959</v>
       </c>
       <c r="E239" s="6">
         <v>1</v>
@@ -11410,8 +11248,7 @@
         <v>10</v>
       </c>
       <c r="G239" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>25</v>
@@ -11437,13 +11274,13 @@
         <v>100016014</v>
       </c>
       <c r="B240" s="6">
-        <v>3486</v>
+        <v>9050</v>
       </c>
       <c r="C240" s="6">
-        <v>939</v>
+        <v>1193</v>
       </c>
       <c r="D240" s="6">
-        <v>701</v>
+        <v>966</v>
       </c>
       <c r="E240" s="6">
         <v>1</v>
@@ -11452,8 +11289,7 @@
         <v>10</v>
       </c>
       <c r="G240" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>26</v>
@@ -11479,13 +11315,13 @@
         <v>100016015</v>
       </c>
       <c r="B241" s="6">
-        <v>3501</v>
+        <v>9118</v>
       </c>
       <c r="C241" s="6">
-        <v>943</v>
+        <v>1202</v>
       </c>
       <c r="D241" s="6">
-        <v>704</v>
+        <v>974</v>
       </c>
       <c r="E241" s="6">
         <v>1</v>
@@ -11494,8 +11330,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="6">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>27</v>
@@ -11521,13 +11356,13 @@
         <v>100017001</v>
       </c>
       <c r="B242" s="5">
-        <v>3516</v>
+        <v>13786</v>
       </c>
       <c r="C242" s="5">
-        <v>947</v>
+        <v>1953</v>
       </c>
       <c r="D242" s="5">
-        <v>707</v>
+        <v>983</v>
       </c>
       <c r="E242" s="5">
         <v>1</v>
@@ -11536,8 +11371,7 @@
         <v>10</v>
       </c>
       <c r="G242" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>13</v>
@@ -11563,13 +11397,13 @@
         <v>100017002</v>
       </c>
       <c r="B243" s="5">
-        <v>3531</v>
+        <v>13894</v>
       </c>
       <c r="C243" s="5">
-        <v>951</v>
+        <v>1969</v>
       </c>
       <c r="D243" s="5">
-        <v>710</v>
+        <v>991</v>
       </c>
       <c r="E243" s="5">
         <v>1</v>
@@ -11578,8 +11412,7 @@
         <v>10</v>
       </c>
       <c r="G243" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>14</v>
@@ -11605,13 +11438,13 @@
         <v>100017003</v>
       </c>
       <c r="B244" s="5">
-        <v>3546</v>
+        <v>9334</v>
       </c>
       <c r="C244" s="5">
-        <v>955</v>
+        <v>1229</v>
       </c>
       <c r="D244" s="5">
-        <v>713</v>
+        <v>998</v>
       </c>
       <c r="E244" s="5">
         <v>1</v>
@@ -11620,8 +11453,7 @@
         <v>10</v>
       </c>
       <c r="G244" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>15</v>
@@ -11647,13 +11479,13 @@
         <v>100017004</v>
       </c>
       <c r="B245" s="5">
-        <v>3561</v>
+        <v>14110</v>
       </c>
       <c r="C245" s="5">
-        <v>959</v>
+        <v>2001</v>
       </c>
       <c r="D245" s="5">
-        <v>716</v>
+        <v>1007</v>
       </c>
       <c r="E245" s="5">
         <v>1</v>
@@ -11662,8 +11494,7 @@
         <v>10</v>
       </c>
       <c r="G245" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>16</v>
@@ -11689,13 +11520,13 @@
         <v>100017005</v>
       </c>
       <c r="B246" s="5">
-        <v>3576</v>
+        <v>14218</v>
       </c>
       <c r="C246" s="5">
-        <v>963</v>
+        <v>2017</v>
       </c>
       <c r="D246" s="5">
-        <v>719</v>
+        <v>1015</v>
       </c>
       <c r="E246" s="5">
         <v>1</v>
@@ -11704,8 +11535,7 @@
         <v>10</v>
       </c>
       <c r="G246" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>17</v>
@@ -11731,13 +11561,13 @@
         <v>100017006</v>
       </c>
       <c r="B247" s="5">
-        <v>3591</v>
+        <v>9550</v>
       </c>
       <c r="C247" s="5">
-        <v>967</v>
+        <v>1256</v>
       </c>
       <c r="D247" s="5">
-        <v>722</v>
+        <v>1022</v>
       </c>
       <c r="E247" s="5">
         <v>1</v>
@@ -11746,8 +11576,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>18</v>
@@ -11773,13 +11602,13 @@
         <v>100017007</v>
       </c>
       <c r="B248" s="5">
-        <v>3606</v>
+        <v>14434</v>
       </c>
       <c r="C248" s="5">
-        <v>971</v>
+        <v>2049</v>
       </c>
       <c r="D248" s="5">
-        <v>725</v>
+        <v>1031</v>
       </c>
       <c r="E248" s="5">
         <v>1</v>
@@ -11788,8 +11617,7 @@
         <v>10</v>
       </c>
       <c r="G248" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>19</v>
@@ -11815,13 +11643,13 @@
         <v>100017008</v>
       </c>
       <c r="B249" s="5">
-        <v>3621</v>
+        <v>14542</v>
       </c>
       <c r="C249" s="5">
-        <v>975</v>
+        <v>2065</v>
       </c>
       <c r="D249" s="5">
-        <v>728</v>
+        <v>1039</v>
       </c>
       <c r="E249" s="5">
         <v>1</v>
@@ -11830,8 +11658,7 @@
         <v>10</v>
       </c>
       <c r="G249" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H249" s="3" t="s">
         <v>20</v>
@@ -11857,13 +11684,13 @@
         <v>100017009</v>
       </c>
       <c r="B250" s="5">
-        <v>3636</v>
+        <v>9766</v>
       </c>
       <c r="C250" s="5">
-        <v>979</v>
+        <v>1283</v>
       </c>
       <c r="D250" s="5">
-        <v>731</v>
+        <v>1046</v>
       </c>
       <c r="E250" s="5">
         <v>1</v>
@@ -11872,8 +11699,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H250" s="3" t="s">
         <v>21</v>
@@ -11899,13 +11725,13 @@
         <v>100017010</v>
       </c>
       <c r="B251" s="5">
-        <v>3651</v>
+        <v>9838</v>
       </c>
       <c r="C251" s="5">
-        <v>983</v>
+        <v>1292</v>
       </c>
       <c r="D251" s="5">
-        <v>734</v>
+        <v>1054</v>
       </c>
       <c r="E251" s="5">
         <v>1</v>
@@ -11914,8 +11740,7 @@
         <v>10</v>
       </c>
       <c r="G251" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>22</v>
@@ -11941,13 +11766,13 @@
         <v>100017011</v>
       </c>
       <c r="B252" s="5">
-        <v>3666</v>
+        <v>14866</v>
       </c>
       <c r="C252" s="5">
-        <v>987</v>
+        <v>2113</v>
       </c>
       <c r="D252" s="5">
-        <v>737</v>
+        <v>1063</v>
       </c>
       <c r="E252" s="5">
         <v>1</v>
@@ -11956,8 +11781,7 @@
         <v>10</v>
       </c>
       <c r="G252" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>23</v>
@@ -11983,13 +11807,13 @@
         <v>100017012</v>
       </c>
       <c r="B253" s="5">
-        <v>3681</v>
+        <v>14974</v>
       </c>
       <c r="C253" s="5">
-        <v>991</v>
+        <v>2129</v>
       </c>
       <c r="D253" s="5">
-        <v>740</v>
+        <v>1071</v>
       </c>
       <c r="E253" s="5">
         <v>1</v>
@@ -11998,8 +11822,7 @@
         <v>10</v>
       </c>
       <c r="G253" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H253" s="3" t="s">
         <v>24</v>
@@ -12025,13 +11848,13 @@
         <v>100017013</v>
       </c>
       <c r="B254" s="5">
-        <v>3696</v>
+        <v>15082</v>
       </c>
       <c r="C254" s="5">
-        <v>995</v>
+        <v>2145</v>
       </c>
       <c r="D254" s="5">
-        <v>743</v>
+        <v>1079</v>
       </c>
       <c r="E254" s="5">
         <v>1</v>
@@ -12040,8 +11863,7 @@
         <v>10</v>
       </c>
       <c r="G254" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H254" s="3" t="s">
         <v>25</v>
@@ -12067,13 +11889,13 @@
         <v>100017014</v>
       </c>
       <c r="B255" s="5">
-        <v>3711</v>
+        <v>10126</v>
       </c>
       <c r="C255" s="5">
-        <v>999</v>
+        <v>1328</v>
       </c>
       <c r="D255" s="5">
-        <v>746</v>
+        <v>1086</v>
       </c>
       <c r="E255" s="5">
         <v>1</v>
@@ -12082,8 +11904,7 @@
         <v>10</v>
       </c>
       <c r="G255" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>26</v>
@@ -12109,13 +11930,13 @@
         <v>100017015</v>
       </c>
       <c r="B256" s="5">
-        <v>3726</v>
+        <v>10198</v>
       </c>
       <c r="C256" s="5">
-        <v>1003</v>
+        <v>1337</v>
       </c>
       <c r="D256" s="5">
-        <v>749</v>
+        <v>1094</v>
       </c>
       <c r="E256" s="5">
         <v>1</v>
@@ -12124,8 +11945,7 @@
         <v>10</v>
       </c>
       <c r="G256" s="5">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="H256" s="3" t="s">
         <v>27</v>
@@ -12151,13 +11971,13 @@
         <v>100018001</v>
       </c>
       <c r="B257" s="6">
-        <v>3741</v>
+        <v>15412</v>
       </c>
       <c r="C257" s="6">
-        <v>1007</v>
+        <v>2195</v>
       </c>
       <c r="D257" s="6">
-        <v>752</v>
+        <v>1104</v>
       </c>
       <c r="E257" s="6">
         <v>1</v>
@@ -12166,8 +11986,7 @@
         <v>10</v>
       </c>
       <c r="G257" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>13</v>
@@ -12193,13 +12012,13 @@
         <v>100018002</v>
       </c>
       <c r="B258" s="6">
-        <v>3756</v>
+        <v>15526</v>
       </c>
       <c r="C258" s="6">
-        <v>1011</v>
+        <v>2213</v>
       </c>
       <c r="D258" s="6">
-        <v>755</v>
+        <v>1113</v>
       </c>
       <c r="E258" s="6">
         <v>1</v>
@@ -12208,8 +12027,7 @@
         <v>10</v>
       </c>
       <c r="G258" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>14</v>
@@ -12235,13 +12053,13 @@
         <v>100018003</v>
       </c>
       <c r="B259" s="6">
-        <v>3771</v>
+        <v>10426</v>
       </c>
       <c r="C259" s="6">
-        <v>1015</v>
+        <v>1367</v>
       </c>
       <c r="D259" s="6">
-        <v>758</v>
+        <v>1121</v>
       </c>
       <c r="E259" s="6">
         <v>1</v>
@@ -12250,8 +12068,7 @@
         <v>10</v>
       </c>
       <c r="G259" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>15</v>
@@ -12277,13 +12094,13 @@
         <v>100018004</v>
       </c>
       <c r="B260" s="6">
-        <v>3786</v>
+        <v>15754</v>
       </c>
       <c r="C260" s="6">
-        <v>1019</v>
+        <v>2249</v>
       </c>
       <c r="D260" s="6">
-        <v>761</v>
+        <v>1131</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
@@ -12292,8 +12109,7 @@
         <v>10</v>
       </c>
       <c r="G260" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>16</v>
@@ -12319,13 +12135,13 @@
         <v>100018005</v>
       </c>
       <c r="B261" s="6">
-        <v>3801</v>
+        <v>15868</v>
       </c>
       <c r="C261" s="6">
-        <v>1023</v>
+        <v>2267</v>
       </c>
       <c r="D261" s="6">
-        <v>764</v>
+        <v>1140</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
@@ -12334,8 +12150,7 @@
         <v>10</v>
       </c>
       <c r="G261" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>17</v>
@@ -12361,13 +12176,13 @@
         <v>100018006</v>
       </c>
       <c r="B262" s="6">
-        <v>3816</v>
+        <v>10654</v>
       </c>
       <c r="C262" s="6">
-        <v>1027</v>
+        <v>1397</v>
       </c>
       <c r="D262" s="6">
-        <v>767</v>
+        <v>1148</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
@@ -12376,8 +12191,7 @@
         <v>10</v>
       </c>
       <c r="G262" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>18</v>
@@ -12403,13 +12217,13 @@
         <v>100018007</v>
       </c>
       <c r="B263" s="6">
-        <v>3831</v>
+        <v>16096</v>
       </c>
       <c r="C263" s="6">
-        <v>1031</v>
+        <v>2303</v>
       </c>
       <c r="D263" s="6">
-        <v>770</v>
+        <v>1158</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
@@ -12418,8 +12232,7 @@
         <v>10</v>
       </c>
       <c r="G263" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>19</v>
@@ -12445,13 +12258,13 @@
         <v>100018008</v>
       </c>
       <c r="B264" s="6">
-        <v>3846</v>
+        <v>16210</v>
       </c>
       <c r="C264" s="6">
-        <v>1035</v>
+        <v>2321</v>
       </c>
       <c r="D264" s="6">
-        <v>773</v>
+        <v>1167</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
@@ -12460,8 +12273,7 @@
         <v>10</v>
       </c>
       <c r="G264" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>20</v>
@@ -12487,13 +12299,13 @@
         <v>100018009</v>
       </c>
       <c r="B265" s="6">
-        <v>3861</v>
+        <v>10882</v>
       </c>
       <c r="C265" s="6">
-        <v>1039</v>
+        <v>1427</v>
       </c>
       <c r="D265" s="6">
-        <v>776</v>
+        <v>1175</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
@@ -12502,8 +12314,7 @@
         <v>10</v>
       </c>
       <c r="G265" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>21</v>
@@ -12529,13 +12340,13 @@
         <v>100018010</v>
       </c>
       <c r="B266" s="6">
-        <v>3876</v>
+        <v>10958</v>
       </c>
       <c r="C266" s="6">
-        <v>1043</v>
+        <v>1437</v>
       </c>
       <c r="D266" s="6">
-        <v>779</v>
+        <v>1184</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
@@ -12544,8 +12355,7 @@
         <v>10</v>
       </c>
       <c r="G266" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>22</v>
@@ -12571,13 +12381,13 @@
         <v>100018011</v>
       </c>
       <c r="B267" s="6">
-        <v>3891</v>
+        <v>16552</v>
       </c>
       <c r="C267" s="6">
-        <v>1047</v>
+        <v>2375</v>
       </c>
       <c r="D267" s="6">
-        <v>782</v>
+        <v>1194</v>
       </c>
       <c r="E267" s="6">
         <v>1</v>
@@ -12586,8 +12396,7 @@
         <v>10</v>
       </c>
       <c r="G267" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>23</v>
@@ -12613,13 +12422,13 @@
         <v>100018012</v>
       </c>
       <c r="B268" s="6">
-        <v>3906</v>
+        <v>16666</v>
       </c>
       <c r="C268" s="6">
-        <v>1051</v>
+        <v>2393</v>
       </c>
       <c r="D268" s="6">
-        <v>785</v>
+        <v>1203</v>
       </c>
       <c r="E268" s="6">
         <v>1</v>
@@ -12628,8 +12437,7 @@
         <v>10</v>
       </c>
       <c r="G268" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>24</v>
@@ -12655,13 +12463,13 @@
         <v>100018013</v>
       </c>
       <c r="B269" s="6">
-        <v>3921</v>
+        <v>16780</v>
       </c>
       <c r="C269" s="6">
-        <v>1055</v>
+        <v>2411</v>
       </c>
       <c r="D269" s="6">
-        <v>788</v>
+        <v>1212</v>
       </c>
       <c r="E269" s="6">
         <v>1</v>
@@ -12670,8 +12478,7 @@
         <v>10</v>
       </c>
       <c r="G269" s="6">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>25</v>
@@ -12697,13 +12504,13 @@
         <v>100018014</v>
       </c>
       <c r="B270" s="6">
-        <v>3936</v>
+        <v>11262</v>
       </c>
       <c r="C270" s="6">
-        <v>1059</v>
+        <v>1477</v>
       </c>
       <c r="D270" s="6">
-        <v>791</v>
+        <v>1220</v>
       </c>
       <c r="E270" s="6">
         <v>1</v>
@@ -12712,8 +12519,7 @@
         <v>10</v>
       </c>
       <c r="G270" s="6">
-        <f t="shared" ref="G270:G316" si="3">G255+10</f>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>26</v>
@@ -12739,13 +12545,13 @@
         <v>100018015</v>
       </c>
       <c r="B271" s="6">
-        <v>3951</v>
+        <v>11338</v>
       </c>
       <c r="C271" s="6">
-        <v>1063</v>
+        <v>1487</v>
       </c>
       <c r="D271" s="6">
-        <v>794</v>
+        <v>1229</v>
       </c>
       <c r="E271" s="6">
         <v>1</v>
@@ -12754,8 +12560,7 @@
         <v>10</v>
       </c>
       <c r="G271" s="6">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>27</v>
@@ -12781,13 +12586,13 @@
         <v>100019001</v>
       </c>
       <c r="B272" s="5">
-        <v>3966</v>
+        <v>17128</v>
       </c>
       <c r="C272" s="5">
-        <v>1067</v>
+        <v>2465</v>
       </c>
       <c r="D272" s="5">
-        <v>797</v>
+        <v>1239</v>
       </c>
       <c r="E272" s="5">
         <v>1</v>
@@ -12796,8 +12601,7 @@
         <v>10</v>
       </c>
       <c r="G272" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>13</v>
@@ -12823,13 +12627,13 @@
         <v>100019002</v>
       </c>
       <c r="B273" s="5">
-        <v>3981</v>
+        <v>17248</v>
       </c>
       <c r="C273" s="5">
-        <v>1071</v>
+        <v>2483</v>
       </c>
       <c r="D273" s="5">
-        <v>800</v>
+        <v>1248</v>
       </c>
       <c r="E273" s="5">
         <v>1</v>
@@ -12838,8 +12642,7 @@
         <v>10</v>
       </c>
       <c r="G273" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>14</v>
@@ -12865,13 +12668,13 @@
         <v>100019003</v>
       </c>
       <c r="B274" s="5">
-        <v>3996</v>
+        <v>11578</v>
       </c>
       <c r="C274" s="5">
-        <v>1075</v>
+        <v>1517</v>
       </c>
       <c r="D274" s="5">
-        <v>803</v>
+        <v>1256</v>
       </c>
       <c r="E274" s="5">
         <v>1</v>
@@ -12880,8 +12683,7 @@
         <v>10</v>
       </c>
       <c r="G274" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H274" s="3" t="s">
         <v>15</v>
@@ -12907,13 +12709,13 @@
         <v>100019004</v>
       </c>
       <c r="B275" s="5">
-        <v>4011</v>
+        <v>17488</v>
       </c>
       <c r="C275" s="5">
-        <v>1079</v>
+        <v>2519</v>
       </c>
       <c r="D275" s="5">
-        <v>806</v>
+        <v>1266</v>
       </c>
       <c r="E275" s="5">
         <v>1</v>
@@ -12922,8 +12724,7 @@
         <v>10</v>
       </c>
       <c r="G275" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>16</v>
@@ -12949,13 +12750,13 @@
         <v>100019005</v>
       </c>
       <c r="B276" s="5">
-        <v>4026</v>
+        <v>17608</v>
       </c>
       <c r="C276" s="5">
-        <v>1083</v>
+        <v>2537</v>
       </c>
       <c r="D276" s="5">
-        <v>809</v>
+        <v>1275</v>
       </c>
       <c r="E276" s="5">
         <v>1</v>
@@ -12964,8 +12765,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>17</v>
@@ -12991,13 +12791,13 @@
         <v>100019006</v>
       </c>
       <c r="B277" s="5">
-        <v>4041</v>
+        <v>11818</v>
       </c>
       <c r="C277" s="5">
-        <v>1087</v>
+        <v>1547</v>
       </c>
       <c r="D277" s="5">
-        <v>812</v>
+        <v>1283</v>
       </c>
       <c r="E277" s="5">
         <v>1</v>
@@ -13006,8 +12806,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H277" s="3" t="s">
         <v>18</v>
@@ -13033,13 +12832,13 @@
         <v>100019007</v>
       </c>
       <c r="B278" s="5">
-        <v>4056</v>
+        <v>17848</v>
       </c>
       <c r="C278" s="5">
-        <v>1091</v>
+        <v>2573</v>
       </c>
       <c r="D278" s="5">
-        <v>815</v>
+        <v>1293</v>
       </c>
       <c r="E278" s="5">
         <v>1</v>
@@ -13048,8 +12847,7 @@
         <v>10</v>
       </c>
       <c r="G278" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H278" s="3" t="s">
         <v>19</v>
@@ -13075,13 +12873,13 @@
         <v>100019008</v>
       </c>
       <c r="B279" s="5">
-        <v>4071</v>
+        <v>17968</v>
       </c>
       <c r="C279" s="5">
-        <v>1095</v>
+        <v>2591</v>
       </c>
       <c r="D279" s="5">
-        <v>818</v>
+        <v>1302</v>
       </c>
       <c r="E279" s="5">
         <v>1</v>
@@ -13090,8 +12888,7 @@
         <v>10</v>
       </c>
       <c r="G279" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H279" s="3" t="s">
         <v>20</v>
@@ -13117,13 +12914,13 @@
         <v>100019009</v>
       </c>
       <c r="B280" s="5">
-        <v>4086</v>
+        <v>12058</v>
       </c>
       <c r="C280" s="5">
-        <v>1099</v>
+        <v>1577</v>
       </c>
       <c r="D280" s="5">
-        <v>821</v>
+        <v>1310</v>
       </c>
       <c r="E280" s="5">
         <v>1</v>
@@ -13132,8 +12929,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H280" s="3" t="s">
         <v>21</v>
@@ -13159,13 +12955,13 @@
         <v>100019010</v>
       </c>
       <c r="B281" s="5">
-        <v>4101</v>
+        <v>12138</v>
       </c>
       <c r="C281" s="5">
-        <v>1103</v>
+        <v>1587</v>
       </c>
       <c r="D281" s="5">
-        <v>824</v>
+        <v>1319</v>
       </c>
       <c r="E281" s="5">
         <v>1</v>
@@ -13174,8 +12970,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>22</v>
@@ -13201,13 +12996,13 @@
         <v>100019011</v>
       </c>
       <c r="B282" s="5">
-        <v>4116</v>
+        <v>18328</v>
       </c>
       <c r="C282" s="5">
-        <v>1107</v>
+        <v>2645</v>
       </c>
       <c r="D282" s="5">
-        <v>827</v>
+        <v>1329</v>
       </c>
       <c r="E282" s="5">
         <v>1</v>
@@ -13216,8 +13011,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>23</v>
@@ -13243,13 +13037,13 @@
         <v>100019012</v>
       </c>
       <c r="B283" s="5">
-        <v>4131</v>
+        <v>18448</v>
       </c>
       <c r="C283" s="5">
-        <v>1111</v>
+        <v>2663</v>
       </c>
       <c r="D283" s="5">
-        <v>830</v>
+        <v>1338</v>
       </c>
       <c r="E283" s="5">
         <v>1</v>
@@ -13258,8 +13052,7 @@
         <v>10</v>
       </c>
       <c r="G283" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>24</v>
@@ -13285,13 +13078,13 @@
         <v>100019013</v>
       </c>
       <c r="B284" s="5">
-        <v>4146</v>
+        <v>18568</v>
       </c>
       <c r="C284" s="5">
-        <v>1115</v>
+        <v>2681</v>
       </c>
       <c r="D284" s="5">
-        <v>833</v>
+        <v>1347</v>
       </c>
       <c r="E284" s="5">
         <v>1</v>
@@ -13300,8 +13093,7 @@
         <v>10</v>
       </c>
       <c r="G284" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>25</v>
@@ -13327,13 +13119,13 @@
         <v>100019014</v>
       </c>
       <c r="B285" s="5">
-        <v>4161</v>
+        <v>12458</v>
       </c>
       <c r="C285" s="5">
-        <v>1119</v>
+        <v>1627</v>
       </c>
       <c r="D285" s="5">
-        <v>836</v>
+        <v>1355</v>
       </c>
       <c r="E285" s="5">
         <v>1</v>
@@ -13342,8 +13134,7 @@
         <v>10</v>
       </c>
       <c r="G285" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>26</v>
@@ -13369,13 +13160,13 @@
         <v>100019015</v>
       </c>
       <c r="B286" s="5">
-        <v>4176</v>
+        <v>12538</v>
       </c>
       <c r="C286" s="5">
-        <v>1123</v>
+        <v>1637</v>
       </c>
       <c r="D286" s="5">
-        <v>839</v>
+        <v>1364</v>
       </c>
       <c r="E286" s="5">
         <v>1</v>
@@ -13384,8 +13175,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="5">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="H286" s="3" t="s">
         <v>27</v>
@@ -13411,13 +13201,13 @@
         <v>100020001</v>
       </c>
       <c r="B287" s="6">
-        <v>4191</v>
+        <v>18934</v>
       </c>
       <c r="C287" s="6">
-        <v>1127</v>
+        <v>2737</v>
       </c>
       <c r="D287" s="6">
-        <v>842</v>
+        <v>1375</v>
       </c>
       <c r="E287" s="6">
         <v>1</v>
@@ -13426,8 +13216,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H287" s="4" t="s">
         <v>13</v>
@@ -13453,13 +13242,13 @@
         <v>100020002</v>
       </c>
       <c r="B288" s="6">
-        <v>4206</v>
+        <v>19060</v>
       </c>
       <c r="C288" s="6">
-        <v>1131</v>
+        <v>2757</v>
       </c>
       <c r="D288" s="6">
-        <v>845</v>
+        <v>1385</v>
       </c>
       <c r="E288" s="6">
         <v>1</v>
@@ -13468,8 +13257,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H288" s="4" t="s">
         <v>14</v>
@@ -13495,13 +13283,13 @@
         <v>100020003</v>
       </c>
       <c r="B289" s="6">
-        <v>4221</v>
+        <v>12790</v>
       </c>
       <c r="C289" s="6">
-        <v>1135</v>
+        <v>1670</v>
       </c>
       <c r="D289" s="6">
-        <v>848</v>
+        <v>1394</v>
       </c>
       <c r="E289" s="6">
         <v>1</v>
@@ -13510,8 +13298,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>15</v>
@@ -13537,13 +13324,13 @@
         <v>100020004</v>
       </c>
       <c r="B290" s="6">
-        <v>4236</v>
+        <v>19312</v>
       </c>
       <c r="C290" s="6">
-        <v>1139</v>
+        <v>2797</v>
       </c>
       <c r="D290" s="6">
-        <v>851</v>
+        <v>1405</v>
       </c>
       <c r="E290" s="6">
         <v>1</v>
@@ -13552,8 +13339,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>16</v>
@@ -13579,13 +13365,13 @@
         <v>100020005</v>
       </c>
       <c r="B291" s="6">
-        <v>4251</v>
+        <v>19438</v>
       </c>
       <c r="C291" s="6">
-        <v>1143</v>
+        <v>2817</v>
       </c>
       <c r="D291" s="6">
-        <v>854</v>
+        <v>1415</v>
       </c>
       <c r="E291" s="6">
         <v>1</v>
@@ -13594,8 +13380,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H291" s="4" t="s">
         <v>17</v>
@@ -13621,13 +13406,13 @@
         <v>100020006</v>
       </c>
       <c r="B292" s="6">
-        <v>4266</v>
+        <v>13042</v>
       </c>
       <c r="C292" s="6">
-        <v>1147</v>
+        <v>1703</v>
       </c>
       <c r="D292" s="6">
-        <v>857</v>
+        <v>1424</v>
       </c>
       <c r="E292" s="6">
         <v>1</v>
@@ -13636,8 +13421,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>18</v>
@@ -13663,13 +13447,13 @@
         <v>100020007</v>
       </c>
       <c r="B293" s="6">
-        <v>4281</v>
+        <v>19690</v>
       </c>
       <c r="C293" s="6">
-        <v>1151</v>
+        <v>2857</v>
       </c>
       <c r="D293" s="6">
-        <v>860</v>
+        <v>1435</v>
       </c>
       <c r="E293" s="6">
         <v>1</v>
@@ -13678,8 +13462,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H293" s="4" t="s">
         <v>19</v>
@@ -13705,13 +13488,13 @@
         <v>100020008</v>
       </c>
       <c r="B294" s="6">
-        <v>4296</v>
+        <v>19816</v>
       </c>
       <c r="C294" s="6">
-        <v>1155</v>
+        <v>2877</v>
       </c>
       <c r="D294" s="6">
-        <v>863</v>
+        <v>1445</v>
       </c>
       <c r="E294" s="6">
         <v>1</v>
@@ -13720,8 +13503,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H294" s="4" t="s">
         <v>20</v>
@@ -13747,13 +13529,13 @@
         <v>100020009</v>
       </c>
       <c r="B295" s="6">
-        <v>4311</v>
+        <v>13294</v>
       </c>
       <c r="C295" s="6">
-        <v>1159</v>
+        <v>1736</v>
       </c>
       <c r="D295" s="6">
-        <v>866</v>
+        <v>1454</v>
       </c>
       <c r="E295" s="6">
         <v>1</v>
@@ -13762,8 +13544,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H295" s="4" t="s">
         <v>21</v>
@@ -13789,13 +13570,13 @@
         <v>100020010</v>
       </c>
       <c r="B296" s="6">
-        <v>4326</v>
+        <v>13378</v>
       </c>
       <c r="C296" s="6">
-        <v>1163</v>
+        <v>1747</v>
       </c>
       <c r="D296" s="6">
-        <v>869</v>
+        <v>1464</v>
       </c>
       <c r="E296" s="6">
         <v>1</v>
@@ -13804,8 +13585,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H296" s="4" t="s">
         <v>22</v>
@@ -13831,13 +13611,13 @@
         <v>100020011</v>
       </c>
       <c r="B297" s="6">
-        <v>4341</v>
+        <v>20194</v>
       </c>
       <c r="C297" s="6">
-        <v>1167</v>
+        <v>2937</v>
       </c>
       <c r="D297" s="6">
-        <v>872</v>
+        <v>1475</v>
       </c>
       <c r="E297" s="6">
         <v>1</v>
@@ -13846,8 +13626,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>23</v>
@@ -13873,13 +13652,13 @@
         <v>100020012</v>
       </c>
       <c r="B298" s="6">
-        <v>4356</v>
+        <v>20320</v>
       </c>
       <c r="C298" s="6">
-        <v>1171</v>
+        <v>2957</v>
       </c>
       <c r="D298" s="6">
-        <v>875</v>
+        <v>1485</v>
       </c>
       <c r="E298" s="6">
         <v>1</v>
@@ -13888,8 +13667,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>24</v>
@@ -13915,13 +13693,13 @@
         <v>100020013</v>
       </c>
       <c r="B299" s="6">
-        <v>4371</v>
+        <v>20446</v>
       </c>
       <c r="C299" s="6">
-        <v>1175</v>
+        <v>2977</v>
       </c>
       <c r="D299" s="6">
-        <v>878</v>
+        <v>1495</v>
       </c>
       <c r="E299" s="6">
         <v>1</v>
@@ -13930,8 +13708,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H299" s="4" t="s">
         <v>25</v>
@@ -13957,13 +13734,13 @@
         <v>100020014</v>
       </c>
       <c r="B300" s="6">
-        <v>4386</v>
+        <v>13714</v>
       </c>
       <c r="C300" s="6">
-        <v>1179</v>
+        <v>1791</v>
       </c>
       <c r="D300" s="6">
-        <v>881</v>
+        <v>1504</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
@@ -13972,8 +13749,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H300" s="4" t="s">
         <v>26</v>
@@ -13999,13 +13775,13 @@
         <v>100020015</v>
       </c>
       <c r="B301" s="6">
-        <v>4401</v>
+        <v>13798</v>
       </c>
       <c r="C301" s="6">
-        <v>1183</v>
+        <v>1802</v>
       </c>
       <c r="D301" s="6">
-        <v>884</v>
+        <v>1514</v>
       </c>
       <c r="E301" s="6">
         <v>1</v>
@@ -14014,8 +13790,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="6">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H301" s="4" t="s">
         <v>27</v>
@@ -14041,13 +13816,13 @@
         <v>100021001</v>
       </c>
       <c r="B302" s="5">
-        <v>4416</v>
+        <v>20830</v>
       </c>
       <c r="C302" s="5">
-        <v>1187</v>
+        <v>3037</v>
       </c>
       <c r="D302" s="5">
-        <v>887</v>
+        <v>1525</v>
       </c>
       <c r="E302" s="5">
         <v>1</v>
@@ -14056,8 +13831,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H302" s="3" t="s">
         <v>13</v>
@@ -14083,13 +13857,13 @@
         <v>100021002</v>
       </c>
       <c r="B303" s="5">
-        <v>4431</v>
+        <v>20962</v>
       </c>
       <c r="C303" s="5">
-        <v>1191</v>
+        <v>3057</v>
       </c>
       <c r="D303" s="5">
-        <v>890</v>
+        <v>1535</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -14098,8 +13872,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>14</v>
@@ -14125,13 +13898,13 @@
         <v>100021003</v>
       </c>
       <c r="B304" s="5">
-        <v>4446</v>
+        <v>14062</v>
       </c>
       <c r="C304" s="5">
-        <v>1195</v>
+        <v>1835</v>
       </c>
       <c r="D304" s="5">
-        <v>893</v>
+        <v>1544</v>
       </c>
       <c r="E304" s="5">
         <v>1</v>
@@ -14140,8 +13913,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H304" s="3" t="s">
         <v>15</v>
@@ -14167,13 +13939,13 @@
         <v>100021004</v>
       </c>
       <c r="B305" s="5">
-        <v>4461</v>
+        <v>21226</v>
       </c>
       <c r="C305" s="5">
-        <v>1199</v>
+        <v>3097</v>
       </c>
       <c r="D305" s="5">
-        <v>896</v>
+        <v>1555</v>
       </c>
       <c r="E305" s="5">
         <v>1</v>
@@ -14182,8 +13954,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>16</v>
@@ -14209,13 +13980,13 @@
         <v>100021005</v>
       </c>
       <c r="B306" s="5">
-        <v>4476</v>
+        <v>21358</v>
       </c>
       <c r="C306" s="5">
-        <v>1203</v>
+        <v>3117</v>
       </c>
       <c r="D306" s="5">
-        <v>899</v>
+        <v>1565</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -14224,8 +13995,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>17</v>
@@ -14251,13 +14021,13 @@
         <v>100021006</v>
       </c>
       <c r="B307" s="5">
-        <v>4491</v>
+        <v>14326</v>
       </c>
       <c r="C307" s="5">
-        <v>1207</v>
+        <v>1868</v>
       </c>
       <c r="D307" s="5">
-        <v>902</v>
+        <v>1574</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -14266,8 +14036,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>18</v>
@@ -14293,13 +14062,13 @@
         <v>100021007</v>
       </c>
       <c r="B308" s="5">
-        <v>4506</v>
+        <v>21622</v>
       </c>
       <c r="C308" s="5">
-        <v>1211</v>
+        <v>3157</v>
       </c>
       <c r="D308" s="5">
-        <v>905</v>
+        <v>1585</v>
       </c>
       <c r="E308" s="5">
         <v>1</v>
@@ -14308,8 +14077,7 @@
         <v>10</v>
       </c>
       <c r="G308" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>19</v>
@@ -14335,13 +14103,13 @@
         <v>100021008</v>
       </c>
       <c r="B309" s="5">
-        <v>4521</v>
+        <v>21754</v>
       </c>
       <c r="C309" s="5">
-        <v>1215</v>
+        <v>3177</v>
       </c>
       <c r="D309" s="5">
-        <v>908</v>
+        <v>1595</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -14350,8 +14118,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>20</v>
@@ -14377,13 +14144,13 @@
         <v>100021009</v>
       </c>
       <c r="B310" s="5">
-        <v>4536</v>
+        <v>14590</v>
       </c>
       <c r="C310" s="5">
-        <v>1219</v>
+        <v>1901</v>
       </c>
       <c r="D310" s="5">
-        <v>911</v>
+        <v>1604</v>
       </c>
       <c r="E310" s="5">
         <v>1</v>
@@ -14392,8 +14159,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H310" s="3" t="s">
         <v>21</v>
@@ -14419,13 +14185,13 @@
         <v>100021010</v>
       </c>
       <c r="B311" s="5">
-        <v>4551</v>
+        <v>14678</v>
       </c>
       <c r="C311" s="5">
-        <v>1223</v>
+        <v>1912</v>
       </c>
       <c r="D311" s="5">
-        <v>914</v>
+        <v>1614</v>
       </c>
       <c r="E311" s="5">
         <v>1</v>
@@ -14434,8 +14200,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H311" s="3" t="s">
         <v>22</v>
@@ -14461,13 +14226,13 @@
         <v>100021011</v>
       </c>
       <c r="B312" s="5">
-        <v>4566</v>
+        <v>22150</v>
       </c>
       <c r="C312" s="5">
-        <v>1227</v>
+        <v>3237</v>
       </c>
       <c r="D312" s="5">
-        <v>917</v>
+        <v>1625</v>
       </c>
       <c r="E312" s="5">
         <v>1</v>
@@ -14476,8 +14241,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>23</v>
@@ -14503,13 +14267,13 @@
         <v>100021012</v>
       </c>
       <c r="B313" s="5">
-        <v>4581</v>
+        <v>22282</v>
       </c>
       <c r="C313" s="5">
-        <v>1231</v>
+        <v>3257</v>
       </c>
       <c r="D313" s="5">
-        <v>920</v>
+        <v>1635</v>
       </c>
       <c r="E313" s="5">
         <v>1</v>
@@ -14518,8 +14282,7 @@
         <v>10</v>
       </c>
       <c r="G313" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>24</v>
@@ -14545,13 +14308,13 @@
         <v>100021013</v>
       </c>
       <c r="B314" s="5">
-        <v>4596</v>
+        <v>22414</v>
       </c>
       <c r="C314" s="5">
-        <v>1235</v>
+        <v>3277</v>
       </c>
       <c r="D314" s="5">
-        <v>923</v>
+        <v>1645</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -14560,8 +14323,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H314" s="3" t="s">
         <v>25</v>
@@ -14587,13 +14349,13 @@
         <v>100021014</v>
       </c>
       <c r="B315" s="5">
-        <v>4611</v>
+        <v>15030</v>
       </c>
       <c r="C315" s="5">
-        <v>1239</v>
+        <v>1956</v>
       </c>
       <c r="D315" s="5">
-        <v>926</v>
+        <v>1654</v>
       </c>
       <c r="E315" s="5">
         <v>1</v>
@@ -14602,8 +14364,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H315" s="3" t="s">
         <v>26</v>
@@ -14629,13 +14390,13 @@
         <v>100021015</v>
       </c>
       <c r="B316" s="5">
-        <v>4626</v>
+        <v>15118</v>
       </c>
       <c r="C316" s="5">
-        <v>1243</v>
+        <v>1967</v>
       </c>
       <c r="D316" s="5">
-        <v>929</v>
+        <v>1664</v>
       </c>
       <c r="E316" s="5">
         <v>1</v>
@@ -14644,8 +14405,7 @@
         <v>10</v>
       </c>
       <c r="G316" s="5">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="H316" s="3" t="s">
         <v>27</v>
@@ -14671,16 +14431,13 @@
         <v>20001001</v>
       </c>
       <c r="B317" s="9">
-        <f>ROUND(B16*1.5,0)</f>
-        <v>219</v>
+        <v>2000</v>
       </c>
       <c r="C317" s="9">
-        <f>ROUND(C16*1.5,0)</f>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D317" s="9">
-        <f>ROUND(D16*1.5,0)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E317" s="9">
         <v>1</v>
@@ -14689,7 +14446,7 @@
         <v>10</v>
       </c>
       <c r="G317" s="9">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H317" s="9" t="s">
         <v>28</v>
@@ -14715,16 +14472,13 @@
         <v>20002001</v>
       </c>
       <c r="B318" s="9">
-        <f>ROUND(B31*1.5,0)</f>
-        <v>527</v>
+        <v>5500</v>
       </c>
       <c r="C318" s="9">
-        <f>ROUND(C31*1.5,0)</f>
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D318" s="9">
-        <f>ROUND(D31*1.5,0)</f>
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E318" s="9">
         <v>1</v>
@@ -14733,7 +14487,7 @@
         <v>10</v>
       </c>
       <c r="G318" s="9">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="H318" s="9" t="s">
         <v>29</v>
@@ -14759,16 +14513,13 @@
         <v>20003001</v>
       </c>
       <c r="B319" s="9">
-        <f>ROUND(B46*1.5,0)</f>
-        <v>864</v>
+        <v>9500</v>
       </c>
       <c r="C319" s="9">
-        <f>ROUND(C46*1.5,0)</f>
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="D319" s="9">
-        <f>ROUND(D46*1.5,0)</f>
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="E319" s="9">
         <v>1</v>
@@ -14777,7 +14528,7 @@
         <v>10</v>
       </c>
       <c r="G319" s="9">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="H319" s="9" t="s">
         <v>30</v>
@@ -14803,16 +14554,13 @@
         <v>20004001</v>
       </c>
       <c r="B320" s="9">
-        <f>ROUND(B61*1.5,0)</f>
-        <v>1202</v>
+        <v>15000</v>
       </c>
       <c r="C320" s="9">
-        <f>ROUND(C61*1.5,0)</f>
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="D320" s="9">
-        <f>ROUND(D61*1.5,0)</f>
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="E320" s="9">
         <v>1</v>
@@ -14821,7 +14569,7 @@
         <v>10</v>
       </c>
       <c r="G320" s="9">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="H320" s="9" t="s">
         <v>31</v>
@@ -14847,16 +14595,13 @@
         <v>20005001</v>
       </c>
       <c r="B321" s="9">
-        <f>ROUND(B76*1.5,0)</f>
-        <v>1539</v>
+        <v>21500</v>
       </c>
       <c r="C321" s="9">
-        <f>ROUND(C76*1.5,0)</f>
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="D321" s="9">
-        <f>ROUND(D76*1.5,0)</f>
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="E321" s="9">
         <v>1</v>
@@ -14865,7 +14610,7 @@
         <v>10</v>
       </c>
       <c r="G321" s="9">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="H321" s="9" t="s">
         <v>32</v>
@@ -14891,16 +14636,13 @@
         <v>20006001</v>
       </c>
       <c r="B322" s="9">
-        <f>ROUND(B91*1.5,0)</f>
-        <v>1877</v>
+        <v>28000</v>
       </c>
       <c r="C322" s="9">
-        <f>ROUND(C91*1.5,0)</f>
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="D322" s="9">
-        <f>ROUND(D91*1.5,0)</f>
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="E322" s="9">
         <v>1</v>
@@ -14909,7 +14651,7 @@
         <v>10</v>
       </c>
       <c r="G322" s="9">
-        <v>240</v>
+        <v>1700</v>
       </c>
       <c r="H322" s="9" t="s">
         <v>33</v>
@@ -14935,16 +14677,13 @@
         <v>20007001</v>
       </c>
       <c r="B323" s="9">
-        <f>ROUND(B106*1.5,0)</f>
-        <v>2214</v>
+        <v>34500</v>
       </c>
       <c r="C323" s="9">
-        <f>ROUND(C106*1.5,0)</f>
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="D323" s="9">
-        <f>ROUND(D106*1.5,0)</f>
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="E323" s="9">
         <v>1</v>
@@ -14953,7 +14692,7 @@
         <v>10</v>
       </c>
       <c r="G323" s="9">
-        <v>280</v>
+        <v>2000</v>
       </c>
       <c r="H323" s="9" t="s">
         <v>28</v>
@@ -14979,16 +14718,13 @@
         <v>20008001</v>
       </c>
       <c r="B324" s="9">
-        <f>ROUND(B121*1.5,0)</f>
-        <v>2552</v>
+        <v>41000</v>
       </c>
       <c r="C324" s="9">
-        <f>ROUND(C121*1.5,0)</f>
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="D324" s="9">
-        <f>ROUND(D121*1.5,0)</f>
-        <v>516</v>
+        <v>220</v>
       </c>
       <c r="E324" s="9">
         <v>1</v>
@@ -14997,7 +14733,7 @@
         <v>10</v>
       </c>
       <c r="G324" s="9">
-        <v>320</v>
+        <v>2300</v>
       </c>
       <c r="H324" s="9" t="s">
         <v>29</v>
@@ -15023,16 +14759,13 @@
         <v>20009001</v>
       </c>
       <c r="B325" s="9">
-        <f>ROUND(B136*1.5,0)</f>
-        <v>2889</v>
+        <v>47500</v>
       </c>
       <c r="C325" s="9">
-        <f>ROUND(C136*1.5,0)</f>
-        <v>785</v>
+        <v>880</v>
       </c>
       <c r="D325" s="9">
-        <f>ROUND(D136*1.5,0)</f>
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="E325" s="9">
         <v>1</v>
@@ -15041,7 +14774,7 @@
         <v>10</v>
       </c>
       <c r="G325" s="9">
-        <v>360</v>
+        <v>2600</v>
       </c>
       <c r="H325" s="9" t="s">
         <v>30</v>
@@ -15067,16 +14800,13 @@
         <v>20010001</v>
       </c>
       <c r="B326" s="9">
-        <f>ROUND(B151*1.5,0)</f>
-        <v>3227</v>
+        <v>54000</v>
       </c>
       <c r="C326" s="9">
-        <f>ROUND(C151*1.5,0)</f>
-        <v>875</v>
+        <v>980</v>
       </c>
       <c r="D326" s="9">
-        <f>ROUND(D151*1.5,0)</f>
-        <v>651</v>
+        <v>280</v>
       </c>
       <c r="E326" s="9">
         <v>1</v>
@@ -15085,7 +14815,7 @@
         <v>10</v>
       </c>
       <c r="G326" s="9">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="H326" s="9" t="s">
         <v>31</v>
@@ -15111,16 +14841,13 @@
         <v>20011001</v>
       </c>
       <c r="B327" s="9">
-        <f>ROUND(B166*1.5,0)</f>
-        <v>3564</v>
+        <v>60500</v>
       </c>
       <c r="C327" s="9">
-        <f>ROUND(C166*1.5,0)</f>
-        <v>965</v>
+        <v>1080</v>
       </c>
       <c r="D327" s="9">
-        <f>ROUND(D166*1.5,0)</f>
-        <v>719</v>
+        <v>310</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -15129,7 +14856,7 @@
         <v>10</v>
       </c>
       <c r="G327" s="9">
-        <v>440</v>
+        <v>3200</v>
       </c>
       <c r="H327" s="9" t="s">
         <v>32</v>
@@ -15155,16 +14882,13 @@
         <v>20012001</v>
       </c>
       <c r="B328" s="9">
-        <f>ROUND(B181*1.5,0)</f>
-        <v>3902</v>
+        <v>67000</v>
       </c>
       <c r="C328" s="9">
-        <f>ROUND(C181*1.5,0)</f>
-        <v>1055</v>
+        <v>1180</v>
       </c>
       <c r="D328" s="9">
-        <f>ROUND(D181*1.5,0)</f>
-        <v>786</v>
+        <v>340</v>
       </c>
       <c r="E328" s="9">
         <v>1</v>
@@ -15173,7 +14897,7 @@
         <v>10</v>
       </c>
       <c r="G328" s="9">
-        <v>480</v>
+        <v>3500</v>
       </c>
       <c r="H328" s="9" t="s">
         <v>33</v>
@@ -15199,16 +14923,13 @@
         <v>20013001</v>
       </c>
       <c r="B329" s="9">
-        <f>ROUND(B196*1.5,0)</f>
-        <v>4239</v>
+        <v>73500</v>
       </c>
       <c r="C329" s="9">
-        <f>ROUND(C196*1.5,0)</f>
-        <v>1145</v>
+        <v>1280</v>
       </c>
       <c r="D329" s="9">
-        <f>ROUND(D196*1.5,0)</f>
-        <v>854</v>
+        <v>370</v>
       </c>
       <c r="E329" s="9">
         <v>1</v>
@@ -15217,7 +14938,7 @@
         <v>10</v>
       </c>
       <c r="G329" s="9">
-        <v>520</v>
+        <v>3800</v>
       </c>
       <c r="H329" s="9" t="s">
         <v>28</v>
@@ -15243,16 +14964,13 @@
         <v>20014001</v>
       </c>
       <c r="B330" s="9">
-        <f>ROUND(B211*1.5,0)</f>
-        <v>4577</v>
+        <v>80000</v>
       </c>
       <c r="C330" s="9">
-        <f>ROUND(C211*1.5,0)</f>
-        <v>1235</v>
+        <v>1380</v>
       </c>
       <c r="D330" s="9">
-        <f>ROUND(D211*1.5,0)</f>
-        <v>921</v>
+        <v>400</v>
       </c>
       <c r="E330" s="9">
         <v>1</v>
@@ -15261,7 +14979,7 @@
         <v>10</v>
       </c>
       <c r="G330" s="9">
-        <v>560</v>
+        <v>4100</v>
       </c>
       <c r="H330" s="9" t="s">
         <v>29</v>
@@ -15287,16 +15005,13 @@
         <v>20015001</v>
       </c>
       <c r="B331" s="9">
-        <f>ROUND(B226*1.5,0)</f>
-        <v>4914</v>
+        <v>86500</v>
       </c>
       <c r="C331" s="9">
-        <f>ROUND(C226*1.5,0)</f>
-        <v>1325</v>
+        <v>1480</v>
       </c>
       <c r="D331" s="9">
-        <f>ROUND(D226*1.5,0)</f>
-        <v>989</v>
+        <v>430</v>
       </c>
       <c r="E331" s="9">
         <v>1</v>
@@ -15305,7 +15020,7 @@
         <v>10</v>
       </c>
       <c r="G331" s="9">
-        <v>600</v>
+        <v>4400</v>
       </c>
       <c r="H331" s="9" t="s">
         <v>30</v>
@@ -15331,16 +15046,13 @@
         <v>20016001</v>
       </c>
       <c r="B332" s="9">
-        <f>ROUND(B241*1.5,0)</f>
-        <v>5252</v>
+        <v>93000</v>
       </c>
       <c r="C332" s="9">
-        <f>ROUND(C241*1.5,0)</f>
-        <v>1415</v>
+        <v>1580</v>
       </c>
       <c r="D332" s="9">
-        <f>ROUND(D241*1.5,0)</f>
-        <v>1056</v>
+        <v>460</v>
       </c>
       <c r="E332" s="9">
         <v>1</v>
@@ -15349,7 +15061,7 @@
         <v>10</v>
       </c>
       <c r="G332" s="9">
-        <v>640</v>
+        <v>4700</v>
       </c>
       <c r="H332" s="9" t="s">
         <v>31</v>
@@ -15375,16 +15087,13 @@
         <v>20017001</v>
       </c>
       <c r="B333" s="9">
-        <f>ROUND(B256*1.5,0)</f>
-        <v>5589</v>
+        <v>99500</v>
       </c>
       <c r="C333" s="9">
-        <f>ROUND(C256*1.5,0)</f>
-        <v>1505</v>
+        <v>1680</v>
       </c>
       <c r="D333" s="9">
-        <f>ROUND(D256*1.5,0)</f>
-        <v>1124</v>
+        <v>490</v>
       </c>
       <c r="E333" s="9">
         <v>1</v>
@@ -15393,7 +15102,7 @@
         <v>10</v>
       </c>
       <c r="G333" s="9">
-        <v>680</v>
+        <v>5000</v>
       </c>
       <c r="H333" s="9" t="s">
         <v>32</v>
@@ -15419,16 +15128,13 @@
         <v>20018001</v>
       </c>
       <c r="B334" s="9">
-        <f>ROUND(B271*1.5,0)</f>
-        <v>5927</v>
+        <v>106000</v>
       </c>
       <c r="C334" s="9">
-        <f>ROUND(C271*1.5,0)</f>
-        <v>1595</v>
+        <v>1780</v>
       </c>
       <c r="D334" s="9">
-        <f>ROUND(D271*1.5,0)</f>
-        <v>1191</v>
+        <v>520</v>
       </c>
       <c r="E334" s="9">
         <v>1</v>
@@ -15437,7 +15143,7 @@
         <v>10</v>
       </c>
       <c r="G334" s="9">
-        <v>720</v>
+        <v>5300</v>
       </c>
       <c r="H334" s="9" t="s">
         <v>33</v>
@@ -15463,16 +15169,13 @@
         <v>20019001</v>
       </c>
       <c r="B335" s="9">
-        <f>ROUND(B286*1.5,0)</f>
-        <v>6264</v>
+        <v>112500</v>
       </c>
       <c r="C335" s="9">
-        <f>ROUND(C286*1.5,0)</f>
-        <v>1685</v>
+        <v>1880</v>
       </c>
       <c r="D335" s="9">
-        <f>ROUND(D286*1.5,0)</f>
-        <v>1259</v>
+        <v>550</v>
       </c>
       <c r="E335" s="9">
         <v>1</v>
@@ -15481,7 +15184,7 @@
         <v>10</v>
       </c>
       <c r="G335" s="9">
-        <v>760</v>
+        <v>5600</v>
       </c>
       <c r="H335" s="9" t="s">
         <v>28</v>
@@ -15507,16 +15210,13 @@
         <v>20020001</v>
       </c>
       <c r="B336" s="9">
-        <f>ROUND(B301*1.5,0)</f>
-        <v>6602</v>
+        <v>119000</v>
       </c>
       <c r="C336" s="9">
-        <f>ROUND(C301*1.5,0)</f>
-        <v>1775</v>
+        <v>1980</v>
       </c>
       <c r="D336" s="9">
-        <f>ROUND(D301*1.5,0)</f>
-        <v>1326</v>
+        <v>580</v>
       </c>
       <c r="E336" s="9">
         <v>1</v>
@@ -15525,7 +15225,7 @@
         <v>10</v>
       </c>
       <c r="G336" s="9">
-        <v>800</v>
+        <v>5900</v>
       </c>
       <c r="H336" s="9" t="s">
         <v>29</v>
@@ -15551,16 +15251,13 @@
         <v>20021001</v>
       </c>
       <c r="B337" s="9">
-        <f>ROUND(B316*1.5,0)</f>
-        <v>6939</v>
+        <v>125500</v>
       </c>
       <c r="C337" s="9">
-        <f>ROUND(C316*1.5,0)</f>
-        <v>1865</v>
+        <v>2080</v>
       </c>
       <c r="D337" s="9">
-        <f>ROUND(D316*1.5,0)</f>
-        <v>1394</v>
+        <v>610</v>
       </c>
       <c r="E337" s="9">
         <v>1</v>
@@ -15569,7 +15266,7 @@
         <v>10</v>
       </c>
       <c r="G337" s="9">
-        <v>840</v>
+        <v>6200</v>
       </c>
       <c r="H337" s="9" t="s">
         <v>30</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
     <t>die_crystal</t>
   </si>
   <si>
-    <t>death fell</t>
+    <t>death_fell</t>
   </si>
   <si>
     <t>monster_speed</t>
@@ -426,13 +426,36 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -446,16 +469,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -477,16 +507,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,15 +536,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,40 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +615,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,73 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,13 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +717,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,31 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,30 +807,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -848,8 +824,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,34 +898,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,19 +923,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,112 +944,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>id</t>
   </si>
@@ -368,7 +368,7 @@
     <t>{1000004,20}</t>
   </si>
   <si>
-    <t>{1000005,20}</t>
+    <t>{1999999,20}</t>
   </si>
   <si>
     <t>{1000006,20}</t>
@@ -401,6 +401,9 @@
     <t>{1000015,20}</t>
   </si>
   <si>
+    <t>{1000005,20}</t>
+  </si>
+  <si>
     <t>{2000001,20}</t>
   </si>
   <si>
@@ -425,9 +428,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -439,25 +442,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,7 +480,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,74 +517,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -569,14 +540,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,37 +618,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,85 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +726,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,45 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -869,6 +833,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -876,6 +855,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,8 +901,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +926,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,7 +1438,7 @@
   <dimension ref="A1:W337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2296,7 +2299,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2928,7 +2931,7 @@
         <v>70</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>85</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4158,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4773,7 +4776,7 @@
         <v>115</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -5388,7 +5391,7 @@
         <v>130</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -6003,7 +6006,7 @@
         <v>145</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6618,7 +6621,7 @@
         <v>160</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -7233,7 +7236,7 @@
         <v>175</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -7848,7 +7851,7 @@
         <v>190</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -8463,7 +8466,7 @@
         <v>205</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -9078,7 +9081,7 @@
         <v>220</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -9693,7 +9696,7 @@
         <v>235</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -10308,7 +10311,7 @@
         <v>250</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -10923,7 +10926,7 @@
         <v>265</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -11538,7 +11541,7 @@
         <v>280</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -12153,7 +12156,7 @@
         <v>295</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -12768,7 +12771,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -13383,7 +13386,7 @@
         <v>325</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -13998,7 +14001,7 @@
         <v>340</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -14449,7 +14452,7 @@
         <v>200</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -14490,7 +14493,7 @@
         <v>500</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -14531,7 +14534,7 @@
         <v>800</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -14572,7 +14575,7 @@
         <v>1100</v>
       </c>
       <c r="H320" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -14613,7 +14616,7 @@
         <v>1400</v>
       </c>
       <c r="H321" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -14654,7 +14657,7 @@
         <v>1700</v>
       </c>
       <c r="H322" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -14695,7 +14698,7 @@
         <v>2000</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -14736,7 +14739,7 @@
         <v>2300</v>
       </c>
       <c r="H324" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -14777,7 +14780,7 @@
         <v>2600</v>
       </c>
       <c r="H325" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -14818,7 +14821,7 @@
         <v>2900</v>
       </c>
       <c r="H326" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -14859,7 +14862,7 @@
         <v>3200</v>
       </c>
       <c r="H327" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -14900,7 +14903,7 @@
         <v>3500</v>
       </c>
       <c r="H328" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -14941,7 +14944,7 @@
         <v>3800</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -14982,7 +14985,7 @@
         <v>4100</v>
       </c>
       <c r="H330" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -15023,7 +15026,7 @@
         <v>4400</v>
       </c>
       <c r="H331" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -15064,7 +15067,7 @@
         <v>4700</v>
       </c>
       <c r="H332" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -15105,7 +15108,7 @@
         <v>5000</v>
       </c>
       <c r="H333" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -15146,7 +15149,7 @@
         <v>5300</v>
       </c>
       <c r="H334" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -15187,7 +15190,7 @@
         <v>5600</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -15228,7 +15231,7 @@
         <v>5900</v>
       </c>
       <c r="H336" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -15269,7 +15272,7 @@
         <v>6200</v>
       </c>
       <c r="H337" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="27600" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-掉落材料</t>
+掉落</t>
         </r>
       </text>
     </comment>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>id</t>
   </si>
@@ -355,81 +355,15 @@
   <si>
     <t>hit_resource</t>
   </si>
-  <si>
-    <t>{1000001,20}</t>
-  </si>
-  <si>
-    <t>{1000002,20}</t>
-  </si>
-  <si>
-    <t>{1000003,20}</t>
-  </si>
-  <si>
-    <t>{1000004,20}</t>
-  </si>
-  <si>
-    <t>{1999999,20}</t>
-  </si>
-  <si>
-    <t>{1000006,20}</t>
-  </si>
-  <si>
-    <t>{1000007,20}</t>
-  </si>
-  <si>
-    <t>{1000008,20}</t>
-  </si>
-  <si>
-    <t>{1000009,20}</t>
-  </si>
-  <si>
-    <t>{1000010,20}</t>
-  </si>
-  <si>
-    <t>{1000011,20}</t>
-  </si>
-  <si>
-    <t>{1000012,20}</t>
-  </si>
-  <si>
-    <t>{1000013,20}</t>
-  </si>
-  <si>
-    <t>{1000014,20}</t>
-  </si>
-  <si>
-    <t>{1000015,20}</t>
-  </si>
-  <si>
-    <t>{1000005,20}</t>
-  </si>
-  <si>
-    <t>{2000001,20}</t>
-  </si>
-  <si>
-    <t>{2000002,20}</t>
-  </si>
-  <si>
-    <t>{2000003,20}</t>
-  </si>
-  <si>
-    <t>{2000004,20}</t>
-  </si>
-  <si>
-    <t>{2000005,20}</t>
-  </si>
-  <si>
-    <t>{2000006,20}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -438,6 +372,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,54 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,14 +413,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,21 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -562,26 +497,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -606,7 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +564,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,67 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,25 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,49 +672,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,26 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,17 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,8 +796,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,8 +835,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,8 +1371,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="H335" sqref="H335:H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1519,8 +1453,8 @@
       <c r="G2" s="3">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
+      <c r="H2" s="3">
+        <v>10000001</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1560,8 +1494,8 @@
       <c r="G3" s="3">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
+      <c r="H3" s="3">
+        <v>10000002</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1601,8 +1535,8 @@
       <c r="G4" s="3">
         <v>40</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
+      <c r="H4" s="3">
+        <v>10000003</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1642,8 +1576,8 @@
       <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
+      <c r="H5" s="3">
+        <v>10000004</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1683,8 +1617,8 @@
       <c r="G6" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
+      <c r="H6" s="3">
+        <v>10000005</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1724,8 +1658,8 @@
       <c r="G7" s="3">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
+      <c r="H7" s="3">
+        <v>10000006</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1765,8 +1699,8 @@
       <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
+      <c r="H8" s="3">
+        <v>10000007</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1806,8 +1740,8 @@
       <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
+      <c r="H9" s="3">
+        <v>10000008</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1847,8 +1781,8 @@
       <c r="G10" s="3">
         <v>40</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
+      <c r="H10" s="3">
+        <v>10000009</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1888,8 +1822,8 @@
       <c r="G11" s="3">
         <v>40</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
+      <c r="H11" s="3">
+        <v>10000010</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1929,8 +1863,8 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
+      <c r="H12" s="3">
+        <v>10000011</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1970,8 +1904,8 @@
       <c r="G13" s="3">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
+      <c r="H13" s="3">
+        <v>10000012</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -2011,8 +1945,8 @@
       <c r="G14" s="3">
         <v>40</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
+      <c r="H14" s="3">
+        <v>10000013</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2052,8 +1986,8 @@
       <c r="G15" s="3">
         <v>40</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
+      <c r="H15" s="3">
+        <v>10000014</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2093,8 +2027,8 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>27</v>
+      <c r="H16" s="3">
+        <v>10000015</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2134,8 +2068,8 @@
       <c r="G17" s="4">
         <v>55</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>13</v>
+      <c r="H17" s="4">
+        <v>10000001</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2175,8 +2109,8 @@
       <c r="G18" s="4">
         <v>55</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
+      <c r="H18" s="4">
+        <v>10000002</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2216,8 +2150,8 @@
       <c r="G19" s="4">
         <v>55</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
+      <c r="H19" s="4">
+        <v>10000003</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2257,8 +2191,8 @@
       <c r="G20" s="4">
         <v>55</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
+      <c r="H20" s="4">
+        <v>10000004</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2298,8 +2232,8 @@
       <c r="G21" s="4">
         <v>55</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>28</v>
+      <c r="H21" s="4">
+        <v>10000005</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2339,8 +2273,8 @@
       <c r="G22" s="4">
         <v>55</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
+      <c r="H22" s="4">
+        <v>10000006</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2380,8 +2314,8 @@
       <c r="G23" s="4">
         <v>55</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>19</v>
+      <c r="H23" s="4">
+        <v>10000007</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2421,8 +2355,8 @@
       <c r="G24" s="4">
         <v>55</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>20</v>
+      <c r="H24" s="4">
+        <v>10000008</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2462,8 +2396,8 @@
       <c r="G25" s="4">
         <v>55</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
+      <c r="H25" s="4">
+        <v>10000009</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2503,8 +2437,8 @@
       <c r="G26" s="4">
         <v>55</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>22</v>
+      <c r="H26" s="4">
+        <v>10000010</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -2544,8 +2478,8 @@
       <c r="G27" s="4">
         <v>55</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>23</v>
+      <c r="H27" s="4">
+        <v>10000011</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2585,8 +2519,8 @@
       <c r="G28" s="4">
         <v>55</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>24</v>
+      <c r="H28" s="4">
+        <v>10000012</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2626,8 +2560,8 @@
       <c r="G29" s="4">
         <v>55</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>25</v>
+      <c r="H29" s="4">
+        <v>10000013</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2667,8 +2601,8 @@
       <c r="G30" s="4">
         <v>55</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>26</v>
+      <c r="H30" s="4">
+        <v>10000014</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2708,8 +2642,8 @@
       <c r="G31" s="4">
         <v>55</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>27</v>
+      <c r="H31" s="4">
+        <v>10000015</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -2749,8 +2683,8 @@
       <c r="G32" s="5">
         <v>70</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>13</v>
+      <c r="H32" s="3">
+        <v>10000001</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -2790,8 +2724,8 @@
       <c r="G33" s="5">
         <v>70</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>14</v>
+      <c r="H33" s="3">
+        <v>10000002</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2831,8 +2765,8 @@
       <c r="G34" s="5">
         <v>70</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>15</v>
+      <c r="H34" s="3">
+        <v>10000003</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2880,8 +2814,8 @@
       <c r="G35" s="5">
         <v>70</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
+      <c r="H35" s="3">
+        <v>10000004</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2930,8 +2864,8 @@
       <c r="G36" s="5">
         <v>70</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>28</v>
+      <c r="H36" s="3">
+        <v>10000005</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2971,8 +2905,8 @@
       <c r="G37" s="5">
         <v>70</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>18</v>
+      <c r="H37" s="3">
+        <v>10000006</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -3012,8 +2946,8 @@
       <c r="G38" s="5">
         <v>70</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>19</v>
+      <c r="H38" s="3">
+        <v>10000007</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3053,8 +2987,8 @@
       <c r="G39" s="5">
         <v>70</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
+      <c r="H39" s="3">
+        <v>10000008</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3094,8 +3028,8 @@
       <c r="G40" s="5">
         <v>70</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>21</v>
+      <c r="H40" s="3">
+        <v>10000009</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3135,8 +3069,8 @@
       <c r="G41" s="5">
         <v>70</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>22</v>
+      <c r="H41" s="3">
+        <v>10000010</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3176,8 +3110,8 @@
       <c r="G42" s="5">
         <v>70</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>23</v>
+      <c r="H42" s="3">
+        <v>10000011</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -3217,8 +3151,8 @@
       <c r="G43" s="5">
         <v>70</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>24</v>
+      <c r="H43" s="3">
+        <v>10000012</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -3258,8 +3192,8 @@
       <c r="G44" s="5">
         <v>70</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>25</v>
+      <c r="H44" s="3">
+        <v>10000013</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3299,8 +3233,8 @@
       <c r="G45" s="5">
         <v>70</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>26</v>
+      <c r="H45" s="3">
+        <v>10000014</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -3340,8 +3274,8 @@
       <c r="G46" s="5">
         <v>70</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>27</v>
+      <c r="H46" s="3">
+        <v>10000015</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -3381,8 +3315,8 @@
       <c r="G47" s="6">
         <v>85</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>13</v>
+      <c r="H47" s="4">
+        <v>10000001</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -3422,8 +3356,8 @@
       <c r="G48" s="6">
         <v>85</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>14</v>
+      <c r="H48" s="4">
+        <v>10000002</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -3463,8 +3397,8 @@
       <c r="G49" s="6">
         <v>85</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>15</v>
+      <c r="H49" s="4">
+        <v>10000003</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -3504,8 +3438,8 @@
       <c r="G50" s="6">
         <v>85</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>16</v>
+      <c r="H50" s="4">
+        <v>10000004</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -3545,8 +3479,8 @@
       <c r="G51" s="6">
         <v>85</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>28</v>
+      <c r="H51" s="4">
+        <v>10000005</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -3586,8 +3520,8 @@
       <c r="G52" s="6">
         <v>85</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>18</v>
+      <c r="H52" s="4">
+        <v>10000006</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -3627,8 +3561,8 @@
       <c r="G53" s="6">
         <v>85</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>19</v>
+      <c r="H53" s="4">
+        <v>10000007</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -3668,8 +3602,8 @@
       <c r="G54" s="6">
         <v>85</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>20</v>
+      <c r="H54" s="4">
+        <v>10000008</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -3709,8 +3643,8 @@
       <c r="G55" s="6">
         <v>85</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>21</v>
+      <c r="H55" s="4">
+        <v>10000009</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -3750,8 +3684,8 @@
       <c r="G56" s="6">
         <v>85</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>22</v>
+      <c r="H56" s="4">
+        <v>10000010</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -3791,8 +3725,8 @@
       <c r="G57" s="6">
         <v>85</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>23</v>
+      <c r="H57" s="4">
+        <v>10000011</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3832,8 +3766,8 @@
       <c r="G58" s="6">
         <v>85</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>24</v>
+      <c r="H58" s="4">
+        <v>10000012</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -3873,8 +3807,8 @@
       <c r="G59" s="6">
         <v>85</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>25</v>
+      <c r="H59" s="4">
+        <v>10000013</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -3914,8 +3848,8 @@
       <c r="G60" s="6">
         <v>85</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>26</v>
+      <c r="H60" s="4">
+        <v>10000014</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -3955,8 +3889,8 @@
       <c r="G61" s="6">
         <v>85</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>27</v>
+      <c r="H61" s="4">
+        <v>10000015</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -3996,8 +3930,8 @@
       <c r="G62" s="5">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>13</v>
+      <c r="H62" s="3">
+        <v>10000001</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -4037,8 +3971,8 @@
       <c r="G63" s="5">
         <v>100</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>14</v>
+      <c r="H63" s="3">
+        <v>10000002</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -4078,8 +4012,8 @@
       <c r="G64" s="5">
         <v>100</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>15</v>
+      <c r="H64" s="3">
+        <v>10000003</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -4119,8 +4053,8 @@
       <c r="G65" s="5">
         <v>100</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>16</v>
+      <c r="H65" s="3">
+        <v>10000004</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -4160,8 +4094,8 @@
       <c r="G66" s="5">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>28</v>
+      <c r="H66" s="3">
+        <v>10000005</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4201,8 +4135,8 @@
       <c r="G67" s="5">
         <v>100</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>18</v>
+      <c r="H67" s="3">
+        <v>10000006</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -4242,8 +4176,8 @@
       <c r="G68" s="5">
         <v>100</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>19</v>
+      <c r="H68" s="3">
+        <v>10000007</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4283,8 +4217,8 @@
       <c r="G69" s="5">
         <v>100</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>20</v>
+      <c r="H69" s="3">
+        <v>10000008</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4324,8 +4258,8 @@
       <c r="G70" s="5">
         <v>100</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>21</v>
+      <c r="H70" s="3">
+        <v>10000009</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4365,8 +4299,8 @@
       <c r="G71" s="5">
         <v>100</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>22</v>
+      <c r="H71" s="3">
+        <v>10000010</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4406,8 +4340,8 @@
       <c r="G72" s="5">
         <v>100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>23</v>
+      <c r="H72" s="3">
+        <v>10000011</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4447,8 +4381,8 @@
       <c r="G73" s="5">
         <v>100</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>24</v>
+      <c r="H73" s="3">
+        <v>10000012</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4488,8 +4422,8 @@
       <c r="G74" s="5">
         <v>100</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>25</v>
+      <c r="H74" s="3">
+        <v>10000013</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4529,8 +4463,8 @@
       <c r="G75" s="5">
         <v>100</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>26</v>
+      <c r="H75" s="3">
+        <v>10000014</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4570,8 +4504,8 @@
       <c r="G76" s="5">
         <v>100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>27</v>
+      <c r="H76" s="3">
+        <v>10000015</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4611,8 +4545,8 @@
       <c r="G77" s="6">
         <v>115</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>13</v>
+      <c r="H77" s="4">
+        <v>10000001</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -4652,8 +4586,8 @@
       <c r="G78" s="6">
         <v>115</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>14</v>
+      <c r="H78" s="4">
+        <v>10000002</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -4693,8 +4627,8 @@
       <c r="G79" s="6">
         <v>115</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>15</v>
+      <c r="H79" s="4">
+        <v>10000003</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -4734,8 +4668,8 @@
       <c r="G80" s="6">
         <v>115</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>16</v>
+      <c r="H80" s="4">
+        <v>10000004</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -4775,8 +4709,8 @@
       <c r="G81" s="6">
         <v>115</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>28</v>
+      <c r="H81" s="4">
+        <v>10000005</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -4816,8 +4750,8 @@
       <c r="G82" s="6">
         <v>115</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>18</v>
+      <c r="H82" s="4">
+        <v>10000006</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -4857,8 +4791,8 @@
       <c r="G83" s="6">
         <v>115</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>19</v>
+      <c r="H83" s="4">
+        <v>10000007</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -4898,8 +4832,8 @@
       <c r="G84" s="6">
         <v>115</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>20</v>
+      <c r="H84" s="4">
+        <v>10000008</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -4939,8 +4873,8 @@
       <c r="G85" s="6">
         <v>115</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>21</v>
+      <c r="H85" s="4">
+        <v>10000009</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4980,8 +4914,8 @@
       <c r="G86" s="6">
         <v>115</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>22</v>
+      <c r="H86" s="4">
+        <v>10000010</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -5021,8 +4955,8 @@
       <c r="G87" s="6">
         <v>115</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>23</v>
+      <c r="H87" s="4">
+        <v>10000011</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -5062,8 +4996,8 @@
       <c r="G88" s="6">
         <v>115</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>24</v>
+      <c r="H88" s="4">
+        <v>10000012</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -5103,8 +5037,8 @@
       <c r="G89" s="6">
         <v>115</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>25</v>
+      <c r="H89" s="4">
+        <v>10000013</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -5144,8 +5078,8 @@
       <c r="G90" s="6">
         <v>115</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>26</v>
+      <c r="H90" s="4">
+        <v>10000014</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -5185,8 +5119,8 @@
       <c r="G91" s="6">
         <v>115</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>27</v>
+      <c r="H91" s="4">
+        <v>10000015</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -5226,8 +5160,8 @@
       <c r="G92" s="5">
         <v>130</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>13</v>
+      <c r="H92" s="3">
+        <v>10000001</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -5267,8 +5201,8 @@
       <c r="G93" s="5">
         <v>130</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>14</v>
+      <c r="H93" s="3">
+        <v>10000002</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -5308,8 +5242,8 @@
       <c r="G94" s="5">
         <v>130</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>15</v>
+      <c r="H94" s="3">
+        <v>10000003</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -5349,8 +5283,8 @@
       <c r="G95" s="5">
         <v>130</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>16</v>
+      <c r="H95" s="3">
+        <v>10000004</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5390,8 +5324,8 @@
       <c r="G96" s="5">
         <v>130</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>28</v>
+      <c r="H96" s="3">
+        <v>10000005</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5431,8 +5365,8 @@
       <c r="G97" s="5">
         <v>130</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>18</v>
+      <c r="H97" s="3">
+        <v>10000006</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5472,8 +5406,8 @@
       <c r="G98" s="5">
         <v>130</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>19</v>
+      <c r="H98" s="3">
+        <v>10000007</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5513,8 +5447,8 @@
       <c r="G99" s="5">
         <v>130</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>20</v>
+      <c r="H99" s="3">
+        <v>10000008</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5554,8 +5488,8 @@
       <c r="G100" s="5">
         <v>130</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>21</v>
+      <c r="H100" s="3">
+        <v>10000009</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5595,8 +5529,8 @@
       <c r="G101" s="5">
         <v>130</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>22</v>
+      <c r="H101" s="3">
+        <v>10000010</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5636,8 +5570,8 @@
       <c r="G102" s="5">
         <v>130</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>23</v>
+      <c r="H102" s="3">
+        <v>10000011</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5677,8 +5611,8 @@
       <c r="G103" s="5">
         <v>130</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>24</v>
+      <c r="H103" s="3">
+        <v>10000012</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5718,8 +5652,8 @@
       <c r="G104" s="5">
         <v>130</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>25</v>
+      <c r="H104" s="3">
+        <v>10000013</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5759,8 +5693,8 @@
       <c r="G105" s="5">
         <v>130</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>26</v>
+      <c r="H105" s="3">
+        <v>10000014</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5800,8 +5734,8 @@
       <c r="G106" s="5">
         <v>130</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>27</v>
+      <c r="H106" s="3">
+        <v>10000015</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5841,8 +5775,8 @@
       <c r="G107" s="6">
         <v>145</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>13</v>
+      <c r="H107" s="4">
+        <v>10000001</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -5882,8 +5816,8 @@
       <c r="G108" s="6">
         <v>145</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>14</v>
+      <c r="H108" s="4">
+        <v>10000002</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -5923,8 +5857,8 @@
       <c r="G109" s="6">
         <v>145</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>15</v>
+      <c r="H109" s="4">
+        <v>10000003</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -5964,8 +5898,8 @@
       <c r="G110" s="6">
         <v>145</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>16</v>
+      <c r="H110" s="4">
+        <v>10000004</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -6005,8 +5939,8 @@
       <c r="G111" s="6">
         <v>145</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>28</v>
+      <c r="H111" s="4">
+        <v>10000005</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6046,8 +5980,8 @@
       <c r="G112" s="6">
         <v>145</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>18</v>
+      <c r="H112" s="4">
+        <v>10000006</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6087,8 +6021,8 @@
       <c r="G113" s="6">
         <v>145</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>19</v>
+      <c r="H113" s="4">
+        <v>10000007</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6128,8 +6062,8 @@
       <c r="G114" s="6">
         <v>145</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>20</v>
+      <c r="H114" s="4">
+        <v>10000008</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -6169,8 +6103,8 @@
       <c r="G115" s="6">
         <v>145</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>21</v>
+      <c r="H115" s="4">
+        <v>10000009</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -6210,8 +6144,8 @@
       <c r="G116" s="6">
         <v>145</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>22</v>
+      <c r="H116" s="4">
+        <v>10000010</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -6251,8 +6185,8 @@
       <c r="G117" s="6">
         <v>145</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>23</v>
+      <c r="H117" s="4">
+        <v>10000011</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6292,8 +6226,8 @@
       <c r="G118" s="6">
         <v>145</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>24</v>
+      <c r="H118" s="4">
+        <v>10000012</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6333,8 +6267,8 @@
       <c r="G119" s="6">
         <v>145</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>25</v>
+      <c r="H119" s="4">
+        <v>10000013</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -6374,8 +6308,8 @@
       <c r="G120" s="6">
         <v>145</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>26</v>
+      <c r="H120" s="4">
+        <v>10000014</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -6415,8 +6349,8 @@
       <c r="G121" s="6">
         <v>145</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>27</v>
+      <c r="H121" s="4">
+        <v>10000015</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -6456,8 +6390,8 @@
       <c r="G122" s="5">
         <v>160</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>13</v>
+      <c r="H122" s="3">
+        <v>10000001</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -6497,8 +6431,8 @@
       <c r="G123" s="5">
         <v>160</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>14</v>
+      <c r="H123" s="3">
+        <v>10000002</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -6538,8 +6472,8 @@
       <c r="G124" s="5">
         <v>160</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>15</v>
+      <c r="H124" s="3">
+        <v>10000003</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -6579,8 +6513,8 @@
       <c r="G125" s="5">
         <v>160</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>16</v>
+      <c r="H125" s="3">
+        <v>10000004</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -6620,8 +6554,8 @@
       <c r="G126" s="5">
         <v>160</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>28</v>
+      <c r="H126" s="3">
+        <v>10000005</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -6661,8 +6595,8 @@
       <c r="G127" s="5">
         <v>160</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>18</v>
+      <c r="H127" s="3">
+        <v>10000006</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -6702,8 +6636,8 @@
       <c r="G128" s="5">
         <v>160</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>19</v>
+      <c r="H128" s="3">
+        <v>10000007</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -6743,8 +6677,8 @@
       <c r="G129" s="5">
         <v>160</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>20</v>
+      <c r="H129" s="3">
+        <v>10000008</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -6784,8 +6718,8 @@
       <c r="G130" s="5">
         <v>160</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>21</v>
+      <c r="H130" s="3">
+        <v>10000009</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -6825,8 +6759,8 @@
       <c r="G131" s="5">
         <v>160</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>22</v>
+      <c r="H131" s="3">
+        <v>10000010</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -6866,8 +6800,8 @@
       <c r="G132" s="5">
         <v>160</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>23</v>
+      <c r="H132" s="3">
+        <v>10000011</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -6907,8 +6841,8 @@
       <c r="G133" s="5">
         <v>160</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>24</v>
+      <c r="H133" s="3">
+        <v>10000012</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -6948,8 +6882,8 @@
       <c r="G134" s="5">
         <v>160</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>25</v>
+      <c r="H134" s="3">
+        <v>10000013</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -6989,8 +6923,8 @@
       <c r="G135" s="5">
         <v>160</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>26</v>
+      <c r="H135" s="3">
+        <v>10000014</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -7030,8 +6964,8 @@
       <c r="G136" s="5">
         <v>160</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>27</v>
+      <c r="H136" s="3">
+        <v>10000015</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -7071,8 +7005,8 @@
       <c r="G137" s="6">
         <v>175</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>13</v>
+      <c r="H137" s="4">
+        <v>10000001</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -7112,8 +7046,8 @@
       <c r="G138" s="6">
         <v>175</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>14</v>
+      <c r="H138" s="4">
+        <v>10000002</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -7153,8 +7087,8 @@
       <c r="G139" s="6">
         <v>175</v>
       </c>
-      <c r="H139" s="4" t="s">
-        <v>15</v>
+      <c r="H139" s="4">
+        <v>10000003</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -7194,8 +7128,8 @@
       <c r="G140" s="6">
         <v>175</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>16</v>
+      <c r="H140" s="4">
+        <v>10000004</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -7235,8 +7169,8 @@
       <c r="G141" s="6">
         <v>175</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>28</v>
+      <c r="H141" s="4">
+        <v>10000005</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -7276,8 +7210,8 @@
       <c r="G142" s="6">
         <v>175</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>18</v>
+      <c r="H142" s="4">
+        <v>10000006</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -7317,8 +7251,8 @@
       <c r="G143" s="6">
         <v>175</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>19</v>
+      <c r="H143" s="4">
+        <v>10000007</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -7358,8 +7292,8 @@
       <c r="G144" s="6">
         <v>175</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>20</v>
+      <c r="H144" s="4">
+        <v>10000008</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -7399,8 +7333,8 @@
       <c r="G145" s="6">
         <v>175</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>21</v>
+      <c r="H145" s="4">
+        <v>10000009</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -7440,8 +7374,8 @@
       <c r="G146" s="6">
         <v>175</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>22</v>
+      <c r="H146" s="4">
+        <v>10000010</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -7481,8 +7415,8 @@
       <c r="G147" s="6">
         <v>175</v>
       </c>
-      <c r="H147" s="4" t="s">
-        <v>23</v>
+      <c r="H147" s="4">
+        <v>10000011</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -7522,8 +7456,8 @@
       <c r="G148" s="6">
         <v>175</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>24</v>
+      <c r="H148" s="4">
+        <v>10000012</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -7563,8 +7497,8 @@
       <c r="G149" s="6">
         <v>175</v>
       </c>
-      <c r="H149" s="4" t="s">
-        <v>25</v>
+      <c r="H149" s="4">
+        <v>10000013</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -7604,8 +7538,8 @@
       <c r="G150" s="6">
         <v>175</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>26</v>
+      <c r="H150" s="4">
+        <v>10000014</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -7645,8 +7579,8 @@
       <c r="G151" s="6">
         <v>175</v>
       </c>
-      <c r="H151" s="4" t="s">
-        <v>27</v>
+      <c r="H151" s="4">
+        <v>10000015</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -7686,8 +7620,8 @@
       <c r="G152" s="5">
         <v>190</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>13</v>
+      <c r="H152" s="3">
+        <v>10000001</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -7727,8 +7661,8 @@
       <c r="G153" s="5">
         <v>190</v>
       </c>
-      <c r="H153" s="3" t="s">
-        <v>14</v>
+      <c r="H153" s="3">
+        <v>10000002</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -7768,8 +7702,8 @@
       <c r="G154" s="5">
         <v>190</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>15</v>
+      <c r="H154" s="3">
+        <v>10000003</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -7809,8 +7743,8 @@
       <c r="G155" s="5">
         <v>190</v>
       </c>
-      <c r="H155" s="3" t="s">
-        <v>16</v>
+      <c r="H155" s="3">
+        <v>10000004</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -7850,8 +7784,8 @@
       <c r="G156" s="5">
         <v>190</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>28</v>
+      <c r="H156" s="3">
+        <v>10000005</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -7891,8 +7825,8 @@
       <c r="G157" s="5">
         <v>190</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>18</v>
+      <c r="H157" s="3">
+        <v>10000006</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -7932,8 +7866,8 @@
       <c r="G158" s="5">
         <v>190</v>
       </c>
-      <c r="H158" s="3" t="s">
-        <v>19</v>
+      <c r="H158" s="3">
+        <v>10000007</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -7973,8 +7907,8 @@
       <c r="G159" s="5">
         <v>190</v>
       </c>
-      <c r="H159" s="3" t="s">
-        <v>20</v>
+      <c r="H159" s="3">
+        <v>10000008</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -8014,8 +7948,8 @@
       <c r="G160" s="5">
         <v>190</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>21</v>
+      <c r="H160" s="3">
+        <v>10000009</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -8055,8 +7989,8 @@
       <c r="G161" s="5">
         <v>190</v>
       </c>
-      <c r="H161" s="3" t="s">
-        <v>22</v>
+      <c r="H161" s="3">
+        <v>10000010</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -8096,8 +8030,8 @@
       <c r="G162" s="5">
         <v>190</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>23</v>
+      <c r="H162" s="3">
+        <v>10000011</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -8137,8 +8071,8 @@
       <c r="G163" s="5">
         <v>190</v>
       </c>
-      <c r="H163" s="3" t="s">
-        <v>24</v>
+      <c r="H163" s="3">
+        <v>10000012</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -8178,8 +8112,8 @@
       <c r="G164" s="5">
         <v>190</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>25</v>
+      <c r="H164" s="3">
+        <v>10000013</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -8219,8 +8153,8 @@
       <c r="G165" s="5">
         <v>190</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>26</v>
+      <c r="H165" s="3">
+        <v>10000014</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -8260,8 +8194,8 @@
       <c r="G166" s="5">
         <v>190</v>
       </c>
-      <c r="H166" s="3" t="s">
-        <v>27</v>
+      <c r="H166" s="3">
+        <v>10000015</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -8301,8 +8235,8 @@
       <c r="G167" s="6">
         <v>205</v>
       </c>
-      <c r="H167" s="4" t="s">
-        <v>13</v>
+      <c r="H167" s="4">
+        <v>10000001</v>
       </c>
       <c r="I167" s="6">
         <v>1</v>
@@ -8342,8 +8276,8 @@
       <c r="G168" s="6">
         <v>205</v>
       </c>
-      <c r="H168" s="4" t="s">
-        <v>14</v>
+      <c r="H168" s="4">
+        <v>10000002</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -8383,8 +8317,8 @@
       <c r="G169" s="6">
         <v>205</v>
       </c>
-      <c r="H169" s="4" t="s">
-        <v>15</v>
+      <c r="H169" s="4">
+        <v>10000003</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -8424,8 +8358,8 @@
       <c r="G170" s="6">
         <v>205</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>16</v>
+      <c r="H170" s="4">
+        <v>10000004</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -8465,8 +8399,8 @@
       <c r="G171" s="6">
         <v>205</v>
       </c>
-      <c r="H171" s="4" t="s">
-        <v>28</v>
+      <c r="H171" s="4">
+        <v>10000005</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -8506,8 +8440,8 @@
       <c r="G172" s="6">
         <v>205</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>18</v>
+      <c r="H172" s="4">
+        <v>10000006</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -8547,8 +8481,8 @@
       <c r="G173" s="6">
         <v>205</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>19</v>
+      <c r="H173" s="4">
+        <v>10000007</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -8588,8 +8522,8 @@
       <c r="G174" s="6">
         <v>205</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>20</v>
+      <c r="H174" s="4">
+        <v>10000008</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -8629,8 +8563,8 @@
       <c r="G175" s="6">
         <v>205</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>21</v>
+      <c r="H175" s="4">
+        <v>10000009</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -8670,8 +8604,8 @@
       <c r="G176" s="6">
         <v>205</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>22</v>
+      <c r="H176" s="4">
+        <v>10000010</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -8711,8 +8645,8 @@
       <c r="G177" s="6">
         <v>205</v>
       </c>
-      <c r="H177" s="4" t="s">
-        <v>23</v>
+      <c r="H177" s="4">
+        <v>10000011</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -8752,8 +8686,8 @@
       <c r="G178" s="6">
         <v>205</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>24</v>
+      <c r="H178" s="4">
+        <v>10000012</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -8793,8 +8727,8 @@
       <c r="G179" s="6">
         <v>205</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>25</v>
+      <c r="H179" s="4">
+        <v>10000013</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -8834,8 +8768,8 @@
       <c r="G180" s="6">
         <v>205</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>26</v>
+      <c r="H180" s="4">
+        <v>10000014</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -8875,8 +8809,8 @@
       <c r="G181" s="6">
         <v>205</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>27</v>
+      <c r="H181" s="4">
+        <v>10000015</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -8916,8 +8850,8 @@
       <c r="G182" s="5">
         <v>220</v>
       </c>
-      <c r="H182" s="3" t="s">
-        <v>13</v>
+      <c r="H182" s="3">
+        <v>10000001</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
@@ -8957,8 +8891,8 @@
       <c r="G183" s="5">
         <v>220</v>
       </c>
-      <c r="H183" s="3" t="s">
-        <v>14</v>
+      <c r="H183" s="3">
+        <v>10000002</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -8998,8 +8932,8 @@
       <c r="G184" s="5">
         <v>220</v>
       </c>
-      <c r="H184" s="3" t="s">
-        <v>15</v>
+      <c r="H184" s="3">
+        <v>10000003</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9039,8 +8973,8 @@
       <c r="G185" s="5">
         <v>220</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>16</v>
+      <c r="H185" s="3">
+        <v>10000004</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -9080,8 +9014,8 @@
       <c r="G186" s="5">
         <v>220</v>
       </c>
-      <c r="H186" s="3" t="s">
-        <v>28</v>
+      <c r="H186" s="3">
+        <v>10000005</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -9121,8 +9055,8 @@
       <c r="G187" s="5">
         <v>220</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>18</v>
+      <c r="H187" s="3">
+        <v>10000006</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -9162,8 +9096,8 @@
       <c r="G188" s="5">
         <v>220</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>19</v>
+      <c r="H188" s="3">
+        <v>10000007</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -9203,8 +9137,8 @@
       <c r="G189" s="5">
         <v>220</v>
       </c>
-      <c r="H189" s="3" t="s">
-        <v>20</v>
+      <c r="H189" s="3">
+        <v>10000008</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -9244,8 +9178,8 @@
       <c r="G190" s="5">
         <v>220</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>21</v>
+      <c r="H190" s="3">
+        <v>10000009</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -9285,8 +9219,8 @@
       <c r="G191" s="5">
         <v>220</v>
       </c>
-      <c r="H191" s="3" t="s">
-        <v>22</v>
+      <c r="H191" s="3">
+        <v>10000010</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -9326,8 +9260,8 @@
       <c r="G192" s="5">
         <v>220</v>
       </c>
-      <c r="H192" s="3" t="s">
-        <v>23</v>
+      <c r="H192" s="3">
+        <v>10000011</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -9367,8 +9301,8 @@
       <c r="G193" s="5">
         <v>220</v>
       </c>
-      <c r="H193" s="3" t="s">
-        <v>24</v>
+      <c r="H193" s="3">
+        <v>10000012</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -9408,8 +9342,8 @@
       <c r="G194" s="5">
         <v>220</v>
       </c>
-      <c r="H194" s="3" t="s">
-        <v>25</v>
+      <c r="H194" s="3">
+        <v>10000013</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -9449,8 +9383,8 @@
       <c r="G195" s="5">
         <v>220</v>
       </c>
-      <c r="H195" s="3" t="s">
-        <v>26</v>
+      <c r="H195" s="3">
+        <v>10000014</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -9490,8 +9424,8 @@
       <c r="G196" s="5">
         <v>220</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>27</v>
+      <c r="H196" s="3">
+        <v>10000015</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -9531,8 +9465,8 @@
       <c r="G197" s="6">
         <v>235</v>
       </c>
-      <c r="H197" s="4" t="s">
-        <v>13</v>
+      <c r="H197" s="4">
+        <v>10000001</v>
       </c>
       <c r="I197" s="6">
         <v>1</v>
@@ -9572,8 +9506,8 @@
       <c r="G198" s="6">
         <v>235</v>
       </c>
-      <c r="H198" s="4" t="s">
-        <v>14</v>
+      <c r="H198" s="4">
+        <v>10000002</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -9613,8 +9547,8 @@
       <c r="G199" s="6">
         <v>235</v>
       </c>
-      <c r="H199" s="4" t="s">
-        <v>15</v>
+      <c r="H199" s="4">
+        <v>10000003</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -9654,8 +9588,8 @@
       <c r="G200" s="6">
         <v>235</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>16</v>
+      <c r="H200" s="4">
+        <v>10000004</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -9695,8 +9629,8 @@
       <c r="G201" s="6">
         <v>235</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>28</v>
+      <c r="H201" s="4">
+        <v>10000005</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -9736,8 +9670,8 @@
       <c r="G202" s="6">
         <v>235</v>
       </c>
-      <c r="H202" s="4" t="s">
-        <v>18</v>
+      <c r="H202" s="4">
+        <v>10000006</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -9777,8 +9711,8 @@
       <c r="G203" s="6">
         <v>235</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>19</v>
+      <c r="H203" s="4">
+        <v>10000007</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -9818,8 +9752,8 @@
       <c r="G204" s="6">
         <v>235</v>
       </c>
-      <c r="H204" s="4" t="s">
-        <v>20</v>
+      <c r="H204" s="4">
+        <v>10000008</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9859,8 +9793,8 @@
       <c r="G205" s="6">
         <v>235</v>
       </c>
-      <c r="H205" s="4" t="s">
-        <v>21</v>
+      <c r="H205" s="4">
+        <v>10000009</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -9900,8 +9834,8 @@
       <c r="G206" s="6">
         <v>235</v>
       </c>
-      <c r="H206" s="4" t="s">
-        <v>22</v>
+      <c r="H206" s="4">
+        <v>10000010</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -9941,8 +9875,8 @@
       <c r="G207" s="6">
         <v>235</v>
       </c>
-      <c r="H207" s="4" t="s">
-        <v>23</v>
+      <c r="H207" s="4">
+        <v>10000011</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -9982,8 +9916,8 @@
       <c r="G208" s="6">
         <v>235</v>
       </c>
-      <c r="H208" s="4" t="s">
-        <v>24</v>
+      <c r="H208" s="4">
+        <v>10000012</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -10023,8 +9957,8 @@
       <c r="G209" s="6">
         <v>235</v>
       </c>
-      <c r="H209" s="4" t="s">
-        <v>25</v>
+      <c r="H209" s="4">
+        <v>10000013</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -10064,8 +9998,8 @@
       <c r="G210" s="6">
         <v>235</v>
       </c>
-      <c r="H210" s="4" t="s">
-        <v>26</v>
+      <c r="H210" s="4">
+        <v>10000014</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -10105,8 +10039,8 @@
       <c r="G211" s="6">
         <v>235</v>
       </c>
-      <c r="H211" s="4" t="s">
-        <v>27</v>
+      <c r="H211" s="4">
+        <v>10000015</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -10146,8 +10080,8 @@
       <c r="G212" s="5">
         <v>250</v>
       </c>
-      <c r="H212" s="3" t="s">
-        <v>13</v>
+      <c r="H212" s="3">
+        <v>10000001</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -10187,8 +10121,8 @@
       <c r="G213" s="5">
         <v>250</v>
       </c>
-      <c r="H213" s="3" t="s">
-        <v>14</v>
+      <c r="H213" s="3">
+        <v>10000002</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -10228,8 +10162,8 @@
       <c r="G214" s="5">
         <v>250</v>
       </c>
-      <c r="H214" s="3" t="s">
-        <v>15</v>
+      <c r="H214" s="3">
+        <v>10000003</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -10269,8 +10203,8 @@
       <c r="G215" s="5">
         <v>250</v>
       </c>
-      <c r="H215" s="3" t="s">
-        <v>16</v>
+      <c r="H215" s="3">
+        <v>10000004</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -10310,8 +10244,8 @@
       <c r="G216" s="5">
         <v>250</v>
       </c>
-      <c r="H216" s="3" t="s">
-        <v>28</v>
+      <c r="H216" s="3">
+        <v>10000005</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -10351,8 +10285,8 @@
       <c r="G217" s="5">
         <v>250</v>
       </c>
-      <c r="H217" s="3" t="s">
-        <v>18</v>
+      <c r="H217" s="3">
+        <v>10000006</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -10392,8 +10326,8 @@
       <c r="G218" s="5">
         <v>250</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>19</v>
+      <c r="H218" s="3">
+        <v>10000007</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -10433,8 +10367,8 @@
       <c r="G219" s="5">
         <v>250</v>
       </c>
-      <c r="H219" s="3" t="s">
-        <v>20</v>
+      <c r="H219" s="3">
+        <v>10000008</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -10474,8 +10408,8 @@
       <c r="G220" s="5">
         <v>250</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>21</v>
+      <c r="H220" s="3">
+        <v>10000009</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -10515,8 +10449,8 @@
       <c r="G221" s="5">
         <v>250</v>
       </c>
-      <c r="H221" s="3" t="s">
-        <v>22</v>
+      <c r="H221" s="3">
+        <v>10000010</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -10556,8 +10490,8 @@
       <c r="G222" s="5">
         <v>250</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>23</v>
+      <c r="H222" s="3">
+        <v>10000011</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -10597,8 +10531,8 @@
       <c r="G223" s="5">
         <v>250</v>
       </c>
-      <c r="H223" s="3" t="s">
-        <v>24</v>
+      <c r="H223" s="3">
+        <v>10000012</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -10638,8 +10572,8 @@
       <c r="G224" s="5">
         <v>250</v>
       </c>
-      <c r="H224" s="3" t="s">
-        <v>25</v>
+      <c r="H224" s="3">
+        <v>10000013</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -10679,8 +10613,8 @@
       <c r="G225" s="5">
         <v>250</v>
       </c>
-      <c r="H225" s="3" t="s">
-        <v>26</v>
+      <c r="H225" s="3">
+        <v>10000014</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -10720,8 +10654,8 @@
       <c r="G226" s="5">
         <v>250</v>
       </c>
-      <c r="H226" s="3" t="s">
-        <v>27</v>
+      <c r="H226" s="3">
+        <v>10000015</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -10761,8 +10695,8 @@
       <c r="G227" s="6">
         <v>265</v>
       </c>
-      <c r="H227" s="4" t="s">
-        <v>13</v>
+      <c r="H227" s="4">
+        <v>10000001</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
@@ -10802,8 +10736,8 @@
       <c r="G228" s="6">
         <v>265</v>
       </c>
-      <c r="H228" s="4" t="s">
-        <v>14</v>
+      <c r="H228" s="4">
+        <v>10000002</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -10843,8 +10777,8 @@
       <c r="G229" s="6">
         <v>265</v>
       </c>
-      <c r="H229" s="4" t="s">
-        <v>15</v>
+      <c r="H229" s="4">
+        <v>10000003</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -10884,8 +10818,8 @@
       <c r="G230" s="6">
         <v>265</v>
       </c>
-      <c r="H230" s="4" t="s">
-        <v>16</v>
+      <c r="H230" s="4">
+        <v>10000004</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -10925,8 +10859,8 @@
       <c r="G231" s="6">
         <v>265</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>28</v>
+      <c r="H231" s="4">
+        <v>10000005</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -10966,8 +10900,8 @@
       <c r="G232" s="6">
         <v>265</v>
       </c>
-      <c r="H232" s="4" t="s">
-        <v>18</v>
+      <c r="H232" s="4">
+        <v>10000006</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -11007,8 +10941,8 @@
       <c r="G233" s="6">
         <v>265</v>
       </c>
-      <c r="H233" s="4" t="s">
-        <v>19</v>
+      <c r="H233" s="4">
+        <v>10000007</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -11048,8 +10982,8 @@
       <c r="G234" s="6">
         <v>265</v>
       </c>
-      <c r="H234" s="4" t="s">
-        <v>20</v>
+      <c r="H234" s="4">
+        <v>10000008</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -11089,8 +11023,8 @@
       <c r="G235" s="6">
         <v>265</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>21</v>
+      <c r="H235" s="4">
+        <v>10000009</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -11130,8 +11064,8 @@
       <c r="G236" s="6">
         <v>265</v>
       </c>
-      <c r="H236" s="4" t="s">
-        <v>22</v>
+      <c r="H236" s="4">
+        <v>10000010</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -11171,8 +11105,8 @@
       <c r="G237" s="6">
         <v>265</v>
       </c>
-      <c r="H237" s="4" t="s">
-        <v>23</v>
+      <c r="H237" s="4">
+        <v>10000011</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -11212,8 +11146,8 @@
       <c r="G238" s="6">
         <v>265</v>
       </c>
-      <c r="H238" s="4" t="s">
-        <v>24</v>
+      <c r="H238" s="4">
+        <v>10000012</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -11253,8 +11187,8 @@
       <c r="G239" s="6">
         <v>265</v>
       </c>
-      <c r="H239" s="4" t="s">
-        <v>25</v>
+      <c r="H239" s="4">
+        <v>10000013</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -11294,8 +11228,8 @@
       <c r="G240" s="6">
         <v>265</v>
       </c>
-      <c r="H240" s="4" t="s">
-        <v>26</v>
+      <c r="H240" s="4">
+        <v>10000014</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -11335,8 +11269,8 @@
       <c r="G241" s="6">
         <v>265</v>
       </c>
-      <c r="H241" s="4" t="s">
-        <v>27</v>
+      <c r="H241" s="4">
+        <v>10000015</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -11376,8 +11310,8 @@
       <c r="G242" s="5">
         <v>280</v>
       </c>
-      <c r="H242" s="3" t="s">
-        <v>13</v>
+      <c r="H242" s="3">
+        <v>10000001</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -11417,8 +11351,8 @@
       <c r="G243" s="5">
         <v>280</v>
       </c>
-      <c r="H243" s="3" t="s">
-        <v>14</v>
+      <c r="H243" s="3">
+        <v>10000002</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -11458,8 +11392,8 @@
       <c r="G244" s="5">
         <v>280</v>
       </c>
-      <c r="H244" s="3" t="s">
-        <v>15</v>
+      <c r="H244" s="3">
+        <v>10000003</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -11499,8 +11433,8 @@
       <c r="G245" s="5">
         <v>280</v>
       </c>
-      <c r="H245" s="3" t="s">
-        <v>16</v>
+      <c r="H245" s="3">
+        <v>10000004</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -11540,8 +11474,8 @@
       <c r="G246" s="5">
         <v>280</v>
       </c>
-      <c r="H246" s="3" t="s">
-        <v>28</v>
+      <c r="H246" s="3">
+        <v>10000005</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -11581,8 +11515,8 @@
       <c r="G247" s="5">
         <v>280</v>
       </c>
-      <c r="H247" s="3" t="s">
-        <v>18</v>
+      <c r="H247" s="3">
+        <v>10000006</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -11622,8 +11556,8 @@
       <c r="G248" s="5">
         <v>280</v>
       </c>
-      <c r="H248" s="3" t="s">
-        <v>19</v>
+      <c r="H248" s="3">
+        <v>10000007</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -11663,8 +11597,8 @@
       <c r="G249" s="5">
         <v>280</v>
       </c>
-      <c r="H249" s="3" t="s">
-        <v>20</v>
+      <c r="H249" s="3">
+        <v>10000008</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -11704,8 +11638,8 @@
       <c r="G250" s="5">
         <v>280</v>
       </c>
-      <c r="H250" s="3" t="s">
-        <v>21</v>
+      <c r="H250" s="3">
+        <v>10000009</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -11745,8 +11679,8 @@
       <c r="G251" s="5">
         <v>280</v>
       </c>
-      <c r="H251" s="3" t="s">
-        <v>22</v>
+      <c r="H251" s="3">
+        <v>10000010</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -11786,8 +11720,8 @@
       <c r="G252" s="5">
         <v>280</v>
       </c>
-      <c r="H252" s="3" t="s">
-        <v>23</v>
+      <c r="H252" s="3">
+        <v>10000011</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -11827,8 +11761,8 @@
       <c r="G253" s="5">
         <v>280</v>
       </c>
-      <c r="H253" s="3" t="s">
-        <v>24</v>
+      <c r="H253" s="3">
+        <v>10000012</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -11868,8 +11802,8 @@
       <c r="G254" s="5">
         <v>280</v>
       </c>
-      <c r="H254" s="3" t="s">
-        <v>25</v>
+      <c r="H254" s="3">
+        <v>10000013</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -11909,8 +11843,8 @@
       <c r="G255" s="5">
         <v>280</v>
       </c>
-      <c r="H255" s="3" t="s">
-        <v>26</v>
+      <c r="H255" s="3">
+        <v>10000014</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -11950,8 +11884,8 @@
       <c r="G256" s="5">
         <v>280</v>
       </c>
-      <c r="H256" s="3" t="s">
-        <v>27</v>
+      <c r="H256" s="3">
+        <v>10000015</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -11991,8 +11925,8 @@
       <c r="G257" s="6">
         <v>295</v>
       </c>
-      <c r="H257" s="4" t="s">
-        <v>13</v>
+      <c r="H257" s="4">
+        <v>10000001</v>
       </c>
       <c r="I257" s="6">
         <v>1</v>
@@ -12032,8 +11966,8 @@
       <c r="G258" s="6">
         <v>295</v>
       </c>
-      <c r="H258" s="4" t="s">
-        <v>14</v>
+      <c r="H258" s="4">
+        <v>10000002</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -12073,8 +12007,8 @@
       <c r="G259" s="6">
         <v>295</v>
       </c>
-      <c r="H259" s="4" t="s">
-        <v>15</v>
+      <c r="H259" s="4">
+        <v>10000003</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -12114,8 +12048,8 @@
       <c r="G260" s="6">
         <v>295</v>
       </c>
-      <c r="H260" s="4" t="s">
-        <v>16</v>
+      <c r="H260" s="4">
+        <v>10000004</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -12155,8 +12089,8 @@
       <c r="G261" s="6">
         <v>295</v>
       </c>
-      <c r="H261" s="4" t="s">
-        <v>28</v>
+      <c r="H261" s="4">
+        <v>10000005</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -12196,8 +12130,8 @@
       <c r="G262" s="6">
         <v>295</v>
       </c>
-      <c r="H262" s="4" t="s">
-        <v>18</v>
+      <c r="H262" s="4">
+        <v>10000006</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -12237,8 +12171,8 @@
       <c r="G263" s="6">
         <v>295</v>
       </c>
-      <c r="H263" s="4" t="s">
-        <v>19</v>
+      <c r="H263" s="4">
+        <v>10000007</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -12278,8 +12212,8 @@
       <c r="G264" s="6">
         <v>295</v>
       </c>
-      <c r="H264" s="4" t="s">
-        <v>20</v>
+      <c r="H264" s="4">
+        <v>10000008</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -12319,8 +12253,8 @@
       <c r="G265" s="6">
         <v>295</v>
       </c>
-      <c r="H265" s="4" t="s">
-        <v>21</v>
+      <c r="H265" s="4">
+        <v>10000009</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -12360,8 +12294,8 @@
       <c r="G266" s="6">
         <v>295</v>
       </c>
-      <c r="H266" s="4" t="s">
-        <v>22</v>
+      <c r="H266" s="4">
+        <v>10000010</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -12401,8 +12335,8 @@
       <c r="G267" s="6">
         <v>295</v>
       </c>
-      <c r="H267" s="4" t="s">
-        <v>23</v>
+      <c r="H267" s="4">
+        <v>10000011</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -12442,8 +12376,8 @@
       <c r="G268" s="6">
         <v>295</v>
       </c>
-      <c r="H268" s="4" t="s">
-        <v>24</v>
+      <c r="H268" s="4">
+        <v>10000012</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -12483,8 +12417,8 @@
       <c r="G269" s="6">
         <v>295</v>
       </c>
-      <c r="H269" s="4" t="s">
-        <v>25</v>
+      <c r="H269" s="4">
+        <v>10000013</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -12524,8 +12458,8 @@
       <c r="G270" s="6">
         <v>295</v>
       </c>
-      <c r="H270" s="4" t="s">
-        <v>26</v>
+      <c r="H270" s="4">
+        <v>10000014</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -12565,8 +12499,8 @@
       <c r="G271" s="6">
         <v>295</v>
       </c>
-      <c r="H271" s="4" t="s">
-        <v>27</v>
+      <c r="H271" s="4">
+        <v>10000015</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -12606,8 +12540,8 @@
       <c r="G272" s="5">
         <v>310</v>
       </c>
-      <c r="H272" s="3" t="s">
-        <v>13</v>
+      <c r="H272" s="3">
+        <v>10000001</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -12647,8 +12581,8 @@
       <c r="G273" s="5">
         <v>310</v>
       </c>
-      <c r="H273" s="3" t="s">
-        <v>14</v>
+      <c r="H273" s="3">
+        <v>10000002</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -12688,8 +12622,8 @@
       <c r="G274" s="5">
         <v>310</v>
       </c>
-      <c r="H274" s="3" t="s">
-        <v>15</v>
+      <c r="H274" s="3">
+        <v>10000003</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -12729,8 +12663,8 @@
       <c r="G275" s="5">
         <v>310</v>
       </c>
-      <c r="H275" s="3" t="s">
-        <v>16</v>
+      <c r="H275" s="3">
+        <v>10000004</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -12770,8 +12704,8 @@
       <c r="G276" s="5">
         <v>310</v>
       </c>
-      <c r="H276" s="3" t="s">
-        <v>28</v>
+      <c r="H276" s="3">
+        <v>10000005</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -12811,8 +12745,8 @@
       <c r="G277" s="5">
         <v>310</v>
       </c>
-      <c r="H277" s="3" t="s">
-        <v>18</v>
+      <c r="H277" s="3">
+        <v>10000006</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -12852,8 +12786,8 @@
       <c r="G278" s="5">
         <v>310</v>
       </c>
-      <c r="H278" s="3" t="s">
-        <v>19</v>
+      <c r="H278" s="3">
+        <v>10000007</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -12893,8 +12827,8 @@
       <c r="G279" s="5">
         <v>310</v>
       </c>
-      <c r="H279" s="3" t="s">
-        <v>20</v>
+      <c r="H279" s="3">
+        <v>10000008</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -12934,8 +12868,8 @@
       <c r="G280" s="5">
         <v>310</v>
       </c>
-      <c r="H280" s="3" t="s">
-        <v>21</v>
+      <c r="H280" s="3">
+        <v>10000009</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -12975,8 +12909,8 @@
       <c r="G281" s="5">
         <v>310</v>
       </c>
-      <c r="H281" s="3" t="s">
-        <v>22</v>
+      <c r="H281" s="3">
+        <v>10000010</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -13016,8 +12950,8 @@
       <c r="G282" s="5">
         <v>310</v>
       </c>
-      <c r="H282" s="3" t="s">
-        <v>23</v>
+      <c r="H282" s="3">
+        <v>10000011</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -13057,8 +12991,8 @@
       <c r="G283" s="5">
         <v>310</v>
       </c>
-      <c r="H283" s="3" t="s">
-        <v>24</v>
+      <c r="H283" s="3">
+        <v>10000012</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -13098,8 +13032,8 @@
       <c r="G284" s="5">
         <v>310</v>
       </c>
-      <c r="H284" s="3" t="s">
-        <v>25</v>
+      <c r="H284" s="3">
+        <v>10000013</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -13139,8 +13073,8 @@
       <c r="G285" s="5">
         <v>310</v>
       </c>
-      <c r="H285" s="3" t="s">
-        <v>26</v>
+      <c r="H285" s="3">
+        <v>10000014</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -13180,8 +13114,8 @@
       <c r="G286" s="5">
         <v>310</v>
       </c>
-      <c r="H286" s="3" t="s">
-        <v>27</v>
+      <c r="H286" s="3">
+        <v>10000015</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -13221,8 +13155,8 @@
       <c r="G287" s="6">
         <v>325</v>
       </c>
-      <c r="H287" s="4" t="s">
-        <v>13</v>
+      <c r="H287" s="4">
+        <v>10000001</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -13262,8 +13196,8 @@
       <c r="G288" s="6">
         <v>325</v>
       </c>
-      <c r="H288" s="4" t="s">
-        <v>14</v>
+      <c r="H288" s="4">
+        <v>10000002</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -13303,8 +13237,8 @@
       <c r="G289" s="6">
         <v>325</v>
       </c>
-      <c r="H289" s="4" t="s">
-        <v>15</v>
+      <c r="H289" s="4">
+        <v>10000003</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -13344,8 +13278,8 @@
       <c r="G290" s="6">
         <v>325</v>
       </c>
-      <c r="H290" s="4" t="s">
-        <v>16</v>
+      <c r="H290" s="4">
+        <v>10000004</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -13385,8 +13319,8 @@
       <c r="G291" s="6">
         <v>325</v>
       </c>
-      <c r="H291" s="4" t="s">
-        <v>28</v>
+      <c r="H291" s="4">
+        <v>10000005</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -13426,8 +13360,8 @@
       <c r="G292" s="6">
         <v>325</v>
       </c>
-      <c r="H292" s="4" t="s">
-        <v>18</v>
+      <c r="H292" s="4">
+        <v>10000006</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -13467,8 +13401,8 @@
       <c r="G293" s="6">
         <v>325</v>
       </c>
-      <c r="H293" s="4" t="s">
-        <v>19</v>
+      <c r="H293" s="4">
+        <v>10000007</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -13508,8 +13442,8 @@
       <c r="G294" s="6">
         <v>325</v>
       </c>
-      <c r="H294" s="4" t="s">
-        <v>20</v>
+      <c r="H294" s="4">
+        <v>10000008</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -13549,8 +13483,8 @@
       <c r="G295" s="6">
         <v>325</v>
       </c>
-      <c r="H295" s="4" t="s">
-        <v>21</v>
+      <c r="H295" s="4">
+        <v>10000009</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -13590,8 +13524,8 @@
       <c r="G296" s="6">
         <v>325</v>
       </c>
-      <c r="H296" s="4" t="s">
-        <v>22</v>
+      <c r="H296" s="4">
+        <v>10000010</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -13631,8 +13565,8 @@
       <c r="G297" s="6">
         <v>325</v>
       </c>
-      <c r="H297" s="4" t="s">
-        <v>23</v>
+      <c r="H297" s="4">
+        <v>10000011</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -13672,8 +13606,8 @@
       <c r="G298" s="6">
         <v>325</v>
       </c>
-      <c r="H298" s="4" t="s">
-        <v>24</v>
+      <c r="H298" s="4">
+        <v>10000012</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -13713,8 +13647,8 @@
       <c r="G299" s="6">
         <v>325</v>
       </c>
-      <c r="H299" s="4" t="s">
-        <v>25</v>
+      <c r="H299" s="4">
+        <v>10000013</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -13754,8 +13688,8 @@
       <c r="G300" s="6">
         <v>325</v>
       </c>
-      <c r="H300" s="4" t="s">
-        <v>26</v>
+      <c r="H300" s="4">
+        <v>10000014</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -13795,8 +13729,8 @@
       <c r="G301" s="6">
         <v>325</v>
       </c>
-      <c r="H301" s="4" t="s">
-        <v>27</v>
+      <c r="H301" s="4">
+        <v>10000015</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -13836,8 +13770,8 @@
       <c r="G302" s="5">
         <v>340</v>
       </c>
-      <c r="H302" s="3" t="s">
-        <v>13</v>
+      <c r="H302" s="3">
+        <v>10000001</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -13877,8 +13811,8 @@
       <c r="G303" s="5">
         <v>340</v>
       </c>
-      <c r="H303" s="3" t="s">
-        <v>14</v>
+      <c r="H303" s="3">
+        <v>10000002</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -13918,8 +13852,8 @@
       <c r="G304" s="5">
         <v>340</v>
       </c>
-      <c r="H304" s="3" t="s">
-        <v>15</v>
+      <c r="H304" s="3">
+        <v>10000003</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -13959,8 +13893,8 @@
       <c r="G305" s="5">
         <v>340</v>
       </c>
-      <c r="H305" s="3" t="s">
-        <v>16</v>
+      <c r="H305" s="3">
+        <v>10000004</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -14000,8 +13934,8 @@
       <c r="G306" s="5">
         <v>340</v>
       </c>
-      <c r="H306" s="3" t="s">
-        <v>28</v>
+      <c r="H306" s="3">
+        <v>10000005</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -14041,8 +13975,8 @@
       <c r="G307" s="5">
         <v>340</v>
       </c>
-      <c r="H307" s="3" t="s">
-        <v>18</v>
+      <c r="H307" s="3">
+        <v>10000006</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -14082,8 +14016,8 @@
       <c r="G308" s="5">
         <v>340</v>
       </c>
-      <c r="H308" s="3" t="s">
-        <v>19</v>
+      <c r="H308" s="3">
+        <v>10000007</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -14123,8 +14057,8 @@
       <c r="G309" s="5">
         <v>340</v>
       </c>
-      <c r="H309" s="3" t="s">
-        <v>20</v>
+      <c r="H309" s="3">
+        <v>10000008</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -14164,8 +14098,8 @@
       <c r="G310" s="5">
         <v>340</v>
       </c>
-      <c r="H310" s="3" t="s">
-        <v>21</v>
+      <c r="H310" s="3">
+        <v>10000009</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -14205,8 +14139,8 @@
       <c r="G311" s="5">
         <v>340</v>
       </c>
-      <c r="H311" s="3" t="s">
-        <v>22</v>
+      <c r="H311" s="3">
+        <v>10000010</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -14246,8 +14180,8 @@
       <c r="G312" s="5">
         <v>340</v>
       </c>
-      <c r="H312" s="3" t="s">
-        <v>23</v>
+      <c r="H312" s="3">
+        <v>10000011</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -14287,8 +14221,8 @@
       <c r="G313" s="5">
         <v>340</v>
       </c>
-      <c r="H313" s="3" t="s">
-        <v>24</v>
+      <c r="H313" s="3">
+        <v>10000012</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -14328,8 +14262,8 @@
       <c r="G314" s="5">
         <v>340</v>
       </c>
-      <c r="H314" s="3" t="s">
-        <v>25</v>
+      <c r="H314" s="3">
+        <v>10000013</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -14369,8 +14303,8 @@
       <c r="G315" s="5">
         <v>340</v>
       </c>
-      <c r="H315" s="3" t="s">
-        <v>26</v>
+      <c r="H315" s="3">
+        <v>10000014</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -14410,8 +14344,8 @@
       <c r="G316" s="5">
         <v>340</v>
       </c>
-      <c r="H316" s="3" t="s">
-        <v>27</v>
+      <c r="H316" s="3">
+        <v>10000015</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -14451,8 +14385,8 @@
       <c r="G317" s="9">
         <v>200</v>
       </c>
-      <c r="H317" s="9" t="s">
-        <v>29</v>
+      <c r="H317" s="9">
+        <v>20000001</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -14492,8 +14426,8 @@
       <c r="G318" s="9">
         <v>500</v>
       </c>
-      <c r="H318" s="9" t="s">
-        <v>30</v>
+      <c r="H318" s="9">
+        <v>20000002</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -14533,8 +14467,8 @@
       <c r="G319" s="9">
         <v>800</v>
       </c>
-      <c r="H319" s="9" t="s">
-        <v>31</v>
+      <c r="H319" s="9">
+        <v>20000003</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -14574,8 +14508,8 @@
       <c r="G320" s="9">
         <v>1100</v>
       </c>
-      <c r="H320" s="9" t="s">
-        <v>32</v>
+      <c r="H320" s="9">
+        <v>20000004</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -14615,8 +14549,8 @@
       <c r="G321" s="9">
         <v>1400</v>
       </c>
-      <c r="H321" s="9" t="s">
-        <v>33</v>
+      <c r="H321" s="9">
+        <v>20000005</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -14656,8 +14590,8 @@
       <c r="G322" s="9">
         <v>1700</v>
       </c>
-      <c r="H322" s="9" t="s">
-        <v>34</v>
+      <c r="H322" s="9">
+        <v>20000006</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -14697,8 +14631,8 @@
       <c r="G323" s="9">
         <v>2000</v>
       </c>
-      <c r="H323" s="9" t="s">
-        <v>29</v>
+      <c r="H323" s="9">
+        <v>20000001</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -14738,8 +14672,8 @@
       <c r="G324" s="9">
         <v>2300</v>
       </c>
-      <c r="H324" s="9" t="s">
-        <v>30</v>
+      <c r="H324" s="9">
+        <v>20000002</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -14779,8 +14713,8 @@
       <c r="G325" s="9">
         <v>2600</v>
       </c>
-      <c r="H325" s="9" t="s">
-        <v>31</v>
+      <c r="H325" s="9">
+        <v>20000003</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -14820,8 +14754,8 @@
       <c r="G326" s="9">
         <v>2900</v>
       </c>
-      <c r="H326" s="9" t="s">
-        <v>32</v>
+      <c r="H326" s="9">
+        <v>20000004</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -14861,8 +14795,8 @@
       <c r="G327" s="9">
         <v>3200</v>
       </c>
-      <c r="H327" s="9" t="s">
-        <v>33</v>
+      <c r="H327" s="9">
+        <v>20000005</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -14902,8 +14836,8 @@
       <c r="G328" s="9">
         <v>3500</v>
       </c>
-      <c r="H328" s="9" t="s">
-        <v>34</v>
+      <c r="H328" s="9">
+        <v>20000006</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -14943,8 +14877,8 @@
       <c r="G329" s="9">
         <v>3800</v>
       </c>
-      <c r="H329" s="9" t="s">
-        <v>29</v>
+      <c r="H329" s="9">
+        <v>20000001</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -14984,8 +14918,8 @@
       <c r="G330" s="9">
         <v>4100</v>
       </c>
-      <c r="H330" s="9" t="s">
-        <v>30</v>
+      <c r="H330" s="9">
+        <v>20000002</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -15025,8 +14959,8 @@
       <c r="G331" s="9">
         <v>4400</v>
       </c>
-      <c r="H331" s="9" t="s">
-        <v>31</v>
+      <c r="H331" s="9">
+        <v>20000003</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -15066,8 +15000,8 @@
       <c r="G332" s="9">
         <v>4700</v>
       </c>
-      <c r="H332" s="9" t="s">
-        <v>32</v>
+      <c r="H332" s="9">
+        <v>20000004</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -15107,8 +15041,8 @@
       <c r="G333" s="9">
         <v>5000</v>
       </c>
-      <c r="H333" s="9" t="s">
-        <v>33</v>
+      <c r="H333" s="9">
+        <v>20000005</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -15148,8 +15082,8 @@
       <c r="G334" s="9">
         <v>5300</v>
       </c>
-      <c r="H334" s="9" t="s">
-        <v>34</v>
+      <c r="H334" s="9">
+        <v>20000006</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -15189,8 +15123,8 @@
       <c r="G335" s="9">
         <v>5600</v>
       </c>
-      <c r="H335" s="9" t="s">
-        <v>29</v>
+      <c r="H335" s="9">
+        <v>20000001</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -15230,8 +15164,8 @@
       <c r="G336" s="9">
         <v>5900</v>
       </c>
-      <c r="H336" s="9" t="s">
-        <v>30</v>
+      <c r="H336" s="9">
+        <v>20000002</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -15271,8 +15205,8 @@
       <c r="G337" s="9">
         <v>6200</v>
       </c>
-      <c r="H337" s="9" t="s">
-        <v>31</v>
+      <c r="H337" s="9">
+        <v>20000003</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11625"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -376,14 +376,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,38 +397,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,22 +414,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,9 +443,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,6 +496,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -504,18 +511,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -540,7 +540,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +624,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,19 +672,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,109 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,17 +743,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,35 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -813,6 +778,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,11 +808,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,8 +1371,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="H335" sqref="H335:H337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -355,15 +355,78 @@
   <si>
     <t>hit_resource</t>
   </si>
+  <si>
+    <t>10000001,</t>
+  </si>
+  <si>
+    <t>10000002,</t>
+  </si>
+  <si>
+    <t>10000003,</t>
+  </si>
+  <si>
+    <t>10000004,</t>
+  </si>
+  <si>
+    <t>10000005,</t>
+  </si>
+  <si>
+    <t>10000006,</t>
+  </si>
+  <si>
+    <t>10000007,</t>
+  </si>
+  <si>
+    <t>10000008,</t>
+  </si>
+  <si>
+    <t>10000009,</t>
+  </si>
+  <si>
+    <t>10000010,</t>
+  </si>
+  <si>
+    <t>10000011,</t>
+  </si>
+  <si>
+    <t>10000012,</t>
+  </si>
+  <si>
+    <t>10000013,</t>
+  </si>
+  <si>
+    <t>10000014,</t>
+  </si>
+  <si>
+    <t>10000015,</t>
+  </si>
+  <si>
+    <t>20000001,</t>
+  </si>
+  <si>
+    <t>20000002,</t>
+  </si>
+  <si>
+    <t>20000003,</t>
+  </si>
+  <si>
+    <t>20000004,</t>
+  </si>
+  <si>
+    <t>20000005,</t>
+  </si>
+  <si>
+    <t>20000006,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -376,7 +439,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,15 +490,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,19 +536,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,69 +562,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,31 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +645,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,49 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,55 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +809,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,21 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -789,54 +900,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H322" sqref="H322"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="H337" sqref="H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1453,8 +1516,8 @@
       <c r="G2" s="3">
         <v>40</v>
       </c>
-      <c r="H2" s="3">
-        <v>10000001</v>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1494,8 +1557,8 @@
       <c r="G3" s="3">
         <v>40</v>
       </c>
-      <c r="H3" s="3">
-        <v>10000002</v>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1535,8 +1598,8 @@
       <c r="G4" s="3">
         <v>40</v>
       </c>
-      <c r="H4" s="3">
-        <v>10000003</v>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1576,8 +1639,8 @@
       <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="H5" s="3">
-        <v>10000004</v>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1617,8 +1680,8 @@
       <c r="G6" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="3">
-        <v>10000005</v>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1658,8 +1721,8 @@
       <c r="G7" s="3">
         <v>40</v>
       </c>
-      <c r="H7" s="3">
-        <v>10000006</v>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1699,8 +1762,8 @@
       <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="3">
-        <v>10000007</v>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1740,8 +1803,8 @@
       <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="3">
-        <v>10000008</v>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1781,8 +1844,8 @@
       <c r="G10" s="3">
         <v>40</v>
       </c>
-      <c r="H10" s="3">
-        <v>10000009</v>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1822,8 +1885,8 @@
       <c r="G11" s="3">
         <v>40</v>
       </c>
-      <c r="H11" s="3">
-        <v>10000010</v>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1863,8 +1926,8 @@
       <c r="G12" s="3">
         <v>40</v>
       </c>
-      <c r="H12" s="3">
-        <v>10000011</v>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1904,8 +1967,8 @@
       <c r="G13" s="3">
         <v>40</v>
       </c>
-      <c r="H13" s="3">
-        <v>10000012</v>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1945,8 +2008,8 @@
       <c r="G14" s="3">
         <v>40</v>
       </c>
-      <c r="H14" s="3">
-        <v>10000013</v>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1986,8 +2049,8 @@
       <c r="G15" s="3">
         <v>40</v>
       </c>
-      <c r="H15" s="3">
-        <v>10000014</v>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2027,8 +2090,8 @@
       <c r="G16" s="3">
         <v>40</v>
       </c>
-      <c r="H16" s="3">
-        <v>10000015</v>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2068,8 +2131,8 @@
       <c r="G17" s="4">
         <v>55</v>
       </c>
-      <c r="H17" s="4">
-        <v>10000001</v>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2109,8 +2172,8 @@
       <c r="G18" s="4">
         <v>55</v>
       </c>
-      <c r="H18" s="4">
-        <v>10000002</v>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2150,8 +2213,8 @@
       <c r="G19" s="4">
         <v>55</v>
       </c>
-      <c r="H19" s="4">
-        <v>10000003</v>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2191,8 +2254,8 @@
       <c r="G20" s="4">
         <v>55</v>
       </c>
-      <c r="H20" s="4">
-        <v>10000004</v>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2232,8 +2295,8 @@
       <c r="G21" s="4">
         <v>55</v>
       </c>
-      <c r="H21" s="4">
-        <v>10000005</v>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2273,8 +2336,8 @@
       <c r="G22" s="4">
         <v>55</v>
       </c>
-      <c r="H22" s="4">
-        <v>10000006</v>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2314,8 +2377,8 @@
       <c r="G23" s="4">
         <v>55</v>
       </c>
-      <c r="H23" s="4">
-        <v>10000007</v>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2355,8 +2418,8 @@
       <c r="G24" s="4">
         <v>55</v>
       </c>
-      <c r="H24" s="4">
-        <v>10000008</v>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2396,8 +2459,8 @@
       <c r="G25" s="4">
         <v>55</v>
       </c>
-      <c r="H25" s="4">
-        <v>10000009</v>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2437,8 +2500,8 @@
       <c r="G26" s="4">
         <v>55</v>
       </c>
-      <c r="H26" s="4">
-        <v>10000010</v>
+      <c r="H26" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -2478,8 +2541,8 @@
       <c r="G27" s="4">
         <v>55</v>
       </c>
-      <c r="H27" s="4">
-        <v>10000011</v>
+      <c r="H27" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2519,8 +2582,8 @@
       <c r="G28" s="4">
         <v>55</v>
       </c>
-      <c r="H28" s="4">
-        <v>10000012</v>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2560,8 +2623,8 @@
       <c r="G29" s="4">
         <v>55</v>
       </c>
-      <c r="H29" s="4">
-        <v>10000013</v>
+      <c r="H29" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2601,8 +2664,8 @@
       <c r="G30" s="4">
         <v>55</v>
       </c>
-      <c r="H30" s="4">
-        <v>10000014</v>
+      <c r="H30" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2642,8 +2705,8 @@
       <c r="G31" s="4">
         <v>55</v>
       </c>
-      <c r="H31" s="4">
-        <v>10000015</v>
+      <c r="H31" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -2683,8 +2746,8 @@
       <c r="G32" s="5">
         <v>70</v>
       </c>
-      <c r="H32" s="3">
-        <v>10000001</v>
+      <c r="H32" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -2724,8 +2787,8 @@
       <c r="G33" s="5">
         <v>70</v>
       </c>
-      <c r="H33" s="3">
-        <v>10000002</v>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2765,8 +2828,8 @@
       <c r="G34" s="5">
         <v>70</v>
       </c>
-      <c r="H34" s="3">
-        <v>10000003</v>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2814,8 +2877,8 @@
       <c r="G35" s="5">
         <v>70</v>
       </c>
-      <c r="H35" s="3">
-        <v>10000004</v>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2864,8 +2927,8 @@
       <c r="G36" s="5">
         <v>70</v>
       </c>
-      <c r="H36" s="3">
-        <v>10000005</v>
+      <c r="H36" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2905,8 +2968,8 @@
       <c r="G37" s="5">
         <v>70</v>
       </c>
-      <c r="H37" s="3">
-        <v>10000006</v>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -2946,8 +3009,8 @@
       <c r="G38" s="5">
         <v>70</v>
       </c>
-      <c r="H38" s="3">
-        <v>10000007</v>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -2987,8 +3050,8 @@
       <c r="G39" s="5">
         <v>70</v>
       </c>
-      <c r="H39" s="3">
-        <v>10000008</v>
+      <c r="H39" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3028,8 +3091,8 @@
       <c r="G40" s="5">
         <v>70</v>
       </c>
-      <c r="H40" s="3">
-        <v>10000009</v>
+      <c r="H40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3069,8 +3132,8 @@
       <c r="G41" s="5">
         <v>70</v>
       </c>
-      <c r="H41" s="3">
-        <v>10000010</v>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3110,8 +3173,8 @@
       <c r="G42" s="5">
         <v>70</v>
       </c>
-      <c r="H42" s="3">
-        <v>10000011</v>
+      <c r="H42" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -3151,8 +3214,8 @@
       <c r="G43" s="5">
         <v>70</v>
       </c>
-      <c r="H43" s="3">
-        <v>10000012</v>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -3192,8 +3255,8 @@
       <c r="G44" s="5">
         <v>70</v>
       </c>
-      <c r="H44" s="3">
-        <v>10000013</v>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3233,8 +3296,8 @@
       <c r="G45" s="5">
         <v>70</v>
       </c>
-      <c r="H45" s="3">
-        <v>10000014</v>
+      <c r="H45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -3274,8 +3337,8 @@
       <c r="G46" s="5">
         <v>70</v>
       </c>
-      <c r="H46" s="3">
-        <v>10000015</v>
+      <c r="H46" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -3315,8 +3378,8 @@
       <c r="G47" s="6">
         <v>85</v>
       </c>
-      <c r="H47" s="4">
-        <v>10000001</v>
+      <c r="H47" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -3356,8 +3419,8 @@
       <c r="G48" s="6">
         <v>85</v>
       </c>
-      <c r="H48" s="4">
-        <v>10000002</v>
+      <c r="H48" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -3397,8 +3460,8 @@
       <c r="G49" s="6">
         <v>85</v>
       </c>
-      <c r="H49" s="4">
-        <v>10000003</v>
+      <c r="H49" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -3438,8 +3501,8 @@
       <c r="G50" s="6">
         <v>85</v>
       </c>
-      <c r="H50" s="4">
-        <v>10000004</v>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -3479,8 +3542,8 @@
       <c r="G51" s="6">
         <v>85</v>
       </c>
-      <c r="H51" s="4">
-        <v>10000005</v>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -3520,8 +3583,8 @@
       <c r="G52" s="6">
         <v>85</v>
       </c>
-      <c r="H52" s="4">
-        <v>10000006</v>
+      <c r="H52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -3561,8 +3624,8 @@
       <c r="G53" s="6">
         <v>85</v>
       </c>
-      <c r="H53" s="4">
-        <v>10000007</v>
+      <c r="H53" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -3602,8 +3665,8 @@
       <c r="G54" s="6">
         <v>85</v>
       </c>
-      <c r="H54" s="4">
-        <v>10000008</v>
+      <c r="H54" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -3643,8 +3706,8 @@
       <c r="G55" s="6">
         <v>85</v>
       </c>
-      <c r="H55" s="4">
-        <v>10000009</v>
+      <c r="H55" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -3684,8 +3747,8 @@
       <c r="G56" s="6">
         <v>85</v>
       </c>
-      <c r="H56" s="4">
-        <v>10000010</v>
+      <c r="H56" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -3725,8 +3788,8 @@
       <c r="G57" s="6">
         <v>85</v>
       </c>
-      <c r="H57" s="4">
-        <v>10000011</v>
+      <c r="H57" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3766,8 +3829,8 @@
       <c r="G58" s="6">
         <v>85</v>
       </c>
-      <c r="H58" s="4">
-        <v>10000012</v>
+      <c r="H58" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -3807,8 +3870,8 @@
       <c r="G59" s="6">
         <v>85</v>
       </c>
-      <c r="H59" s="4">
-        <v>10000013</v>
+      <c r="H59" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -3848,8 +3911,8 @@
       <c r="G60" s="6">
         <v>85</v>
       </c>
-      <c r="H60" s="4">
-        <v>10000014</v>
+      <c r="H60" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -3889,8 +3952,8 @@
       <c r="G61" s="6">
         <v>85</v>
       </c>
-      <c r="H61" s="4">
-        <v>10000015</v>
+      <c r="H61" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -3930,8 +3993,8 @@
       <c r="G62" s="5">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>10000001</v>
+      <c r="H62" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -3971,8 +4034,8 @@
       <c r="G63" s="5">
         <v>100</v>
       </c>
-      <c r="H63" s="3">
-        <v>10000002</v>
+      <c r="H63" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -4012,8 +4075,8 @@
       <c r="G64" s="5">
         <v>100</v>
       </c>
-      <c r="H64" s="3">
-        <v>10000003</v>
+      <c r="H64" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -4053,8 +4116,8 @@
       <c r="G65" s="5">
         <v>100</v>
       </c>
-      <c r="H65" s="3">
-        <v>10000004</v>
+      <c r="H65" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -4094,8 +4157,8 @@
       <c r="G66" s="5">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>10000005</v>
+      <c r="H66" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4135,8 +4198,8 @@
       <c r="G67" s="5">
         <v>100</v>
       </c>
-      <c r="H67" s="3">
-        <v>10000006</v>
+      <c r="H67" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -4176,8 +4239,8 @@
       <c r="G68" s="5">
         <v>100</v>
       </c>
-      <c r="H68" s="3">
-        <v>10000007</v>
+      <c r="H68" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4217,8 +4280,8 @@
       <c r="G69" s="5">
         <v>100</v>
       </c>
-      <c r="H69" s="3">
-        <v>10000008</v>
+      <c r="H69" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4258,8 +4321,8 @@
       <c r="G70" s="5">
         <v>100</v>
       </c>
-      <c r="H70" s="3">
-        <v>10000009</v>
+      <c r="H70" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4299,8 +4362,8 @@
       <c r="G71" s="5">
         <v>100</v>
       </c>
-      <c r="H71" s="3">
-        <v>10000010</v>
+      <c r="H71" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4340,8 +4403,8 @@
       <c r="G72" s="5">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
-        <v>10000011</v>
+      <c r="H72" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4381,8 +4444,8 @@
       <c r="G73" s="5">
         <v>100</v>
       </c>
-      <c r="H73" s="3">
-        <v>10000012</v>
+      <c r="H73" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4422,8 +4485,8 @@
       <c r="G74" s="5">
         <v>100</v>
       </c>
-      <c r="H74" s="3">
-        <v>10000013</v>
+      <c r="H74" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4463,8 +4526,8 @@
       <c r="G75" s="5">
         <v>100</v>
       </c>
-      <c r="H75" s="3">
-        <v>10000014</v>
+      <c r="H75" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4504,8 +4567,8 @@
       <c r="G76" s="5">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
-        <v>10000015</v>
+      <c r="H76" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4545,8 +4608,8 @@
       <c r="G77" s="6">
         <v>115</v>
       </c>
-      <c r="H77" s="4">
-        <v>10000001</v>
+      <c r="H77" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -4586,8 +4649,8 @@
       <c r="G78" s="6">
         <v>115</v>
       </c>
-      <c r="H78" s="4">
-        <v>10000002</v>
+      <c r="H78" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -4627,8 +4690,8 @@
       <c r="G79" s="6">
         <v>115</v>
       </c>
-      <c r="H79" s="4">
-        <v>10000003</v>
+      <c r="H79" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -4668,8 +4731,8 @@
       <c r="G80" s="6">
         <v>115</v>
       </c>
-      <c r="H80" s="4">
-        <v>10000004</v>
+      <c r="H80" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -4709,8 +4772,8 @@
       <c r="G81" s="6">
         <v>115</v>
       </c>
-      <c r="H81" s="4">
-        <v>10000005</v>
+      <c r="H81" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -4750,8 +4813,8 @@
       <c r="G82" s="6">
         <v>115</v>
       </c>
-      <c r="H82" s="4">
-        <v>10000006</v>
+      <c r="H82" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -4791,8 +4854,8 @@
       <c r="G83" s="6">
         <v>115</v>
       </c>
-      <c r="H83" s="4">
-        <v>10000007</v>
+      <c r="H83" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -4832,8 +4895,8 @@
       <c r="G84" s="6">
         <v>115</v>
       </c>
-      <c r="H84" s="4">
-        <v>10000008</v>
+      <c r="H84" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -4873,8 +4936,8 @@
       <c r="G85" s="6">
         <v>115</v>
       </c>
-      <c r="H85" s="4">
-        <v>10000009</v>
+      <c r="H85" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4914,8 +4977,8 @@
       <c r="G86" s="6">
         <v>115</v>
       </c>
-      <c r="H86" s="4">
-        <v>10000010</v>
+      <c r="H86" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -4955,8 +5018,8 @@
       <c r="G87" s="6">
         <v>115</v>
       </c>
-      <c r="H87" s="4">
-        <v>10000011</v>
+      <c r="H87" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -4996,8 +5059,8 @@
       <c r="G88" s="6">
         <v>115</v>
       </c>
-      <c r="H88" s="4">
-        <v>10000012</v>
+      <c r="H88" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -5037,8 +5100,8 @@
       <c r="G89" s="6">
         <v>115</v>
       </c>
-      <c r="H89" s="4">
-        <v>10000013</v>
+      <c r="H89" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -5078,8 +5141,8 @@
       <c r="G90" s="6">
         <v>115</v>
       </c>
-      <c r="H90" s="4">
-        <v>10000014</v>
+      <c r="H90" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -5119,8 +5182,8 @@
       <c r="G91" s="6">
         <v>115</v>
       </c>
-      <c r="H91" s="4">
-        <v>10000015</v>
+      <c r="H91" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -5160,8 +5223,8 @@
       <c r="G92" s="5">
         <v>130</v>
       </c>
-      <c r="H92" s="3">
-        <v>10000001</v>
+      <c r="H92" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -5201,8 +5264,8 @@
       <c r="G93" s="5">
         <v>130</v>
       </c>
-      <c r="H93" s="3">
-        <v>10000002</v>
+      <c r="H93" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -5242,8 +5305,8 @@
       <c r="G94" s="5">
         <v>130</v>
       </c>
-      <c r="H94" s="3">
-        <v>10000003</v>
+      <c r="H94" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -5283,8 +5346,8 @@
       <c r="G95" s="5">
         <v>130</v>
       </c>
-      <c r="H95" s="3">
-        <v>10000004</v>
+      <c r="H95" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5324,8 +5387,8 @@
       <c r="G96" s="5">
         <v>130</v>
       </c>
-      <c r="H96" s="3">
-        <v>10000005</v>
+      <c r="H96" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5365,8 +5428,8 @@
       <c r="G97" s="5">
         <v>130</v>
       </c>
-      <c r="H97" s="3">
-        <v>10000006</v>
+      <c r="H97" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5406,8 +5469,8 @@
       <c r="G98" s="5">
         <v>130</v>
       </c>
-      <c r="H98" s="3">
-        <v>10000007</v>
+      <c r="H98" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5447,8 +5510,8 @@
       <c r="G99" s="5">
         <v>130</v>
       </c>
-      <c r="H99" s="3">
-        <v>10000008</v>
+      <c r="H99" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5488,8 +5551,8 @@
       <c r="G100" s="5">
         <v>130</v>
       </c>
-      <c r="H100" s="3">
-        <v>10000009</v>
+      <c r="H100" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5529,8 +5592,8 @@
       <c r="G101" s="5">
         <v>130</v>
       </c>
-      <c r="H101" s="3">
-        <v>10000010</v>
+      <c r="H101" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5570,8 +5633,8 @@
       <c r="G102" s="5">
         <v>130</v>
       </c>
-      <c r="H102" s="3">
-        <v>10000011</v>
+      <c r="H102" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5611,8 +5674,8 @@
       <c r="G103" s="5">
         <v>130</v>
       </c>
-      <c r="H103" s="3">
-        <v>10000012</v>
+      <c r="H103" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5652,8 +5715,8 @@
       <c r="G104" s="5">
         <v>130</v>
       </c>
-      <c r="H104" s="3">
-        <v>10000013</v>
+      <c r="H104" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5693,8 +5756,8 @@
       <c r="G105" s="5">
         <v>130</v>
       </c>
-      <c r="H105" s="3">
-        <v>10000014</v>
+      <c r="H105" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5734,8 +5797,8 @@
       <c r="G106" s="5">
         <v>130</v>
       </c>
-      <c r="H106" s="3">
-        <v>10000015</v>
+      <c r="H106" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5775,8 +5838,8 @@
       <c r="G107" s="6">
         <v>145</v>
       </c>
-      <c r="H107" s="4">
-        <v>10000001</v>
+      <c r="H107" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -5816,8 +5879,8 @@
       <c r="G108" s="6">
         <v>145</v>
       </c>
-      <c r="H108" s="4">
-        <v>10000002</v>
+      <c r="H108" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -5857,8 +5920,8 @@
       <c r="G109" s="6">
         <v>145</v>
       </c>
-      <c r="H109" s="4">
-        <v>10000003</v>
+      <c r="H109" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -5898,8 +5961,8 @@
       <c r="G110" s="6">
         <v>145</v>
       </c>
-      <c r="H110" s="4">
-        <v>10000004</v>
+      <c r="H110" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -5939,8 +6002,8 @@
       <c r="G111" s="6">
         <v>145</v>
       </c>
-      <c r="H111" s="4">
-        <v>10000005</v>
+      <c r="H111" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -5980,8 +6043,8 @@
       <c r="G112" s="6">
         <v>145</v>
       </c>
-      <c r="H112" s="4">
-        <v>10000006</v>
+      <c r="H112" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6021,8 +6084,8 @@
       <c r="G113" s="6">
         <v>145</v>
       </c>
-      <c r="H113" s="4">
-        <v>10000007</v>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6062,8 +6125,8 @@
       <c r="G114" s="6">
         <v>145</v>
       </c>
-      <c r="H114" s="4">
-        <v>10000008</v>
+      <c r="H114" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -6103,8 +6166,8 @@
       <c r="G115" s="6">
         <v>145</v>
       </c>
-      <c r="H115" s="4">
-        <v>10000009</v>
+      <c r="H115" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -6144,8 +6207,8 @@
       <c r="G116" s="6">
         <v>145</v>
       </c>
-      <c r="H116" s="4">
-        <v>10000010</v>
+      <c r="H116" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -6185,8 +6248,8 @@
       <c r="G117" s="6">
         <v>145</v>
       </c>
-      <c r="H117" s="4">
-        <v>10000011</v>
+      <c r="H117" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6226,8 +6289,8 @@
       <c r="G118" s="6">
         <v>145</v>
       </c>
-      <c r="H118" s="4">
-        <v>10000012</v>
+      <c r="H118" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6267,8 +6330,8 @@
       <c r="G119" s="6">
         <v>145</v>
       </c>
-      <c r="H119" s="4">
-        <v>10000013</v>
+      <c r="H119" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -6308,8 +6371,8 @@
       <c r="G120" s="6">
         <v>145</v>
       </c>
-      <c r="H120" s="4">
-        <v>10000014</v>
+      <c r="H120" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -6349,8 +6412,8 @@
       <c r="G121" s="6">
         <v>145</v>
       </c>
-      <c r="H121" s="4">
-        <v>10000015</v>
+      <c r="H121" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -6390,8 +6453,8 @@
       <c r="G122" s="5">
         <v>160</v>
       </c>
-      <c r="H122" s="3">
-        <v>10000001</v>
+      <c r="H122" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -6431,8 +6494,8 @@
       <c r="G123" s="5">
         <v>160</v>
       </c>
-      <c r="H123" s="3">
-        <v>10000002</v>
+      <c r="H123" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -6472,8 +6535,8 @@
       <c r="G124" s="5">
         <v>160</v>
       </c>
-      <c r="H124" s="3">
-        <v>10000003</v>
+      <c r="H124" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -6513,8 +6576,8 @@
       <c r="G125" s="5">
         <v>160</v>
       </c>
-      <c r="H125" s="3">
-        <v>10000004</v>
+      <c r="H125" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -6554,8 +6617,8 @@
       <c r="G126" s="5">
         <v>160</v>
       </c>
-      <c r="H126" s="3">
-        <v>10000005</v>
+      <c r="H126" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -6595,8 +6658,8 @@
       <c r="G127" s="5">
         <v>160</v>
       </c>
-      <c r="H127" s="3">
-        <v>10000006</v>
+      <c r="H127" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -6636,8 +6699,8 @@
       <c r="G128" s="5">
         <v>160</v>
       </c>
-      <c r="H128" s="3">
-        <v>10000007</v>
+      <c r="H128" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -6677,8 +6740,8 @@
       <c r="G129" s="5">
         <v>160</v>
       </c>
-      <c r="H129" s="3">
-        <v>10000008</v>
+      <c r="H129" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -6718,8 +6781,8 @@
       <c r="G130" s="5">
         <v>160</v>
       </c>
-      <c r="H130" s="3">
-        <v>10000009</v>
+      <c r="H130" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -6759,8 +6822,8 @@
       <c r="G131" s="5">
         <v>160</v>
       </c>
-      <c r="H131" s="3">
-        <v>10000010</v>
+      <c r="H131" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -6800,8 +6863,8 @@
       <c r="G132" s="5">
         <v>160</v>
       </c>
-      <c r="H132" s="3">
-        <v>10000011</v>
+      <c r="H132" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -6841,8 +6904,8 @@
       <c r="G133" s="5">
         <v>160</v>
       </c>
-      <c r="H133" s="3">
-        <v>10000012</v>
+      <c r="H133" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -6882,8 +6945,8 @@
       <c r="G134" s="5">
         <v>160</v>
       </c>
-      <c r="H134" s="3">
-        <v>10000013</v>
+      <c r="H134" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -6923,8 +6986,8 @@
       <c r="G135" s="5">
         <v>160</v>
       </c>
-      <c r="H135" s="3">
-        <v>10000014</v>
+      <c r="H135" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -6964,8 +7027,8 @@
       <c r="G136" s="5">
         <v>160</v>
       </c>
-      <c r="H136" s="3">
-        <v>10000015</v>
+      <c r="H136" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -7005,8 +7068,8 @@
       <c r="G137" s="6">
         <v>175</v>
       </c>
-      <c r="H137" s="4">
-        <v>10000001</v>
+      <c r="H137" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -7046,8 +7109,8 @@
       <c r="G138" s="6">
         <v>175</v>
       </c>
-      <c r="H138" s="4">
-        <v>10000002</v>
+      <c r="H138" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -7087,8 +7150,8 @@
       <c r="G139" s="6">
         <v>175</v>
       </c>
-      <c r="H139" s="4">
-        <v>10000003</v>
+      <c r="H139" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -7128,8 +7191,8 @@
       <c r="G140" s="6">
         <v>175</v>
       </c>
-      <c r="H140" s="4">
-        <v>10000004</v>
+      <c r="H140" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -7169,8 +7232,8 @@
       <c r="G141" s="6">
         <v>175</v>
       </c>
-      <c r="H141" s="4">
-        <v>10000005</v>
+      <c r="H141" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -7210,8 +7273,8 @@
       <c r="G142" s="6">
         <v>175</v>
       </c>
-      <c r="H142" s="4">
-        <v>10000006</v>
+      <c r="H142" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -7251,8 +7314,8 @@
       <c r="G143" s="6">
         <v>175</v>
       </c>
-      <c r="H143" s="4">
-        <v>10000007</v>
+      <c r="H143" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -7292,8 +7355,8 @@
       <c r="G144" s="6">
         <v>175</v>
       </c>
-      <c r="H144" s="4">
-        <v>10000008</v>
+      <c r="H144" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -7333,8 +7396,8 @@
       <c r="G145" s="6">
         <v>175</v>
       </c>
-      <c r="H145" s="4">
-        <v>10000009</v>
+      <c r="H145" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -7374,8 +7437,8 @@
       <c r="G146" s="6">
         <v>175</v>
       </c>
-      <c r="H146" s="4">
-        <v>10000010</v>
+      <c r="H146" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -7415,8 +7478,8 @@
       <c r="G147" s="6">
         <v>175</v>
       </c>
-      <c r="H147" s="4">
-        <v>10000011</v>
+      <c r="H147" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -7456,8 +7519,8 @@
       <c r="G148" s="6">
         <v>175</v>
       </c>
-      <c r="H148" s="4">
-        <v>10000012</v>
+      <c r="H148" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -7497,8 +7560,8 @@
       <c r="G149" s="6">
         <v>175</v>
       </c>
-      <c r="H149" s="4">
-        <v>10000013</v>
+      <c r="H149" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -7538,8 +7601,8 @@
       <c r="G150" s="6">
         <v>175</v>
       </c>
-      <c r="H150" s="4">
-        <v>10000014</v>
+      <c r="H150" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -7579,8 +7642,8 @@
       <c r="G151" s="6">
         <v>175</v>
       </c>
-      <c r="H151" s="4">
-        <v>10000015</v>
+      <c r="H151" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -7620,8 +7683,8 @@
       <c r="G152" s="5">
         <v>190</v>
       </c>
-      <c r="H152" s="3">
-        <v>10000001</v>
+      <c r="H152" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -7661,8 +7724,8 @@
       <c r="G153" s="5">
         <v>190</v>
       </c>
-      <c r="H153" s="3">
-        <v>10000002</v>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -7702,8 +7765,8 @@
       <c r="G154" s="5">
         <v>190</v>
       </c>
-      <c r="H154" s="3">
-        <v>10000003</v>
+      <c r="H154" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -7743,8 +7806,8 @@
       <c r="G155" s="5">
         <v>190</v>
       </c>
-      <c r="H155" s="3">
-        <v>10000004</v>
+      <c r="H155" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -7784,8 +7847,8 @@
       <c r="G156" s="5">
         <v>190</v>
       </c>
-      <c r="H156" s="3">
-        <v>10000005</v>
+      <c r="H156" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -7825,8 +7888,8 @@
       <c r="G157" s="5">
         <v>190</v>
       </c>
-      <c r="H157" s="3">
-        <v>10000006</v>
+      <c r="H157" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -7866,8 +7929,8 @@
       <c r="G158" s="5">
         <v>190</v>
       </c>
-      <c r="H158" s="3">
-        <v>10000007</v>
+      <c r="H158" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -7907,8 +7970,8 @@
       <c r="G159" s="5">
         <v>190</v>
       </c>
-      <c r="H159" s="3">
-        <v>10000008</v>
+      <c r="H159" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -7948,8 +8011,8 @@
       <c r="G160" s="5">
         <v>190</v>
       </c>
-      <c r="H160" s="3">
-        <v>10000009</v>
+      <c r="H160" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -7989,8 +8052,8 @@
       <c r="G161" s="5">
         <v>190</v>
       </c>
-      <c r="H161" s="3">
-        <v>10000010</v>
+      <c r="H161" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -8030,8 +8093,8 @@
       <c r="G162" s="5">
         <v>190</v>
       </c>
-      <c r="H162" s="3">
-        <v>10000011</v>
+      <c r="H162" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -8071,8 +8134,8 @@
       <c r="G163" s="5">
         <v>190</v>
       </c>
-      <c r="H163" s="3">
-        <v>10000012</v>
+      <c r="H163" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -8112,8 +8175,8 @@
       <c r="G164" s="5">
         <v>190</v>
       </c>
-      <c r="H164" s="3">
-        <v>10000013</v>
+      <c r="H164" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -8153,8 +8216,8 @@
       <c r="G165" s="5">
         <v>190</v>
       </c>
-      <c r="H165" s="3">
-        <v>10000014</v>
+      <c r="H165" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -8194,8 +8257,8 @@
       <c r="G166" s="5">
         <v>190</v>
       </c>
-      <c r="H166" s="3">
-        <v>10000015</v>
+      <c r="H166" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -8235,8 +8298,8 @@
       <c r="G167" s="6">
         <v>205</v>
       </c>
-      <c r="H167" s="4">
-        <v>10000001</v>
+      <c r="H167" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I167" s="6">
         <v>1</v>
@@ -8276,8 +8339,8 @@
       <c r="G168" s="6">
         <v>205</v>
       </c>
-      <c r="H168" s="4">
-        <v>10000002</v>
+      <c r="H168" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -8317,8 +8380,8 @@
       <c r="G169" s="6">
         <v>205</v>
       </c>
-      <c r="H169" s="4">
-        <v>10000003</v>
+      <c r="H169" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -8358,8 +8421,8 @@
       <c r="G170" s="6">
         <v>205</v>
       </c>
-      <c r="H170" s="4">
-        <v>10000004</v>
+      <c r="H170" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -8399,8 +8462,8 @@
       <c r="G171" s="6">
         <v>205</v>
       </c>
-      <c r="H171" s="4">
-        <v>10000005</v>
+      <c r="H171" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -8440,8 +8503,8 @@
       <c r="G172" s="6">
         <v>205</v>
       </c>
-      <c r="H172" s="4">
-        <v>10000006</v>
+      <c r="H172" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -8481,8 +8544,8 @@
       <c r="G173" s="6">
         <v>205</v>
       </c>
-      <c r="H173" s="4">
-        <v>10000007</v>
+      <c r="H173" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -8522,8 +8585,8 @@
       <c r="G174" s="6">
         <v>205</v>
       </c>
-      <c r="H174" s="4">
-        <v>10000008</v>
+      <c r="H174" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -8563,8 +8626,8 @@
       <c r="G175" s="6">
         <v>205</v>
       </c>
-      <c r="H175" s="4">
-        <v>10000009</v>
+      <c r="H175" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -8604,8 +8667,8 @@
       <c r="G176" s="6">
         <v>205</v>
       </c>
-      <c r="H176" s="4">
-        <v>10000010</v>
+      <c r="H176" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -8645,8 +8708,8 @@
       <c r="G177" s="6">
         <v>205</v>
       </c>
-      <c r="H177" s="4">
-        <v>10000011</v>
+      <c r="H177" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -8686,8 +8749,8 @@
       <c r="G178" s="6">
         <v>205</v>
       </c>
-      <c r="H178" s="4">
-        <v>10000012</v>
+      <c r="H178" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -8727,8 +8790,8 @@
       <c r="G179" s="6">
         <v>205</v>
       </c>
-      <c r="H179" s="4">
-        <v>10000013</v>
+      <c r="H179" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -8768,8 +8831,8 @@
       <c r="G180" s="6">
         <v>205</v>
       </c>
-      <c r="H180" s="4">
-        <v>10000014</v>
+      <c r="H180" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -8809,8 +8872,8 @@
       <c r="G181" s="6">
         <v>205</v>
       </c>
-      <c r="H181" s="4">
-        <v>10000015</v>
+      <c r="H181" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -8850,8 +8913,8 @@
       <c r="G182" s="5">
         <v>220</v>
       </c>
-      <c r="H182" s="3">
-        <v>10000001</v>
+      <c r="H182" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
@@ -8891,8 +8954,8 @@
       <c r="G183" s="5">
         <v>220</v>
       </c>
-      <c r="H183" s="3">
-        <v>10000002</v>
+      <c r="H183" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -8932,8 +8995,8 @@
       <c r="G184" s="5">
         <v>220</v>
       </c>
-      <c r="H184" s="3">
-        <v>10000003</v>
+      <c r="H184" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -8973,8 +9036,8 @@
       <c r="G185" s="5">
         <v>220</v>
       </c>
-      <c r="H185" s="3">
-        <v>10000004</v>
+      <c r="H185" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -9014,8 +9077,8 @@
       <c r="G186" s="5">
         <v>220</v>
       </c>
-      <c r="H186" s="3">
-        <v>10000005</v>
+      <c r="H186" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -9055,8 +9118,8 @@
       <c r="G187" s="5">
         <v>220</v>
       </c>
-      <c r="H187" s="3">
-        <v>10000006</v>
+      <c r="H187" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -9096,8 +9159,8 @@
       <c r="G188" s="5">
         <v>220</v>
       </c>
-      <c r="H188" s="3">
-        <v>10000007</v>
+      <c r="H188" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -9137,8 +9200,8 @@
       <c r="G189" s="5">
         <v>220</v>
       </c>
-      <c r="H189" s="3">
-        <v>10000008</v>
+      <c r="H189" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -9178,8 +9241,8 @@
       <c r="G190" s="5">
         <v>220</v>
       </c>
-      <c r="H190" s="3">
-        <v>10000009</v>
+      <c r="H190" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -9219,8 +9282,8 @@
       <c r="G191" s="5">
         <v>220</v>
       </c>
-      <c r="H191" s="3">
-        <v>10000010</v>
+      <c r="H191" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -9260,8 +9323,8 @@
       <c r="G192" s="5">
         <v>220</v>
       </c>
-      <c r="H192" s="3">
-        <v>10000011</v>
+      <c r="H192" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -9301,8 +9364,8 @@
       <c r="G193" s="5">
         <v>220</v>
       </c>
-      <c r="H193" s="3">
-        <v>10000012</v>
+      <c r="H193" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -9342,8 +9405,8 @@
       <c r="G194" s="5">
         <v>220</v>
       </c>
-      <c r="H194" s="3">
-        <v>10000013</v>
+      <c r="H194" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -9383,8 +9446,8 @@
       <c r="G195" s="5">
         <v>220</v>
       </c>
-      <c r="H195" s="3">
-        <v>10000014</v>
+      <c r="H195" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -9424,8 +9487,8 @@
       <c r="G196" s="5">
         <v>220</v>
       </c>
-      <c r="H196" s="3">
-        <v>10000015</v>
+      <c r="H196" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -9465,8 +9528,8 @@
       <c r="G197" s="6">
         <v>235</v>
       </c>
-      <c r="H197" s="4">
-        <v>10000001</v>
+      <c r="H197" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I197" s="6">
         <v>1</v>
@@ -9506,8 +9569,8 @@
       <c r="G198" s="6">
         <v>235</v>
       </c>
-      <c r="H198" s="4">
-        <v>10000002</v>
+      <c r="H198" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -9547,8 +9610,8 @@
       <c r="G199" s="6">
         <v>235</v>
       </c>
-      <c r="H199" s="4">
-        <v>10000003</v>
+      <c r="H199" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -9588,8 +9651,8 @@
       <c r="G200" s="6">
         <v>235</v>
       </c>
-      <c r="H200" s="4">
-        <v>10000004</v>
+      <c r="H200" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -9629,8 +9692,8 @@
       <c r="G201" s="6">
         <v>235</v>
       </c>
-      <c r="H201" s="4">
-        <v>10000005</v>
+      <c r="H201" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -9670,8 +9733,8 @@
       <c r="G202" s="6">
         <v>235</v>
       </c>
-      <c r="H202" s="4">
-        <v>10000006</v>
+      <c r="H202" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -9711,8 +9774,8 @@
       <c r="G203" s="6">
         <v>235</v>
       </c>
-      <c r="H203" s="4">
-        <v>10000007</v>
+      <c r="H203" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -9752,8 +9815,8 @@
       <c r="G204" s="6">
         <v>235</v>
       </c>
-      <c r="H204" s="4">
-        <v>10000008</v>
+      <c r="H204" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9793,8 +9856,8 @@
       <c r="G205" s="6">
         <v>235</v>
       </c>
-      <c r="H205" s="4">
-        <v>10000009</v>
+      <c r="H205" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -9834,8 +9897,8 @@
       <c r="G206" s="6">
         <v>235</v>
       </c>
-      <c r="H206" s="4">
-        <v>10000010</v>
+      <c r="H206" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -9875,8 +9938,8 @@
       <c r="G207" s="6">
         <v>235</v>
       </c>
-      <c r="H207" s="4">
-        <v>10000011</v>
+      <c r="H207" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -9916,8 +9979,8 @@
       <c r="G208" s="6">
         <v>235</v>
       </c>
-      <c r="H208" s="4">
-        <v>10000012</v>
+      <c r="H208" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -9957,8 +10020,8 @@
       <c r="G209" s="6">
         <v>235</v>
       </c>
-      <c r="H209" s="4">
-        <v>10000013</v>
+      <c r="H209" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -9998,8 +10061,8 @@
       <c r="G210" s="6">
         <v>235</v>
       </c>
-      <c r="H210" s="4">
-        <v>10000014</v>
+      <c r="H210" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -10039,8 +10102,8 @@
       <c r="G211" s="6">
         <v>235</v>
       </c>
-      <c r="H211" s="4">
-        <v>10000015</v>
+      <c r="H211" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -10080,8 +10143,8 @@
       <c r="G212" s="5">
         <v>250</v>
       </c>
-      <c r="H212" s="3">
-        <v>10000001</v>
+      <c r="H212" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -10121,8 +10184,8 @@
       <c r="G213" s="5">
         <v>250</v>
       </c>
-      <c r="H213" s="3">
-        <v>10000002</v>
+      <c r="H213" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -10162,8 +10225,8 @@
       <c r="G214" s="5">
         <v>250</v>
       </c>
-      <c r="H214" s="3">
-        <v>10000003</v>
+      <c r="H214" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -10203,8 +10266,8 @@
       <c r="G215" s="5">
         <v>250</v>
       </c>
-      <c r="H215" s="3">
-        <v>10000004</v>
+      <c r="H215" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -10244,8 +10307,8 @@
       <c r="G216" s="5">
         <v>250</v>
       </c>
-      <c r="H216" s="3">
-        <v>10000005</v>
+      <c r="H216" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -10285,8 +10348,8 @@
       <c r="G217" s="5">
         <v>250</v>
       </c>
-      <c r="H217" s="3">
-        <v>10000006</v>
+      <c r="H217" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -10326,8 +10389,8 @@
       <c r="G218" s="5">
         <v>250</v>
       </c>
-      <c r="H218" s="3">
-        <v>10000007</v>
+      <c r="H218" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -10367,8 +10430,8 @@
       <c r="G219" s="5">
         <v>250</v>
       </c>
-      <c r="H219" s="3">
-        <v>10000008</v>
+      <c r="H219" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -10408,8 +10471,8 @@
       <c r="G220" s="5">
         <v>250</v>
       </c>
-      <c r="H220" s="3">
-        <v>10000009</v>
+      <c r="H220" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -10449,8 +10512,8 @@
       <c r="G221" s="5">
         <v>250</v>
       </c>
-      <c r="H221" s="3">
-        <v>10000010</v>
+      <c r="H221" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -10490,8 +10553,8 @@
       <c r="G222" s="5">
         <v>250</v>
       </c>
-      <c r="H222" s="3">
-        <v>10000011</v>
+      <c r="H222" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -10531,8 +10594,8 @@
       <c r="G223" s="5">
         <v>250</v>
       </c>
-      <c r="H223" s="3">
-        <v>10000012</v>
+      <c r="H223" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -10572,8 +10635,8 @@
       <c r="G224" s="5">
         <v>250</v>
       </c>
-      <c r="H224" s="3">
-        <v>10000013</v>
+      <c r="H224" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -10613,8 +10676,8 @@
       <c r="G225" s="5">
         <v>250</v>
       </c>
-      <c r="H225" s="3">
-        <v>10000014</v>
+      <c r="H225" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -10654,8 +10717,8 @@
       <c r="G226" s="5">
         <v>250</v>
       </c>
-      <c r="H226" s="3">
-        <v>10000015</v>
+      <c r="H226" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -10695,8 +10758,8 @@
       <c r="G227" s="6">
         <v>265</v>
       </c>
-      <c r="H227" s="4">
-        <v>10000001</v>
+      <c r="H227" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
@@ -10736,8 +10799,8 @@
       <c r="G228" s="6">
         <v>265</v>
       </c>
-      <c r="H228" s="4">
-        <v>10000002</v>
+      <c r="H228" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -10777,8 +10840,8 @@
       <c r="G229" s="6">
         <v>265</v>
       </c>
-      <c r="H229" s="4">
-        <v>10000003</v>
+      <c r="H229" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -10818,8 +10881,8 @@
       <c r="G230" s="6">
         <v>265</v>
       </c>
-      <c r="H230" s="4">
-        <v>10000004</v>
+      <c r="H230" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -10859,8 +10922,8 @@
       <c r="G231" s="6">
         <v>265</v>
       </c>
-      <c r="H231" s="4">
-        <v>10000005</v>
+      <c r="H231" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -10900,8 +10963,8 @@
       <c r="G232" s="6">
         <v>265</v>
       </c>
-      <c r="H232" s="4">
-        <v>10000006</v>
+      <c r="H232" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -10941,8 +11004,8 @@
       <c r="G233" s="6">
         <v>265</v>
       </c>
-      <c r="H233" s="4">
-        <v>10000007</v>
+      <c r="H233" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -10982,8 +11045,8 @@
       <c r="G234" s="6">
         <v>265</v>
       </c>
-      <c r="H234" s="4">
-        <v>10000008</v>
+      <c r="H234" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -11023,8 +11086,8 @@
       <c r="G235" s="6">
         <v>265</v>
       </c>
-      <c r="H235" s="4">
-        <v>10000009</v>
+      <c r="H235" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -11064,8 +11127,8 @@
       <c r="G236" s="6">
         <v>265</v>
       </c>
-      <c r="H236" s="4">
-        <v>10000010</v>
+      <c r="H236" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -11105,8 +11168,8 @@
       <c r="G237" s="6">
         <v>265</v>
       </c>
-      <c r="H237" s="4">
-        <v>10000011</v>
+      <c r="H237" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -11146,8 +11209,8 @@
       <c r="G238" s="6">
         <v>265</v>
       </c>
-      <c r="H238" s="4">
-        <v>10000012</v>
+      <c r="H238" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -11187,8 +11250,8 @@
       <c r="G239" s="6">
         <v>265</v>
       </c>
-      <c r="H239" s="4">
-        <v>10000013</v>
+      <c r="H239" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -11228,8 +11291,8 @@
       <c r="G240" s="6">
         <v>265</v>
       </c>
-      <c r="H240" s="4">
-        <v>10000014</v>
+      <c r="H240" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -11269,8 +11332,8 @@
       <c r="G241" s="6">
         <v>265</v>
       </c>
-      <c r="H241" s="4">
-        <v>10000015</v>
+      <c r="H241" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -11310,8 +11373,8 @@
       <c r="G242" s="5">
         <v>280</v>
       </c>
-      <c r="H242" s="3">
-        <v>10000001</v>
+      <c r="H242" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -11351,8 +11414,8 @@
       <c r="G243" s="5">
         <v>280</v>
       </c>
-      <c r="H243" s="3">
-        <v>10000002</v>
+      <c r="H243" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -11392,8 +11455,8 @@
       <c r="G244" s="5">
         <v>280</v>
       </c>
-      <c r="H244" s="3">
-        <v>10000003</v>
+      <c r="H244" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -11433,8 +11496,8 @@
       <c r="G245" s="5">
         <v>280</v>
       </c>
-      <c r="H245" s="3">
-        <v>10000004</v>
+      <c r="H245" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -11474,8 +11537,8 @@
       <c r="G246" s="5">
         <v>280</v>
       </c>
-      <c r="H246" s="3">
-        <v>10000005</v>
+      <c r="H246" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -11515,8 +11578,8 @@
       <c r="G247" s="5">
         <v>280</v>
       </c>
-      <c r="H247" s="3">
-        <v>10000006</v>
+      <c r="H247" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -11556,8 +11619,8 @@
       <c r="G248" s="5">
         <v>280</v>
       </c>
-      <c r="H248" s="3">
-        <v>10000007</v>
+      <c r="H248" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -11597,8 +11660,8 @@
       <c r="G249" s="5">
         <v>280</v>
       </c>
-      <c r="H249" s="3">
-        <v>10000008</v>
+      <c r="H249" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -11638,8 +11701,8 @@
       <c r="G250" s="5">
         <v>280</v>
       </c>
-      <c r="H250" s="3">
-        <v>10000009</v>
+      <c r="H250" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -11679,8 +11742,8 @@
       <c r="G251" s="5">
         <v>280</v>
       </c>
-      <c r="H251" s="3">
-        <v>10000010</v>
+      <c r="H251" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -11720,8 +11783,8 @@
       <c r="G252" s="5">
         <v>280</v>
       </c>
-      <c r="H252" s="3">
-        <v>10000011</v>
+      <c r="H252" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -11761,8 +11824,8 @@
       <c r="G253" s="5">
         <v>280</v>
       </c>
-      <c r="H253" s="3">
-        <v>10000012</v>
+      <c r="H253" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -11802,8 +11865,8 @@
       <c r="G254" s="5">
         <v>280</v>
       </c>
-      <c r="H254" s="3">
-        <v>10000013</v>
+      <c r="H254" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -11843,8 +11906,8 @@
       <c r="G255" s="5">
         <v>280</v>
       </c>
-      <c r="H255" s="3">
-        <v>10000014</v>
+      <c r="H255" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -11884,8 +11947,8 @@
       <c r="G256" s="5">
         <v>280</v>
       </c>
-      <c r="H256" s="3">
-        <v>10000015</v>
+      <c r="H256" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -11925,8 +11988,8 @@
       <c r="G257" s="6">
         <v>295</v>
       </c>
-      <c r="H257" s="4">
-        <v>10000001</v>
+      <c r="H257" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I257" s="6">
         <v>1</v>
@@ -11966,8 +12029,8 @@
       <c r="G258" s="6">
         <v>295</v>
       </c>
-      <c r="H258" s="4">
-        <v>10000002</v>
+      <c r="H258" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -12007,8 +12070,8 @@
       <c r="G259" s="6">
         <v>295</v>
       </c>
-      <c r="H259" s="4">
-        <v>10000003</v>
+      <c r="H259" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -12048,8 +12111,8 @@
       <c r="G260" s="6">
         <v>295</v>
       </c>
-      <c r="H260" s="4">
-        <v>10000004</v>
+      <c r="H260" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -12089,8 +12152,8 @@
       <c r="G261" s="6">
         <v>295</v>
       </c>
-      <c r="H261" s="4">
-        <v>10000005</v>
+      <c r="H261" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -12130,8 +12193,8 @@
       <c r="G262" s="6">
         <v>295</v>
       </c>
-      <c r="H262" s="4">
-        <v>10000006</v>
+      <c r="H262" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -12171,8 +12234,8 @@
       <c r="G263" s="6">
         <v>295</v>
       </c>
-      <c r="H263" s="4">
-        <v>10000007</v>
+      <c r="H263" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -12212,8 +12275,8 @@
       <c r="G264" s="6">
         <v>295</v>
       </c>
-      <c r="H264" s="4">
-        <v>10000008</v>
+      <c r="H264" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -12253,8 +12316,8 @@
       <c r="G265" s="6">
         <v>295</v>
       </c>
-      <c r="H265" s="4">
-        <v>10000009</v>
+      <c r="H265" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -12294,8 +12357,8 @@
       <c r="G266" s="6">
         <v>295</v>
       </c>
-      <c r="H266" s="4">
-        <v>10000010</v>
+      <c r="H266" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -12335,8 +12398,8 @@
       <c r="G267" s="6">
         <v>295</v>
       </c>
-      <c r="H267" s="4">
-        <v>10000011</v>
+      <c r="H267" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -12376,8 +12439,8 @@
       <c r="G268" s="6">
         <v>295</v>
       </c>
-      <c r="H268" s="4">
-        <v>10000012</v>
+      <c r="H268" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -12417,8 +12480,8 @@
       <c r="G269" s="6">
         <v>295</v>
       </c>
-      <c r="H269" s="4">
-        <v>10000013</v>
+      <c r="H269" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -12458,8 +12521,8 @@
       <c r="G270" s="6">
         <v>295</v>
       </c>
-      <c r="H270" s="4">
-        <v>10000014</v>
+      <c r="H270" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -12499,8 +12562,8 @@
       <c r="G271" s="6">
         <v>295</v>
       </c>
-      <c r="H271" s="4">
-        <v>10000015</v>
+      <c r="H271" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -12540,8 +12603,8 @@
       <c r="G272" s="5">
         <v>310</v>
       </c>
-      <c r="H272" s="3">
-        <v>10000001</v>
+      <c r="H272" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -12581,8 +12644,8 @@
       <c r="G273" s="5">
         <v>310</v>
       </c>
-      <c r="H273" s="3">
-        <v>10000002</v>
+      <c r="H273" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -12622,8 +12685,8 @@
       <c r="G274" s="5">
         <v>310</v>
       </c>
-      <c r="H274" s="3">
-        <v>10000003</v>
+      <c r="H274" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -12663,8 +12726,8 @@
       <c r="G275" s="5">
         <v>310</v>
       </c>
-      <c r="H275" s="3">
-        <v>10000004</v>
+      <c r="H275" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -12704,8 +12767,8 @@
       <c r="G276" s="5">
         <v>310</v>
       </c>
-      <c r="H276" s="3">
-        <v>10000005</v>
+      <c r="H276" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -12745,8 +12808,8 @@
       <c r="G277" s="5">
         <v>310</v>
       </c>
-      <c r="H277" s="3">
-        <v>10000006</v>
+      <c r="H277" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -12786,8 +12849,8 @@
       <c r="G278" s="5">
         <v>310</v>
       </c>
-      <c r="H278" s="3">
-        <v>10000007</v>
+      <c r="H278" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -12827,8 +12890,8 @@
       <c r="G279" s="5">
         <v>310</v>
       </c>
-      <c r="H279" s="3">
-        <v>10000008</v>
+      <c r="H279" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -12868,8 +12931,8 @@
       <c r="G280" s="5">
         <v>310</v>
       </c>
-      <c r="H280" s="3">
-        <v>10000009</v>
+      <c r="H280" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -12909,8 +12972,8 @@
       <c r="G281" s="5">
         <v>310</v>
       </c>
-      <c r="H281" s="3">
-        <v>10000010</v>
+      <c r="H281" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -12950,8 +13013,8 @@
       <c r="G282" s="5">
         <v>310</v>
       </c>
-      <c r="H282" s="3">
-        <v>10000011</v>
+      <c r="H282" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -12991,8 +13054,8 @@
       <c r="G283" s="5">
         <v>310</v>
       </c>
-      <c r="H283" s="3">
-        <v>10000012</v>
+      <c r="H283" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -13032,8 +13095,8 @@
       <c r="G284" s="5">
         <v>310</v>
       </c>
-      <c r="H284" s="3">
-        <v>10000013</v>
+      <c r="H284" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -13073,8 +13136,8 @@
       <c r="G285" s="5">
         <v>310</v>
       </c>
-      <c r="H285" s="3">
-        <v>10000014</v>
+      <c r="H285" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -13114,8 +13177,8 @@
       <c r="G286" s="5">
         <v>310</v>
       </c>
-      <c r="H286" s="3">
-        <v>10000015</v>
+      <c r="H286" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -13155,8 +13218,8 @@
       <c r="G287" s="6">
         <v>325</v>
       </c>
-      <c r="H287" s="4">
-        <v>10000001</v>
+      <c r="H287" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -13196,8 +13259,8 @@
       <c r="G288" s="6">
         <v>325</v>
       </c>
-      <c r="H288" s="4">
-        <v>10000002</v>
+      <c r="H288" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -13237,8 +13300,8 @@
       <c r="G289" s="6">
         <v>325</v>
       </c>
-      <c r="H289" s="4">
-        <v>10000003</v>
+      <c r="H289" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -13278,8 +13341,8 @@
       <c r="G290" s="6">
         <v>325</v>
       </c>
-      <c r="H290" s="4">
-        <v>10000004</v>
+      <c r="H290" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -13319,8 +13382,8 @@
       <c r="G291" s="6">
         <v>325</v>
       </c>
-      <c r="H291" s="4">
-        <v>10000005</v>
+      <c r="H291" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -13360,8 +13423,8 @@
       <c r="G292" s="6">
         <v>325</v>
       </c>
-      <c r="H292" s="4">
-        <v>10000006</v>
+      <c r="H292" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -13401,8 +13464,8 @@
       <c r="G293" s="6">
         <v>325</v>
       </c>
-      <c r="H293" s="4">
-        <v>10000007</v>
+      <c r="H293" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -13442,8 +13505,8 @@
       <c r="G294" s="6">
         <v>325</v>
       </c>
-      <c r="H294" s="4">
-        <v>10000008</v>
+      <c r="H294" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -13483,8 +13546,8 @@
       <c r="G295" s="6">
         <v>325</v>
       </c>
-      <c r="H295" s="4">
-        <v>10000009</v>
+      <c r="H295" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -13524,8 +13587,8 @@
       <c r="G296" s="6">
         <v>325</v>
       </c>
-      <c r="H296" s="4">
-        <v>10000010</v>
+      <c r="H296" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -13565,8 +13628,8 @@
       <c r="G297" s="6">
         <v>325</v>
       </c>
-      <c r="H297" s="4">
-        <v>10000011</v>
+      <c r="H297" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -13606,8 +13669,8 @@
       <c r="G298" s="6">
         <v>325</v>
       </c>
-      <c r="H298" s="4">
-        <v>10000012</v>
+      <c r="H298" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -13647,8 +13710,8 @@
       <c r="G299" s="6">
         <v>325</v>
       </c>
-      <c r="H299" s="4">
-        <v>10000013</v>
+      <c r="H299" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -13688,8 +13751,8 @@
       <c r="G300" s="6">
         <v>325</v>
       </c>
-      <c r="H300" s="4">
-        <v>10000014</v>
+      <c r="H300" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -13729,8 +13792,8 @@
       <c r="G301" s="6">
         <v>325</v>
       </c>
-      <c r="H301" s="4">
-        <v>10000015</v>
+      <c r="H301" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -13770,8 +13833,8 @@
       <c r="G302" s="5">
         <v>340</v>
       </c>
-      <c r="H302" s="3">
-        <v>10000001</v>
+      <c r="H302" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -13811,8 +13874,8 @@
       <c r="G303" s="5">
         <v>340</v>
       </c>
-      <c r="H303" s="3">
-        <v>10000002</v>
+      <c r="H303" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -13852,8 +13915,8 @@
       <c r="G304" s="5">
         <v>340</v>
       </c>
-      <c r="H304" s="3">
-        <v>10000003</v>
+      <c r="H304" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -13893,8 +13956,8 @@
       <c r="G305" s="5">
         <v>340</v>
       </c>
-      <c r="H305" s="3">
-        <v>10000004</v>
+      <c r="H305" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -13934,8 +13997,8 @@
       <c r="G306" s="5">
         <v>340</v>
       </c>
-      <c r="H306" s="3">
-        <v>10000005</v>
+      <c r="H306" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -13975,8 +14038,8 @@
       <c r="G307" s="5">
         <v>340</v>
       </c>
-      <c r="H307" s="3">
-        <v>10000006</v>
+      <c r="H307" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -14016,8 +14079,8 @@
       <c r="G308" s="5">
         <v>340</v>
       </c>
-      <c r="H308" s="3">
-        <v>10000007</v>
+      <c r="H308" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -14057,8 +14120,8 @@
       <c r="G309" s="5">
         <v>340</v>
       </c>
-      <c r="H309" s="3">
-        <v>10000008</v>
+      <c r="H309" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -14098,8 +14161,8 @@
       <c r="G310" s="5">
         <v>340</v>
       </c>
-      <c r="H310" s="3">
-        <v>10000009</v>
+      <c r="H310" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -14139,8 +14202,8 @@
       <c r="G311" s="5">
         <v>340</v>
       </c>
-      <c r="H311" s="3">
-        <v>10000010</v>
+      <c r="H311" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -14180,8 +14243,8 @@
       <c r="G312" s="5">
         <v>340</v>
       </c>
-      <c r="H312" s="3">
-        <v>10000011</v>
+      <c r="H312" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -14221,8 +14284,8 @@
       <c r="G313" s="5">
         <v>340</v>
       </c>
-      <c r="H313" s="3">
-        <v>10000012</v>
+      <c r="H313" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -14262,8 +14325,8 @@
       <c r="G314" s="5">
         <v>340</v>
       </c>
-      <c r="H314" s="3">
-        <v>10000013</v>
+      <c r="H314" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -14303,8 +14366,8 @@
       <c r="G315" s="5">
         <v>340</v>
       </c>
-      <c r="H315" s="3">
-        <v>10000014</v>
+      <c r="H315" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -14344,8 +14407,8 @@
       <c r="G316" s="5">
         <v>340</v>
       </c>
-      <c r="H316" s="3">
-        <v>10000015</v>
+      <c r="H316" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -14385,8 +14448,8 @@
       <c r="G317" s="9">
         <v>200</v>
       </c>
-      <c r="H317" s="9">
-        <v>20000001</v>
+      <c r="H317" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -14426,8 +14489,8 @@
       <c r="G318" s="9">
         <v>500</v>
       </c>
-      <c r="H318" s="9">
-        <v>20000002</v>
+      <c r="H318" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -14467,8 +14530,8 @@
       <c r="G319" s="9">
         <v>800</v>
       </c>
-      <c r="H319" s="9">
-        <v>20000003</v>
+      <c r="H319" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -14508,8 +14571,8 @@
       <c r="G320" s="9">
         <v>1100</v>
       </c>
-      <c r="H320" s="9">
-        <v>20000004</v>
+      <c r="H320" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -14549,8 +14612,8 @@
       <c r="G321" s="9">
         <v>1400</v>
       </c>
-      <c r="H321" s="9">
-        <v>20000005</v>
+      <c r="H321" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -14590,8 +14653,8 @@
       <c r="G322" s="9">
         <v>1700</v>
       </c>
-      <c r="H322" s="9">
-        <v>20000006</v>
+      <c r="H322" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -14631,8 +14694,8 @@
       <c r="G323" s="9">
         <v>2000</v>
       </c>
-      <c r="H323" s="9">
-        <v>20000001</v>
+      <c r="H323" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -14672,8 +14735,8 @@
       <c r="G324" s="9">
         <v>2300</v>
       </c>
-      <c r="H324" s="9">
-        <v>20000002</v>
+      <c r="H324" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -14713,8 +14776,8 @@
       <c r="G325" s="9">
         <v>2600</v>
       </c>
-      <c r="H325" s="9">
-        <v>20000003</v>
+      <c r="H325" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -14754,8 +14817,8 @@
       <c r="G326" s="9">
         <v>2900</v>
       </c>
-      <c r="H326" s="9">
-        <v>20000004</v>
+      <c r="H326" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -14795,8 +14858,8 @@
       <c r="G327" s="9">
         <v>3200</v>
       </c>
-      <c r="H327" s="9">
-        <v>20000005</v>
+      <c r="H327" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -14836,8 +14899,8 @@
       <c r="G328" s="9">
         <v>3500</v>
       </c>
-      <c r="H328" s="9">
-        <v>20000006</v>
+      <c r="H328" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -14877,8 +14940,8 @@
       <c r="G329" s="9">
         <v>3800</v>
       </c>
-      <c r="H329" s="9">
-        <v>20000001</v>
+      <c r="H329" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -14918,8 +14981,8 @@
       <c r="G330" s="9">
         <v>4100</v>
       </c>
-      <c r="H330" s="9">
-        <v>20000002</v>
+      <c r="H330" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -14959,8 +15022,8 @@
       <c r="G331" s="9">
         <v>4400</v>
       </c>
-      <c r="H331" s="9">
-        <v>20000003</v>
+      <c r="H331" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -15000,8 +15063,8 @@
       <c r="G332" s="9">
         <v>4700</v>
       </c>
-      <c r="H332" s="9">
-        <v>20000004</v>
+      <c r="H332" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -15041,8 +15104,8 @@
       <c r="G333" s="9">
         <v>5000</v>
       </c>
-      <c r="H333" s="9">
-        <v>20000005</v>
+      <c r="H333" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -15082,8 +15145,8 @@
       <c r="G334" s="9">
         <v>5300</v>
       </c>
-      <c r="H334" s="9">
-        <v>20000006</v>
+      <c r="H334" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -15123,8 +15186,8 @@
       <c r="G335" s="9">
         <v>5600</v>
       </c>
-      <c r="H335" s="9">
-        <v>20000001</v>
+      <c r="H335" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -15164,8 +15227,8 @@
       <c r="G336" s="9">
         <v>5900</v>
       </c>
-      <c r="H336" s="9">
-        <v>20000002</v>
+      <c r="H336" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -15205,8 +15268,8 @@
       <c r="G337" s="9">
         <v>6200</v>
       </c>
-      <c r="H337" s="9">
-        <v>20000003</v>
+      <c r="H337" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$337</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -22,6 +22,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
+    <author>48203541@qq.com</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -310,12 +311,144 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+命中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+闪避</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻速提升</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+真实伤害</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>id</t>
   </si>
@@ -354,6 +487,27 @@
   </si>
   <si>
     <t>hit_resource</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>dod</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>cri_dam</t>
+  </si>
+  <si>
+    <t>speed_up</t>
+  </si>
+  <si>
+    <t>real_dam</t>
+  </si>
+  <si>
+    <t>20000001,</t>
   </si>
   <si>
     <t>10000001,</t>
@@ -401,9 +555,6 @@
     <t>10000015,</t>
   </si>
   <si>
-    <t>20000001,</t>
-  </si>
-  <si>
     <t>20000002,</t>
   </si>
   <si>
@@ -424,10 +575,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -439,14 +590,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,66 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -552,9 +718,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,27 +727,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,7 +754,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,55 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,19 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,37 +916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,15 +959,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,32 +996,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,13 +1022,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +1080,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="H337" sqref="H337"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1453,7 +1610,7 @@
     <col min="13" max="13" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1650,26 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>10001001</v>
       </c>
@@ -1517,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1534,8 +1709,26 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>500</v>
+      </c>
+      <c r="O2">
+        <v>250</v>
+      </c>
+      <c r="P2">
+        <v>5000</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>10001002</v>
       </c>
@@ -1558,7 +1751,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1575,8 +1768,26 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>250</v>
+      </c>
+      <c r="P3">
+        <v>5000</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>1000</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>10001003</v>
       </c>
@@ -1599,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1616,8 +1827,26 @@
       <c r="M4">
         <v>30002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>500</v>
+      </c>
+      <c r="O4">
+        <v>250</v>
+      </c>
+      <c r="P4">
+        <v>5000</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>1000</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>10001004</v>
       </c>
@@ -1640,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1657,8 +1886,26 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>500</v>
+      </c>
+      <c r="O5">
+        <v>250</v>
+      </c>
+      <c r="P5">
+        <v>5000</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>1000</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>10001005</v>
       </c>
@@ -1681,7 +1928,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1698,8 +1945,26 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>500</v>
+      </c>
+      <c r="O6">
+        <v>250</v>
+      </c>
+      <c r="P6">
+        <v>5000</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>1000</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>10001006</v>
       </c>
@@ -1722,7 +1987,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -1739,8 +2004,26 @@
       <c r="M7">
         <v>30002</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>500</v>
+      </c>
+      <c r="O7">
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <v>5000</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>10001007</v>
       </c>
@@ -1780,8 +2063,26 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>500</v>
+      </c>
+      <c r="O8">
+        <v>250</v>
+      </c>
+      <c r="P8">
+        <v>5000</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>10001008</v>
       </c>
@@ -1804,7 +2105,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1821,8 +2122,26 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>500</v>
+      </c>
+      <c r="O9">
+        <v>250</v>
+      </c>
+      <c r="P9">
+        <v>5000</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>1000</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>10001009</v>
       </c>
@@ -1845,7 +2164,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1862,8 +2181,26 @@
       <c r="M10">
         <v>30002</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="O10">
+        <v>250</v>
+      </c>
+      <c r="P10">
+        <v>5000</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>1000</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>10001010</v>
       </c>
@@ -1886,7 +2223,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1903,8 +2240,26 @@
       <c r="M11">
         <v>30002</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>500</v>
+      </c>
+      <c r="O11">
+        <v>250</v>
+      </c>
+      <c r="P11">
+        <v>5000</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>1000</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>10001011</v>
       </c>
@@ -1927,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1944,8 +2299,26 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>500</v>
+      </c>
+      <c r="O12">
+        <v>250</v>
+      </c>
+      <c r="P12">
+        <v>5000</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>1000</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>10001012</v>
       </c>
@@ -1968,7 +2341,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1985,8 +2358,26 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>500</v>
+      </c>
+      <c r="O13">
+        <v>250</v>
+      </c>
+      <c r="P13">
+        <v>5000</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>1000</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>10001013</v>
       </c>
@@ -2009,7 +2400,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2026,8 +2417,26 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>500</v>
+      </c>
+      <c r="O14">
+        <v>250</v>
+      </c>
+      <c r="P14">
+        <v>5000</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>1000</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>10001014</v>
       </c>
@@ -2050,7 +2459,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2067,8 +2476,26 @@
       <c r="M15">
         <v>30002</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>500</v>
+      </c>
+      <c r="O15">
+        <v>250</v>
+      </c>
+      <c r="P15">
+        <v>5000</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>1000</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>10001015</v>
       </c>
@@ -2091,7 +2518,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2108,8 +2535,26 @@
       <c r="M16">
         <v>30002</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="N16">
+        <v>500</v>
+      </c>
+      <c r="O16">
+        <v>250</v>
+      </c>
+      <c r="P16">
+        <v>5000</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>1000</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:19">
       <c r="A17" s="4">
         <v>10002001</v>
       </c>
@@ -2132,7 +2577,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2149,8 +2594,26 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+      <c r="N17">
+        <v>500</v>
+      </c>
+      <c r="O17">
+        <v>250</v>
+      </c>
+      <c r="P17">
+        <v>5000</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:19">
       <c r="A18" s="4">
         <v>10002002</v>
       </c>
@@ -2173,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2190,8 +2653,26 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:13">
+      <c r="N18">
+        <v>500</v>
+      </c>
+      <c r="O18">
+        <v>250</v>
+      </c>
+      <c r="P18">
+        <v>5000</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:19">
       <c r="A19" s="4">
         <v>10002003</v>
       </c>
@@ -2214,7 +2695,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2231,8 +2712,26 @@
       <c r="M19" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:13">
+      <c r="N19">
+        <v>500</v>
+      </c>
+      <c r="O19">
+        <v>250</v>
+      </c>
+      <c r="P19">
+        <v>5000</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>1000</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:19">
       <c r="A20" s="4">
         <v>10002004</v>
       </c>
@@ -2255,7 +2754,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2272,8 +2771,26 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:13">
+      <c r="N20">
+        <v>500</v>
+      </c>
+      <c r="O20">
+        <v>250</v>
+      </c>
+      <c r="P20">
+        <v>5000</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>1000</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:19">
       <c r="A21" s="4">
         <v>10002005</v>
       </c>
@@ -2296,7 +2813,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2313,8 +2830,26 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:13">
+      <c r="N21">
+        <v>500</v>
+      </c>
+      <c r="O21">
+        <v>250</v>
+      </c>
+      <c r="P21">
+        <v>5000</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>1000</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:19">
       <c r="A22" s="4">
         <v>10002006</v>
       </c>
@@ -2337,7 +2872,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2354,8 +2889,26 @@
       <c r="M22" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:13">
+      <c r="N22">
+        <v>500</v>
+      </c>
+      <c r="O22">
+        <v>250</v>
+      </c>
+      <c r="P22">
+        <v>5000</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>1000</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:19">
       <c r="A23" s="4">
         <v>10002007</v>
       </c>
@@ -2378,7 +2931,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2395,8 +2948,26 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:13">
+      <c r="N23">
+        <v>500</v>
+      </c>
+      <c r="O23">
+        <v>250</v>
+      </c>
+      <c r="P23">
+        <v>5000</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>1000</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:19">
       <c r="A24" s="4">
         <v>10002008</v>
       </c>
@@ -2419,7 +2990,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2436,8 +3007,26 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:13">
+      <c r="N24">
+        <v>500</v>
+      </c>
+      <c r="O24">
+        <v>250</v>
+      </c>
+      <c r="P24">
+        <v>5000</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>1000</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:19">
       <c r="A25" s="4">
         <v>10002009</v>
       </c>
@@ -2460,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2477,8 +3066,26 @@
       <c r="M25" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:13">
+      <c r="N25">
+        <v>500</v>
+      </c>
+      <c r="O25">
+        <v>250</v>
+      </c>
+      <c r="P25">
+        <v>5000</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>1000</v>
+      </c>
+      <c r="S25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:19">
       <c r="A26" s="4">
         <v>10002010</v>
       </c>
@@ -2501,7 +3108,7 @@
         <v>55</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -2518,8 +3125,26 @@
       <c r="M26" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:13">
+      <c r="N26">
+        <v>500</v>
+      </c>
+      <c r="O26">
+        <v>250</v>
+      </c>
+      <c r="P26">
+        <v>5000</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>1000</v>
+      </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:19">
       <c r="A27" s="4">
         <v>10002011</v>
       </c>
@@ -2542,7 +3167,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2559,8 +3184,26 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:13">
+      <c r="N27">
+        <v>500</v>
+      </c>
+      <c r="O27">
+        <v>250</v>
+      </c>
+      <c r="P27">
+        <v>5000</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>1000</v>
+      </c>
+      <c r="S27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:19">
       <c r="A28" s="4">
         <v>10002012</v>
       </c>
@@ -2583,7 +3226,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2600,8 +3243,26 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:13">
+      <c r="N28">
+        <v>500</v>
+      </c>
+      <c r="O28">
+        <v>250</v>
+      </c>
+      <c r="P28">
+        <v>5000</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>1000</v>
+      </c>
+      <c r="S28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:19">
       <c r="A29" s="4">
         <v>10002013</v>
       </c>
@@ -2624,7 +3285,7 @@
         <v>55</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2641,8 +3302,26 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:13">
+      <c r="N29">
+        <v>500</v>
+      </c>
+      <c r="O29">
+        <v>250</v>
+      </c>
+      <c r="P29">
+        <v>5000</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>1000</v>
+      </c>
+      <c r="S29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:19">
       <c r="A30" s="4">
         <v>10002014</v>
       </c>
@@ -2665,7 +3344,7 @@
         <v>55</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2682,8 +3361,26 @@
       <c r="M30" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:13">
+      <c r="N30">
+        <v>500</v>
+      </c>
+      <c r="O30">
+        <v>250</v>
+      </c>
+      <c r="P30">
+        <v>5000</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>1000</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:19">
       <c r="A31" s="4">
         <v>10002015</v>
       </c>
@@ -2706,7 +3403,7 @@
         <v>55</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -2723,8 +3420,26 @@
       <c r="M31" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>500</v>
+      </c>
+      <c r="O31">
+        <v>250</v>
+      </c>
+      <c r="P31">
+        <v>5000</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>1000</v>
+      </c>
+      <c r="S31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5">
         <v>10003001</v>
       </c>
@@ -2747,7 +3462,7 @@
         <v>70</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -2764,8 +3479,26 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>500</v>
+      </c>
+      <c r="O32">
+        <v>250</v>
+      </c>
+      <c r="P32">
+        <v>5000</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>1000</v>
+      </c>
+      <c r="S32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5">
         <v>10003002</v>
       </c>
@@ -2788,7 +3521,7 @@
         <v>70</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2804,6 +3537,24 @@
       </c>
       <c r="M33">
         <v>0</v>
+      </c>
+      <c r="N33">
+        <v>500</v>
+      </c>
+      <c r="O33">
+        <v>250</v>
+      </c>
+      <c r="P33">
+        <v>5000</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>1000</v>
+      </c>
+      <c r="S33">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2829,7 +3580,7 @@
         <v>70</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2846,12 +3597,24 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
+      <c r="N34">
+        <v>500</v>
+      </c>
+      <c r="O34">
+        <v>250</v>
+      </c>
+      <c r="P34">
+        <v>5000</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>1000</v>
+      </c>
+      <c r="S34">
+        <v>100</v>
+      </c>
       <c r="T34" s="7"/>
       <c r="W34" s="7"/>
     </row>
@@ -2878,7 +3641,7 @@
         <v>70</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2895,17 +3658,29 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
+      <c r="N35">
+        <v>500</v>
+      </c>
+      <c r="O35">
+        <v>250</v>
+      </c>
+      <c r="P35">
+        <v>5000</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>1000</v>
+      </c>
+      <c r="S35">
+        <v>100</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="5">
         <v>10003005</v>
       </c>
@@ -2928,7 +3703,7 @@
         <v>70</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2945,8 +3720,26 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>500</v>
+      </c>
+      <c r="O36">
+        <v>250</v>
+      </c>
+      <c r="P36">
+        <v>5000</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <v>1000</v>
+      </c>
+      <c r="S36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5">
         <v>10003006</v>
       </c>
@@ -2969,7 +3762,7 @@
         <v>70</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -2986,8 +3779,26 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37">
+        <v>500</v>
+      </c>
+      <c r="O37">
+        <v>250</v>
+      </c>
+      <c r="P37">
+        <v>5000</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>1000</v>
+      </c>
+      <c r="S37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="5">
         <v>10003007</v>
       </c>
@@ -3010,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3027,8 +3838,26 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>500</v>
+      </c>
+      <c r="O38">
+        <v>250</v>
+      </c>
+      <c r="P38">
+        <v>5000</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>1000</v>
+      </c>
+      <c r="S38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="5">
         <v>10003008</v>
       </c>
@@ -3051,7 +3880,7 @@
         <v>70</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3068,8 +3897,26 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>500</v>
+      </c>
+      <c r="O39">
+        <v>250</v>
+      </c>
+      <c r="P39">
+        <v>5000</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>1000</v>
+      </c>
+      <c r="S39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="5">
         <v>10003009</v>
       </c>
@@ -3092,7 +3939,7 @@
         <v>70</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3109,8 +3956,26 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>500</v>
+      </c>
+      <c r="O40">
+        <v>250</v>
+      </c>
+      <c r="P40">
+        <v>5000</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>1000</v>
+      </c>
+      <c r="S40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="5">
         <v>10003010</v>
       </c>
@@ -3133,7 +3998,7 @@
         <v>70</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3150,8 +4015,26 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41">
+        <v>500</v>
+      </c>
+      <c r="O41">
+        <v>250</v>
+      </c>
+      <c r="P41">
+        <v>5000</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>1000</v>
+      </c>
+      <c r="S41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="5">
         <v>10003011</v>
       </c>
@@ -3174,7 +4057,7 @@
         <v>70</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -3191,8 +4074,26 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>500</v>
+      </c>
+      <c r="O42">
+        <v>250</v>
+      </c>
+      <c r="P42">
+        <v>5000</v>
+      </c>
+      <c r="Q42">
+        <v>10</v>
+      </c>
+      <c r="R42">
+        <v>1000</v>
+      </c>
+      <c r="S42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="5">
         <v>10003012</v>
       </c>
@@ -3215,7 +4116,7 @@
         <v>70</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -3232,8 +4133,26 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43">
+        <v>500</v>
+      </c>
+      <c r="O43">
+        <v>250</v>
+      </c>
+      <c r="P43">
+        <v>5000</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>1000</v>
+      </c>
+      <c r="S43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="5">
         <v>10003013</v>
       </c>
@@ -3256,7 +4175,7 @@
         <v>70</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3273,8 +4192,26 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44">
+        <v>500</v>
+      </c>
+      <c r="O44">
+        <v>250</v>
+      </c>
+      <c r="P44">
+        <v>5000</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>1000</v>
+      </c>
+      <c r="S44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="5">
         <v>10003014</v>
       </c>
@@ -3297,7 +4234,7 @@
         <v>70</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -3314,8 +4251,26 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>500</v>
+      </c>
+      <c r="O45">
+        <v>250</v>
+      </c>
+      <c r="P45">
+        <v>5000</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>1000</v>
+      </c>
+      <c r="S45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="5">
         <v>10003015</v>
       </c>
@@ -3338,7 +4293,7 @@
         <v>70</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -3355,8 +4310,26 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:13">
+      <c r="N46">
+        <v>500</v>
+      </c>
+      <c r="O46">
+        <v>250</v>
+      </c>
+      <c r="P46">
+        <v>5000</v>
+      </c>
+      <c r="Q46">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <v>1000</v>
+      </c>
+      <c r="S46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:19">
       <c r="A47" s="6">
         <v>10004001</v>
       </c>
@@ -3379,7 +4352,7 @@
         <v>85</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -3396,8 +4369,26 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:13">
+      <c r="N47">
+        <v>500</v>
+      </c>
+      <c r="O47">
+        <v>250</v>
+      </c>
+      <c r="P47">
+        <v>5000</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>1000</v>
+      </c>
+      <c r="S47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:19">
       <c r="A48" s="6">
         <v>10004002</v>
       </c>
@@ -3420,7 +4411,7 @@
         <v>85</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -3437,8 +4428,26 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:13">
+      <c r="N48">
+        <v>500</v>
+      </c>
+      <c r="O48">
+        <v>250</v>
+      </c>
+      <c r="P48">
+        <v>5000</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>1000</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:19">
       <c r="A49" s="6">
         <v>10004003</v>
       </c>
@@ -3461,7 +4470,7 @@
         <v>85</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -3478,8 +4487,26 @@
       <c r="M49" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:13">
+      <c r="N49">
+        <v>500</v>
+      </c>
+      <c r="O49">
+        <v>250</v>
+      </c>
+      <c r="P49">
+        <v>5000</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>1000</v>
+      </c>
+      <c r="S49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:19">
       <c r="A50" s="6">
         <v>10004004</v>
       </c>
@@ -3502,7 +4529,7 @@
         <v>85</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -3519,8 +4546,26 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:13">
+      <c r="N50">
+        <v>500</v>
+      </c>
+      <c r="O50">
+        <v>250</v>
+      </c>
+      <c r="P50">
+        <v>5000</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>1000</v>
+      </c>
+      <c r="S50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:19">
       <c r="A51" s="6">
         <v>10004005</v>
       </c>
@@ -3543,7 +4588,7 @@
         <v>85</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -3560,8 +4605,26 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:13">
+      <c r="N51">
+        <v>500</v>
+      </c>
+      <c r="O51">
+        <v>250</v>
+      </c>
+      <c r="P51">
+        <v>5000</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>1000</v>
+      </c>
+      <c r="S51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:19">
       <c r="A52" s="6">
         <v>10004006</v>
       </c>
@@ -3584,7 +4647,7 @@
         <v>85</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -3601,8 +4664,26 @@
       <c r="M52" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:13">
+      <c r="N52">
+        <v>500</v>
+      </c>
+      <c r="O52">
+        <v>250</v>
+      </c>
+      <c r="P52">
+        <v>5000</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>1000</v>
+      </c>
+      <c r="S52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:19">
       <c r="A53" s="6">
         <v>10004007</v>
       </c>
@@ -3625,7 +4706,7 @@
         <v>85</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -3642,8 +4723,26 @@
       <c r="M53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:13">
+      <c r="N53">
+        <v>500</v>
+      </c>
+      <c r="O53">
+        <v>250</v>
+      </c>
+      <c r="P53">
+        <v>5000</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>1000</v>
+      </c>
+      <c r="S53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:19">
       <c r="A54" s="6">
         <v>10004008</v>
       </c>
@@ -3666,7 +4765,7 @@
         <v>85</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -3683,8 +4782,26 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:13">
+      <c r="N54">
+        <v>500</v>
+      </c>
+      <c r="O54">
+        <v>250</v>
+      </c>
+      <c r="P54">
+        <v>5000</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <v>1000</v>
+      </c>
+      <c r="S54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:19">
       <c r="A55" s="6">
         <v>10004009</v>
       </c>
@@ -3707,7 +4824,7 @@
         <v>85</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -3724,8 +4841,26 @@
       <c r="M55" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:13">
+      <c r="N55">
+        <v>500</v>
+      </c>
+      <c r="O55">
+        <v>250</v>
+      </c>
+      <c r="P55">
+        <v>5000</v>
+      </c>
+      <c r="Q55">
+        <v>10</v>
+      </c>
+      <c r="R55">
+        <v>1000</v>
+      </c>
+      <c r="S55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:19">
       <c r="A56" s="6">
         <v>10004010</v>
       </c>
@@ -3748,7 +4883,7 @@
         <v>85</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -3765,8 +4900,26 @@
       <c r="M56" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:13">
+      <c r="N56">
+        <v>500</v>
+      </c>
+      <c r="O56">
+        <v>250</v>
+      </c>
+      <c r="P56">
+        <v>5000</v>
+      </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+      <c r="R56">
+        <v>1000</v>
+      </c>
+      <c r="S56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:19">
       <c r="A57" s="6">
         <v>10004011</v>
       </c>
@@ -3789,7 +4942,7 @@
         <v>85</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3806,8 +4959,26 @@
       <c r="M57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:13">
+      <c r="N57">
+        <v>500</v>
+      </c>
+      <c r="O57">
+        <v>250</v>
+      </c>
+      <c r="P57">
+        <v>5000</v>
+      </c>
+      <c r="Q57">
+        <v>10</v>
+      </c>
+      <c r="R57">
+        <v>1000</v>
+      </c>
+      <c r="S57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:19">
       <c r="A58" s="6">
         <v>10004012</v>
       </c>
@@ -3830,7 +5001,7 @@
         <v>85</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -3847,8 +5018,26 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:13">
+      <c r="N58">
+        <v>500</v>
+      </c>
+      <c r="O58">
+        <v>250</v>
+      </c>
+      <c r="P58">
+        <v>5000</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>1000</v>
+      </c>
+      <c r="S58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:19">
       <c r="A59" s="6">
         <v>10004013</v>
       </c>
@@ -3871,7 +5060,7 @@
         <v>85</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -3888,8 +5077,26 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:13">
+      <c r="N59">
+        <v>500</v>
+      </c>
+      <c r="O59">
+        <v>250</v>
+      </c>
+      <c r="P59">
+        <v>5000</v>
+      </c>
+      <c r="Q59">
+        <v>10</v>
+      </c>
+      <c r="R59">
+        <v>1000</v>
+      </c>
+      <c r="S59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:19">
       <c r="A60" s="6">
         <v>10004014</v>
       </c>
@@ -3912,7 +5119,7 @@
         <v>85</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -3929,8 +5136,26 @@
       <c r="M60" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:13">
+      <c r="N60">
+        <v>500</v>
+      </c>
+      <c r="O60">
+        <v>250</v>
+      </c>
+      <c r="P60">
+        <v>5000</v>
+      </c>
+      <c r="Q60">
+        <v>10</v>
+      </c>
+      <c r="R60">
+        <v>1000</v>
+      </c>
+      <c r="S60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:19">
       <c r="A61" s="6">
         <v>10004015</v>
       </c>
@@ -3953,7 +5178,7 @@
         <v>85</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -3970,8 +5195,26 @@
       <c r="M61" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61">
+        <v>500</v>
+      </c>
+      <c r="O61">
+        <v>250</v>
+      </c>
+      <c r="P61">
+        <v>5000</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>1000</v>
+      </c>
+      <c r="S61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="5">
         <v>10005001</v>
       </c>
@@ -3994,7 +5237,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -4011,8 +5254,26 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62">
+        <v>500</v>
+      </c>
+      <c r="O62">
+        <v>250</v>
+      </c>
+      <c r="P62">
+        <v>5000</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="R62">
+        <v>1000</v>
+      </c>
+      <c r="S62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="5">
         <v>10005002</v>
       </c>
@@ -4035,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -4052,8 +5313,26 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>500</v>
+      </c>
+      <c r="O63">
+        <v>250</v>
+      </c>
+      <c r="P63">
+        <v>5000</v>
+      </c>
+      <c r="Q63">
+        <v>10</v>
+      </c>
+      <c r="R63">
+        <v>1000</v>
+      </c>
+      <c r="S63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="5">
         <v>10005003</v>
       </c>
@@ -4076,7 +5355,7 @@
         <v>100</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -4093,8 +5372,26 @@
       <c r="M64">
         <v>30002</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>500</v>
+      </c>
+      <c r="O64">
+        <v>250</v>
+      </c>
+      <c r="P64">
+        <v>5000</v>
+      </c>
+      <c r="Q64">
+        <v>10</v>
+      </c>
+      <c r="R64">
+        <v>1000</v>
+      </c>
+      <c r="S64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="5">
         <v>10005004</v>
       </c>
@@ -4117,7 +5414,7 @@
         <v>100</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -4134,8 +5431,26 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65">
+        <v>500</v>
+      </c>
+      <c r="O65">
+        <v>250</v>
+      </c>
+      <c r="P65">
+        <v>5000</v>
+      </c>
+      <c r="Q65">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>1000</v>
+      </c>
+      <c r="S65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="5">
         <v>10005005</v>
       </c>
@@ -4158,7 +5473,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4175,8 +5490,26 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>500</v>
+      </c>
+      <c r="O66">
+        <v>250</v>
+      </c>
+      <c r="P66">
+        <v>5000</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+      <c r="R66">
+        <v>1000</v>
+      </c>
+      <c r="S66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="5">
         <v>10005006</v>
       </c>
@@ -4199,7 +5532,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -4216,8 +5549,26 @@
       <c r="M67">
         <v>30002</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>500</v>
+      </c>
+      <c r="O67">
+        <v>250</v>
+      </c>
+      <c r="P67">
+        <v>5000</v>
+      </c>
+      <c r="Q67">
+        <v>10</v>
+      </c>
+      <c r="R67">
+        <v>1000</v>
+      </c>
+      <c r="S67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="5">
         <v>10005007</v>
       </c>
@@ -4240,7 +5591,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4257,8 +5608,26 @@
       <c r="M68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>500</v>
+      </c>
+      <c r="O68">
+        <v>250</v>
+      </c>
+      <c r="P68">
+        <v>5000</v>
+      </c>
+      <c r="Q68">
+        <v>10</v>
+      </c>
+      <c r="R68">
+        <v>1000</v>
+      </c>
+      <c r="S68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="5">
         <v>10005008</v>
       </c>
@@ -4281,7 +5650,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4298,8 +5667,26 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>500</v>
+      </c>
+      <c r="O69">
+        <v>250</v>
+      </c>
+      <c r="P69">
+        <v>5000</v>
+      </c>
+      <c r="Q69">
+        <v>10</v>
+      </c>
+      <c r="R69">
+        <v>1000</v>
+      </c>
+      <c r="S69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="5">
         <v>10005009</v>
       </c>
@@ -4322,7 +5709,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4339,8 +5726,26 @@
       <c r="M70">
         <v>30002</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>500</v>
+      </c>
+      <c r="O70">
+        <v>250</v>
+      </c>
+      <c r="P70">
+        <v>5000</v>
+      </c>
+      <c r="Q70">
+        <v>10</v>
+      </c>
+      <c r="R70">
+        <v>1000</v>
+      </c>
+      <c r="S70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="5">
         <v>10005010</v>
       </c>
@@ -4363,7 +5768,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4380,8 +5785,26 @@
       <c r="M71">
         <v>30002</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>500</v>
+      </c>
+      <c r="O71">
+        <v>250</v>
+      </c>
+      <c r="P71">
+        <v>5000</v>
+      </c>
+      <c r="Q71">
+        <v>10</v>
+      </c>
+      <c r="R71">
+        <v>1000</v>
+      </c>
+      <c r="S71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="5">
         <v>10005011</v>
       </c>
@@ -4404,7 +5827,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4421,8 +5844,26 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>500</v>
+      </c>
+      <c r="O72">
+        <v>250</v>
+      </c>
+      <c r="P72">
+        <v>5000</v>
+      </c>
+      <c r="Q72">
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <v>1000</v>
+      </c>
+      <c r="S72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="5">
         <v>10005012</v>
       </c>
@@ -4445,7 +5886,7 @@
         <v>100</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4462,8 +5903,26 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73">
+        <v>500</v>
+      </c>
+      <c r="O73">
+        <v>250</v>
+      </c>
+      <c r="P73">
+        <v>5000</v>
+      </c>
+      <c r="Q73">
+        <v>10</v>
+      </c>
+      <c r="R73">
+        <v>1000</v>
+      </c>
+      <c r="S73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="5">
         <v>10005013</v>
       </c>
@@ -4486,7 +5945,7 @@
         <v>100</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4503,8 +5962,26 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74">
+        <v>500</v>
+      </c>
+      <c r="O74">
+        <v>250</v>
+      </c>
+      <c r="P74">
+        <v>5000</v>
+      </c>
+      <c r="Q74">
+        <v>10</v>
+      </c>
+      <c r="R74">
+        <v>1000</v>
+      </c>
+      <c r="S74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="5">
         <v>10005014</v>
       </c>
@@ -4527,7 +6004,7 @@
         <v>100</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4544,8 +6021,26 @@
       <c r="M75">
         <v>30002</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75">
+        <v>500</v>
+      </c>
+      <c r="O75">
+        <v>250</v>
+      </c>
+      <c r="P75">
+        <v>5000</v>
+      </c>
+      <c r="Q75">
+        <v>10</v>
+      </c>
+      <c r="R75">
+        <v>1000</v>
+      </c>
+      <c r="S75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="5">
         <v>10005015</v>
       </c>
@@ -4568,7 +6063,7 @@
         <v>100</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4585,8 +6080,26 @@
       <c r="M76">
         <v>30002</v>
       </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:13">
+      <c r="N76">
+        <v>500</v>
+      </c>
+      <c r="O76">
+        <v>250</v>
+      </c>
+      <c r="P76">
+        <v>5000</v>
+      </c>
+      <c r="Q76">
+        <v>10</v>
+      </c>
+      <c r="R76">
+        <v>1000</v>
+      </c>
+      <c r="S76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:19">
       <c r="A77" s="6">
         <v>10006001</v>
       </c>
@@ -4609,7 +6122,7 @@
         <v>115</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -4626,8 +6139,26 @@
       <c r="M77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:13">
+      <c r="N77">
+        <v>500</v>
+      </c>
+      <c r="O77">
+        <v>250</v>
+      </c>
+      <c r="P77">
+        <v>5000</v>
+      </c>
+      <c r="Q77">
+        <v>10</v>
+      </c>
+      <c r="R77">
+        <v>1000</v>
+      </c>
+      <c r="S77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:19">
       <c r="A78" s="6">
         <v>10006002</v>
       </c>
@@ -4650,7 +6181,7 @@
         <v>115</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -4667,8 +6198,26 @@
       <c r="M78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:13">
+      <c r="N78">
+        <v>500</v>
+      </c>
+      <c r="O78">
+        <v>250</v>
+      </c>
+      <c r="P78">
+        <v>5000</v>
+      </c>
+      <c r="Q78">
+        <v>10</v>
+      </c>
+      <c r="R78">
+        <v>1000</v>
+      </c>
+      <c r="S78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:19">
       <c r="A79" s="6">
         <v>10006003</v>
       </c>
@@ -4691,7 +6240,7 @@
         <v>115</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -4708,8 +6257,26 @@
       <c r="M79" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:13">
+      <c r="N79">
+        <v>500</v>
+      </c>
+      <c r="O79">
+        <v>250</v>
+      </c>
+      <c r="P79">
+        <v>5000</v>
+      </c>
+      <c r="Q79">
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>1000</v>
+      </c>
+      <c r="S79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:19">
       <c r="A80" s="6">
         <v>10006004</v>
       </c>
@@ -4732,7 +6299,7 @@
         <v>115</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -4749,8 +6316,26 @@
       <c r="M80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:13">
+      <c r="N80">
+        <v>500</v>
+      </c>
+      <c r="O80">
+        <v>250</v>
+      </c>
+      <c r="P80">
+        <v>5000</v>
+      </c>
+      <c r="Q80">
+        <v>10</v>
+      </c>
+      <c r="R80">
+        <v>1000</v>
+      </c>
+      <c r="S80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:19">
       <c r="A81" s="6">
         <v>10006005</v>
       </c>
@@ -4773,7 +6358,7 @@
         <v>115</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -4790,8 +6375,26 @@
       <c r="M81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:13">
+      <c r="N81">
+        <v>500</v>
+      </c>
+      <c r="O81">
+        <v>250</v>
+      </c>
+      <c r="P81">
+        <v>5000</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>1000</v>
+      </c>
+      <c r="S81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:19">
       <c r="A82" s="6">
         <v>10006006</v>
       </c>
@@ -4814,7 +6417,7 @@
         <v>115</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -4831,8 +6434,26 @@
       <c r="M82" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:13">
+      <c r="N82">
+        <v>500</v>
+      </c>
+      <c r="O82">
+        <v>250</v>
+      </c>
+      <c r="P82">
+        <v>5000</v>
+      </c>
+      <c r="Q82">
+        <v>10</v>
+      </c>
+      <c r="R82">
+        <v>1000</v>
+      </c>
+      <c r="S82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:19">
       <c r="A83" s="6">
         <v>10006007</v>
       </c>
@@ -4855,7 +6476,7 @@
         <v>115</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -4872,8 +6493,26 @@
       <c r="M83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:13">
+      <c r="N83">
+        <v>500</v>
+      </c>
+      <c r="O83">
+        <v>250</v>
+      </c>
+      <c r="P83">
+        <v>5000</v>
+      </c>
+      <c r="Q83">
+        <v>10</v>
+      </c>
+      <c r="R83">
+        <v>1000</v>
+      </c>
+      <c r="S83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:19">
       <c r="A84" s="6">
         <v>10006008</v>
       </c>
@@ -4896,7 +6535,7 @@
         <v>115</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -4913,8 +6552,26 @@
       <c r="M84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:13">
+      <c r="N84">
+        <v>500</v>
+      </c>
+      <c r="O84">
+        <v>250</v>
+      </c>
+      <c r="P84">
+        <v>5000</v>
+      </c>
+      <c r="Q84">
+        <v>10</v>
+      </c>
+      <c r="R84">
+        <v>1000</v>
+      </c>
+      <c r="S84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:19">
       <c r="A85" s="6">
         <v>10006009</v>
       </c>
@@ -4937,7 +6594,7 @@
         <v>115</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4954,8 +6611,26 @@
       <c r="M85" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:13">
+      <c r="N85">
+        <v>500</v>
+      </c>
+      <c r="O85">
+        <v>250</v>
+      </c>
+      <c r="P85">
+        <v>5000</v>
+      </c>
+      <c r="Q85">
+        <v>10</v>
+      </c>
+      <c r="R85">
+        <v>1000</v>
+      </c>
+      <c r="S85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:19">
       <c r="A86" s="6">
         <v>10006010</v>
       </c>
@@ -4978,7 +6653,7 @@
         <v>115</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -4995,8 +6670,26 @@
       <c r="M86" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:13">
+      <c r="N86">
+        <v>500</v>
+      </c>
+      <c r="O86">
+        <v>250</v>
+      </c>
+      <c r="P86">
+        <v>5000</v>
+      </c>
+      <c r="Q86">
+        <v>10</v>
+      </c>
+      <c r="R86">
+        <v>1000</v>
+      </c>
+      <c r="S86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:19">
       <c r="A87" s="6">
         <v>10006011</v>
       </c>
@@ -5019,7 +6712,7 @@
         <v>115</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -5036,8 +6729,26 @@
       <c r="M87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:13">
+      <c r="N87">
+        <v>500</v>
+      </c>
+      <c r="O87">
+        <v>250</v>
+      </c>
+      <c r="P87">
+        <v>5000</v>
+      </c>
+      <c r="Q87">
+        <v>10</v>
+      </c>
+      <c r="R87">
+        <v>1000</v>
+      </c>
+      <c r="S87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:19">
       <c r="A88" s="6">
         <v>10006012</v>
       </c>
@@ -5060,7 +6771,7 @@
         <v>115</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -5077,8 +6788,26 @@
       <c r="M88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:13">
+      <c r="N88">
+        <v>500</v>
+      </c>
+      <c r="O88">
+        <v>250</v>
+      </c>
+      <c r="P88">
+        <v>5000</v>
+      </c>
+      <c r="Q88">
+        <v>10</v>
+      </c>
+      <c r="R88">
+        <v>1000</v>
+      </c>
+      <c r="S88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:19">
       <c r="A89" s="6">
         <v>10006013</v>
       </c>
@@ -5101,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -5118,8 +6847,26 @@
       <c r="M89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:13">
+      <c r="N89">
+        <v>500</v>
+      </c>
+      <c r="O89">
+        <v>250</v>
+      </c>
+      <c r="P89">
+        <v>5000</v>
+      </c>
+      <c r="Q89">
+        <v>10</v>
+      </c>
+      <c r="R89">
+        <v>1000</v>
+      </c>
+      <c r="S89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:19">
       <c r="A90" s="6">
         <v>10006014</v>
       </c>
@@ -5142,7 +6889,7 @@
         <v>115</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -5159,8 +6906,26 @@
       <c r="M90" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:13">
+      <c r="N90">
+        <v>500</v>
+      </c>
+      <c r="O90">
+        <v>250</v>
+      </c>
+      <c r="P90">
+        <v>5000</v>
+      </c>
+      <c r="Q90">
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <v>1000</v>
+      </c>
+      <c r="S90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:19">
       <c r="A91" s="6">
         <v>10006015</v>
       </c>
@@ -5183,7 +6948,7 @@
         <v>115</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -5200,8 +6965,26 @@
       <c r="M91" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91">
+        <v>500</v>
+      </c>
+      <c r="O91">
+        <v>250</v>
+      </c>
+      <c r="P91">
+        <v>5000</v>
+      </c>
+      <c r="Q91">
+        <v>10</v>
+      </c>
+      <c r="R91">
+        <v>1000</v>
+      </c>
+      <c r="S91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="5">
         <v>10007001</v>
       </c>
@@ -5224,7 +7007,7 @@
         <v>130</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -5241,8 +7024,26 @@
       <c r="M92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92">
+        <v>500</v>
+      </c>
+      <c r="O92">
+        <v>250</v>
+      </c>
+      <c r="P92">
+        <v>5000</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="R92">
+        <v>1000</v>
+      </c>
+      <c r="S92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="5">
         <v>10007002</v>
       </c>
@@ -5265,7 +7066,7 @@
         <v>130</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -5282,8 +7083,26 @@
       <c r="M93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93">
+        <v>500</v>
+      </c>
+      <c r="O93">
+        <v>250</v>
+      </c>
+      <c r="P93">
+        <v>5000</v>
+      </c>
+      <c r="Q93">
+        <v>10</v>
+      </c>
+      <c r="R93">
+        <v>1000</v>
+      </c>
+      <c r="S93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="5">
         <v>10007003</v>
       </c>
@@ -5306,7 +7125,7 @@
         <v>130</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -5323,8 +7142,26 @@
       <c r="M94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>500</v>
+      </c>
+      <c r="O94">
+        <v>250</v>
+      </c>
+      <c r="P94">
+        <v>5000</v>
+      </c>
+      <c r="Q94">
+        <v>10</v>
+      </c>
+      <c r="R94">
+        <v>1000</v>
+      </c>
+      <c r="S94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="5">
         <v>10007004</v>
       </c>
@@ -5347,7 +7184,7 @@
         <v>130</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5364,8 +7201,26 @@
       <c r="M95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95">
+        <v>500</v>
+      </c>
+      <c r="O95">
+        <v>250</v>
+      </c>
+      <c r="P95">
+        <v>5000</v>
+      </c>
+      <c r="Q95">
+        <v>10</v>
+      </c>
+      <c r="R95">
+        <v>1000</v>
+      </c>
+      <c r="S95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="5">
         <v>10007005</v>
       </c>
@@ -5388,7 +7243,7 @@
         <v>130</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5405,8 +7260,26 @@
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>500</v>
+      </c>
+      <c r="O96">
+        <v>250</v>
+      </c>
+      <c r="P96">
+        <v>5000</v>
+      </c>
+      <c r="Q96">
+        <v>10</v>
+      </c>
+      <c r="R96">
+        <v>1000</v>
+      </c>
+      <c r="S96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="5">
         <v>10007006</v>
       </c>
@@ -5429,7 +7302,7 @@
         <v>130</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5446,8 +7319,26 @@
       <c r="M97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97">
+        <v>500</v>
+      </c>
+      <c r="O97">
+        <v>250</v>
+      </c>
+      <c r="P97">
+        <v>5000</v>
+      </c>
+      <c r="Q97">
+        <v>10</v>
+      </c>
+      <c r="R97">
+        <v>1000</v>
+      </c>
+      <c r="S97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="5">
         <v>10007007</v>
       </c>
@@ -5470,7 +7361,7 @@
         <v>130</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5487,8 +7378,26 @@
       <c r="M98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98">
+        <v>500</v>
+      </c>
+      <c r="O98">
+        <v>250</v>
+      </c>
+      <c r="P98">
+        <v>5000</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+      <c r="R98">
+        <v>1000</v>
+      </c>
+      <c r="S98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="5">
         <v>10007008</v>
       </c>
@@ -5511,7 +7420,7 @@
         <v>130</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5528,8 +7437,26 @@
       <c r="M99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>500</v>
+      </c>
+      <c r="O99">
+        <v>250</v>
+      </c>
+      <c r="P99">
+        <v>5000</v>
+      </c>
+      <c r="Q99">
+        <v>10</v>
+      </c>
+      <c r="R99">
+        <v>1000</v>
+      </c>
+      <c r="S99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="5">
         <v>10007009</v>
       </c>
@@ -5552,7 +7479,7 @@
         <v>130</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5569,8 +7496,26 @@
       <c r="M100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100">
+        <v>500</v>
+      </c>
+      <c r="O100">
+        <v>250</v>
+      </c>
+      <c r="P100">
+        <v>5000</v>
+      </c>
+      <c r="Q100">
+        <v>10</v>
+      </c>
+      <c r="R100">
+        <v>1000</v>
+      </c>
+      <c r="S100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="5">
         <v>10007010</v>
       </c>
@@ -5593,7 +7538,7 @@
         <v>130</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5609,6 +7554,24 @@
       </c>
       <c r="M101">
         <v>0</v>
+      </c>
+      <c r="N101">
+        <v>500</v>
+      </c>
+      <c r="O101">
+        <v>250</v>
+      </c>
+      <c r="P101">
+        <v>5000</v>
+      </c>
+      <c r="Q101">
+        <v>10</v>
+      </c>
+      <c r="R101">
+        <v>1000</v>
+      </c>
+      <c r="S101">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5634,7 +7597,7 @@
         <v>130</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5675,7 +7638,7 @@
         <v>130</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5716,7 +7679,7 @@
         <v>130</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5757,7 +7720,7 @@
         <v>130</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5798,7 +7761,7 @@
         <v>130</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5816,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" spans="1:13">
+    <row r="107" s="1" customFormat="1" spans="1:19">
       <c r="A107" s="6">
         <v>10008001</v>
       </c>
@@ -5839,7 +7802,7 @@
         <v>145</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -5856,8 +7819,14 @@
       <c r="M107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:13">
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:19">
       <c r="A108" s="6">
         <v>10008002</v>
       </c>
@@ -5880,7 +7849,7 @@
         <v>145</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -5897,8 +7866,14 @@
       <c r="M108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:13">
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:19">
       <c r="A109" s="6">
         <v>10008003</v>
       </c>
@@ -5921,7 +7896,7 @@
         <v>145</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -5938,8 +7913,14 @@
       <c r="M109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:13">
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:19">
       <c r="A110" s="6">
         <v>10008004</v>
       </c>
@@ -5962,7 +7943,7 @@
         <v>145</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -5979,8 +7960,14 @@
       <c r="M110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="1:13">
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:19">
       <c r="A111" s="6">
         <v>10008005</v>
       </c>
@@ -6003,7 +7990,7 @@
         <v>145</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6020,8 +8007,14 @@
       <c r="M111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:13">
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:19">
       <c r="A112" s="6">
         <v>10008006</v>
       </c>
@@ -6044,7 +8037,7 @@
         <v>145</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6061,8 +8054,14 @@
       <c r="M112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:13">
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:19">
       <c r="A113" s="6">
         <v>10008007</v>
       </c>
@@ -6085,7 +8084,7 @@
         <v>145</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6102,8 +8101,14 @@
       <c r="M113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="1:13">
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:19">
       <c r="A114" s="6">
         <v>10008008</v>
       </c>
@@ -6126,7 +8131,7 @@
         <v>145</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -6143,8 +8148,14 @@
       <c r="M114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:13">
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:19">
       <c r="A115" s="6">
         <v>10008009</v>
       </c>
@@ -6167,7 +8178,7 @@
         <v>145</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -6184,8 +8195,14 @@
       <c r="M115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="1:13">
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:19">
       <c r="A116" s="6">
         <v>10008010</v>
       </c>
@@ -6208,7 +8225,7 @@
         <v>145</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -6225,8 +8242,14 @@
       <c r="M116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="1:13">
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:19">
       <c r="A117" s="6">
         <v>10008011</v>
       </c>
@@ -6249,7 +8272,7 @@
         <v>145</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6266,8 +8289,14 @@
       <c r="M117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:13">
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:19">
       <c r="A118" s="6">
         <v>10008012</v>
       </c>
@@ -6290,7 +8319,7 @@
         <v>145</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6307,8 +8336,14 @@
       <c r="M118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:13">
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:19">
       <c r="A119" s="6">
         <v>10008013</v>
       </c>
@@ -6331,7 +8366,7 @@
         <v>145</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -6348,8 +8383,14 @@
       <c r="M119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:13">
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:19">
       <c r="A120" s="6">
         <v>10008014</v>
       </c>
@@ -6372,7 +8413,7 @@
         <v>145</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -6389,8 +8430,14 @@
       <c r="M120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:13">
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:19">
       <c r="A121" s="6">
         <v>10008015</v>
       </c>
@@ -6413,7 +8460,7 @@
         <v>145</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -6430,6 +8477,12 @@
       <c r="M121" s="1">
         <v>0</v>
       </c>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="5">
@@ -6454,7 +8507,7 @@
         <v>160</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -6495,7 +8548,7 @@
         <v>160</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -6536,7 +8589,7 @@
         <v>160</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -6577,7 +8630,7 @@
         <v>160</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -6618,7 +8671,7 @@
         <v>160</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -6659,7 +8712,7 @@
         <v>160</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -6700,7 +8753,7 @@
         <v>160</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -6741,7 +8794,7 @@
         <v>160</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -6782,7 +8835,7 @@
         <v>160</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -6823,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -6864,7 +8917,7 @@
         <v>160</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -6905,7 +8958,7 @@
         <v>160</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -6946,7 +8999,7 @@
         <v>160</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -6987,7 +9040,7 @@
         <v>160</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -7028,7 +9081,7 @@
         <v>160</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -7046,7 +9099,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" spans="1:13">
+    <row r="137" s="1" customFormat="1" spans="1:19">
       <c r="A137" s="6">
         <v>100010001</v>
       </c>
@@ -7069,7 +9122,7 @@
         <v>175</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -7086,8 +9139,14 @@
       <c r="M137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:13">
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:19">
       <c r="A138" s="6">
         <v>100010002</v>
       </c>
@@ -7110,7 +9169,7 @@
         <v>175</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -7127,8 +9186,14 @@
       <c r="M138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:13">
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:19">
       <c r="A139" s="6">
         <v>100010003</v>
       </c>
@@ -7151,7 +9216,7 @@
         <v>175</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -7168,8 +9233,14 @@
       <c r="M139" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:13">
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:19">
       <c r="A140" s="6">
         <v>100010004</v>
       </c>
@@ -7192,7 +9263,7 @@
         <v>175</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -7209,8 +9280,14 @@
       <c r="M140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:13">
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:19">
       <c r="A141" s="6">
         <v>100010005</v>
       </c>
@@ -7233,7 +9310,7 @@
         <v>175</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -7250,8 +9327,14 @@
       <c r="M141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:13">
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:19">
       <c r="A142" s="6">
         <v>100010006</v>
       </c>
@@ -7274,7 +9357,7 @@
         <v>175</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -7291,8 +9374,14 @@
       <c r="M142" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:13">
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:19">
       <c r="A143" s="6">
         <v>100010007</v>
       </c>
@@ -7315,7 +9404,7 @@
         <v>175</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -7332,8 +9421,14 @@
       <c r="M143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:13">
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:19">
       <c r="A144" s="6">
         <v>100010008</v>
       </c>
@@ -7356,7 +9451,7 @@
         <v>175</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -7373,8 +9468,14 @@
       <c r="M144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:13">
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:19">
       <c r="A145" s="6">
         <v>100010009</v>
       </c>
@@ -7397,7 +9498,7 @@
         <v>175</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -7414,8 +9515,14 @@
       <c r="M145" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:13">
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:19">
       <c r="A146" s="6">
         <v>100010010</v>
       </c>
@@ -7438,7 +9545,7 @@
         <v>175</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -7455,8 +9562,14 @@
       <c r="M146" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:13">
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:19">
       <c r="A147" s="6">
         <v>100010011</v>
       </c>
@@ -7479,7 +9592,7 @@
         <v>175</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -7496,8 +9609,14 @@
       <c r="M147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:13">
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:19">
       <c r="A148" s="6">
         <v>100010012</v>
       </c>
@@ -7520,7 +9639,7 @@
         <v>175</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -7537,8 +9656,14 @@
       <c r="M148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:13">
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:19">
       <c r="A149" s="6">
         <v>100010013</v>
       </c>
@@ -7561,7 +9686,7 @@
         <v>175</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -7578,8 +9703,14 @@
       <c r="M149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:13">
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:19">
       <c r="A150" s="6">
         <v>100010014</v>
       </c>
@@ -7602,7 +9733,7 @@
         <v>175</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -7619,8 +9750,14 @@
       <c r="M150" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:13">
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:19">
       <c r="A151" s="6">
         <v>100010015</v>
       </c>
@@ -7643,7 +9780,7 @@
         <v>175</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -7660,6 +9797,12 @@
       <c r="M151" s="1">
         <v>30006</v>
       </c>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="5">
@@ -7684,7 +9827,7 @@
         <v>190</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -7725,7 +9868,7 @@
         <v>190</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -7766,7 +9909,7 @@
         <v>190</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -7807,7 +9950,7 @@
         <v>190</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -7848,7 +9991,7 @@
         <v>190</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -7889,7 +10032,7 @@
         <v>190</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -7930,7 +10073,7 @@
         <v>190</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -7971,7 +10114,7 @@
         <v>190</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -8012,7 +10155,7 @@
         <v>190</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -8053,7 +10196,7 @@
         <v>190</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -8094,7 +10237,7 @@
         <v>190</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -8135,7 +10278,7 @@
         <v>190</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -8176,7 +10319,7 @@
         <v>190</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -8217,7 +10360,7 @@
         <v>190</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -8258,7 +10401,7 @@
         <v>190</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -8276,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" spans="1:13">
+    <row r="167" s="1" customFormat="1" spans="1:19">
       <c r="A167" s="6">
         <v>100012001</v>
       </c>
@@ -8299,7 +10442,7 @@
         <v>205</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I167" s="6">
         <v>1</v>
@@ -8316,8 +10459,14 @@
       <c r="M167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" s="1" customFormat="1" spans="1:13">
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+      <c r="S167"/>
+    </row>
+    <row r="168" s="1" customFormat="1" spans="1:19">
       <c r="A168" s="6">
         <v>100012002</v>
       </c>
@@ -8340,7 +10489,7 @@
         <v>205</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -8357,8 +10506,14 @@
       <c r="M168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" s="1" customFormat="1" spans="1:13">
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+      <c r="S168"/>
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:19">
       <c r="A169" s="6">
         <v>100012003</v>
       </c>
@@ -8381,7 +10536,7 @@
         <v>205</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -8398,8 +10553,14 @@
       <c r="M169" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="170" s="1" customFormat="1" spans="1:13">
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+      <c r="S169"/>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:19">
       <c r="A170" s="6">
         <v>100012004</v>
       </c>
@@ -8422,7 +10583,7 @@
         <v>205</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -8439,8 +10600,14 @@
       <c r="M170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" s="1" customFormat="1" spans="1:13">
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+      <c r="S170"/>
+    </row>
+    <row r="171" s="1" customFormat="1" spans="1:19">
       <c r="A171" s="6">
         <v>100012005</v>
       </c>
@@ -8463,7 +10630,7 @@
         <v>205</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -8480,8 +10647,14 @@
       <c r="M171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" s="1" customFormat="1" spans="1:13">
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+      <c r="S171"/>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:19">
       <c r="A172" s="6">
         <v>100012006</v>
       </c>
@@ -8504,7 +10677,7 @@
         <v>205</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -8521,8 +10694,14 @@
       <c r="M172" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="173" s="1" customFormat="1" spans="1:13">
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+      <c r="S172"/>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="1:19">
       <c r="A173" s="6">
         <v>100012007</v>
       </c>
@@ -8545,7 +10724,7 @@
         <v>205</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -8562,8 +10741,14 @@
       <c r="M173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" s="1" customFormat="1" spans="1:13">
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173"/>
+      <c r="R173"/>
+      <c r="S173"/>
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:19">
       <c r="A174" s="6">
         <v>100012008</v>
       </c>
@@ -8586,7 +10771,7 @@
         <v>205</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -8603,8 +10788,14 @@
       <c r="M174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" s="1" customFormat="1" spans="1:13">
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174"/>
+      <c r="R174"/>
+      <c r="S174"/>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:19">
       <c r="A175" s="6">
         <v>100012009</v>
       </c>
@@ -8627,7 +10818,7 @@
         <v>205</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -8644,8 +10835,14 @@
       <c r="M175" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="176" s="1" customFormat="1" spans="1:13">
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175"/>
+      <c r="R175"/>
+      <c r="S175"/>
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:19">
       <c r="A176" s="6">
         <v>100012010</v>
       </c>
@@ -8668,7 +10865,7 @@
         <v>205</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -8685,8 +10882,14 @@
       <c r="M176" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="177" s="1" customFormat="1" spans="1:13">
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+      <c r="S176"/>
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:19">
       <c r="A177" s="6">
         <v>100012011</v>
       </c>
@@ -8709,7 +10912,7 @@
         <v>205</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -8726,8 +10929,14 @@
       <c r="M177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" s="1" customFormat="1" spans="1:13">
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:19">
       <c r="A178" s="6">
         <v>100012012</v>
       </c>
@@ -8750,7 +10959,7 @@
         <v>205</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -8767,8 +10976,14 @@
       <c r="M178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" s="1" customFormat="1" spans="1:13">
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:19">
       <c r="A179" s="6">
         <v>100012013</v>
       </c>
@@ -8791,7 +11006,7 @@
         <v>205</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -8808,8 +11023,14 @@
       <c r="M179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" s="1" customFormat="1" spans="1:13">
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:19">
       <c r="A180" s="6">
         <v>100012014</v>
       </c>
@@ -8832,7 +11053,7 @@
         <v>205</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -8849,8 +11070,14 @@
       <c r="M180" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="181" s="1" customFormat="1" spans="1:13">
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+      <c r="Q180"/>
+      <c r="R180"/>
+      <c r="S180"/>
+    </row>
+    <row r="181" s="1" customFormat="1" spans="1:19">
       <c r="A181" s="6">
         <v>100012015</v>
       </c>
@@ -8873,7 +11100,7 @@
         <v>205</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -8890,6 +11117,12 @@
       <c r="M181" s="1">
         <v>30002</v>
       </c>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+      <c r="Q181"/>
+      <c r="R181"/>
+      <c r="S181"/>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="5">
@@ -8914,7 +11147,7 @@
         <v>220</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
@@ -8955,7 +11188,7 @@
         <v>220</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -8996,7 +11229,7 @@
         <v>220</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9037,7 +11270,7 @@
         <v>220</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -9078,7 +11311,7 @@
         <v>220</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -9119,7 +11352,7 @@
         <v>220</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -9160,7 +11393,7 @@
         <v>220</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -9201,7 +11434,7 @@
         <v>220</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -9242,7 +11475,7 @@
         <v>220</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -9283,7 +11516,7 @@
         <v>220</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -9324,7 +11557,7 @@
         <v>220</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -9365,7 +11598,7 @@
         <v>220</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -9406,7 +11639,7 @@
         <v>220</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -9447,7 +11680,7 @@
         <v>220</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -9488,7 +11721,7 @@
         <v>220</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -9506,7 +11739,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" spans="1:13">
+    <row r="197" s="1" customFormat="1" spans="1:19">
       <c r="A197" s="6">
         <v>100014001</v>
       </c>
@@ -9529,7 +11762,7 @@
         <v>235</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I197" s="6">
         <v>1</v>
@@ -9546,8 +11779,14 @@
       <c r="M197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" s="1" customFormat="1" spans="1:13">
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+      <c r="Q197"/>
+      <c r="R197"/>
+      <c r="S197"/>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:19">
       <c r="A198" s="6">
         <v>100014002</v>
       </c>
@@ -9570,7 +11809,7 @@
         <v>235</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -9587,8 +11826,14 @@
       <c r="M198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" s="1" customFormat="1" spans="1:13">
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+      <c r="Q198"/>
+      <c r="R198"/>
+      <c r="S198"/>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:19">
       <c r="A199" s="6">
         <v>100014003</v>
       </c>
@@ -9611,7 +11856,7 @@
         <v>235</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -9628,8 +11873,14 @@
       <c r="M199" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="200" s="1" customFormat="1" spans="1:13">
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:19">
       <c r="A200" s="6">
         <v>100014004</v>
       </c>
@@ -9652,7 +11903,7 @@
         <v>235</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -9669,8 +11920,14 @@
       <c r="M200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" s="1" customFormat="1" spans="1:13">
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:19">
       <c r="A201" s="6">
         <v>100014005</v>
       </c>
@@ -9693,7 +11950,7 @@
         <v>235</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -9710,8 +11967,14 @@
       <c r="M201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" s="1" customFormat="1" spans="1:13">
+      <c r="N201"/>
+      <c r="O201"/>
+      <c r="P201"/>
+      <c r="Q201"/>
+      <c r="R201"/>
+      <c r="S201"/>
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:19">
       <c r="A202" s="6">
         <v>100014006</v>
       </c>
@@ -9734,7 +11997,7 @@
         <v>235</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -9751,8 +12014,14 @@
       <c r="M202" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="203" s="1" customFormat="1" spans="1:13">
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202"/>
+      <c r="Q202"/>
+      <c r="R202"/>
+      <c r="S202"/>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:19">
       <c r="A203" s="6">
         <v>100014007</v>
       </c>
@@ -9775,7 +12044,7 @@
         <v>235</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -9792,8 +12061,14 @@
       <c r="M203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" s="1" customFormat="1" spans="1:13">
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203"/>
+      <c r="Q203"/>
+      <c r="R203"/>
+      <c r="S203"/>
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:19">
       <c r="A204" s="6">
         <v>100014008</v>
       </c>
@@ -9816,7 +12091,7 @@
         <v>235</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9833,8 +12108,14 @@
       <c r="M204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" s="1" customFormat="1" spans="1:13">
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+      <c r="Q204"/>
+      <c r="R204"/>
+      <c r="S204"/>
+    </row>
+    <row r="205" s="1" customFormat="1" spans="1:19">
       <c r="A205" s="6">
         <v>100014009</v>
       </c>
@@ -9857,7 +12138,7 @@
         <v>235</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -9874,8 +12155,14 @@
       <c r="M205" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="206" s="1" customFormat="1" spans="1:13">
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+      <c r="Q205"/>
+      <c r="R205"/>
+      <c r="S205"/>
+    </row>
+    <row r="206" s="1" customFormat="1" spans="1:19">
       <c r="A206" s="6">
         <v>100014010</v>
       </c>
@@ -9898,7 +12185,7 @@
         <v>235</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -9915,8 +12202,14 @@
       <c r="M206" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="207" s="1" customFormat="1" spans="1:13">
+      <c r="N206"/>
+      <c r="O206"/>
+      <c r="P206"/>
+      <c r="Q206"/>
+      <c r="R206"/>
+      <c r="S206"/>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="1:19">
       <c r="A207" s="6">
         <v>100014011</v>
       </c>
@@ -9939,7 +12232,7 @@
         <v>235</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -9956,8 +12249,14 @@
       <c r="M207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" s="1" customFormat="1" spans="1:13">
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+      <c r="Q207"/>
+      <c r="R207"/>
+      <c r="S207"/>
+    </row>
+    <row r="208" s="1" customFormat="1" spans="1:19">
       <c r="A208" s="6">
         <v>100014012</v>
       </c>
@@ -9980,7 +12279,7 @@
         <v>235</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -9997,8 +12296,14 @@
       <c r="M208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" s="1" customFormat="1" spans="1:13">
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+    </row>
+    <row r="209" s="1" customFormat="1" spans="1:19">
       <c r="A209" s="6">
         <v>100014013</v>
       </c>
@@ -10021,7 +12326,7 @@
         <v>235</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -10038,8 +12343,14 @@
       <c r="M209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" s="1" customFormat="1" spans="1:13">
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:19">
       <c r="A210" s="6">
         <v>100014014</v>
       </c>
@@ -10062,7 +12373,7 @@
         <v>235</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -10079,8 +12390,14 @@
       <c r="M210" s="1">
         <v>30006</v>
       </c>
-    </row>
-    <row r="211" s="1" customFormat="1" spans="1:13">
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="R210"/>
+      <c r="S210"/>
+    </row>
+    <row r="211" s="1" customFormat="1" spans="1:19">
       <c r="A211" s="6">
         <v>100014015</v>
       </c>
@@ -10103,7 +12420,7 @@
         <v>235</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -10120,6 +12437,12 @@
       <c r="M211" s="1">
         <v>30006</v>
       </c>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="5">
@@ -10144,7 +12467,7 @@
         <v>250</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -10185,7 +12508,7 @@
         <v>250</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -10226,7 +12549,7 @@
         <v>250</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -10267,7 +12590,7 @@
         <v>250</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -10308,7 +12631,7 @@
         <v>250</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -10349,7 +12672,7 @@
         <v>250</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -10390,7 +12713,7 @@
         <v>250</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -10431,7 +12754,7 @@
         <v>250</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -10472,7 +12795,7 @@
         <v>250</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -10513,7 +12836,7 @@
         <v>250</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -10554,7 +12877,7 @@
         <v>250</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -10595,7 +12918,7 @@
         <v>250</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -10636,7 +12959,7 @@
         <v>250</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -10677,7 +13000,7 @@
         <v>250</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -10718,7 +13041,7 @@
         <v>250</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -10736,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" spans="1:13">
+    <row r="227" s="1" customFormat="1" spans="1:19">
       <c r="A227" s="6">
         <v>100016001</v>
       </c>
@@ -10759,7 +13082,7 @@
         <v>265</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
@@ -10776,8 +13099,14 @@
       <c r="M227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" s="1" customFormat="1" spans="1:13">
+      <c r="N227"/>
+      <c r="O227"/>
+      <c r="P227"/>
+      <c r="Q227"/>
+      <c r="R227"/>
+      <c r="S227"/>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:19">
       <c r="A228" s="6">
         <v>100016002</v>
       </c>
@@ -10800,7 +13129,7 @@
         <v>265</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -10817,8 +13146,14 @@
       <c r="M228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" s="1" customFormat="1" spans="1:13">
+      <c r="N228"/>
+      <c r="O228"/>
+      <c r="P228"/>
+      <c r="Q228"/>
+      <c r="R228"/>
+      <c r="S228"/>
+    </row>
+    <row r="229" s="1" customFormat="1" spans="1:19">
       <c r="A229" s="6">
         <v>100016003</v>
       </c>
@@ -10841,7 +13176,7 @@
         <v>265</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -10858,8 +13193,14 @@
       <c r="M229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" s="1" customFormat="1" spans="1:13">
+      <c r="N229"/>
+      <c r="O229"/>
+      <c r="P229"/>
+      <c r="Q229"/>
+      <c r="R229"/>
+      <c r="S229"/>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:19">
       <c r="A230" s="6">
         <v>100016004</v>
       </c>
@@ -10882,7 +13223,7 @@
         <v>265</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -10899,8 +13240,14 @@
       <c r="M230" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" s="1" customFormat="1" spans="1:13">
+      <c r="N230"/>
+      <c r="O230"/>
+      <c r="P230"/>
+      <c r="Q230"/>
+      <c r="R230"/>
+      <c r="S230"/>
+    </row>
+    <row r="231" s="1" customFormat="1" spans="1:19">
       <c r="A231" s="6">
         <v>100016005</v>
       </c>
@@ -10923,7 +13270,7 @@
         <v>265</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -10940,8 +13287,14 @@
       <c r="M231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" s="1" customFormat="1" spans="1:13">
+      <c r="N231"/>
+      <c r="O231"/>
+      <c r="P231"/>
+      <c r="Q231"/>
+      <c r="R231"/>
+      <c r="S231"/>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:19">
       <c r="A232" s="6">
         <v>100016006</v>
       </c>
@@ -10964,7 +13317,7 @@
         <v>265</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -10981,8 +13334,14 @@
       <c r="M232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" s="1" customFormat="1" spans="1:13">
+      <c r="N232"/>
+      <c r="O232"/>
+      <c r="P232"/>
+      <c r="Q232"/>
+      <c r="R232"/>
+      <c r="S232"/>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:19">
       <c r="A233" s="6">
         <v>100016007</v>
       </c>
@@ -11005,7 +13364,7 @@
         <v>265</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -11022,8 +13381,14 @@
       <c r="M233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" s="1" customFormat="1" spans="1:13">
+      <c r="N233"/>
+      <c r="O233"/>
+      <c r="P233"/>
+      <c r="Q233"/>
+      <c r="R233"/>
+      <c r="S233"/>
+    </row>
+    <row r="234" s="1" customFormat="1" spans="1:19">
       <c r="A234" s="6">
         <v>100016008</v>
       </c>
@@ -11046,7 +13411,7 @@
         <v>265</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -11063,8 +13428,14 @@
       <c r="M234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" s="1" customFormat="1" spans="1:13">
+      <c r="N234"/>
+      <c r="O234"/>
+      <c r="P234"/>
+      <c r="Q234"/>
+      <c r="R234"/>
+      <c r="S234"/>
+    </row>
+    <row r="235" s="1" customFormat="1" spans="1:19">
       <c r="A235" s="6">
         <v>100016009</v>
       </c>
@@ -11087,7 +13458,7 @@
         <v>265</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -11104,8 +13475,14 @@
       <c r="M235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" s="1" customFormat="1" spans="1:13">
+      <c r="N235"/>
+      <c r="O235"/>
+      <c r="P235"/>
+      <c r="Q235"/>
+      <c r="R235"/>
+      <c r="S235"/>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:19">
       <c r="A236" s="6">
         <v>100016010</v>
       </c>
@@ -11128,7 +13505,7 @@
         <v>265</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -11145,8 +13522,14 @@
       <c r="M236" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" s="1" customFormat="1" spans="1:13">
+      <c r="N236"/>
+      <c r="O236"/>
+      <c r="P236"/>
+      <c r="Q236"/>
+      <c r="R236"/>
+      <c r="S236"/>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:19">
       <c r="A237" s="6">
         <v>100016011</v>
       </c>
@@ -11169,7 +13552,7 @@
         <v>265</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -11186,8 +13569,14 @@
       <c r="M237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" s="1" customFormat="1" spans="1:13">
+      <c r="N237"/>
+      <c r="O237"/>
+      <c r="P237"/>
+      <c r="Q237"/>
+      <c r="R237"/>
+      <c r="S237"/>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:19">
       <c r="A238" s="6">
         <v>100016012</v>
       </c>
@@ -11210,7 +13599,7 @@
         <v>265</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -11227,8 +13616,14 @@
       <c r="M238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" s="1" customFormat="1" spans="1:13">
+      <c r="N238"/>
+      <c r="O238"/>
+      <c r="P238"/>
+      <c r="Q238"/>
+      <c r="R238"/>
+      <c r="S238"/>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:19">
       <c r="A239" s="6">
         <v>100016013</v>
       </c>
@@ -11251,7 +13646,7 @@
         <v>265</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -11268,8 +13663,14 @@
       <c r="M239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" s="1" customFormat="1" spans="1:13">
+      <c r="N239"/>
+      <c r="O239"/>
+      <c r="P239"/>
+      <c r="Q239"/>
+      <c r="R239"/>
+      <c r="S239"/>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:19">
       <c r="A240" s="6">
         <v>100016014</v>
       </c>
@@ -11292,7 +13693,7 @@
         <v>265</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -11309,8 +13710,14 @@
       <c r="M240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" s="1" customFormat="1" spans="1:13">
+      <c r="N240"/>
+      <c r="O240"/>
+      <c r="P240"/>
+      <c r="Q240"/>
+      <c r="R240"/>
+      <c r="S240"/>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:19">
       <c r="A241" s="6">
         <v>100016015</v>
       </c>
@@ -11333,7 +13740,7 @@
         <v>265</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -11350,6 +13757,12 @@
       <c r="M241" s="1">
         <v>0</v>
       </c>
+      <c r="N241"/>
+      <c r="O241"/>
+      <c r="P241"/>
+      <c r="Q241"/>
+      <c r="R241"/>
+      <c r="S241"/>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="5">
@@ -11374,7 +13787,7 @@
         <v>280</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -11415,7 +13828,7 @@
         <v>280</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -11456,7 +13869,7 @@
         <v>280</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -11497,7 +13910,7 @@
         <v>280</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -11538,7 +13951,7 @@
         <v>280</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -11579,7 +13992,7 @@
         <v>280</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -11620,7 +14033,7 @@
         <v>280</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -11661,7 +14074,7 @@
         <v>280</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -11702,7 +14115,7 @@
         <v>280</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -11743,7 +14156,7 @@
         <v>280</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -11784,7 +14197,7 @@
         <v>280</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -11825,7 +14238,7 @@
         <v>280</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -11866,7 +14279,7 @@
         <v>280</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -11907,7 +14320,7 @@
         <v>280</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -11948,7 +14361,7 @@
         <v>280</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -11966,7 +14379,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="1" spans="1:13">
+    <row r="257" s="1" customFormat="1" spans="1:19">
       <c r="A257" s="6">
         <v>100018001</v>
       </c>
@@ -11989,7 +14402,7 @@
         <v>295</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I257" s="6">
         <v>1</v>
@@ -12006,8 +14419,14 @@
       <c r="M257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" s="1" customFormat="1" spans="1:13">
+      <c r="N257"/>
+      <c r="O257"/>
+      <c r="P257"/>
+      <c r="Q257"/>
+      <c r="R257"/>
+      <c r="S257"/>
+    </row>
+    <row r="258" s="1" customFormat="1" spans="1:19">
       <c r="A258" s="6">
         <v>100018002</v>
       </c>
@@ -12030,7 +14449,7 @@
         <v>295</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -12047,8 +14466,14 @@
       <c r="M258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" s="1" customFormat="1" spans="1:13">
+      <c r="N258"/>
+      <c r="O258"/>
+      <c r="P258"/>
+      <c r="Q258"/>
+      <c r="R258"/>
+      <c r="S258"/>
+    </row>
+    <row r="259" s="1" customFormat="1" spans="1:19">
       <c r="A259" s="6">
         <v>100018003</v>
       </c>
@@ -12071,7 +14496,7 @@
         <v>295</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -12088,8 +14513,14 @@
       <c r="M259" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="260" s="1" customFormat="1" spans="1:13">
+      <c r="N259"/>
+      <c r="O259"/>
+      <c r="P259"/>
+      <c r="Q259"/>
+      <c r="R259"/>
+      <c r="S259"/>
+    </row>
+    <row r="260" s="1" customFormat="1" spans="1:19">
       <c r="A260" s="6">
         <v>100018004</v>
       </c>
@@ -12112,7 +14543,7 @@
         <v>295</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -12129,8 +14560,14 @@
       <c r="M260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" s="1" customFormat="1" spans="1:13">
+      <c r="N260"/>
+      <c r="O260"/>
+      <c r="P260"/>
+      <c r="Q260"/>
+      <c r="R260"/>
+      <c r="S260"/>
+    </row>
+    <row r="261" s="1" customFormat="1" spans="1:19">
       <c r="A261" s="6">
         <v>100018005</v>
       </c>
@@ -12153,7 +14590,7 @@
         <v>295</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -12170,8 +14607,14 @@
       <c r="M261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" s="1" customFormat="1" spans="1:13">
+      <c r="N261"/>
+      <c r="O261"/>
+      <c r="P261"/>
+      <c r="Q261"/>
+      <c r="R261"/>
+      <c r="S261"/>
+    </row>
+    <row r="262" s="1" customFormat="1" spans="1:19">
       <c r="A262" s="6">
         <v>100018006</v>
       </c>
@@ -12194,7 +14637,7 @@
         <v>295</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -12211,8 +14654,14 @@
       <c r="M262" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="263" s="1" customFormat="1" spans="1:13">
+      <c r="N262"/>
+      <c r="O262"/>
+      <c r="P262"/>
+      <c r="Q262"/>
+      <c r="R262"/>
+      <c r="S262"/>
+    </row>
+    <row r="263" s="1" customFormat="1" spans="1:19">
       <c r="A263" s="6">
         <v>100018007</v>
       </c>
@@ -12235,7 +14684,7 @@
         <v>295</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -12252,8 +14701,14 @@
       <c r="M263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" s="1" customFormat="1" spans="1:13">
+      <c r="N263"/>
+      <c r="O263"/>
+      <c r="P263"/>
+      <c r="Q263"/>
+      <c r="R263"/>
+      <c r="S263"/>
+    </row>
+    <row r="264" s="1" customFormat="1" spans="1:19">
       <c r="A264" s="6">
         <v>100018008</v>
       </c>
@@ -12276,7 +14731,7 @@
         <v>295</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -12293,8 +14748,14 @@
       <c r="M264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" s="1" customFormat="1" spans="1:13">
+      <c r="N264"/>
+      <c r="O264"/>
+      <c r="P264"/>
+      <c r="Q264"/>
+      <c r="R264"/>
+      <c r="S264"/>
+    </row>
+    <row r="265" s="1" customFormat="1" spans="1:19">
       <c r="A265" s="6">
         <v>100018009</v>
       </c>
@@ -12317,7 +14778,7 @@
         <v>295</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -12334,8 +14795,14 @@
       <c r="M265" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="266" s="1" customFormat="1" spans="1:13">
+      <c r="N265"/>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
+      <c r="R265"/>
+      <c r="S265"/>
+    </row>
+    <row r="266" s="1" customFormat="1" spans="1:19">
       <c r="A266" s="6">
         <v>100018010</v>
       </c>
@@ -12358,7 +14825,7 @@
         <v>295</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -12375,8 +14842,14 @@
       <c r="M266" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="267" s="1" customFormat="1" spans="1:13">
+      <c r="N266"/>
+      <c r="O266"/>
+      <c r="P266"/>
+      <c r="Q266"/>
+      <c r="R266"/>
+      <c r="S266"/>
+    </row>
+    <row r="267" s="1" customFormat="1" spans="1:19">
       <c r="A267" s="6">
         <v>100018011</v>
       </c>
@@ -12399,7 +14872,7 @@
         <v>295</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -12416,8 +14889,14 @@
       <c r="M267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" s="1" customFormat="1" spans="1:13">
+      <c r="N267"/>
+      <c r="O267"/>
+      <c r="P267"/>
+      <c r="Q267"/>
+      <c r="R267"/>
+      <c r="S267"/>
+    </row>
+    <row r="268" s="1" customFormat="1" spans="1:19">
       <c r="A268" s="6">
         <v>100018012</v>
       </c>
@@ -12440,7 +14919,7 @@
         <v>295</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -12457,8 +14936,14 @@
       <c r="M268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" s="1" customFormat="1" spans="1:13">
+      <c r="N268"/>
+      <c r="O268"/>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268"/>
+      <c r="S268"/>
+    </row>
+    <row r="269" s="1" customFormat="1" spans="1:19">
       <c r="A269" s="6">
         <v>100018013</v>
       </c>
@@ -12481,7 +14966,7 @@
         <v>295</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -12498,8 +14983,14 @@
       <c r="M269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" s="1" customFormat="1" spans="1:13">
+      <c r="N269"/>
+      <c r="O269"/>
+      <c r="P269"/>
+      <c r="Q269"/>
+      <c r="R269"/>
+      <c r="S269"/>
+    </row>
+    <row r="270" s="1" customFormat="1" spans="1:19">
       <c r="A270" s="6">
         <v>100018014</v>
       </c>
@@ -12522,7 +15013,7 @@
         <v>295</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -12539,8 +15030,14 @@
       <c r="M270" s="1">
         <v>30002</v>
       </c>
-    </row>
-    <row r="271" s="1" customFormat="1" spans="1:13">
+      <c r="N270"/>
+      <c r="O270"/>
+      <c r="P270"/>
+      <c r="Q270"/>
+      <c r="R270"/>
+      <c r="S270"/>
+    </row>
+    <row r="271" s="1" customFormat="1" spans="1:19">
       <c r="A271" s="6">
         <v>100018015</v>
       </c>
@@ -12563,7 +15060,7 @@
         <v>295</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -12580,6 +15077,12 @@
       <c r="M271" s="1">
         <v>30002</v>
       </c>
+      <c r="N271"/>
+      <c r="O271"/>
+      <c r="P271"/>
+      <c r="Q271"/>
+      <c r="R271"/>
+      <c r="S271"/>
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="5">
@@ -12604,7 +15107,7 @@
         <v>310</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -12645,7 +15148,7 @@
         <v>310</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -12686,7 +15189,7 @@
         <v>310</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -12727,7 +15230,7 @@
         <v>310</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -12768,7 +15271,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -12809,7 +15312,7 @@
         <v>310</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -12850,7 +15353,7 @@
         <v>310</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -12891,7 +15394,7 @@
         <v>310</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -12932,7 +15435,7 @@
         <v>310</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -12973,7 +15476,7 @@
         <v>310</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -13014,7 +15517,7 @@
         <v>310</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -13055,7 +15558,7 @@
         <v>310</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -13096,7 +15599,7 @@
         <v>310</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -13137,7 +15640,7 @@
         <v>310</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -13178,7 +15681,7 @@
         <v>310</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -13196,7 +15699,7 @@
         <v>30006</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" spans="1:13">
+    <row r="287" s="1" customFormat="1" spans="1:19">
       <c r="A287" s="6">
         <v>100020001</v>
       </c>
@@ -13219,7 +15722,7 @@
         <v>325</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -13236,8 +15739,14 @@
       <c r="M287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" s="1" customFormat="1" spans="1:13">
+      <c r="N287"/>
+      <c r="O287"/>
+      <c r="P287"/>
+      <c r="Q287"/>
+      <c r="R287"/>
+      <c r="S287"/>
+    </row>
+    <row r="288" s="1" customFormat="1" spans="1:19">
       <c r="A288" s="6">
         <v>100020002</v>
       </c>
@@ -13260,7 +15769,7 @@
         <v>325</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -13277,8 +15786,14 @@
       <c r="M288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" s="1" customFormat="1" spans="1:13">
+      <c r="N288"/>
+      <c r="O288"/>
+      <c r="P288"/>
+      <c r="Q288"/>
+      <c r="R288"/>
+      <c r="S288"/>
+    </row>
+    <row r="289" s="1" customFormat="1" spans="1:19">
       <c r="A289" s="6">
         <v>100020003</v>
       </c>
@@ -13301,7 +15816,7 @@
         <v>325</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -13318,8 +15833,14 @@
       <c r="M289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" s="1" customFormat="1" spans="1:13">
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
+      <c r="R289"/>
+      <c r="S289"/>
+    </row>
+    <row r="290" s="1" customFormat="1" spans="1:19">
       <c r="A290" s="6">
         <v>100020004</v>
       </c>
@@ -13342,7 +15863,7 @@
         <v>325</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -13359,8 +15880,14 @@
       <c r="M290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" s="1" customFormat="1" spans="1:13">
+      <c r="N290"/>
+      <c r="O290"/>
+      <c r="P290"/>
+      <c r="Q290"/>
+      <c r="R290"/>
+      <c r="S290"/>
+    </row>
+    <row r="291" s="1" customFormat="1" spans="1:19">
       <c r="A291" s="6">
         <v>100020005</v>
       </c>
@@ -13383,7 +15910,7 @@
         <v>325</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -13400,8 +15927,14 @@
       <c r="M291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" s="1" customFormat="1" spans="1:13">
+      <c r="N291"/>
+      <c r="O291"/>
+      <c r="P291"/>
+      <c r="Q291"/>
+      <c r="R291"/>
+      <c r="S291"/>
+    </row>
+    <row r="292" s="1" customFormat="1" spans="1:19">
       <c r="A292" s="6">
         <v>100020006</v>
       </c>
@@ -13424,7 +15957,7 @@
         <v>325</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -13441,8 +15974,14 @@
       <c r="M292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" s="1" customFormat="1" spans="1:13">
+      <c r="N292"/>
+      <c r="O292"/>
+      <c r="P292"/>
+      <c r="Q292"/>
+      <c r="R292"/>
+      <c r="S292"/>
+    </row>
+    <row r="293" s="1" customFormat="1" spans="1:19">
       <c r="A293" s="6">
         <v>100020007</v>
       </c>
@@ -13465,7 +16004,7 @@
         <v>325</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -13482,8 +16021,14 @@
       <c r="M293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" s="1" customFormat="1" spans="1:13">
+      <c r="N293"/>
+      <c r="O293"/>
+      <c r="P293"/>
+      <c r="Q293"/>
+      <c r="R293"/>
+      <c r="S293"/>
+    </row>
+    <row r="294" s="1" customFormat="1" spans="1:19">
       <c r="A294" s="6">
         <v>100020008</v>
       </c>
@@ -13506,7 +16051,7 @@
         <v>325</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -13523,8 +16068,14 @@
       <c r="M294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" s="1" customFormat="1" spans="1:13">
+      <c r="N294"/>
+      <c r="O294"/>
+      <c r="P294"/>
+      <c r="Q294"/>
+      <c r="R294"/>
+      <c r="S294"/>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:19">
       <c r="A295" s="6">
         <v>100020009</v>
       </c>
@@ -13547,7 +16098,7 @@
         <v>325</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -13564,8 +16115,14 @@
       <c r="M295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" s="1" customFormat="1" spans="1:13">
+      <c r="N295"/>
+      <c r="O295"/>
+      <c r="P295"/>
+      <c r="Q295"/>
+      <c r="R295"/>
+      <c r="S295"/>
+    </row>
+    <row r="296" s="1" customFormat="1" spans="1:19">
       <c r="A296" s="6">
         <v>100020010</v>
       </c>
@@ -13588,7 +16145,7 @@
         <v>325</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -13605,8 +16162,14 @@
       <c r="M296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" s="1" customFormat="1" spans="1:13">
+      <c r="N296"/>
+      <c r="O296"/>
+      <c r="P296"/>
+      <c r="Q296"/>
+      <c r="R296"/>
+      <c r="S296"/>
+    </row>
+    <row r="297" s="1" customFormat="1" spans="1:19">
       <c r="A297" s="6">
         <v>100020011</v>
       </c>
@@ -13629,7 +16192,7 @@
         <v>325</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -13646,8 +16209,14 @@
       <c r="M297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" s="1" customFormat="1" spans="1:13">
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
+      <c r="R297"/>
+      <c r="S297"/>
+    </row>
+    <row r="298" s="1" customFormat="1" spans="1:19">
       <c r="A298" s="6">
         <v>100020012</v>
       </c>
@@ -13670,7 +16239,7 @@
         <v>325</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -13687,8 +16256,14 @@
       <c r="M298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" s="1" customFormat="1" spans="1:13">
+      <c r="N298"/>
+      <c r="O298"/>
+      <c r="P298"/>
+      <c r="Q298"/>
+      <c r="R298"/>
+      <c r="S298"/>
+    </row>
+    <row r="299" s="1" customFormat="1" spans="1:19">
       <c r="A299" s="6">
         <v>100020013</v>
       </c>
@@ -13711,7 +16286,7 @@
         <v>325</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -13728,8 +16303,14 @@
       <c r="M299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" s="1" customFormat="1" spans="1:13">
+      <c r="N299"/>
+      <c r="O299"/>
+      <c r="P299"/>
+      <c r="Q299"/>
+      <c r="R299"/>
+      <c r="S299"/>
+    </row>
+    <row r="300" s="1" customFormat="1" spans="1:19">
       <c r="A300" s="6">
         <v>100020014</v>
       </c>
@@ -13752,7 +16333,7 @@
         <v>325</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -13769,8 +16350,14 @@
       <c r="M300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" s="1" customFormat="1" spans="1:13">
+      <c r="N300"/>
+      <c r="O300"/>
+      <c r="P300"/>
+      <c r="Q300"/>
+      <c r="R300"/>
+      <c r="S300"/>
+    </row>
+    <row r="301" s="1" customFormat="1" spans="1:19">
       <c r="A301" s="6">
         <v>100020015</v>
       </c>
@@ -13793,7 +16380,7 @@
         <v>325</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -13810,6 +16397,12 @@
       <c r="M301" s="1">
         <v>0</v>
       </c>
+      <c r="N301"/>
+      <c r="O301"/>
+      <c r="P301"/>
+      <c r="Q301"/>
+      <c r="R301"/>
+      <c r="S301"/>
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="5">
@@ -13834,7 +16427,7 @@
         <v>340</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -13875,7 +16468,7 @@
         <v>340</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -13916,7 +16509,7 @@
         <v>340</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -13957,7 +16550,7 @@
         <v>340</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -13998,7 +16591,7 @@
         <v>340</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -14039,7 +16632,7 @@
         <v>340</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -14080,7 +16673,7 @@
         <v>340</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -14121,7 +16714,7 @@
         <v>340</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -14162,7 +16755,7 @@
         <v>340</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -14203,7 +16796,7 @@
         <v>340</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -14244,7 +16837,7 @@
         <v>340</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -14285,7 +16878,7 @@
         <v>340</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -14326,7 +16919,7 @@
         <v>340</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -14367,7 +16960,7 @@
         <v>340</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -14408,7 +17001,7 @@
         <v>340</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -14426,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="1" spans="1:13">
+    <row r="317" s="2" customFormat="1" spans="1:19">
       <c r="A317" s="8">
         <v>20001001</v>
       </c>
@@ -14449,7 +17042,7 @@
         <v>200</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -14466,8 +17059,14 @@
       <c r="M317" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" s="2" customFormat="1" spans="1:13">
+      <c r="N317"/>
+      <c r="O317"/>
+      <c r="P317"/>
+      <c r="Q317"/>
+      <c r="R317"/>
+      <c r="S317"/>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:19">
       <c r="A318" s="8">
         <v>20002001</v>
       </c>
@@ -14490,7 +17089,7 @@
         <v>500</v>
       </c>
       <c r="H318" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I318" s="8">
         <v>1</v>
@@ -14507,8 +17106,14 @@
       <c r="M318" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" s="2" customFormat="1" spans="1:13">
+      <c r="N318"/>
+      <c r="O318"/>
+      <c r="P318"/>
+      <c r="Q318"/>
+      <c r="R318"/>
+      <c r="S318"/>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:19">
       <c r="A319" s="8">
         <v>20003001</v>
       </c>
@@ -14531,7 +17136,7 @@
         <v>800</v>
       </c>
       <c r="H319" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I319" s="8">
         <v>1</v>
@@ -14548,8 +17153,14 @@
       <c r="M319" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" s="2" customFormat="1" spans="1:13">
+      <c r="N319"/>
+      <c r="O319"/>
+      <c r="P319"/>
+      <c r="Q319"/>
+      <c r="R319"/>
+      <c r="S319"/>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:19">
       <c r="A320" s="8">
         <v>20004001</v>
       </c>
@@ -14572,7 +17183,7 @@
         <v>1100</v>
       </c>
       <c r="H320" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I320" s="8">
         <v>1</v>
@@ -14589,8 +17200,14 @@
       <c r="M320" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" s="2" customFormat="1" spans="1:13">
+      <c r="N320"/>
+      <c r="O320"/>
+      <c r="P320"/>
+      <c r="Q320"/>
+      <c r="R320"/>
+      <c r="S320"/>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:19">
       <c r="A321" s="8">
         <v>20005001</v>
       </c>
@@ -14613,7 +17230,7 @@
         <v>1400</v>
       </c>
       <c r="H321" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I321" s="8">
         <v>1</v>
@@ -14630,8 +17247,14 @@
       <c r="M321" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" s="2" customFormat="1" spans="1:13">
+      <c r="N321"/>
+      <c r="O321"/>
+      <c r="P321"/>
+      <c r="Q321"/>
+      <c r="R321"/>
+      <c r="S321"/>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:19">
       <c r="A322" s="8">
         <v>20006001</v>
       </c>
@@ -14654,7 +17277,7 @@
         <v>1700</v>
       </c>
       <c r="H322" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I322" s="8">
         <v>1</v>
@@ -14671,8 +17294,14 @@
       <c r="M322" s="2">
         <v>30009</v>
       </c>
-    </row>
-    <row r="323" s="2" customFormat="1" spans="1:13">
+      <c r="N322"/>
+      <c r="O322"/>
+      <c r="P322"/>
+      <c r="Q322"/>
+      <c r="R322"/>
+      <c r="S322"/>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:19">
       <c r="A323" s="8">
         <v>20007001</v>
       </c>
@@ -14695,7 +17324,7 @@
         <v>2000</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -14712,8 +17341,14 @@
       <c r="M323" s="2">
         <v>30009</v>
       </c>
-    </row>
-    <row r="324" s="2" customFormat="1" spans="1:13">
+      <c r="N323"/>
+      <c r="O323"/>
+      <c r="P323"/>
+      <c r="Q323"/>
+      <c r="R323"/>
+      <c r="S323"/>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:19">
       <c r="A324" s="8">
         <v>20008001</v>
       </c>
@@ -14736,7 +17371,7 @@
         <v>2300</v>
       </c>
       <c r="H324" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I324" s="8">
         <v>1</v>
@@ -14753,8 +17388,14 @@
       <c r="M324" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" s="2" customFormat="1" spans="1:13">
+      <c r="N324"/>
+      <c r="O324"/>
+      <c r="P324"/>
+      <c r="Q324"/>
+      <c r="R324"/>
+      <c r="S324"/>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:19">
       <c r="A325" s="8">
         <v>20009001</v>
       </c>
@@ -14777,7 +17418,7 @@
         <v>2600</v>
       </c>
       <c r="H325" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I325" s="8">
         <v>1</v>
@@ -14794,8 +17435,14 @@
       <c r="M325" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" s="2" customFormat="1" spans="1:13">
+      <c r="N325"/>
+      <c r="O325"/>
+      <c r="P325"/>
+      <c r="Q325"/>
+      <c r="R325"/>
+      <c r="S325"/>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:19">
       <c r="A326" s="8">
         <v>20010001</v>
       </c>
@@ -14818,7 +17465,7 @@
         <v>2900</v>
       </c>
       <c r="H326" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I326" s="8">
         <v>1</v>
@@ -14835,8 +17482,14 @@
       <c r="M326" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" s="2" customFormat="1" spans="1:13">
+      <c r="N326"/>
+      <c r="O326"/>
+      <c r="P326"/>
+      <c r="Q326"/>
+      <c r="R326"/>
+      <c r="S326"/>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:19">
       <c r="A327" s="8">
         <v>20011001</v>
       </c>
@@ -14859,7 +17512,7 @@
         <v>3200</v>
       </c>
       <c r="H327" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I327" s="8">
         <v>1</v>
@@ -14876,8 +17529,14 @@
       <c r="M327" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" s="2" customFormat="1" spans="1:13">
+      <c r="N327"/>
+      <c r="O327"/>
+      <c r="P327"/>
+      <c r="Q327"/>
+      <c r="R327"/>
+      <c r="S327"/>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:19">
       <c r="A328" s="8">
         <v>20012001</v>
       </c>
@@ -14900,7 +17559,7 @@
         <v>3500</v>
       </c>
       <c r="H328" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I328" s="8">
         <v>1</v>
@@ -14917,8 +17576,14 @@
       <c r="M328" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" s="2" customFormat="1" spans="1:13">
+      <c r="N328"/>
+      <c r="O328"/>
+      <c r="P328"/>
+      <c r="Q328"/>
+      <c r="R328"/>
+      <c r="S328"/>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:19">
       <c r="A329" s="8">
         <v>20013001</v>
       </c>
@@ -14941,7 +17606,7 @@
         <v>3800</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -14958,8 +17623,14 @@
       <c r="M329" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" s="2" customFormat="1" spans="1:13">
+      <c r="N329"/>
+      <c r="O329"/>
+      <c r="P329"/>
+      <c r="Q329"/>
+      <c r="R329"/>
+      <c r="S329"/>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:19">
       <c r="A330" s="8">
         <v>20014001</v>
       </c>
@@ -14982,7 +17653,7 @@
         <v>4100</v>
       </c>
       <c r="H330" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I330" s="8">
         <v>1</v>
@@ -14999,8 +17670,14 @@
       <c r="M330" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" s="2" customFormat="1" spans="1:13">
+      <c r="N330"/>
+      <c r="O330"/>
+      <c r="P330"/>
+      <c r="Q330"/>
+      <c r="R330"/>
+      <c r="S330"/>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:19">
       <c r="A331" s="8">
         <v>20015001</v>
       </c>
@@ -15023,7 +17700,7 @@
         <v>4400</v>
       </c>
       <c r="H331" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I331" s="8">
         <v>1</v>
@@ -15040,8 +17717,14 @@
       <c r="M331" s="2">
         <v>30009</v>
       </c>
-    </row>
-    <row r="332" s="2" customFormat="1" spans="1:13">
+      <c r="N331"/>
+      <c r="O331"/>
+      <c r="P331"/>
+      <c r="Q331"/>
+      <c r="R331"/>
+      <c r="S331"/>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:19">
       <c r="A332" s="8">
         <v>20016001</v>
       </c>
@@ -15064,7 +17747,7 @@
         <v>4700</v>
       </c>
       <c r="H332" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I332" s="8">
         <v>1</v>
@@ -15081,8 +17764,14 @@
       <c r="M332" s="2">
         <v>30009</v>
       </c>
-    </row>
-    <row r="333" s="2" customFormat="1" spans="1:13">
+      <c r="N332"/>
+      <c r="O332"/>
+      <c r="P332"/>
+      <c r="Q332"/>
+      <c r="R332"/>
+      <c r="S332"/>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:19">
       <c r="A333" s="8">
         <v>20017001</v>
       </c>
@@ -15105,7 +17794,7 @@
         <v>5000</v>
       </c>
       <c r="H333" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I333" s="8">
         <v>1</v>
@@ -15122,8 +17811,14 @@
       <c r="M333" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" s="2" customFormat="1" spans="1:13">
+      <c r="N333"/>
+      <c r="O333"/>
+      <c r="P333"/>
+      <c r="Q333"/>
+      <c r="R333"/>
+      <c r="S333"/>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:19">
       <c r="A334" s="8">
         <v>20018001</v>
       </c>
@@ -15146,7 +17841,7 @@
         <v>5300</v>
       </c>
       <c r="H334" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I334" s="8">
         <v>1</v>
@@ -15163,8 +17858,14 @@
       <c r="M334" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" s="2" customFormat="1" spans="1:13">
+      <c r="N334"/>
+      <c r="O334"/>
+      <c r="P334"/>
+      <c r="Q334"/>
+      <c r="R334"/>
+      <c r="S334"/>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:19">
       <c r="A335" s="8">
         <v>20019001</v>
       </c>
@@ -15187,7 +17888,7 @@
         <v>5600</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>
@@ -15204,8 +17905,14 @@
       <c r="M335" s="2">
         <v>30009</v>
       </c>
-    </row>
-    <row r="336" s="2" customFormat="1" spans="1:13">
+      <c r="N335"/>
+      <c r="O335"/>
+      <c r="P335"/>
+      <c r="Q335"/>
+      <c r="R335"/>
+      <c r="S335"/>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:19">
       <c r="A336" s="8">
         <v>20020001</v>
       </c>
@@ -15228,7 +17935,7 @@
         <v>5900</v>
       </c>
       <c r="H336" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I336" s="8">
         <v>1</v>
@@ -15245,8 +17952,14 @@
       <c r="M336" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" s="2" customFormat="1" spans="1:13">
+      <c r="N336"/>
+      <c r="O336"/>
+      <c r="P336"/>
+      <c r="Q336"/>
+      <c r="R336"/>
+      <c r="S336"/>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:19">
       <c r="A337" s="8">
         <v>20021001</v>
       </c>
@@ -15269,7 +17982,7 @@
         <v>6200</v>
       </c>
       <c r="H337" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I337" s="8">
         <v>1</v>
@@ -15286,6 +17999,12 @@
       <c r="M337" s="2">
         <v>0</v>
       </c>
+      <c r="N337"/>
+      <c r="O337"/>
+      <c r="P337"/>
+      <c r="Q337"/>
+      <c r="R337"/>
+      <c r="S337"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W337"/>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,6 @@
     <t>real_dam</t>
   </si>
   <si>
-    <t>20000001,</t>
-  </si>
-  <si>
     <t>10000001,</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
     <t>10000015,</t>
   </si>
   <si>
+    <t>20000001,</t>
+  </si>
+  <si>
     <t>20000002,</t>
   </si>
   <si>
@@ -575,10 +575,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -590,89 +590,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +627,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -718,8 +717,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,13 +727,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,7 +754,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,13 +808,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,85 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,67 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,11 +957,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,8 +1023,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,45 +1036,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,10 +1062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,19 +1074,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,112 +1095,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,7 +1745,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1810,7 +1804,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1869,7 +1863,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1928,7 +1922,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -1987,7 +1981,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -2046,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -2105,7 +2099,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -2164,7 +2158,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2223,7 +2217,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2282,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -2341,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -2400,7 +2394,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2459,7 +2453,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2518,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -2577,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2636,7 +2630,7 @@
         <v>55</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2695,7 +2689,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -2754,7 +2748,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2813,7 +2807,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2872,7 +2866,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2931,7 +2925,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2990,7 +2984,7 @@
         <v>55</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -3049,7 +3043,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -3108,7 +3102,7 @@
         <v>55</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -3167,7 +3161,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -3226,7 +3220,7 @@
         <v>55</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -3285,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -3344,7 +3338,7 @@
         <v>55</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -3403,7 +3397,7 @@
         <v>55</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -3462,7 +3456,7 @@
         <v>70</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -3521,7 +3515,7 @@
         <v>70</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -3580,7 +3574,7 @@
         <v>70</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -3641,7 +3635,7 @@
         <v>70</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -3703,7 +3697,7 @@
         <v>70</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -3762,7 +3756,7 @@
         <v>70</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -3821,7 +3815,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3880,7 +3874,7 @@
         <v>70</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3939,7 +3933,7 @@
         <v>70</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3998,7 +3992,7 @@
         <v>70</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -4057,7 +4051,7 @@
         <v>70</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -4116,7 +4110,7 @@
         <v>70</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -4175,7 +4169,7 @@
         <v>70</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -4234,7 +4228,7 @@
         <v>70</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -4293,7 +4287,7 @@
         <v>70</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -4352,7 +4346,7 @@
         <v>85</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -4411,7 +4405,7 @@
         <v>85</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" s="6">
         <v>1</v>
@@ -4470,7 +4464,7 @@
         <v>85</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -4529,7 +4523,7 @@
         <v>85</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -4588,7 +4582,7 @@
         <v>85</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4647,7 +4641,7 @@
         <v>85</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4706,7 +4700,7 @@
         <v>85</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -4765,7 +4759,7 @@
         <v>85</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -4824,7 +4818,7 @@
         <v>85</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -4883,7 +4877,7 @@
         <v>85</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -4942,7 +4936,7 @@
         <v>85</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -5001,7 +4995,7 @@
         <v>85</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -5060,7 +5054,7 @@
         <v>85</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -5119,7 +5113,7 @@
         <v>85</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -5178,7 +5172,7 @@
         <v>85</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -5237,7 +5231,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -5296,7 +5290,7 @@
         <v>100</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -5355,7 +5349,7 @@
         <v>100</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -5414,7 +5408,7 @@
         <v>100</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -5473,7 +5467,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -5532,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -5591,7 +5585,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -5650,7 +5644,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -5709,7 +5703,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -5768,7 +5762,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -5827,7 +5821,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -5886,7 +5880,7 @@
         <v>100</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -5945,7 +5939,7 @@
         <v>100</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -6004,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -6063,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -6122,7 +6116,7 @@
         <v>115</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -6181,7 +6175,7 @@
         <v>115</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -6240,7 +6234,7 @@
         <v>115</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -6299,7 +6293,7 @@
         <v>115</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -6358,7 +6352,7 @@
         <v>115</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -6417,7 +6411,7 @@
         <v>115</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -6476,7 +6470,7 @@
         <v>115</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -6535,7 +6529,7 @@
         <v>115</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -6594,7 +6588,7 @@
         <v>115</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -6653,7 +6647,7 @@
         <v>115</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -6712,7 +6706,7 @@
         <v>115</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -6771,7 +6765,7 @@
         <v>115</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -6830,7 +6824,7 @@
         <v>115</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -6889,7 +6883,7 @@
         <v>115</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -6948,7 +6942,7 @@
         <v>115</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -7007,7 +7001,7 @@
         <v>130</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -7066,7 +7060,7 @@
         <v>130</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -7125,7 +7119,7 @@
         <v>130</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -7184,7 +7178,7 @@
         <v>130</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -7243,7 +7237,7 @@
         <v>130</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -7302,7 +7296,7 @@
         <v>130</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -7361,7 +7355,7 @@
         <v>130</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -7420,7 +7414,7 @@
         <v>130</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -7479,7 +7473,7 @@
         <v>130</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -7538,7 +7532,7 @@
         <v>130</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -7597,7 +7591,7 @@
         <v>130</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -7638,7 +7632,7 @@
         <v>130</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -7679,7 +7673,7 @@
         <v>130</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -7720,7 +7714,7 @@
         <v>130</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -7761,7 +7755,7 @@
         <v>130</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -7802,7 +7796,7 @@
         <v>145</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -7849,7 +7843,7 @@
         <v>145</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -7896,7 +7890,7 @@
         <v>145</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -7943,7 +7937,7 @@
         <v>145</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -7990,7 +7984,7 @@
         <v>145</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -8037,7 +8031,7 @@
         <v>145</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -8084,7 +8078,7 @@
         <v>145</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -8131,7 +8125,7 @@
         <v>145</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -8178,7 +8172,7 @@
         <v>145</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -8225,7 +8219,7 @@
         <v>145</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -8272,7 +8266,7 @@
         <v>145</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -8319,7 +8313,7 @@
         <v>145</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -8366,7 +8360,7 @@
         <v>145</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -8413,7 +8407,7 @@
         <v>145</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -8460,7 +8454,7 @@
         <v>145</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -8507,7 +8501,7 @@
         <v>160</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -8548,7 +8542,7 @@
         <v>160</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -8589,7 +8583,7 @@
         <v>160</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -8630,7 +8624,7 @@
         <v>160</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -8671,7 +8665,7 @@
         <v>160</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -8712,7 +8706,7 @@
         <v>160</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -8753,7 +8747,7 @@
         <v>160</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -8794,7 +8788,7 @@
         <v>160</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -8835,7 +8829,7 @@
         <v>160</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -8876,7 +8870,7 @@
         <v>160</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -8917,7 +8911,7 @@
         <v>160</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -8958,7 +8952,7 @@
         <v>160</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -8999,7 +8993,7 @@
         <v>160</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -9040,7 +9034,7 @@
         <v>160</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -9081,7 +9075,7 @@
         <v>160</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -9122,7 +9116,7 @@
         <v>175</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -9169,7 +9163,7 @@
         <v>175</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -9216,7 +9210,7 @@
         <v>175</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I139" s="6">
         <v>1</v>
@@ -9263,7 +9257,7 @@
         <v>175</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
@@ -9310,7 +9304,7 @@
         <v>175</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
@@ -9357,7 +9351,7 @@
         <v>175</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
@@ -9404,7 +9398,7 @@
         <v>175</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -9451,7 +9445,7 @@
         <v>175</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I144" s="6">
         <v>1</v>
@@ -9498,7 +9492,7 @@
         <v>175</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I145" s="6">
         <v>1</v>
@@ -9545,7 +9539,7 @@
         <v>175</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I146" s="6">
         <v>1</v>
@@ -9592,7 +9586,7 @@
         <v>175</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I147" s="6">
         <v>1</v>
@@ -9639,7 +9633,7 @@
         <v>175</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I148" s="6">
         <v>1</v>
@@ -9686,7 +9680,7 @@
         <v>175</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -9733,7 +9727,7 @@
         <v>175</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I150" s="6">
         <v>1</v>
@@ -9780,7 +9774,7 @@
         <v>175</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I151" s="6">
         <v>1</v>
@@ -9827,7 +9821,7 @@
         <v>190</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -9868,7 +9862,7 @@
         <v>190</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -9909,7 +9903,7 @@
         <v>190</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -9950,7 +9944,7 @@
         <v>190</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -9991,7 +9985,7 @@
         <v>190</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -10032,7 +10026,7 @@
         <v>190</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -10073,7 +10067,7 @@
         <v>190</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -10114,7 +10108,7 @@
         <v>190</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -10155,7 +10149,7 @@
         <v>190</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -10196,7 +10190,7 @@
         <v>190</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -10237,7 +10231,7 @@
         <v>190</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -10278,7 +10272,7 @@
         <v>190</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -10319,7 +10313,7 @@
         <v>190</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -10360,7 +10354,7 @@
         <v>190</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -10401,7 +10395,7 @@
         <v>190</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -10442,7 +10436,7 @@
         <v>205</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I167" s="6">
         <v>1</v>
@@ -10489,7 +10483,7 @@
         <v>205</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -10536,7 +10530,7 @@
         <v>205</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -10583,7 +10577,7 @@
         <v>205</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -10630,7 +10624,7 @@
         <v>205</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -10677,7 +10671,7 @@
         <v>205</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -10724,7 +10718,7 @@
         <v>205</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -10771,7 +10765,7 @@
         <v>205</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I174" s="6">
         <v>1</v>
@@ -10818,7 +10812,7 @@
         <v>205</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I175" s="6">
         <v>1</v>
@@ -10865,7 +10859,7 @@
         <v>205</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -10912,7 +10906,7 @@
         <v>205</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I177" s="6">
         <v>1</v>
@@ -10959,7 +10953,7 @@
         <v>205</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -11006,7 +11000,7 @@
         <v>205</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I179" s="6">
         <v>1</v>
@@ -11053,7 +11047,7 @@
         <v>205</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I180" s="6">
         <v>1</v>
@@ -11100,7 +11094,7 @@
         <v>205</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I181" s="6">
         <v>1</v>
@@ -11147,7 +11141,7 @@
         <v>220</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
@@ -11188,7 +11182,7 @@
         <v>220</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -11229,7 +11223,7 @@
         <v>220</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -11270,7 +11264,7 @@
         <v>220</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -11311,7 +11305,7 @@
         <v>220</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -11352,7 +11346,7 @@
         <v>220</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -11393,7 +11387,7 @@
         <v>220</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -11434,7 +11428,7 @@
         <v>220</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -11475,7 +11469,7 @@
         <v>220</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -11516,7 +11510,7 @@
         <v>220</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -11557,7 +11551,7 @@
         <v>220</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -11598,7 +11592,7 @@
         <v>220</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -11639,7 +11633,7 @@
         <v>220</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -11680,7 +11674,7 @@
         <v>220</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -11721,7 +11715,7 @@
         <v>220</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -11762,7 +11756,7 @@
         <v>235</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I197" s="6">
         <v>1</v>
@@ -11809,7 +11803,7 @@
         <v>235</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I198" s="6">
         <v>1</v>
@@ -11856,7 +11850,7 @@
         <v>235</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
@@ -11903,7 +11897,7 @@
         <v>235</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
@@ -11950,7 +11944,7 @@
         <v>235</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -11997,7 +11991,7 @@
         <v>235</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I202" s="6">
         <v>1</v>
@@ -12044,7 +12038,7 @@
         <v>235</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -12091,7 +12085,7 @@
         <v>235</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -12138,7 +12132,7 @@
         <v>235</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
@@ -12185,7 +12179,7 @@
         <v>235</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -12232,7 +12226,7 @@
         <v>235</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
@@ -12279,7 +12273,7 @@
         <v>235</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -12326,7 +12320,7 @@
         <v>235</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -12373,7 +12367,7 @@
         <v>235</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -12420,7 +12414,7 @@
         <v>235</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -12467,7 +12461,7 @@
         <v>250</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -12508,7 +12502,7 @@
         <v>250</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -12549,7 +12543,7 @@
         <v>250</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -12590,7 +12584,7 @@
         <v>250</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -12631,7 +12625,7 @@
         <v>250</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -12672,7 +12666,7 @@
         <v>250</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -12713,7 +12707,7 @@
         <v>250</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -12754,7 +12748,7 @@
         <v>250</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -12795,7 +12789,7 @@
         <v>250</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -12836,7 +12830,7 @@
         <v>250</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -12877,7 +12871,7 @@
         <v>250</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -12918,7 +12912,7 @@
         <v>250</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -12959,7 +12953,7 @@
         <v>250</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -13000,7 +12994,7 @@
         <v>250</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -13041,7 +13035,7 @@
         <v>250</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -13082,7 +13076,7 @@
         <v>265</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
@@ -13129,7 +13123,7 @@
         <v>265</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -13176,7 +13170,7 @@
         <v>265</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I229" s="6">
         <v>1</v>
@@ -13223,7 +13217,7 @@
         <v>265</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -13270,7 +13264,7 @@
         <v>265</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I231" s="6">
         <v>1</v>
@@ -13317,7 +13311,7 @@
         <v>265</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -13364,7 +13358,7 @@
         <v>265</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -13411,7 +13405,7 @@
         <v>265</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I234" s="6">
         <v>1</v>
@@ -13458,7 +13452,7 @@
         <v>265</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I235" s="6">
         <v>1</v>
@@ -13505,7 +13499,7 @@
         <v>265</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I236" s="6">
         <v>1</v>
@@ -13552,7 +13546,7 @@
         <v>265</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -13599,7 +13593,7 @@
         <v>265</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
@@ -13646,7 +13640,7 @@
         <v>265</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I239" s="6">
         <v>1</v>
@@ -13693,7 +13687,7 @@
         <v>265</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -13740,7 +13734,7 @@
         <v>265</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I241" s="6">
         <v>1</v>
@@ -13787,7 +13781,7 @@
         <v>280</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -13828,7 +13822,7 @@
         <v>280</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -13869,7 +13863,7 @@
         <v>280</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -13910,7 +13904,7 @@
         <v>280</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -13951,7 +13945,7 @@
         <v>280</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -13992,7 +13986,7 @@
         <v>280</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -14033,7 +14027,7 @@
         <v>280</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -14074,7 +14068,7 @@
         <v>280</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -14115,7 +14109,7 @@
         <v>280</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -14156,7 +14150,7 @@
         <v>280</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -14197,7 +14191,7 @@
         <v>280</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -14238,7 +14232,7 @@
         <v>280</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -14279,7 +14273,7 @@
         <v>280</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -14320,7 +14314,7 @@
         <v>280</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -14361,7 +14355,7 @@
         <v>280</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -14402,7 +14396,7 @@
         <v>295</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I257" s="6">
         <v>1</v>
@@ -14449,7 +14443,7 @@
         <v>295</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I258" s="6">
         <v>1</v>
@@ -14496,7 +14490,7 @@
         <v>295</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I259" s="6">
         <v>1</v>
@@ -14543,7 +14537,7 @@
         <v>295</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -14590,7 +14584,7 @@
         <v>295</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -14637,7 +14631,7 @@
         <v>295</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -14684,7 +14678,7 @@
         <v>295</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -14731,7 +14725,7 @@
         <v>295</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I264" s="6">
         <v>1</v>
@@ -14778,7 +14772,7 @@
         <v>295</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I265" s="6">
         <v>1</v>
@@ -14825,7 +14819,7 @@
         <v>295</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -14872,7 +14866,7 @@
         <v>295</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -14919,7 +14913,7 @@
         <v>295</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -14966,7 +14960,7 @@
         <v>295</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I269" s="6">
         <v>1</v>
@@ -15013,7 +15007,7 @@
         <v>295</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -15060,7 +15054,7 @@
         <v>295</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -15107,7 +15101,7 @@
         <v>310</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -15148,7 +15142,7 @@
         <v>310</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -15189,7 +15183,7 @@
         <v>310</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -15230,7 +15224,7 @@
         <v>310</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -15271,7 +15265,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -15312,7 +15306,7 @@
         <v>310</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -15353,7 +15347,7 @@
         <v>310</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -15394,7 +15388,7 @@
         <v>310</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -15435,7 +15429,7 @@
         <v>310</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -15476,7 +15470,7 @@
         <v>310</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -15517,7 +15511,7 @@
         <v>310</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -15558,7 +15552,7 @@
         <v>310</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -15599,7 +15593,7 @@
         <v>310</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -15640,7 +15634,7 @@
         <v>310</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -15681,7 +15675,7 @@
         <v>310</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -15722,7 +15716,7 @@
         <v>325</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -15769,7 +15763,7 @@
         <v>325</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I288" s="6">
         <v>1</v>
@@ -15816,7 +15810,7 @@
         <v>325</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I289" s="6">
         <v>1</v>
@@ -15863,7 +15857,7 @@
         <v>325</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -15910,7 +15904,7 @@
         <v>325</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -15957,7 +15951,7 @@
         <v>325</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -16004,7 +15998,7 @@
         <v>325</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I293" s="6">
         <v>1</v>
@@ -16051,7 +16045,7 @@
         <v>325</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -16098,7 +16092,7 @@
         <v>325</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I295" s="6">
         <v>1</v>
@@ -16145,7 +16139,7 @@
         <v>325</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I296" s="6">
         <v>1</v>
@@ -16192,7 +16186,7 @@
         <v>325</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I297" s="6">
         <v>1</v>
@@ -16239,7 +16233,7 @@
         <v>325</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -16286,7 +16280,7 @@
         <v>325</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I299" s="6">
         <v>1</v>
@@ -16333,7 +16327,7 @@
         <v>325</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -16380,7 +16374,7 @@
         <v>325</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I301" s="6">
         <v>1</v>
@@ -16427,7 +16421,7 @@
         <v>340</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -16468,7 +16462,7 @@
         <v>340</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -16509,7 +16503,7 @@
         <v>340</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -16550,7 +16544,7 @@
         <v>340</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -16591,7 +16585,7 @@
         <v>340</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -16632,7 +16626,7 @@
         <v>340</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -16673,7 +16667,7 @@
         <v>340</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -16714,7 +16708,7 @@
         <v>340</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -16755,7 +16749,7 @@
         <v>340</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -16796,7 +16790,7 @@
         <v>340</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I311" s="5">
         <v>1</v>
@@ -16837,7 +16831,7 @@
         <v>340</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I312" s="5">
         <v>1</v>
@@ -16878,7 +16872,7 @@
         <v>340</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I313" s="5">
         <v>1</v>
@@ -16919,7 +16913,7 @@
         <v>340</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I314" s="5">
         <v>1</v>
@@ -16960,7 +16954,7 @@
         <v>340</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I315" s="5">
         <v>1</v>
@@ -17001,7 +16995,7 @@
         <v>340</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I316" s="5">
         <v>1</v>
@@ -17042,7 +17036,7 @@
         <v>200</v>
       </c>
       <c r="H317" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I317" s="8">
         <v>1</v>
@@ -17324,7 +17318,7 @@
         <v>2000</v>
       </c>
       <c r="H323" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I323" s="8">
         <v>1</v>
@@ -17606,7 +17600,7 @@
         <v>3800</v>
       </c>
       <c r="H329" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I329" s="8">
         <v>1</v>
@@ -17888,7 +17882,7 @@
         <v>5600</v>
       </c>
       <c r="H335" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I335" s="8">
         <v>1</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -576,9 +576,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -590,7 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +598,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,8 +656,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,23 +687,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,28 +704,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,14 +732,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -754,7 +754,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,145 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,17 +957,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,22 +1025,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,10 +1062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,133 +1074,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="E322" sqref="E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="3">
         <v>10</v>
@@ -1736,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
@@ -2149,7 +2149,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
         <v>10</v>
@@ -2208,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
@@ -2267,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -2326,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="3">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>10</v>
@@ -2503,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="4">
         <v>10</v>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
@@ -2680,7 +2680,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="4">
         <v>10</v>
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="4">
         <v>10</v>
@@ -2798,7 +2798,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="4">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="4">
         <v>10</v>
@@ -2916,7 +2916,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="4">
         <v>10</v>
@@ -2975,7 +2975,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="4">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="4">
         <v>10</v>
@@ -3093,7 +3093,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="4">
         <v>10</v>
@@ -3152,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="4">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="4">
         <v>10</v>
@@ -3270,7 +3270,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="4">
         <v>10</v>
@@ -3329,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="4">
         <v>10</v>
@@ -3388,7 +3388,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="4">
         <v>10</v>
@@ -3446,8 +3446,8 @@
       <c r="D32" s="5">
         <v>31</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
+      <c r="E32" s="3">
+        <v>1000</v>
       </c>
       <c r="F32" s="5">
         <v>10</v>
@@ -3505,8 +3505,8 @@
       <c r="D33" s="5">
         <v>32</v>
       </c>
-      <c r="E33" s="5">
-        <v>1</v>
+      <c r="E33" s="3">
+        <v>1000</v>
       </c>
       <c r="F33" s="5">
         <v>10</v>
@@ -3564,8 +3564,8 @@
       <c r="D34" s="5">
         <v>32</v>
       </c>
-      <c r="E34" s="5">
-        <v>1</v>
+      <c r="E34" s="3">
+        <v>1000</v>
       </c>
       <c r="F34" s="5">
         <v>10</v>
@@ -3625,8 +3625,8 @@
       <c r="D35" s="5">
         <v>34</v>
       </c>
-      <c r="E35" s="5">
-        <v>1</v>
+      <c r="E35" s="3">
+        <v>1000</v>
       </c>
       <c r="F35" s="5">
         <v>10</v>
@@ -3687,8 +3687,8 @@
       <c r="D36" s="5">
         <v>35</v>
       </c>
-      <c r="E36" s="5">
-        <v>1</v>
+      <c r="E36" s="3">
+        <v>1000</v>
       </c>
       <c r="F36" s="5">
         <v>10</v>
@@ -3746,8 +3746,8 @@
       <c r="D37" s="5">
         <v>35</v>
       </c>
-      <c r="E37" s="5">
-        <v>1</v>
+      <c r="E37" s="3">
+        <v>1000</v>
       </c>
       <c r="F37" s="5">
         <v>10</v>
@@ -3805,8 +3805,8 @@
       <c r="D38" s="5">
         <v>37</v>
       </c>
-      <c r="E38" s="5">
-        <v>1</v>
+      <c r="E38" s="3">
+        <v>1000</v>
       </c>
       <c r="F38" s="5">
         <v>10</v>
@@ -3864,8 +3864,8 @@
       <c r="D39" s="5">
         <v>38</v>
       </c>
-      <c r="E39" s="5">
-        <v>1</v>
+      <c r="E39" s="3">
+        <v>1000</v>
       </c>
       <c r="F39" s="5">
         <v>10</v>
@@ -3923,8 +3923,8 @@
       <c r="D40" s="5">
         <v>38</v>
       </c>
-      <c r="E40" s="5">
-        <v>1</v>
+      <c r="E40" s="3">
+        <v>1000</v>
       </c>
       <c r="F40" s="5">
         <v>10</v>
@@ -3982,8 +3982,8 @@
       <c r="D41" s="5">
         <v>39</v>
       </c>
-      <c r="E41" s="5">
-        <v>1</v>
+      <c r="E41" s="3">
+        <v>1000</v>
       </c>
       <c r="F41" s="5">
         <v>10</v>
@@ -4041,8 +4041,8 @@
       <c r="D42" s="5">
         <v>41</v>
       </c>
-      <c r="E42" s="5">
-        <v>1</v>
+      <c r="E42" s="3">
+        <v>1000</v>
       </c>
       <c r="F42" s="5">
         <v>10</v>
@@ -4100,8 +4100,8 @@
       <c r="D43" s="5">
         <v>42</v>
       </c>
-      <c r="E43" s="5">
-        <v>1</v>
+      <c r="E43" s="3">
+        <v>1000</v>
       </c>
       <c r="F43" s="5">
         <v>10</v>
@@ -4159,8 +4159,8 @@
       <c r="D44" s="5">
         <v>43</v>
       </c>
-      <c r="E44" s="5">
-        <v>1</v>
+      <c r="E44" s="3">
+        <v>1000</v>
       </c>
       <c r="F44" s="5">
         <v>10</v>
@@ -4218,8 +4218,8 @@
       <c r="D45" s="5">
         <v>43</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
+      <c r="E45" s="3">
+        <v>1000</v>
       </c>
       <c r="F45" s="5">
         <v>10</v>
@@ -4277,8 +4277,8 @@
       <c r="D46" s="5">
         <v>44</v>
       </c>
-      <c r="E46" s="5">
-        <v>1</v>
+      <c r="E46" s="3">
+        <v>1000</v>
       </c>
       <c r="F46" s="5">
         <v>10</v>
@@ -4336,8 +4336,8 @@
       <c r="D47" s="6">
         <v>47</v>
       </c>
-      <c r="E47" s="6">
-        <v>1</v>
+      <c r="E47" s="4">
+        <v>1000</v>
       </c>
       <c r="F47" s="6">
         <v>10</v>
@@ -4395,8 +4395,8 @@
       <c r="D48" s="6">
         <v>49</v>
       </c>
-      <c r="E48" s="6">
-        <v>1</v>
+      <c r="E48" s="4">
+        <v>1000</v>
       </c>
       <c r="F48" s="6">
         <v>10</v>
@@ -4454,8 +4454,8 @@
       <c r="D49" s="6">
         <v>50</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
+      <c r="E49" s="4">
+        <v>1000</v>
       </c>
       <c r="F49" s="6">
         <v>10</v>
@@ -4513,8 +4513,8 @@
       <c r="D50" s="6">
         <v>53</v>
       </c>
-      <c r="E50" s="6">
-        <v>1</v>
+      <c r="E50" s="4">
+        <v>1000</v>
       </c>
       <c r="F50" s="6">
         <v>10</v>
@@ -4572,8 +4572,8 @@
       <c r="D51" s="6">
         <v>55</v>
       </c>
-      <c r="E51" s="6">
-        <v>1</v>
+      <c r="E51" s="4">
+        <v>1000</v>
       </c>
       <c r="F51" s="6">
         <v>10</v>
@@ -4631,8 +4631,8 @@
       <c r="D52" s="6">
         <v>56</v>
       </c>
-      <c r="E52" s="6">
-        <v>1</v>
+      <c r="E52" s="4">
+        <v>1000</v>
       </c>
       <c r="F52" s="6">
         <v>10</v>
@@ -4690,8 +4690,8 @@
       <c r="D53" s="6">
         <v>59</v>
       </c>
-      <c r="E53" s="6">
-        <v>1</v>
+      <c r="E53" s="4">
+        <v>1000</v>
       </c>
       <c r="F53" s="6">
         <v>10</v>
@@ -4749,8 +4749,8 @@
       <c r="D54" s="6">
         <v>61</v>
       </c>
-      <c r="E54" s="6">
-        <v>1</v>
+      <c r="E54" s="4">
+        <v>1000</v>
       </c>
       <c r="F54" s="6">
         <v>10</v>
@@ -4808,8 +4808,8 @@
       <c r="D55" s="6">
         <v>62</v>
       </c>
-      <c r="E55" s="6">
-        <v>1</v>
+      <c r="E55" s="4">
+        <v>1000</v>
       </c>
       <c r="F55" s="6">
         <v>10</v>
@@ -4867,8 +4867,8 @@
       <c r="D56" s="6">
         <v>64</v>
       </c>
-      <c r="E56" s="6">
-        <v>1</v>
+      <c r="E56" s="4">
+        <v>1000</v>
       </c>
       <c r="F56" s="6">
         <v>10</v>
@@ -4926,8 +4926,8 @@
       <c r="D57" s="6">
         <v>67</v>
       </c>
-      <c r="E57" s="6">
-        <v>1</v>
+      <c r="E57" s="4">
+        <v>1000</v>
       </c>
       <c r="F57" s="6">
         <v>10</v>
@@ -4985,8 +4985,8 @@
       <c r="D58" s="6">
         <v>69</v>
       </c>
-      <c r="E58" s="6">
-        <v>1</v>
+      <c r="E58" s="4">
+        <v>1000</v>
       </c>
       <c r="F58" s="6">
         <v>10</v>
@@ -5044,8 +5044,8 @@
       <c r="D59" s="6">
         <v>71</v>
       </c>
-      <c r="E59" s="6">
-        <v>1</v>
+      <c r="E59" s="4">
+        <v>1000</v>
       </c>
       <c r="F59" s="6">
         <v>10</v>
@@ -5103,8 +5103,8 @@
       <c r="D60" s="6">
         <v>72</v>
       </c>
-      <c r="E60" s="6">
-        <v>1</v>
+      <c r="E60" s="4">
+        <v>1000</v>
       </c>
       <c r="F60" s="6">
         <v>10</v>
@@ -5162,8 +5162,8 @@
       <c r="D61" s="6">
         <v>74</v>
       </c>
-      <c r="E61" s="6">
-        <v>1</v>
+      <c r="E61" s="4">
+        <v>1000</v>
       </c>
       <c r="F61" s="6">
         <v>10</v>
@@ -5221,8 +5221,8 @@
       <c r="D62" s="5">
         <v>77</v>
       </c>
-      <c r="E62" s="5">
-        <v>1</v>
+      <c r="E62" s="3">
+        <v>1000</v>
       </c>
       <c r="F62" s="5">
         <v>10</v>
@@ -5280,8 +5280,8 @@
       <c r="D63" s="5">
         <v>79</v>
       </c>
-      <c r="E63" s="5">
-        <v>1</v>
+      <c r="E63" s="3">
+        <v>1000</v>
       </c>
       <c r="F63" s="5">
         <v>10</v>
@@ -5339,8 +5339,8 @@
       <c r="D64" s="5">
         <v>80</v>
       </c>
-      <c r="E64" s="5">
-        <v>1</v>
+      <c r="E64" s="3">
+        <v>1000</v>
       </c>
       <c r="F64" s="5">
         <v>10</v>
@@ -5398,8 +5398,8 @@
       <c r="D65" s="5">
         <v>83</v>
       </c>
-      <c r="E65" s="5">
-        <v>1</v>
+      <c r="E65" s="3">
+        <v>1000</v>
       </c>
       <c r="F65" s="5">
         <v>10</v>
@@ -5457,8 +5457,8 @@
       <c r="D66" s="5">
         <v>85</v>
       </c>
-      <c r="E66" s="5">
-        <v>1</v>
+      <c r="E66" s="3">
+        <v>1000</v>
       </c>
       <c r="F66" s="5">
         <v>10</v>
@@ -5516,8 +5516,8 @@
       <c r="D67" s="5">
         <v>86</v>
       </c>
-      <c r="E67" s="5">
-        <v>1</v>
+      <c r="E67" s="3">
+        <v>1000</v>
       </c>
       <c r="F67" s="5">
         <v>10</v>
@@ -5575,8 +5575,8 @@
       <c r="D68" s="5">
         <v>89</v>
       </c>
-      <c r="E68" s="5">
-        <v>1</v>
+      <c r="E68" s="3">
+        <v>1000</v>
       </c>
       <c r="F68" s="5">
         <v>10</v>
@@ -5634,8 +5634,8 @@
       <c r="D69" s="5">
         <v>91</v>
       </c>
-      <c r="E69" s="5">
-        <v>1</v>
+      <c r="E69" s="3">
+        <v>1000</v>
       </c>
       <c r="F69" s="5">
         <v>10</v>
@@ -5693,8 +5693,8 @@
       <c r="D70" s="5">
         <v>92</v>
       </c>
-      <c r="E70" s="5">
-        <v>1</v>
+      <c r="E70" s="3">
+        <v>1000</v>
       </c>
       <c r="F70" s="5">
         <v>10</v>
@@ -5752,8 +5752,8 @@
       <c r="D71" s="5">
         <v>94</v>
       </c>
-      <c r="E71" s="5">
-        <v>1</v>
+      <c r="E71" s="3">
+        <v>1000</v>
       </c>
       <c r="F71" s="5">
         <v>10</v>
@@ -5811,8 +5811,8 @@
       <c r="D72" s="5">
         <v>97</v>
       </c>
-      <c r="E72" s="5">
-        <v>1</v>
+      <c r="E72" s="3">
+        <v>1000</v>
       </c>
       <c r="F72" s="5">
         <v>10</v>
@@ -5870,8 +5870,8 @@
       <c r="D73" s="5">
         <v>99</v>
       </c>
-      <c r="E73" s="5">
-        <v>1</v>
+      <c r="E73" s="3">
+        <v>1000</v>
       </c>
       <c r="F73" s="5">
         <v>10</v>
@@ -5929,8 +5929,8 @@
       <c r="D74" s="5">
         <v>101</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
+      <c r="E74" s="3">
+        <v>1000</v>
       </c>
       <c r="F74" s="5">
         <v>10</v>
@@ -5988,8 +5988,8 @@
       <c r="D75" s="5">
         <v>102</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
+      <c r="E75" s="3">
+        <v>1000</v>
       </c>
       <c r="F75" s="5">
         <v>10</v>
@@ -6047,8 +6047,8 @@
       <c r="D76" s="5">
         <v>104</v>
       </c>
-      <c r="E76" s="5">
-        <v>1</v>
+      <c r="E76" s="3">
+        <v>1000</v>
       </c>
       <c r="F76" s="5">
         <v>10</v>
@@ -6106,8 +6106,8 @@
       <c r="D77" s="6">
         <v>108</v>
       </c>
-      <c r="E77" s="6">
-        <v>1</v>
+      <c r="E77" s="4">
+        <v>1000</v>
       </c>
       <c r="F77" s="6">
         <v>10</v>
@@ -6165,8 +6165,8 @@
       <c r="D78" s="6">
         <v>111</v>
       </c>
-      <c r="E78" s="6">
-        <v>1</v>
+      <c r="E78" s="4">
+        <v>1000</v>
       </c>
       <c r="F78" s="6">
         <v>10</v>
@@ -6224,8 +6224,8 @@
       <c r="D79" s="6">
         <v>113</v>
       </c>
-      <c r="E79" s="6">
-        <v>1</v>
+      <c r="E79" s="4">
+        <v>1000</v>
       </c>
       <c r="F79" s="6">
         <v>10</v>
@@ -6283,8 +6283,8 @@
       <c r="D80" s="6">
         <v>117</v>
       </c>
-      <c r="E80" s="6">
-        <v>1</v>
+      <c r="E80" s="4">
+        <v>1000</v>
       </c>
       <c r="F80" s="6">
         <v>10</v>
@@ -6342,8 +6342,8 @@
       <c r="D81" s="6">
         <v>120</v>
       </c>
-      <c r="E81" s="6">
-        <v>1</v>
+      <c r="E81" s="4">
+        <v>1000</v>
       </c>
       <c r="F81" s="6">
         <v>10</v>
@@ -6401,8 +6401,8 @@
       <c r="D82" s="6">
         <v>122</v>
       </c>
-      <c r="E82" s="6">
-        <v>1</v>
+      <c r="E82" s="4">
+        <v>1000</v>
       </c>
       <c r="F82" s="6">
         <v>10</v>
@@ -6460,8 +6460,8 @@
       <c r="D83" s="6">
         <v>126</v>
       </c>
-      <c r="E83" s="6">
-        <v>1</v>
+      <c r="E83" s="4">
+        <v>1000</v>
       </c>
       <c r="F83" s="6">
         <v>10</v>
@@ -6519,8 +6519,8 @@
       <c r="D84" s="6">
         <v>129</v>
       </c>
-      <c r="E84" s="6">
-        <v>1</v>
+      <c r="E84" s="4">
+        <v>1000</v>
       </c>
       <c r="F84" s="6">
         <v>10</v>
@@ -6578,8 +6578,8 @@
       <c r="D85" s="6">
         <v>131</v>
       </c>
-      <c r="E85" s="6">
-        <v>1</v>
+      <c r="E85" s="4">
+        <v>1000</v>
       </c>
       <c r="F85" s="6">
         <v>10</v>
@@ -6637,8 +6637,8 @@
       <c r="D86" s="6">
         <v>134</v>
       </c>
-      <c r="E86" s="6">
-        <v>1</v>
+      <c r="E86" s="4">
+        <v>1000</v>
       </c>
       <c r="F86" s="6">
         <v>10</v>
@@ -6696,8 +6696,8 @@
       <c r="D87" s="6">
         <v>138</v>
       </c>
-      <c r="E87" s="6">
-        <v>1</v>
+      <c r="E87" s="4">
+        <v>1000</v>
       </c>
       <c r="F87" s="6">
         <v>10</v>
@@ -6755,8 +6755,8 @@
       <c r="D88" s="6">
         <v>141</v>
       </c>
-      <c r="E88" s="6">
-        <v>1</v>
+      <c r="E88" s="4">
+        <v>1000</v>
       </c>
       <c r="F88" s="6">
         <v>10</v>
@@ -6814,8 +6814,8 @@
       <c r="D89" s="6">
         <v>144</v>
       </c>
-      <c r="E89" s="6">
-        <v>1</v>
+      <c r="E89" s="4">
+        <v>1000</v>
       </c>
       <c r="F89" s="6">
         <v>10</v>
@@ -6873,8 +6873,8 @@
       <c r="D90" s="6">
         <v>146</v>
       </c>
-      <c r="E90" s="6">
-        <v>1</v>
+      <c r="E90" s="4">
+        <v>1000</v>
       </c>
       <c r="F90" s="6">
         <v>10</v>
@@ -6932,8 +6932,8 @@
       <c r="D91" s="6">
         <v>149</v>
       </c>
-      <c r="E91" s="6">
-        <v>1</v>
+      <c r="E91" s="4">
+        <v>1000</v>
       </c>
       <c r="F91" s="6">
         <v>10</v>
@@ -6991,8 +6991,8 @@
       <c r="D92" s="5">
         <v>153</v>
       </c>
-      <c r="E92" s="5">
-        <v>1</v>
+      <c r="E92" s="3">
+        <v>1000</v>
       </c>
       <c r="F92" s="5">
         <v>10</v>
@@ -7050,8 +7050,8 @@
       <c r="D93" s="5">
         <v>156</v>
       </c>
-      <c r="E93" s="5">
-        <v>1</v>
+      <c r="E93" s="3">
+        <v>1000</v>
       </c>
       <c r="F93" s="5">
         <v>10</v>
@@ -7109,8 +7109,8 @@
       <c r="D94" s="5">
         <v>158</v>
       </c>
-      <c r="E94" s="5">
-        <v>1</v>
+      <c r="E94" s="3">
+        <v>1000</v>
       </c>
       <c r="F94" s="5">
         <v>10</v>
@@ -7168,8 +7168,8 @@
       <c r="D95" s="5">
         <v>162</v>
       </c>
-      <c r="E95" s="5">
-        <v>1</v>
+      <c r="E95" s="3">
+        <v>1000</v>
       </c>
       <c r="F95" s="5">
         <v>10</v>
@@ -7227,8 +7227,8 @@
       <c r="D96" s="5">
         <v>165</v>
       </c>
-      <c r="E96" s="5">
-        <v>1</v>
+      <c r="E96" s="3">
+        <v>1000</v>
       </c>
       <c r="F96" s="5">
         <v>10</v>
@@ -7286,8 +7286,8 @@
       <c r="D97" s="5">
         <v>167</v>
       </c>
-      <c r="E97" s="5">
-        <v>1</v>
+      <c r="E97" s="3">
+        <v>1000</v>
       </c>
       <c r="F97" s="5">
         <v>10</v>
@@ -7345,8 +7345,8 @@
       <c r="D98" s="5">
         <v>171</v>
       </c>
-      <c r="E98" s="5">
-        <v>1</v>
+      <c r="E98" s="3">
+        <v>1000</v>
       </c>
       <c r="F98" s="5">
         <v>10</v>
@@ -7404,8 +7404,8 @@
       <c r="D99" s="5">
         <v>174</v>
       </c>
-      <c r="E99" s="5">
-        <v>1</v>
+      <c r="E99" s="3">
+        <v>1000</v>
       </c>
       <c r="F99" s="5">
         <v>10</v>
@@ -7463,8 +7463,8 @@
       <c r="D100" s="5">
         <v>176</v>
       </c>
-      <c r="E100" s="5">
-        <v>1</v>
+      <c r="E100" s="3">
+        <v>1000</v>
       </c>
       <c r="F100" s="5">
         <v>10</v>
@@ -7522,8 +7522,8 @@
       <c r="D101" s="5">
         <v>179</v>
       </c>
-      <c r="E101" s="5">
-        <v>1</v>
+      <c r="E101" s="3">
+        <v>1000</v>
       </c>
       <c r="F101" s="5">
         <v>10</v>
@@ -7581,8 +7581,8 @@
       <c r="D102" s="5">
         <v>183</v>
       </c>
-      <c r="E102" s="5">
-        <v>1</v>
+      <c r="E102" s="3">
+        <v>1000</v>
       </c>
       <c r="F102" s="5">
         <v>10</v>
@@ -7622,8 +7622,8 @@
       <c r="D103" s="5">
         <v>186</v>
       </c>
-      <c r="E103" s="5">
-        <v>1</v>
+      <c r="E103" s="3">
+        <v>1000</v>
       </c>
       <c r="F103" s="5">
         <v>10</v>
@@ -7663,8 +7663,8 @@
       <c r="D104" s="5">
         <v>189</v>
       </c>
-      <c r="E104" s="5">
-        <v>1</v>
+      <c r="E104" s="3">
+        <v>1000</v>
       </c>
       <c r="F104" s="5">
         <v>10</v>
@@ -7704,8 +7704,8 @@
       <c r="D105" s="5">
         <v>191</v>
       </c>
-      <c r="E105" s="5">
-        <v>1</v>
+      <c r="E105" s="3">
+        <v>1000</v>
       </c>
       <c r="F105" s="5">
         <v>10</v>
@@ -7745,8 +7745,8 @@
       <c r="D106" s="5">
         <v>194</v>
       </c>
-      <c r="E106" s="5">
-        <v>1</v>
+      <c r="E106" s="3">
+        <v>1000</v>
       </c>
       <c r="F106" s="5">
         <v>10</v>
@@ -7786,8 +7786,8 @@
       <c r="D107" s="6">
         <v>199</v>
       </c>
-      <c r="E107" s="6">
-        <v>1</v>
+      <c r="E107" s="4">
+        <v>1000</v>
       </c>
       <c r="F107" s="6">
         <v>10</v>
@@ -7833,8 +7833,8 @@
       <c r="D108" s="6">
         <v>203</v>
       </c>
-      <c r="E108" s="6">
-        <v>1</v>
+      <c r="E108" s="4">
+        <v>1000</v>
       </c>
       <c r="F108" s="6">
         <v>10</v>
@@ -7880,8 +7880,8 @@
       <c r="D109" s="6">
         <v>206</v>
       </c>
-      <c r="E109" s="6">
-        <v>1</v>
+      <c r="E109" s="4">
+        <v>1000</v>
       </c>
       <c r="F109" s="6">
         <v>10</v>
@@ -7927,8 +7927,8 @@
       <c r="D110" s="6">
         <v>211</v>
       </c>
-      <c r="E110" s="6">
-        <v>1</v>
+      <c r="E110" s="4">
+        <v>1000</v>
       </c>
       <c r="F110" s="6">
         <v>10</v>
@@ -7974,8 +7974,8 @@
       <c r="D111" s="6">
         <v>215</v>
       </c>
-      <c r="E111" s="6">
-        <v>1</v>
+      <c r="E111" s="4">
+        <v>1000</v>
       </c>
       <c r="F111" s="6">
         <v>10</v>
@@ -8021,8 +8021,8 @@
       <c r="D112" s="6">
         <v>218</v>
       </c>
-      <c r="E112" s="6">
-        <v>1</v>
+      <c r="E112" s="4">
+        <v>1000</v>
       </c>
       <c r="F112" s="6">
         <v>10</v>
@@ -8068,8 +8068,8 @@
       <c r="D113" s="6">
         <v>223</v>
       </c>
-      <c r="E113" s="6">
-        <v>1</v>
+      <c r="E113" s="4">
+        <v>1000</v>
       </c>
       <c r="F113" s="6">
         <v>10</v>
@@ -8115,8 +8115,8 @@
       <c r="D114" s="6">
         <v>227</v>
       </c>
-      <c r="E114" s="6">
-        <v>1</v>
+      <c r="E114" s="4">
+        <v>1000</v>
       </c>
       <c r="F114" s="6">
         <v>10</v>
@@ -8162,8 +8162,8 @@
       <c r="D115" s="6">
         <v>230</v>
       </c>
-      <c r="E115" s="6">
-        <v>1</v>
+      <c r="E115" s="4">
+        <v>1000</v>
       </c>
       <c r="F115" s="6">
         <v>10</v>
@@ -8209,8 +8209,8 @@
       <c r="D116" s="6">
         <v>234</v>
       </c>
-      <c r="E116" s="6">
-        <v>1</v>
+      <c r="E116" s="4">
+        <v>1000</v>
       </c>
       <c r="F116" s="6">
         <v>10</v>
@@ -8256,8 +8256,8 @@
       <c r="D117" s="6">
         <v>239</v>
       </c>
-      <c r="E117" s="6">
-        <v>1</v>
+      <c r="E117" s="4">
+        <v>1000</v>
       </c>
       <c r="F117" s="6">
         <v>10</v>
@@ -8303,8 +8303,8 @@
       <c r="D118" s="6">
         <v>243</v>
       </c>
-      <c r="E118" s="6">
-        <v>1</v>
+      <c r="E118" s="4">
+        <v>1000</v>
       </c>
       <c r="F118" s="6">
         <v>10</v>
@@ -8350,8 +8350,8 @@
       <c r="D119" s="6">
         <v>247</v>
       </c>
-      <c r="E119" s="6">
-        <v>1</v>
+      <c r="E119" s="4">
+        <v>1000</v>
       </c>
       <c r="F119" s="6">
         <v>10</v>
@@ -8397,8 +8397,8 @@
       <c r="D120" s="6">
         <v>250</v>
       </c>
-      <c r="E120" s="6">
-        <v>1</v>
+      <c r="E120" s="4">
+        <v>1000</v>
       </c>
       <c r="F120" s="6">
         <v>10</v>
@@ -8444,8 +8444,8 @@
       <c r="D121" s="6">
         <v>254</v>
       </c>
-      <c r="E121" s="6">
-        <v>1</v>
+      <c r="E121" s="4">
+        <v>1000</v>
       </c>
       <c r="F121" s="6">
         <v>10</v>
@@ -8491,8 +8491,8 @@
       <c r="D122" s="5">
         <v>259</v>
       </c>
-      <c r="E122" s="5">
-        <v>1</v>
+      <c r="E122" s="3">
+        <v>1000</v>
       </c>
       <c r="F122" s="5">
         <v>10</v>
@@ -8532,8 +8532,8 @@
       <c r="D123" s="5">
         <v>263</v>
       </c>
-      <c r="E123" s="5">
-        <v>1</v>
+      <c r="E123" s="3">
+        <v>1000</v>
       </c>
       <c r="F123" s="5">
         <v>10</v>
@@ -8573,8 +8573,8 @@
       <c r="D124" s="5">
         <v>266</v>
       </c>
-      <c r="E124" s="5">
-        <v>1</v>
+      <c r="E124" s="3">
+        <v>1000</v>
       </c>
       <c r="F124" s="5">
         <v>10</v>
@@ -8614,8 +8614,8 @@
       <c r="D125" s="5">
         <v>271</v>
       </c>
-      <c r="E125" s="5">
-        <v>1</v>
+      <c r="E125" s="3">
+        <v>1000</v>
       </c>
       <c r="F125" s="5">
         <v>10</v>
@@ -8655,8 +8655,8 @@
       <c r="D126" s="5">
         <v>275</v>
       </c>
-      <c r="E126" s="5">
-        <v>1</v>
+      <c r="E126" s="3">
+        <v>1000</v>
       </c>
       <c r="F126" s="5">
         <v>10</v>
@@ -8696,8 +8696,8 @@
       <c r="D127" s="5">
         <v>278</v>
       </c>
-      <c r="E127" s="5">
-        <v>1</v>
+      <c r="E127" s="3">
+        <v>1000</v>
       </c>
       <c r="F127" s="5">
         <v>10</v>
@@ -8737,8 +8737,8 @@
       <c r="D128" s="5">
         <v>283</v>
       </c>
-      <c r="E128" s="5">
-        <v>1</v>
+      <c r="E128" s="3">
+        <v>1000</v>
       </c>
       <c r="F128" s="5">
         <v>10</v>
@@ -8778,8 +8778,8 @@
       <c r="D129" s="5">
         <v>287</v>
       </c>
-      <c r="E129" s="5">
-        <v>1</v>
+      <c r="E129" s="3">
+        <v>1000</v>
       </c>
       <c r="F129" s="5">
         <v>10</v>
@@ -8819,8 +8819,8 @@
       <c r="D130" s="5">
         <v>290</v>
       </c>
-      <c r="E130" s="5">
-        <v>1</v>
+      <c r="E130" s="3">
+        <v>1000</v>
       </c>
       <c r="F130" s="5">
         <v>10</v>
@@ -8860,8 +8860,8 @@
       <c r="D131" s="5">
         <v>294</v>
       </c>
-      <c r="E131" s="5">
-        <v>1</v>
+      <c r="E131" s="3">
+        <v>1000</v>
       </c>
       <c r="F131" s="5">
         <v>10</v>
@@ -8901,8 +8901,8 @@
       <c r="D132" s="5">
         <v>299</v>
       </c>
-      <c r="E132" s="5">
-        <v>1</v>
+      <c r="E132" s="3">
+        <v>1000</v>
       </c>
       <c r="F132" s="5">
         <v>10</v>
@@ -8942,8 +8942,8 @@
       <c r="D133" s="5">
         <v>303</v>
       </c>
-      <c r="E133" s="5">
-        <v>1</v>
+      <c r="E133" s="3">
+        <v>1000</v>
       </c>
       <c r="F133" s="5">
         <v>10</v>
@@ -8983,8 +8983,8 @@
       <c r="D134" s="5">
         <v>307</v>
       </c>
-      <c r="E134" s="5">
-        <v>1</v>
+      <c r="E134" s="3">
+        <v>1000</v>
       </c>
       <c r="F134" s="5">
         <v>10</v>
@@ -9024,8 +9024,8 @@
       <c r="D135" s="5">
         <v>310</v>
       </c>
-      <c r="E135" s="5">
-        <v>1</v>
+      <c r="E135" s="3">
+        <v>1000</v>
       </c>
       <c r="F135" s="5">
         <v>10</v>
@@ -9065,8 +9065,8 @@
       <c r="D136" s="5">
         <v>314</v>
       </c>
-      <c r="E136" s="5">
-        <v>1</v>
+      <c r="E136" s="3">
+        <v>1000</v>
       </c>
       <c r="F136" s="5">
         <v>10</v>
@@ -9106,8 +9106,8 @@
       <c r="D137" s="6">
         <v>320</v>
       </c>
-      <c r="E137" s="6">
-        <v>1</v>
+      <c r="E137" s="4">
+        <v>1000</v>
       </c>
       <c r="F137" s="6">
         <v>10</v>
@@ -9153,8 +9153,8 @@
       <c r="D138" s="6">
         <v>325</v>
       </c>
-      <c r="E138" s="6">
-        <v>1</v>
+      <c r="E138" s="4">
+        <v>1000</v>
       </c>
       <c r="F138" s="6">
         <v>10</v>
@@ -9200,8 +9200,8 @@
       <c r="D139" s="6">
         <v>329</v>
       </c>
-      <c r="E139" s="6">
-        <v>1</v>
+      <c r="E139" s="4">
+        <v>1000</v>
       </c>
       <c r="F139" s="6">
         <v>10</v>
@@ -9247,8 +9247,8 @@
       <c r="D140" s="6">
         <v>335</v>
       </c>
-      <c r="E140" s="6">
-        <v>1</v>
+      <c r="E140" s="4">
+        <v>1000</v>
       </c>
       <c r="F140" s="6">
         <v>10</v>
@@ -9294,8 +9294,8 @@
       <c r="D141" s="6">
         <v>340</v>
       </c>
-      <c r="E141" s="6">
-        <v>1</v>
+      <c r="E141" s="4">
+        <v>1000</v>
       </c>
       <c r="F141" s="6">
         <v>10</v>
@@ -9341,8 +9341,8 @@
       <c r="D142" s="6">
         <v>344</v>
       </c>
-      <c r="E142" s="6">
-        <v>1</v>
+      <c r="E142" s="4">
+        <v>1000</v>
       </c>
       <c r="F142" s="6">
         <v>10</v>
@@ -9388,8 +9388,8 @@
       <c r="D143" s="6">
         <v>350</v>
       </c>
-      <c r="E143" s="6">
-        <v>1</v>
+      <c r="E143" s="4">
+        <v>1000</v>
       </c>
       <c r="F143" s="6">
         <v>10</v>
@@ -9435,8 +9435,8 @@
       <c r="D144" s="6">
         <v>355</v>
       </c>
-      <c r="E144" s="6">
-        <v>1</v>
+      <c r="E144" s="4">
+        <v>1000</v>
       </c>
       <c r="F144" s="6">
         <v>10</v>
@@ -9482,8 +9482,8 @@
       <c r="D145" s="6">
         <v>359</v>
       </c>
-      <c r="E145" s="6">
-        <v>1</v>
+      <c r="E145" s="4">
+        <v>1000</v>
       </c>
       <c r="F145" s="6">
         <v>10</v>
@@ -9529,8 +9529,8 @@
       <c r="D146" s="6">
         <v>364</v>
       </c>
-      <c r="E146" s="6">
-        <v>1</v>
+      <c r="E146" s="4">
+        <v>1000</v>
       </c>
       <c r="F146" s="6">
         <v>10</v>
@@ -9576,8 +9576,8 @@
       <c r="D147" s="6">
         <v>370</v>
       </c>
-      <c r="E147" s="6">
-        <v>1</v>
+      <c r="E147" s="4">
+        <v>1000</v>
       </c>
       <c r="F147" s="6">
         <v>10</v>
@@ -9623,8 +9623,8 @@
       <c r="D148" s="6">
         <v>375</v>
       </c>
-      <c r="E148" s="6">
-        <v>1</v>
+      <c r="E148" s="4">
+        <v>1000</v>
       </c>
       <c r="F148" s="6">
         <v>10</v>
@@ -9670,8 +9670,8 @@
       <c r="D149" s="6">
         <v>380</v>
       </c>
-      <c r="E149" s="6">
-        <v>1</v>
+      <c r="E149" s="4">
+        <v>1000</v>
       </c>
       <c r="F149" s="6">
         <v>10</v>
@@ -9717,8 +9717,8 @@
       <c r="D150" s="6">
         <v>384</v>
       </c>
-      <c r="E150" s="6">
-        <v>1</v>
+      <c r="E150" s="4">
+        <v>1000</v>
       </c>
       <c r="F150" s="6">
         <v>10</v>
@@ -9764,8 +9764,8 @@
       <c r="D151" s="6">
         <v>389</v>
       </c>
-      <c r="E151" s="6">
-        <v>1</v>
+      <c r="E151" s="4">
+        <v>1000</v>
       </c>
       <c r="F151" s="6">
         <v>10</v>
@@ -9811,8 +9811,8 @@
       <c r="D152" s="5">
         <v>395</v>
       </c>
-      <c r="E152" s="5">
-        <v>1</v>
+      <c r="E152" s="3">
+        <v>1000</v>
       </c>
       <c r="F152" s="5">
         <v>10</v>
@@ -9852,8 +9852,8 @@
       <c r="D153" s="5">
         <v>400</v>
       </c>
-      <c r="E153" s="5">
-        <v>1</v>
+      <c r="E153" s="3">
+        <v>1000</v>
       </c>
       <c r="F153" s="5">
         <v>10</v>
@@ -9893,8 +9893,8 @@
       <c r="D154" s="5">
         <v>404</v>
       </c>
-      <c r="E154" s="5">
-        <v>1</v>
+      <c r="E154" s="3">
+        <v>1000</v>
       </c>
       <c r="F154" s="5">
         <v>10</v>
@@ -9934,8 +9934,8 @@
       <c r="D155" s="5">
         <v>410</v>
       </c>
-      <c r="E155" s="5">
-        <v>1</v>
+      <c r="E155" s="3">
+        <v>1000</v>
       </c>
       <c r="F155" s="5">
         <v>10</v>
@@ -9975,8 +9975,8 @@
       <c r="D156" s="5">
         <v>415</v>
       </c>
-      <c r="E156" s="5">
-        <v>1</v>
+      <c r="E156" s="3">
+        <v>1000</v>
       </c>
       <c r="F156" s="5">
         <v>10</v>
@@ -10016,8 +10016,8 @@
       <c r="D157" s="5">
         <v>419</v>
       </c>
-      <c r="E157" s="5">
-        <v>1</v>
+      <c r="E157" s="3">
+        <v>1000</v>
       </c>
       <c r="F157" s="5">
         <v>10</v>
@@ -10057,8 +10057,8 @@
       <c r="D158" s="5">
         <v>425</v>
       </c>
-      <c r="E158" s="5">
-        <v>1</v>
+      <c r="E158" s="3">
+        <v>1000</v>
       </c>
       <c r="F158" s="5">
         <v>10</v>
@@ -10098,8 +10098,8 @@
       <c r="D159" s="5">
         <v>430</v>
       </c>
-      <c r="E159" s="5">
-        <v>1</v>
+      <c r="E159" s="3">
+        <v>1000</v>
       </c>
       <c r="F159" s="5">
         <v>10</v>
@@ -10139,8 +10139,8 @@
       <c r="D160" s="5">
         <v>434</v>
       </c>
-      <c r="E160" s="5">
-        <v>1</v>
+      <c r="E160" s="3">
+        <v>1000</v>
       </c>
       <c r="F160" s="5">
         <v>10</v>
@@ -10180,8 +10180,8 @@
       <c r="D161" s="5">
         <v>439</v>
       </c>
-      <c r="E161" s="5">
-        <v>1</v>
+      <c r="E161" s="3">
+        <v>1000</v>
       </c>
       <c r="F161" s="5">
         <v>10</v>
@@ -10221,8 +10221,8 @@
       <c r="D162" s="5">
         <v>445</v>
       </c>
-      <c r="E162" s="5">
-        <v>1</v>
+      <c r="E162" s="3">
+        <v>1000</v>
       </c>
       <c r="F162" s="5">
         <v>10</v>
@@ -10262,8 +10262,8 @@
       <c r="D163" s="5">
         <v>450</v>
       </c>
-      <c r="E163" s="5">
-        <v>1</v>
+      <c r="E163" s="3">
+        <v>1000</v>
       </c>
       <c r="F163" s="5">
         <v>10</v>
@@ -10303,8 +10303,8 @@
       <c r="D164" s="5">
         <v>455</v>
       </c>
-      <c r="E164" s="5">
-        <v>1</v>
+      <c r="E164" s="3">
+        <v>1000</v>
       </c>
       <c r="F164" s="5">
         <v>10</v>
@@ -10344,8 +10344,8 @@
       <c r="D165" s="5">
         <v>459</v>
       </c>
-      <c r="E165" s="5">
-        <v>1</v>
+      <c r="E165" s="3">
+        <v>1000</v>
       </c>
       <c r="F165" s="5">
         <v>10</v>
@@ -10385,8 +10385,8 @@
       <c r="D166" s="5">
         <v>464</v>
       </c>
-      <c r="E166" s="5">
-        <v>1</v>
+      <c r="E166" s="3">
+        <v>1000</v>
       </c>
       <c r="F166" s="5">
         <v>10</v>
@@ -10426,8 +10426,8 @@
       <c r="D167" s="6">
         <v>471</v>
       </c>
-      <c r="E167" s="6">
-        <v>1</v>
+      <c r="E167" s="4">
+        <v>1000</v>
       </c>
       <c r="F167" s="6">
         <v>10</v>
@@ -10473,8 +10473,8 @@
       <c r="D168" s="6">
         <v>477</v>
       </c>
-      <c r="E168" s="6">
-        <v>1</v>
+      <c r="E168" s="4">
+        <v>1000</v>
       </c>
       <c r="F168" s="6">
         <v>10</v>
@@ -10520,8 +10520,8 @@
       <c r="D169" s="6">
         <v>482</v>
       </c>
-      <c r="E169" s="6">
-        <v>1</v>
+      <c r="E169" s="4">
+        <v>1000</v>
       </c>
       <c r="F169" s="6">
         <v>10</v>
@@ -10567,8 +10567,8 @@
       <c r="D170" s="6">
         <v>489</v>
       </c>
-      <c r="E170" s="6">
-        <v>1</v>
+      <c r="E170" s="4">
+        <v>1000</v>
       </c>
       <c r="F170" s="6">
         <v>10</v>
@@ -10614,8 +10614,8 @@
       <c r="D171" s="6">
         <v>495</v>
       </c>
-      <c r="E171" s="6">
-        <v>1</v>
+      <c r="E171" s="4">
+        <v>1000</v>
       </c>
       <c r="F171" s="6">
         <v>10</v>
@@ -10661,8 +10661,8 @@
       <c r="D172" s="6">
         <v>500</v>
       </c>
-      <c r="E172" s="6">
-        <v>1</v>
+      <c r="E172" s="4">
+        <v>1000</v>
       </c>
       <c r="F172" s="6">
         <v>10</v>
@@ -10708,8 +10708,8 @@
       <c r="D173" s="6">
         <v>507</v>
       </c>
-      <c r="E173" s="6">
-        <v>1</v>
+      <c r="E173" s="4">
+        <v>1000</v>
       </c>
       <c r="F173" s="6">
         <v>10</v>
@@ -10755,8 +10755,8 @@
       <c r="D174" s="6">
         <v>513</v>
       </c>
-      <c r="E174" s="6">
-        <v>1</v>
+      <c r="E174" s="4">
+        <v>1000</v>
       </c>
       <c r="F174" s="6">
         <v>10</v>
@@ -10802,8 +10802,8 @@
       <c r="D175" s="6">
         <v>518</v>
       </c>
-      <c r="E175" s="6">
-        <v>1</v>
+      <c r="E175" s="4">
+        <v>1000</v>
       </c>
       <c r="F175" s="6">
         <v>10</v>
@@ -10849,8 +10849,8 @@
       <c r="D176" s="6">
         <v>524</v>
       </c>
-      <c r="E176" s="6">
-        <v>1</v>
+      <c r="E176" s="4">
+        <v>1000</v>
       </c>
       <c r="F176" s="6">
         <v>10</v>
@@ -10896,8 +10896,8 @@
       <c r="D177" s="6">
         <v>531</v>
       </c>
-      <c r="E177" s="6">
-        <v>1</v>
+      <c r="E177" s="4">
+        <v>1000</v>
       </c>
       <c r="F177" s="6">
         <v>10</v>
@@ -10943,8 +10943,8 @@
       <c r="D178" s="6">
         <v>537</v>
       </c>
-      <c r="E178" s="6">
-        <v>1</v>
+      <c r="E178" s="4">
+        <v>1000</v>
       </c>
       <c r="F178" s="6">
         <v>10</v>
@@ -10990,8 +10990,8 @@
       <c r="D179" s="6">
         <v>543</v>
       </c>
-      <c r="E179" s="6">
-        <v>1</v>
+      <c r="E179" s="4">
+        <v>1000</v>
       </c>
       <c r="F179" s="6">
         <v>10</v>
@@ -11037,8 +11037,8 @@
       <c r="D180" s="6">
         <v>548</v>
       </c>
-      <c r="E180" s="6">
-        <v>1</v>
+      <c r="E180" s="4">
+        <v>1000</v>
       </c>
       <c r="F180" s="6">
         <v>10</v>
@@ -11084,8 +11084,8 @@
       <c r="D181" s="6">
         <v>554</v>
       </c>
-      <c r="E181" s="6">
-        <v>1</v>
+      <c r="E181" s="4">
+        <v>1000</v>
       </c>
       <c r="F181" s="6">
         <v>10</v>
@@ -11131,8 +11131,8 @@
       <c r="D182" s="5">
         <v>561</v>
       </c>
-      <c r="E182" s="5">
-        <v>1</v>
+      <c r="E182" s="3">
+        <v>1000</v>
       </c>
       <c r="F182" s="5">
         <v>10</v>
@@ -11172,8 +11172,8 @@
       <c r="D183" s="5">
         <v>567</v>
       </c>
-      <c r="E183" s="5">
-        <v>1</v>
+      <c r="E183" s="3">
+        <v>1000</v>
       </c>
       <c r="F183" s="5">
         <v>10</v>
@@ -11213,8 +11213,8 @@
       <c r="D184" s="5">
         <v>572</v>
       </c>
-      <c r="E184" s="5">
-        <v>1</v>
+      <c r="E184" s="3">
+        <v>1000</v>
       </c>
       <c r="F184" s="5">
         <v>10</v>
@@ -11254,8 +11254,8 @@
       <c r="D185" s="5">
         <v>579</v>
       </c>
-      <c r="E185" s="5">
-        <v>1</v>
+      <c r="E185" s="3">
+        <v>1000</v>
       </c>
       <c r="F185" s="5">
         <v>10</v>
@@ -11295,8 +11295,8 @@
       <c r="D186" s="5">
         <v>585</v>
       </c>
-      <c r="E186" s="5">
-        <v>1</v>
+      <c r="E186" s="3">
+        <v>1000</v>
       </c>
       <c r="F186" s="5">
         <v>10</v>
@@ -11336,8 +11336,8 @@
       <c r="D187" s="5">
         <v>590</v>
       </c>
-      <c r="E187" s="5">
-        <v>1</v>
+      <c r="E187" s="3">
+        <v>1000</v>
       </c>
       <c r="F187" s="5">
         <v>10</v>
@@ -11377,8 +11377,8 @@
       <c r="D188" s="5">
         <v>597</v>
       </c>
-      <c r="E188" s="5">
-        <v>1</v>
+      <c r="E188" s="3">
+        <v>1000</v>
       </c>
       <c r="F188" s="5">
         <v>10</v>
@@ -11418,8 +11418,8 @@
       <c r="D189" s="5">
         <v>603</v>
       </c>
-      <c r="E189" s="5">
-        <v>1</v>
+      <c r="E189" s="3">
+        <v>1000</v>
       </c>
       <c r="F189" s="5">
         <v>10</v>
@@ -11459,8 +11459,8 @@
       <c r="D190" s="5">
         <v>608</v>
       </c>
-      <c r="E190" s="5">
-        <v>1</v>
+      <c r="E190" s="3">
+        <v>1000</v>
       </c>
       <c r="F190" s="5">
         <v>10</v>
@@ -11500,8 +11500,8 @@
       <c r="D191" s="5">
         <v>614</v>
       </c>
-      <c r="E191" s="5">
-        <v>1</v>
+      <c r="E191" s="3">
+        <v>1000</v>
       </c>
       <c r="F191" s="5">
         <v>10</v>
@@ -11541,8 +11541,8 @@
       <c r="D192" s="5">
         <v>621</v>
       </c>
-      <c r="E192" s="5">
-        <v>1</v>
+      <c r="E192" s="3">
+        <v>1000</v>
       </c>
       <c r="F192" s="5">
         <v>10</v>
@@ -11582,8 +11582,8 @@
       <c r="D193" s="5">
         <v>627</v>
       </c>
-      <c r="E193" s="5">
-        <v>1</v>
+      <c r="E193" s="3">
+        <v>1000</v>
       </c>
       <c r="F193" s="5">
         <v>10</v>
@@ -11623,8 +11623,8 @@
       <c r="D194" s="5">
         <v>633</v>
       </c>
-      <c r="E194" s="5">
-        <v>1</v>
+      <c r="E194" s="3">
+        <v>1000</v>
       </c>
       <c r="F194" s="5">
         <v>10</v>
@@ -11664,8 +11664,8 @@
       <c r="D195" s="5">
         <v>638</v>
       </c>
-      <c r="E195" s="5">
-        <v>1</v>
+      <c r="E195" s="3">
+        <v>1000</v>
       </c>
       <c r="F195" s="5">
         <v>10</v>
@@ -11705,8 +11705,8 @@
       <c r="D196" s="5">
         <v>644</v>
       </c>
-      <c r="E196" s="5">
-        <v>1</v>
+      <c r="E196" s="3">
+        <v>1000</v>
       </c>
       <c r="F196" s="5">
         <v>10</v>
@@ -11746,8 +11746,8 @@
       <c r="D197" s="6">
         <v>652</v>
       </c>
-      <c r="E197" s="6">
-        <v>1</v>
+      <c r="E197" s="4">
+        <v>1000</v>
       </c>
       <c r="F197" s="6">
         <v>10</v>
@@ -11793,8 +11793,8 @@
       <c r="D198" s="6">
         <v>659</v>
       </c>
-      <c r="E198" s="6">
-        <v>1</v>
+      <c r="E198" s="4">
+        <v>1000</v>
       </c>
       <c r="F198" s="6">
         <v>10</v>
@@ -11840,8 +11840,8 @@
       <c r="D199" s="6">
         <v>665</v>
       </c>
-      <c r="E199" s="6">
-        <v>1</v>
+      <c r="E199" s="4">
+        <v>1000</v>
       </c>
       <c r="F199" s="6">
         <v>10</v>
@@ -11887,8 +11887,8 @@
       <c r="D200" s="6">
         <v>673</v>
       </c>
-      <c r="E200" s="6">
-        <v>1</v>
+      <c r="E200" s="4">
+        <v>1000</v>
       </c>
       <c r="F200" s="6">
         <v>10</v>
@@ -11934,8 +11934,8 @@
       <c r="D201" s="6">
         <v>680</v>
       </c>
-      <c r="E201" s="6">
-        <v>1</v>
+      <c r="E201" s="4">
+        <v>1000</v>
       </c>
       <c r="F201" s="6">
         <v>10</v>
@@ -11981,8 +11981,8 @@
       <c r="D202" s="6">
         <v>686</v>
       </c>
-      <c r="E202" s="6">
-        <v>1</v>
+      <c r="E202" s="4">
+        <v>1000</v>
       </c>
       <c r="F202" s="6">
         <v>10</v>
@@ -12028,8 +12028,8 @@
       <c r="D203" s="6">
         <v>694</v>
       </c>
-      <c r="E203" s="6">
-        <v>1</v>
+      <c r="E203" s="4">
+        <v>1000</v>
       </c>
       <c r="F203" s="6">
         <v>10</v>
@@ -12075,8 +12075,8 @@
       <c r="D204" s="6">
         <v>701</v>
       </c>
-      <c r="E204" s="6">
-        <v>1</v>
+      <c r="E204" s="4">
+        <v>1000</v>
       </c>
       <c r="F204" s="6">
         <v>10</v>
@@ -12122,8 +12122,8 @@
       <c r="D205" s="6">
         <v>707</v>
       </c>
-      <c r="E205" s="6">
-        <v>1</v>
+      <c r="E205" s="4">
+        <v>1000</v>
       </c>
       <c r="F205" s="6">
         <v>10</v>
@@ -12169,8 +12169,8 @@
       <c r="D206" s="6">
         <v>714</v>
       </c>
-      <c r="E206" s="6">
-        <v>1</v>
+      <c r="E206" s="4">
+        <v>1000</v>
       </c>
       <c r="F206" s="6">
         <v>10</v>
@@ -12216,8 +12216,8 @@
       <c r="D207" s="6">
         <v>722</v>
       </c>
-      <c r="E207" s="6">
-        <v>1</v>
+      <c r="E207" s="4">
+        <v>1000</v>
       </c>
       <c r="F207" s="6">
         <v>10</v>
@@ -12263,8 +12263,8 @@
       <c r="D208" s="6">
         <v>729</v>
       </c>
-      <c r="E208" s="6">
-        <v>1</v>
+      <c r="E208" s="4">
+        <v>1000</v>
       </c>
       <c r="F208" s="6">
         <v>10</v>
@@ -12310,8 +12310,8 @@
       <c r="D209" s="6">
         <v>736</v>
       </c>
-      <c r="E209" s="6">
-        <v>1</v>
+      <c r="E209" s="4">
+        <v>1000</v>
       </c>
       <c r="F209" s="6">
         <v>10</v>
@@ -12357,8 +12357,8 @@
       <c r="D210" s="6">
         <v>742</v>
       </c>
-      <c r="E210" s="6">
-        <v>1</v>
+      <c r="E210" s="4">
+        <v>1000</v>
       </c>
       <c r="F210" s="6">
         <v>10</v>
@@ -12404,8 +12404,8 @@
       <c r="D211" s="6">
         <v>749</v>
       </c>
-      <c r="E211" s="6">
-        <v>1</v>
+      <c r="E211" s="4">
+        <v>1000</v>
       </c>
       <c r="F211" s="6">
         <v>10</v>
@@ -12451,8 +12451,8 @@
       <c r="D212" s="5">
         <v>757</v>
       </c>
-      <c r="E212" s="5">
-        <v>1</v>
+      <c r="E212" s="3">
+        <v>1000</v>
       </c>
       <c r="F212" s="5">
         <v>10</v>
@@ -12492,8 +12492,8 @@
       <c r="D213" s="5">
         <v>764</v>
       </c>
-      <c r="E213" s="5">
-        <v>1</v>
+      <c r="E213" s="3">
+        <v>1000</v>
       </c>
       <c r="F213" s="5">
         <v>10</v>
@@ -12533,8 +12533,8 @@
       <c r="D214" s="5">
         <v>770</v>
       </c>
-      <c r="E214" s="5">
-        <v>1</v>
+      <c r="E214" s="3">
+        <v>1000</v>
       </c>
       <c r="F214" s="5">
         <v>10</v>
@@ -12574,8 +12574,8 @@
       <c r="D215" s="5">
         <v>778</v>
       </c>
-      <c r="E215" s="5">
-        <v>1</v>
+      <c r="E215" s="3">
+        <v>1000</v>
       </c>
       <c r="F215" s="5">
         <v>10</v>
@@ -12615,8 +12615,8 @@
       <c r="D216" s="5">
         <v>785</v>
       </c>
-      <c r="E216" s="5">
-        <v>1</v>
+      <c r="E216" s="3">
+        <v>1000</v>
       </c>
       <c r="F216" s="5">
         <v>10</v>
@@ -12656,8 +12656,8 @@
       <c r="D217" s="5">
         <v>791</v>
       </c>
-      <c r="E217" s="5">
-        <v>1</v>
+      <c r="E217" s="3">
+        <v>1000</v>
       </c>
       <c r="F217" s="5">
         <v>10</v>
@@ -12697,8 +12697,8 @@
       <c r="D218" s="5">
         <v>799</v>
       </c>
-      <c r="E218" s="5">
-        <v>1</v>
+      <c r="E218" s="3">
+        <v>1000</v>
       </c>
       <c r="F218" s="5">
         <v>10</v>
@@ -12738,8 +12738,8 @@
       <c r="D219" s="5">
         <v>806</v>
       </c>
-      <c r="E219" s="5">
-        <v>1</v>
+      <c r="E219" s="3">
+        <v>1000</v>
       </c>
       <c r="F219" s="5">
         <v>10</v>
@@ -12779,8 +12779,8 @@
       <c r="D220" s="5">
         <v>812</v>
       </c>
-      <c r="E220" s="5">
-        <v>1</v>
+      <c r="E220" s="3">
+        <v>1000</v>
       </c>
       <c r="F220" s="5">
         <v>10</v>
@@ -12820,8 +12820,8 @@
       <c r="D221" s="5">
         <v>819</v>
       </c>
-      <c r="E221" s="5">
-        <v>1</v>
+      <c r="E221" s="3">
+        <v>1000</v>
       </c>
       <c r="F221" s="5">
         <v>10</v>
@@ -12861,8 +12861,8 @@
       <c r="D222" s="5">
         <v>827</v>
       </c>
-      <c r="E222" s="5">
-        <v>1</v>
+      <c r="E222" s="3">
+        <v>1000</v>
       </c>
       <c r="F222" s="5">
         <v>10</v>
@@ -12902,8 +12902,8 @@
       <c r="D223" s="5">
         <v>834</v>
       </c>
-      <c r="E223" s="5">
-        <v>1</v>
+      <c r="E223" s="3">
+        <v>1000</v>
       </c>
       <c r="F223" s="5">
         <v>10</v>
@@ -12943,8 +12943,8 @@
       <c r="D224" s="5">
         <v>841</v>
       </c>
-      <c r="E224" s="5">
-        <v>1</v>
+      <c r="E224" s="3">
+        <v>1000</v>
       </c>
       <c r="F224" s="5">
         <v>10</v>
@@ -12984,8 +12984,8 @@
       <c r="D225" s="5">
         <v>847</v>
       </c>
-      <c r="E225" s="5">
-        <v>1</v>
+      <c r="E225" s="3">
+        <v>1000</v>
       </c>
       <c r="F225" s="5">
         <v>10</v>
@@ -13025,8 +13025,8 @@
       <c r="D226" s="5">
         <v>854</v>
       </c>
-      <c r="E226" s="5">
-        <v>1</v>
+      <c r="E226" s="3">
+        <v>1000</v>
       </c>
       <c r="F226" s="5">
         <v>10</v>
@@ -13066,8 +13066,8 @@
       <c r="D227" s="6">
         <v>863</v>
       </c>
-      <c r="E227" s="6">
-        <v>1</v>
+      <c r="E227" s="4">
+        <v>1000</v>
       </c>
       <c r="F227" s="6">
         <v>10</v>
@@ -13113,8 +13113,8 @@
       <c r="D228" s="6">
         <v>871</v>
       </c>
-      <c r="E228" s="6">
-        <v>1</v>
+      <c r="E228" s="4">
+        <v>1000</v>
       </c>
       <c r="F228" s="6">
         <v>10</v>
@@ -13160,8 +13160,8 @@
       <c r="D229" s="6">
         <v>878</v>
       </c>
-      <c r="E229" s="6">
-        <v>1</v>
+      <c r="E229" s="4">
+        <v>1000</v>
       </c>
       <c r="F229" s="6">
         <v>10</v>
@@ -13207,8 +13207,8 @@
       <c r="D230" s="6">
         <v>887</v>
       </c>
-      <c r="E230" s="6">
-        <v>1</v>
+      <c r="E230" s="4">
+        <v>1000</v>
       </c>
       <c r="F230" s="6">
         <v>10</v>
@@ -13254,8 +13254,8 @@
       <c r="D231" s="6">
         <v>895</v>
       </c>
-      <c r="E231" s="6">
-        <v>1</v>
+      <c r="E231" s="4">
+        <v>1000</v>
       </c>
       <c r="F231" s="6">
         <v>10</v>
@@ -13301,8 +13301,8 @@
       <c r="D232" s="6">
         <v>902</v>
       </c>
-      <c r="E232" s="6">
-        <v>1</v>
+      <c r="E232" s="4">
+        <v>1000</v>
       </c>
       <c r="F232" s="6">
         <v>10</v>
@@ -13348,8 +13348,8 @@
       <c r="D233" s="6">
         <v>911</v>
       </c>
-      <c r="E233" s="6">
-        <v>1</v>
+      <c r="E233" s="4">
+        <v>1000</v>
       </c>
       <c r="F233" s="6">
         <v>10</v>
@@ -13395,8 +13395,8 @@
       <c r="D234" s="6">
         <v>919</v>
       </c>
-      <c r="E234" s="6">
-        <v>1</v>
+      <c r="E234" s="4">
+        <v>1000</v>
       </c>
       <c r="F234" s="6">
         <v>10</v>
@@ -13442,8 +13442,8 @@
       <c r="D235" s="6">
         <v>926</v>
       </c>
-      <c r="E235" s="6">
-        <v>1</v>
+      <c r="E235" s="4">
+        <v>1000</v>
       </c>
       <c r="F235" s="6">
         <v>10</v>
@@ -13489,8 +13489,8 @@
       <c r="D236" s="6">
         <v>934</v>
       </c>
-      <c r="E236" s="6">
-        <v>1</v>
+      <c r="E236" s="4">
+        <v>1000</v>
       </c>
       <c r="F236" s="6">
         <v>10</v>
@@ -13536,8 +13536,8 @@
       <c r="D237" s="6">
         <v>943</v>
       </c>
-      <c r="E237" s="6">
-        <v>1</v>
+      <c r="E237" s="4">
+        <v>1000</v>
       </c>
       <c r="F237" s="6">
         <v>10</v>
@@ -13583,8 +13583,8 @@
       <c r="D238" s="6">
         <v>951</v>
       </c>
-      <c r="E238" s="6">
-        <v>1</v>
+      <c r="E238" s="4">
+        <v>1000</v>
       </c>
       <c r="F238" s="6">
         <v>10</v>
@@ -13630,8 +13630,8 @@
       <c r="D239" s="6">
         <v>959</v>
       </c>
-      <c r="E239" s="6">
-        <v>1</v>
+      <c r="E239" s="4">
+        <v>1000</v>
       </c>
       <c r="F239" s="6">
         <v>10</v>
@@ -13677,8 +13677,8 @@
       <c r="D240" s="6">
         <v>966</v>
       </c>
-      <c r="E240" s="6">
-        <v>1</v>
+      <c r="E240" s="4">
+        <v>1000</v>
       </c>
       <c r="F240" s="6">
         <v>10</v>
@@ -13724,8 +13724,8 @@
       <c r="D241" s="6">
         <v>974</v>
       </c>
-      <c r="E241" s="6">
-        <v>1</v>
+      <c r="E241" s="4">
+        <v>1000</v>
       </c>
       <c r="F241" s="6">
         <v>10</v>
@@ -13771,8 +13771,8 @@
       <c r="D242" s="5">
         <v>983</v>
       </c>
-      <c r="E242" s="5">
-        <v>1</v>
+      <c r="E242" s="3">
+        <v>1000</v>
       </c>
       <c r="F242" s="5">
         <v>10</v>
@@ -13812,8 +13812,8 @@
       <c r="D243" s="5">
         <v>991</v>
       </c>
-      <c r="E243" s="5">
-        <v>1</v>
+      <c r="E243" s="3">
+        <v>1000</v>
       </c>
       <c r="F243" s="5">
         <v>10</v>
@@ -13853,8 +13853,8 @@
       <c r="D244" s="5">
         <v>998</v>
       </c>
-      <c r="E244" s="5">
-        <v>1</v>
+      <c r="E244" s="3">
+        <v>1000</v>
       </c>
       <c r="F244" s="5">
         <v>10</v>
@@ -13894,8 +13894,8 @@
       <c r="D245" s="5">
         <v>1007</v>
       </c>
-      <c r="E245" s="5">
-        <v>1</v>
+      <c r="E245" s="3">
+        <v>1000</v>
       </c>
       <c r="F245" s="5">
         <v>10</v>
@@ -13935,8 +13935,8 @@
       <c r="D246" s="5">
         <v>1015</v>
       </c>
-      <c r="E246" s="5">
-        <v>1</v>
+      <c r="E246" s="3">
+        <v>1000</v>
       </c>
       <c r="F246" s="5">
         <v>10</v>
@@ -13976,8 +13976,8 @@
       <c r="D247" s="5">
         <v>1022</v>
       </c>
-      <c r="E247" s="5">
-        <v>1</v>
+      <c r="E247" s="3">
+        <v>1000</v>
       </c>
       <c r="F247" s="5">
         <v>10</v>
@@ -14017,8 +14017,8 @@
       <c r="D248" s="5">
         <v>1031</v>
       </c>
-      <c r="E248" s="5">
-        <v>1</v>
+      <c r="E248" s="3">
+        <v>1000</v>
       </c>
       <c r="F248" s="5">
         <v>10</v>
@@ -14058,8 +14058,8 @@
       <c r="D249" s="5">
         <v>1039</v>
       </c>
-      <c r="E249" s="5">
-        <v>1</v>
+      <c r="E249" s="3">
+        <v>1000</v>
       </c>
       <c r="F249" s="5">
         <v>10</v>
@@ -14099,8 +14099,8 @@
       <c r="D250" s="5">
         <v>1046</v>
       </c>
-      <c r="E250" s="5">
-        <v>1</v>
+      <c r="E250" s="3">
+        <v>1000</v>
       </c>
       <c r="F250" s="5">
         <v>10</v>
@@ -14140,8 +14140,8 @@
       <c r="D251" s="5">
         <v>1054</v>
       </c>
-      <c r="E251" s="5">
-        <v>1</v>
+      <c r="E251" s="3">
+        <v>1000</v>
       </c>
       <c r="F251" s="5">
         <v>10</v>
@@ -14181,8 +14181,8 @@
       <c r="D252" s="5">
         <v>1063</v>
       </c>
-      <c r="E252" s="5">
-        <v>1</v>
+      <c r="E252" s="3">
+        <v>1000</v>
       </c>
       <c r="F252" s="5">
         <v>10</v>
@@ -14222,8 +14222,8 @@
       <c r="D253" s="5">
         <v>1071</v>
       </c>
-      <c r="E253" s="5">
-        <v>1</v>
+      <c r="E253" s="3">
+        <v>1000</v>
       </c>
       <c r="F253" s="5">
         <v>10</v>
@@ -14263,8 +14263,8 @@
       <c r="D254" s="5">
         <v>1079</v>
       </c>
-      <c r="E254" s="5">
-        <v>1</v>
+      <c r="E254" s="3">
+        <v>1000</v>
       </c>
       <c r="F254" s="5">
         <v>10</v>
@@ -14304,8 +14304,8 @@
       <c r="D255" s="5">
         <v>1086</v>
       </c>
-      <c r="E255" s="5">
-        <v>1</v>
+      <c r="E255" s="3">
+        <v>1000</v>
       </c>
       <c r="F255" s="5">
         <v>10</v>
@@ -14345,8 +14345,8 @@
       <c r="D256" s="5">
         <v>1094</v>
       </c>
-      <c r="E256" s="5">
-        <v>1</v>
+      <c r="E256" s="3">
+        <v>1000</v>
       </c>
       <c r="F256" s="5">
         <v>10</v>
@@ -14386,8 +14386,8 @@
       <c r="D257" s="6">
         <v>1104</v>
       </c>
-      <c r="E257" s="6">
-        <v>1</v>
+      <c r="E257" s="4">
+        <v>1000</v>
       </c>
       <c r="F257" s="6">
         <v>10</v>
@@ -14433,8 +14433,8 @@
       <c r="D258" s="6">
         <v>1113</v>
       </c>
-      <c r="E258" s="6">
-        <v>1</v>
+      <c r="E258" s="4">
+        <v>1000</v>
       </c>
       <c r="F258" s="6">
         <v>10</v>
@@ -14480,8 +14480,8 @@
       <c r="D259" s="6">
         <v>1121</v>
       </c>
-      <c r="E259" s="6">
-        <v>1</v>
+      <c r="E259" s="4">
+        <v>1000</v>
       </c>
       <c r="F259" s="6">
         <v>10</v>
@@ -14527,8 +14527,8 @@
       <c r="D260" s="6">
         <v>1131</v>
       </c>
-      <c r="E260" s="6">
-        <v>1</v>
+      <c r="E260" s="4">
+        <v>1000</v>
       </c>
       <c r="F260" s="6">
         <v>10</v>
@@ -14574,8 +14574,8 @@
       <c r="D261" s="6">
         <v>1140</v>
       </c>
-      <c r="E261" s="6">
-        <v>1</v>
+      <c r="E261" s="4">
+        <v>1000</v>
       </c>
       <c r="F261" s="6">
         <v>10</v>
@@ -14621,8 +14621,8 @@
       <c r="D262" s="6">
         <v>1148</v>
       </c>
-      <c r="E262" s="6">
-        <v>1</v>
+      <c r="E262" s="4">
+        <v>1000</v>
       </c>
       <c r="F262" s="6">
         <v>10</v>
@@ -14668,8 +14668,8 @@
       <c r="D263" s="6">
         <v>1158</v>
       </c>
-      <c r="E263" s="6">
-        <v>1</v>
+      <c r="E263" s="4">
+        <v>1000</v>
       </c>
       <c r="F263" s="6">
         <v>10</v>
@@ -14715,8 +14715,8 @@
       <c r="D264" s="6">
         <v>1167</v>
       </c>
-      <c r="E264" s="6">
-        <v>1</v>
+      <c r="E264" s="4">
+        <v>1000</v>
       </c>
       <c r="F264" s="6">
         <v>10</v>
@@ -14762,8 +14762,8 @@
       <c r="D265" s="6">
         <v>1175</v>
       </c>
-      <c r="E265" s="6">
-        <v>1</v>
+      <c r="E265" s="4">
+        <v>1000</v>
       </c>
       <c r="F265" s="6">
         <v>10</v>
@@ -14809,8 +14809,8 @@
       <c r="D266" s="6">
         <v>1184</v>
       </c>
-      <c r="E266" s="6">
-        <v>1</v>
+      <c r="E266" s="4">
+        <v>1000</v>
       </c>
       <c r="F266" s="6">
         <v>10</v>
@@ -14856,8 +14856,8 @@
       <c r="D267" s="6">
         <v>1194</v>
       </c>
-      <c r="E267" s="6">
-        <v>1</v>
+      <c r="E267" s="4">
+        <v>1000</v>
       </c>
       <c r="F267" s="6">
         <v>10</v>
@@ -14903,8 +14903,8 @@
       <c r="D268" s="6">
         <v>1203</v>
       </c>
-      <c r="E268" s="6">
-        <v>1</v>
+      <c r="E268" s="4">
+        <v>1000</v>
       </c>
       <c r="F268" s="6">
         <v>10</v>
@@ -14950,8 +14950,8 @@
       <c r="D269" s="6">
         <v>1212</v>
       </c>
-      <c r="E269" s="6">
-        <v>1</v>
+      <c r="E269" s="4">
+        <v>1000</v>
       </c>
       <c r="F269" s="6">
         <v>10</v>
@@ -14997,8 +14997,8 @@
       <c r="D270" s="6">
         <v>1220</v>
       </c>
-      <c r="E270" s="6">
-        <v>1</v>
+      <c r="E270" s="4">
+        <v>1000</v>
       </c>
       <c r="F270" s="6">
         <v>10</v>
@@ -15044,8 +15044,8 @@
       <c r="D271" s="6">
         <v>1229</v>
       </c>
-      <c r="E271" s="6">
-        <v>1</v>
+      <c r="E271" s="4">
+        <v>1000</v>
       </c>
       <c r="F271" s="6">
         <v>10</v>
@@ -15091,8 +15091,8 @@
       <c r="D272" s="5">
         <v>1239</v>
       </c>
-      <c r="E272" s="5">
-        <v>1</v>
+      <c r="E272" s="3">
+        <v>1000</v>
       </c>
       <c r="F272" s="5">
         <v>10</v>
@@ -15132,8 +15132,8 @@
       <c r="D273" s="5">
         <v>1248</v>
       </c>
-      <c r="E273" s="5">
-        <v>1</v>
+      <c r="E273" s="3">
+        <v>1000</v>
       </c>
       <c r="F273" s="5">
         <v>10</v>
@@ -15173,8 +15173,8 @@
       <c r="D274" s="5">
         <v>1256</v>
       </c>
-      <c r="E274" s="5">
-        <v>1</v>
+      <c r="E274" s="3">
+        <v>1000</v>
       </c>
       <c r="F274" s="5">
         <v>10</v>
@@ -15214,8 +15214,8 @@
       <c r="D275" s="5">
         <v>1266</v>
       </c>
-      <c r="E275" s="5">
-        <v>1</v>
+      <c r="E275" s="3">
+        <v>1000</v>
       </c>
       <c r="F275" s="5">
         <v>10</v>
@@ -15255,8 +15255,8 @@
       <c r="D276" s="5">
         <v>1275</v>
       </c>
-      <c r="E276" s="5">
-        <v>1</v>
+      <c r="E276" s="3">
+        <v>1000</v>
       </c>
       <c r="F276" s="5">
         <v>10</v>
@@ -15296,8 +15296,8 @@
       <c r="D277" s="5">
         <v>1283</v>
       </c>
-      <c r="E277" s="5">
-        <v>1</v>
+      <c r="E277" s="3">
+        <v>1000</v>
       </c>
       <c r="F277" s="5">
         <v>10</v>
@@ -15337,8 +15337,8 @@
       <c r="D278" s="5">
         <v>1293</v>
       </c>
-      <c r="E278" s="5">
-        <v>1</v>
+      <c r="E278" s="3">
+        <v>1000</v>
       </c>
       <c r="F278" s="5">
         <v>10</v>
@@ -15378,8 +15378,8 @@
       <c r="D279" s="5">
         <v>1302</v>
       </c>
-      <c r="E279" s="5">
-        <v>1</v>
+      <c r="E279" s="3">
+        <v>1000</v>
       </c>
       <c r="F279" s="5">
         <v>10</v>
@@ -15419,8 +15419,8 @@
       <c r="D280" s="5">
         <v>1310</v>
       </c>
-      <c r="E280" s="5">
-        <v>1</v>
+      <c r="E280" s="3">
+        <v>1000</v>
       </c>
       <c r="F280" s="5">
         <v>10</v>
@@ -15460,8 +15460,8 @@
       <c r="D281" s="5">
         <v>1319</v>
       </c>
-      <c r="E281" s="5">
-        <v>1</v>
+      <c r="E281" s="3">
+        <v>1000</v>
       </c>
       <c r="F281" s="5">
         <v>10</v>
@@ -15501,8 +15501,8 @@
       <c r="D282" s="5">
         <v>1329</v>
       </c>
-      <c r="E282" s="5">
-        <v>1</v>
+      <c r="E282" s="3">
+        <v>1000</v>
       </c>
       <c r="F282" s="5">
         <v>10</v>
@@ -15542,8 +15542,8 @@
       <c r="D283" s="5">
         <v>1338</v>
       </c>
-      <c r="E283" s="5">
-        <v>1</v>
+      <c r="E283" s="3">
+        <v>1000</v>
       </c>
       <c r="F283" s="5">
         <v>10</v>
@@ -15583,8 +15583,8 @@
       <c r="D284" s="5">
         <v>1347</v>
       </c>
-      <c r="E284" s="5">
-        <v>1</v>
+      <c r="E284" s="3">
+        <v>1000</v>
       </c>
       <c r="F284" s="5">
         <v>10</v>
@@ -15624,8 +15624,8 @@
       <c r="D285" s="5">
         <v>1355</v>
       </c>
-      <c r="E285" s="5">
-        <v>1</v>
+      <c r="E285" s="3">
+        <v>1000</v>
       </c>
       <c r="F285" s="5">
         <v>10</v>
@@ -15665,8 +15665,8 @@
       <c r="D286" s="5">
         <v>1364</v>
       </c>
-      <c r="E286" s="5">
-        <v>1</v>
+      <c r="E286" s="3">
+        <v>1000</v>
       </c>
       <c r="F286" s="5">
         <v>10</v>
@@ -15706,8 +15706,8 @@
       <c r="D287" s="6">
         <v>1375</v>
       </c>
-      <c r="E287" s="6">
-        <v>1</v>
+      <c r="E287" s="4">
+        <v>1000</v>
       </c>
       <c r="F287" s="6">
         <v>10</v>
@@ -15753,8 +15753,8 @@
       <c r="D288" s="6">
         <v>1385</v>
       </c>
-      <c r="E288" s="6">
-        <v>1</v>
+      <c r="E288" s="4">
+        <v>1000</v>
       </c>
       <c r="F288" s="6">
         <v>10</v>
@@ -15800,8 +15800,8 @@
       <c r="D289" s="6">
         <v>1394</v>
       </c>
-      <c r="E289" s="6">
-        <v>1</v>
+      <c r="E289" s="4">
+        <v>1000</v>
       </c>
       <c r="F289" s="6">
         <v>10</v>
@@ -15847,8 +15847,8 @@
       <c r="D290" s="6">
         <v>1405</v>
       </c>
-      <c r="E290" s="6">
-        <v>1</v>
+      <c r="E290" s="4">
+        <v>1000</v>
       </c>
       <c r="F290" s="6">
         <v>10</v>
@@ -15894,8 +15894,8 @@
       <c r="D291" s="6">
         <v>1415</v>
       </c>
-      <c r="E291" s="6">
-        <v>1</v>
+      <c r="E291" s="4">
+        <v>1000</v>
       </c>
       <c r="F291" s="6">
         <v>10</v>
@@ -15941,8 +15941,8 @@
       <c r="D292" s="6">
         <v>1424</v>
       </c>
-      <c r="E292" s="6">
-        <v>1</v>
+      <c r="E292" s="4">
+        <v>1000</v>
       </c>
       <c r="F292" s="6">
         <v>10</v>
@@ -15988,8 +15988,8 @@
       <c r="D293" s="6">
         <v>1435</v>
       </c>
-      <c r="E293" s="6">
-        <v>1</v>
+      <c r="E293" s="4">
+        <v>1000</v>
       </c>
       <c r="F293" s="6">
         <v>10</v>
@@ -16035,8 +16035,8 @@
       <c r="D294" s="6">
         <v>1445</v>
       </c>
-      <c r="E294" s="6">
-        <v>1</v>
+      <c r="E294" s="4">
+        <v>1000</v>
       </c>
       <c r="F294" s="6">
         <v>10</v>
@@ -16082,8 +16082,8 @@
       <c r="D295" s="6">
         <v>1454</v>
       </c>
-      <c r="E295" s="6">
-        <v>1</v>
+      <c r="E295" s="4">
+        <v>1000</v>
       </c>
       <c r="F295" s="6">
         <v>10</v>
@@ -16129,8 +16129,8 @@
       <c r="D296" s="6">
         <v>1464</v>
       </c>
-      <c r="E296" s="6">
-        <v>1</v>
+      <c r="E296" s="4">
+        <v>1000</v>
       </c>
       <c r="F296" s="6">
         <v>10</v>
@@ -16176,8 +16176,8 @@
       <c r="D297" s="6">
         <v>1475</v>
       </c>
-      <c r="E297" s="6">
-        <v>1</v>
+      <c r="E297" s="4">
+        <v>1000</v>
       </c>
       <c r="F297" s="6">
         <v>10</v>
@@ -16223,8 +16223,8 @@
       <c r="D298" s="6">
         <v>1485</v>
       </c>
-      <c r="E298" s="6">
-        <v>1</v>
+      <c r="E298" s="4">
+        <v>1000</v>
       </c>
       <c r="F298" s="6">
         <v>10</v>
@@ -16270,8 +16270,8 @@
       <c r="D299" s="6">
         <v>1495</v>
       </c>
-      <c r="E299" s="6">
-        <v>1</v>
+      <c r="E299" s="4">
+        <v>1000</v>
       </c>
       <c r="F299" s="6">
         <v>10</v>
@@ -16317,8 +16317,8 @@
       <c r="D300" s="6">
         <v>1504</v>
       </c>
-      <c r="E300" s="6">
-        <v>1</v>
+      <c r="E300" s="4">
+        <v>1000</v>
       </c>
       <c r="F300" s="6">
         <v>10</v>
@@ -16364,8 +16364,8 @@
       <c r="D301" s="6">
         <v>1514</v>
       </c>
-      <c r="E301" s="6">
-        <v>1</v>
+      <c r="E301" s="4">
+        <v>1000</v>
       </c>
       <c r="F301" s="6">
         <v>10</v>
@@ -16411,8 +16411,8 @@
       <c r="D302" s="5">
         <v>1525</v>
       </c>
-      <c r="E302" s="5">
-        <v>1</v>
+      <c r="E302" s="3">
+        <v>1000</v>
       </c>
       <c r="F302" s="5">
         <v>10</v>
@@ -16452,8 +16452,8 @@
       <c r="D303" s="5">
         <v>1535</v>
       </c>
-      <c r="E303" s="5">
-        <v>1</v>
+      <c r="E303" s="3">
+        <v>1000</v>
       </c>
       <c r="F303" s="5">
         <v>10</v>
@@ -16493,8 +16493,8 @@
       <c r="D304" s="5">
         <v>1544</v>
       </c>
-      <c r="E304" s="5">
-        <v>1</v>
+      <c r="E304" s="3">
+        <v>1000</v>
       </c>
       <c r="F304" s="5">
         <v>10</v>
@@ -16534,8 +16534,8 @@
       <c r="D305" s="5">
         <v>1555</v>
       </c>
-      <c r="E305" s="5">
-        <v>1</v>
+      <c r="E305" s="3">
+        <v>1000</v>
       </c>
       <c r="F305" s="5">
         <v>10</v>
@@ -16575,8 +16575,8 @@
       <c r="D306" s="5">
         <v>1565</v>
       </c>
-      <c r="E306" s="5">
-        <v>1</v>
+      <c r="E306" s="3">
+        <v>1000</v>
       </c>
       <c r="F306" s="5">
         <v>10</v>
@@ -16616,8 +16616,8 @@
       <c r="D307" s="5">
         <v>1574</v>
       </c>
-      <c r="E307" s="5">
-        <v>1</v>
+      <c r="E307" s="3">
+        <v>1000</v>
       </c>
       <c r="F307" s="5">
         <v>10</v>
@@ -16657,8 +16657,8 @@
       <c r="D308" s="5">
         <v>1585</v>
       </c>
-      <c r="E308" s="5">
-        <v>1</v>
+      <c r="E308" s="3">
+        <v>1000</v>
       </c>
       <c r="F308" s="5">
         <v>10</v>
@@ -16698,8 +16698,8 @@
       <c r="D309" s="5">
         <v>1595</v>
       </c>
-      <c r="E309" s="5">
-        <v>1</v>
+      <c r="E309" s="3">
+        <v>1000</v>
       </c>
       <c r="F309" s="5">
         <v>10</v>
@@ -16739,8 +16739,8 @@
       <c r="D310" s="5">
         <v>1604</v>
       </c>
-      <c r="E310" s="5">
-        <v>1</v>
+      <c r="E310" s="3">
+        <v>1000</v>
       </c>
       <c r="F310" s="5">
         <v>10</v>
@@ -16780,8 +16780,8 @@
       <c r="D311" s="5">
         <v>1614</v>
       </c>
-      <c r="E311" s="5">
-        <v>1</v>
+      <c r="E311" s="3">
+        <v>1000</v>
       </c>
       <c r="F311" s="5">
         <v>10</v>
@@ -16821,8 +16821,8 @@
       <c r="D312" s="5">
         <v>1625</v>
       </c>
-      <c r="E312" s="5">
-        <v>1</v>
+      <c r="E312" s="3">
+        <v>1000</v>
       </c>
       <c r="F312" s="5">
         <v>10</v>
@@ -16862,8 +16862,8 @@
       <c r="D313" s="5">
         <v>1635</v>
       </c>
-      <c r="E313" s="5">
-        <v>1</v>
+      <c r="E313" s="3">
+        <v>1000</v>
       </c>
       <c r="F313" s="5">
         <v>10</v>
@@ -16903,8 +16903,8 @@
       <c r="D314" s="5">
         <v>1645</v>
       </c>
-      <c r="E314" s="5">
-        <v>1</v>
+      <c r="E314" s="3">
+        <v>1000</v>
       </c>
       <c r="F314" s="5">
         <v>10</v>
@@ -16944,8 +16944,8 @@
       <c r="D315" s="5">
         <v>1654</v>
       </c>
-      <c r="E315" s="5">
-        <v>1</v>
+      <c r="E315" s="3">
+        <v>1000</v>
       </c>
       <c r="F315" s="5">
         <v>10</v>
@@ -16985,8 +16985,8 @@
       <c r="D316" s="5">
         <v>1664</v>
       </c>
-      <c r="E316" s="5">
-        <v>1</v>
+      <c r="E316" s="3">
+        <v>1000</v>
       </c>
       <c r="F316" s="5">
         <v>10</v>
@@ -17027,7 +17027,7 @@
         <v>30</v>
       </c>
       <c r="E317" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F317" s="9">
         <v>10</v>
@@ -17074,7 +17074,7 @@
         <v>40</v>
       </c>
       <c r="E318" s="9">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F318" s="9">
         <v>10</v>
@@ -17121,7 +17121,7 @@
         <v>70</v>
       </c>
       <c r="E319" s="9">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="F319" s="9">
         <v>10</v>
@@ -17168,7 +17168,7 @@
         <v>100</v>
       </c>
       <c r="E320" s="9">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="F320" s="9">
         <v>10</v>
@@ -17215,7 +17215,7 @@
         <v>130</v>
       </c>
       <c r="E321" s="9">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F321" s="9">
         <v>10</v>
@@ -17262,7 +17262,7 @@
         <v>160</v>
       </c>
       <c r="E322" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F322" s="9">
         <v>10</v>
@@ -17309,7 +17309,7 @@
         <v>190</v>
       </c>
       <c r="E323" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F323" s="9">
         <v>10</v>
@@ -17356,7 +17356,7 @@
         <v>220</v>
       </c>
       <c r="E324" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F324" s="9">
         <v>10</v>
@@ -17403,7 +17403,7 @@
         <v>250</v>
       </c>
       <c r="E325" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F325" s="9">
         <v>10</v>
@@ -17450,7 +17450,7 @@
         <v>280</v>
       </c>
       <c r="E326" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F326" s="9">
         <v>10</v>
@@ -17497,7 +17497,7 @@
         <v>310</v>
       </c>
       <c r="E327" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F327" s="9">
         <v>10</v>
@@ -17544,7 +17544,7 @@
         <v>340</v>
       </c>
       <c r="E328" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F328" s="9">
         <v>10</v>
@@ -17591,7 +17591,7 @@
         <v>370</v>
       </c>
       <c r="E329" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F329" s="9">
         <v>10</v>
@@ -17638,7 +17638,7 @@
         <v>400</v>
       </c>
       <c r="E330" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F330" s="9">
         <v>10</v>
@@ -17685,7 +17685,7 @@
         <v>430</v>
       </c>
       <c r="E331" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F331" s="9">
         <v>10</v>
@@ -17732,7 +17732,7 @@
         <v>460</v>
       </c>
       <c r="E332" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F332" s="9">
         <v>10</v>
@@ -17779,7 +17779,7 @@
         <v>490</v>
       </c>
       <c r="E333" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F333" s="9">
         <v>10</v>
@@ -17826,7 +17826,7 @@
         <v>520</v>
       </c>
       <c r="E334" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F334" s="9">
         <v>10</v>
@@ -17873,7 +17873,7 @@
         <v>550</v>
       </c>
       <c r="E335" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F335" s="9">
         <v>10</v>
@@ -17920,7 +17920,7 @@
         <v>580</v>
       </c>
       <c r="E336" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F336" s="9">
         <v>10</v>
@@ -17967,7 +17967,7 @@
         <v>610</v>
       </c>
       <c r="E337" s="9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F337" s="9">
         <v>10</v>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="6570" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -507,6 +507,9 @@
     <t>real_dam</t>
   </si>
   <si>
+    <t>range_type</t>
+  </si>
+  <si>
     <t>10000001,</t>
   </si>
 </sst>
@@ -515,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -537,122 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +567,121 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -701,19 +704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +752,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +818,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,19 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,103 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,17 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,26 +927,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,7 +950,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,9 +972,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:W337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,9 +1573,10 @@
     <col min="10" max="10" width="13.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1630,8 +1634,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>100110001</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -1689,8 +1696,11 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>100110002</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -1748,8 +1758,11 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>100210001</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1807,8 +1820,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>100210002</v>
       </c>
@@ -1831,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -1866,8 +1882,11 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>100310001</v>
       </c>
@@ -1890,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -1925,8 +1944,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>100310002</v>
       </c>
@@ -1949,7 +1971,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1984,8 +2006,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>100410001</v>
       </c>
@@ -2008,7 +2033,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -2043,8 +2068,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>100410002</v>
       </c>
@@ -2067,7 +2095,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -2102,8 +2130,11 @@
       <c r="S9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>100510001</v>
       </c>
@@ -2126,7 +2157,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -2161,8 +2192,11 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>100510002</v>
       </c>
@@ -2185,7 +2219,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -2220,8 +2254,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>100610001</v>
       </c>
@@ -2244,7 +2281,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -2279,8 +2316,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>100610002</v>
       </c>
@@ -2303,7 +2343,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -2338,8 +2378,11 @@
       <c r="S13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>100710001</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -2397,8 +2440,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>100710002</v>
       </c>
@@ -2421,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -2456,8 +2502,11 @@
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>100810001</v>
       </c>
@@ -2480,7 +2529,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2515,8 +2564,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17" s="5">
         <v>100810002</v>
       </c>
@@ -2539,7 +2591,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -2574,8 +2626,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:19">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
       <c r="A18" s="5">
         <v>100910001</v>
       </c>
@@ -2598,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -2633,8 +2688,11 @@
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:20">
       <c r="A19" s="5">
         <v>100910002</v>
       </c>
@@ -2657,7 +2715,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -2692,8 +2750,11 @@
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20" s="5">
         <v>101010001</v>
       </c>
@@ -2716,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -2751,8 +2812,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21" s="5">
         <v>101010002</v>
       </c>
@@ -2775,7 +2839,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -2810,8 +2874,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:20">
       <c r="A22" s="5">
         <v>101110001</v>
       </c>
@@ -2834,7 +2901,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -2869,8 +2936,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:19">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:20">
       <c r="A23" s="5">
         <v>101110002</v>
       </c>
@@ -2893,7 +2963,7 @@
         <v>52</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -2928,8 +2998,11 @@
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:20">
       <c r="A24" s="5">
         <v>101210001</v>
       </c>
@@ -2952,7 +3025,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -2987,8 +3060,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:20">
       <c r="A25" s="5">
         <v>101210002</v>
       </c>
@@ -3011,7 +3087,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -3046,8 +3122,11 @@
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:20">
       <c r="A26" s="5">
         <v>101310001</v>
       </c>
@@ -3070,7 +3149,7 @@
         <v>60</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -3105,8 +3184,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:20">
       <c r="A27" s="5">
         <v>101310002</v>
       </c>
@@ -3129,7 +3211,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
@@ -3164,8 +3246,11 @@
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:19">
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:20">
       <c r="A28" s="5">
         <v>101410001</v>
       </c>
@@ -3188,7 +3273,7 @@
         <v>63</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -3223,8 +3308,11 @@
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:20">
       <c r="A29" s="5">
         <v>101410002</v>
       </c>
@@ -3247,7 +3335,7 @@
         <v>58</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -3282,8 +3370,11 @@
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:20">
       <c r="A30" s="5">
         <v>101510001</v>
       </c>
@@ -3306,7 +3397,7 @@
         <v>66</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -3341,8 +3432,11 @@
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:19">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:20">
       <c r="A31" s="5">
         <v>101510002</v>
       </c>
@@ -3365,7 +3459,7 @@
         <v>61</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -3400,8 +3494,11 @@
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="6">
         <v>101610001</v>
       </c>
@@ -3424,7 +3521,7 @@
         <v>70</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -3459,8 +3556,11 @@
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="6">
         <v>101610002</v>
       </c>
@@ -3483,7 +3583,7 @@
         <v>63</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3516,6 +3616,9 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>0</v>
       </c>
     </row>
@@ -3542,7 +3645,7 @@
         <v>73</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -3577,7 +3680,9 @@
       <c r="S34">
         <v>0</v>
       </c>
-      <c r="T34" s="12"/>
+      <c r="T34">
+        <v>0</v>
+      </c>
       <c r="W34" s="12"/>
     </row>
     <row r="35" spans="1:23">
@@ -3603,7 +3708,7 @@
         <v>65</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -3638,11 +3743,13 @@
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35" s="12"/>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:20">
       <c r="A36" s="6">
         <v>101810001</v>
       </c>
@@ -3665,7 +3772,7 @@
         <v>76</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I36" s="6">
         <v>1</v>
@@ -3700,8 +3807,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="6">
         <v>101810002</v>
       </c>
@@ -3724,7 +3834,7 @@
         <v>67</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" s="6">
         <v>1</v>
@@ -3759,8 +3869,11 @@
       <c r="S37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="6">
         <v>101910001</v>
       </c>
@@ -3783,7 +3896,7 @@
         <v>80</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -3818,8 +3931,11 @@
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="6">
         <v>101910002</v>
       </c>
@@ -3842,7 +3958,7 @@
         <v>70</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
@@ -3877,8 +3993,11 @@
       <c r="S39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="6">
         <v>102010001</v>
       </c>
@@ -3901,7 +4020,7 @@
         <v>83</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -3936,8 +4055,11 @@
       <c r="S40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="6">
         <v>102010002</v>
       </c>
@@ -3960,7 +4082,7 @@
         <v>72</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -3995,8 +4117,11 @@
       <c r="S41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="6">
         <v>102110001</v>
       </c>
@@ -4019,7 +4144,7 @@
         <v>86</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" s="6">
         <v>1</v>
@@ -4054,8 +4179,11 @@
       <c r="S42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="6">
         <v>102110002</v>
       </c>
@@ -4078,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
@@ -4113,8 +4241,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="6">
         <v>102210001</v>
       </c>
@@ -4137,7 +4268,7 @@
         <v>90</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" s="6">
         <v>1</v>
@@ -4172,8 +4303,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="6">
         <v>102210002</v>
       </c>
@@ -4196,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" s="6">
         <v>1</v>
@@ -4231,8 +4365,11 @@
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="6">
         <v>102310001</v>
       </c>
@@ -4255,7 +4392,7 @@
         <v>93</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" s="6">
         <v>1</v>
@@ -4290,8 +4427,11 @@
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:19">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:20">
       <c r="A47" s="7">
         <v>102310002</v>
       </c>
@@ -4314,7 +4454,7 @@
         <v>78</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I47" s="7">
         <v>1</v>
@@ -4349,8 +4489,11 @@
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:19">
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:20">
       <c r="A48" s="7">
         <v>102410001</v>
       </c>
@@ -4373,7 +4516,7 @@
         <v>96</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" s="7">
         <v>1</v>
@@ -4408,8 +4551,11 @@
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:20">
       <c r="A49" s="7">
         <v>102410002</v>
       </c>
@@ -4432,7 +4578,7 @@
         <v>81</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -4467,8 +4613,11 @@
       <c r="S49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:19">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:20">
       <c r="A50" s="7">
         <v>102510001</v>
       </c>
@@ -4491,7 +4640,7 @@
         <v>100</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
@@ -4526,8 +4675,11 @@
       <c r="S50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:19">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:20">
       <c r="A51" s="7">
         <v>102510002</v>
       </c>
@@ -4550,7 +4702,7 @@
         <v>83</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I51" s="7">
         <v>1</v>
@@ -4585,8 +4737,11 @@
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:19">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:20">
       <c r="A52" s="7">
         <v>102610001</v>
       </c>
@@ -4609,7 +4764,7 @@
         <v>103</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" s="7">
         <v>1</v>
@@ -4644,8 +4799,11 @@
       <c r="S52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:19">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:20">
       <c r="A53" s="7">
         <v>102610002</v>
       </c>
@@ -4668,7 +4826,7 @@
         <v>85</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -4703,8 +4861,11 @@
       <c r="S53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:19">
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:20">
       <c r="A54" s="7">
         <v>102710001</v>
       </c>
@@ -4727,7 +4888,7 @@
         <v>106</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I54" s="7">
         <v>1</v>
@@ -4762,8 +4923,11 @@
       <c r="S54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:19">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:20">
       <c r="A55" s="7">
         <v>102710002</v>
       </c>
@@ -4786,7 +4950,7 @@
         <v>87</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" s="7">
         <v>1</v>
@@ -4821,8 +4985,11 @@
       <c r="S55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:19">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:20">
       <c r="A56" s="7">
         <v>102810001</v>
       </c>
@@ -4845,7 +5012,7 @@
         <v>110</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -4880,8 +5047,11 @@
       <c r="S56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:19">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:20">
       <c r="A57" s="7">
         <v>102810002</v>
       </c>
@@ -4904,7 +5074,7 @@
         <v>90</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -4939,8 +5109,11 @@
       <c r="S57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:19">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:20">
       <c r="A58" s="7">
         <v>102910001</v>
       </c>
@@ -4963,7 +5136,7 @@
         <v>113</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I58" s="7">
         <v>1</v>
@@ -4998,8 +5171,11 @@
       <c r="S58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:19">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:20">
       <c r="A59" s="7">
         <v>102910002</v>
       </c>
@@ -5022,7 +5198,7 @@
         <v>92</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -5057,8 +5233,11 @@
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:19">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:20">
       <c r="A60" s="7">
         <v>103010001</v>
       </c>
@@ -5081,7 +5260,7 @@
         <v>116</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -5116,8 +5295,11 @@
       <c r="S60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:19">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:20">
       <c r="A61" s="7">
         <v>103010002</v>
       </c>
@@ -5140,7 +5322,7 @@
         <v>94</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -5175,8 +5357,11 @@
       <c r="S61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="6">
         <v>103110001</v>
       </c>
@@ -5199,7 +5384,7 @@
         <v>120</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I62" s="6">
         <v>1</v>
@@ -5234,8 +5419,11 @@
       <c r="S62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="6">
         <v>103110002</v>
       </c>
@@ -5258,7 +5446,7 @@
         <v>96</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I63" s="6">
         <v>1</v>
@@ -5293,8 +5481,11 @@
       <c r="S63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="6">
         <v>103210001</v>
       </c>
@@ -5317,7 +5508,7 @@
         <v>123</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I64" s="6">
         <v>1</v>
@@ -5352,8 +5543,11 @@
       <c r="S64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="6">
         <v>103210002</v>
       </c>
@@ -5376,7 +5570,7 @@
         <v>98</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
@@ -5411,8 +5605,11 @@
       <c r="S65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="6">
         <v>103310001</v>
       </c>
@@ -5435,7 +5632,7 @@
         <v>126</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I66" s="6">
         <v>1</v>
@@ -5470,8 +5667,11 @@
       <c r="S66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="6">
         <v>103310002</v>
       </c>
@@ -5494,7 +5694,7 @@
         <v>101</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I67" s="6">
         <v>1</v>
@@ -5529,8 +5729,11 @@
       <c r="S67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="6">
         <v>103410001</v>
       </c>
@@ -5553,7 +5756,7 @@
         <v>130</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I68" s="6">
         <v>1</v>
@@ -5588,8 +5791,11 @@
       <c r="S68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="6">
         <v>103410002</v>
       </c>
@@ -5612,7 +5818,7 @@
         <v>103</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I69" s="6">
         <v>1</v>
@@ -5647,8 +5853,11 @@
       <c r="S69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="6">
         <v>103510001</v>
       </c>
@@ -5671,7 +5880,7 @@
         <v>133</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I70" s="6">
         <v>1</v>
@@ -5706,8 +5915,11 @@
       <c r="S70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="6">
         <v>103510002</v>
       </c>
@@ -5730,7 +5942,7 @@
         <v>105</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I71" s="6">
         <v>1</v>
@@ -5765,8 +5977,11 @@
       <c r="S71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="6">
         <v>103610001</v>
       </c>
@@ -5789,7 +6004,7 @@
         <v>136</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I72" s="6">
         <v>1</v>
@@ -5824,8 +6039,11 @@
       <c r="S72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="6">
         <v>103610002</v>
       </c>
@@ -5848,7 +6066,7 @@
         <v>107</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
@@ -5883,8 +6101,11 @@
       <c r="S73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="6">
         <v>103710001</v>
       </c>
@@ -5907,7 +6128,7 @@
         <v>140</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I74" s="6">
         <v>1</v>
@@ -5942,8 +6163,11 @@
       <c r="S74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="6">
         <v>103710002</v>
       </c>
@@ -5966,7 +6190,7 @@
         <v>110</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -6001,8 +6225,11 @@
       <c r="S75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="6">
         <v>103810001</v>
       </c>
@@ -6025,7 +6252,7 @@
         <v>143</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I76" s="6">
         <v>1</v>
@@ -6060,8 +6287,11 @@
       <c r="S76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:19">
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:20">
       <c r="A77" s="7">
         <v>103810002</v>
       </c>
@@ -6084,7 +6314,7 @@
         <v>112</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -6119,8 +6349,11 @@
       <c r="S77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:19">
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:20">
       <c r="A78" s="7">
         <v>103910001</v>
       </c>
@@ -6143,7 +6376,7 @@
         <v>146</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I78" s="7">
         <v>1</v>
@@ -6178,8 +6411,11 @@
       <c r="S78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:19">
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:20">
       <c r="A79" s="7">
         <v>103910002</v>
       </c>
@@ -6202,7 +6438,7 @@
         <v>114</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I79" s="7">
         <v>1</v>
@@ -6237,8 +6473,11 @@
       <c r="S79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:19">
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:20">
       <c r="A80" s="7">
         <v>104010001</v>
       </c>
@@ -6261,7 +6500,7 @@
         <v>150</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -6296,8 +6535,11 @@
       <c r="S80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:19">
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:20">
       <c r="A81" s="7">
         <v>104010002</v>
       </c>
@@ -6320,7 +6562,7 @@
         <v>116</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -6355,8 +6597,11 @@
       <c r="S81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:19">
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:20">
       <c r="A82" s="7">
         <v>104110001</v>
       </c>
@@ -6379,7 +6624,7 @@
         <v>153</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I82" s="7">
         <v>1</v>
@@ -6414,8 +6659,11 @@
       <c r="S82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:19">
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:20">
       <c r="A83" s="7">
         <v>104110002</v>
       </c>
@@ -6438,7 +6686,7 @@
         <v>118</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I83" s="7">
         <v>1</v>
@@ -6473,8 +6721,11 @@
       <c r="S83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:19">
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:20">
       <c r="A84" s="7">
         <v>104210001</v>
       </c>
@@ -6497,7 +6748,7 @@
         <v>156</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I84" s="7">
         <v>1</v>
@@ -6532,8 +6783,11 @@
       <c r="S84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:19">
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:20">
       <c r="A85" s="7">
         <v>104210002</v>
       </c>
@@ -6556,7 +6810,7 @@
         <v>121</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -6591,8 +6845,11 @@
       <c r="S85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:19">
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:20">
       <c r="A86" s="7">
         <v>104310001</v>
       </c>
@@ -6615,7 +6872,7 @@
         <v>160</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I86" s="7">
         <v>1</v>
@@ -6650,8 +6907,11 @@
       <c r="S86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:19">
+      <c r="T86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:20">
       <c r="A87" s="7">
         <v>104310002</v>
       </c>
@@ -6674,7 +6934,7 @@
         <v>123</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I87" s="7">
         <v>1</v>
@@ -6709,8 +6969,11 @@
       <c r="S87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:19">
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:20">
       <c r="A88" s="7">
         <v>104410001</v>
       </c>
@@ -6733,7 +6996,7 @@
         <v>163</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I88" s="7">
         <v>1</v>
@@ -6768,8 +7031,11 @@
       <c r="S88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:19">
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:20">
       <c r="A89" s="7">
         <v>104410002</v>
       </c>
@@ -6792,7 +7058,7 @@
         <v>125</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -6827,8 +7093,11 @@
       <c r="S89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:19">
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:20">
       <c r="A90" s="7">
         <v>104510001</v>
       </c>
@@ -6851,7 +7120,7 @@
         <v>166</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I90" s="7">
         <v>1</v>
@@ -6886,8 +7155,11 @@
       <c r="S90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:19">
+      <c r="T90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:20">
       <c r="A91" s="7">
         <v>104510002</v>
       </c>
@@ -6910,7 +7182,7 @@
         <v>127</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I91" s="7">
         <v>1</v>
@@ -6945,8 +7217,11 @@
       <c r="S91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="6">
         <v>104610001</v>
       </c>
@@ -6969,7 +7244,7 @@
         <v>170</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I92" s="6">
         <v>1</v>
@@ -7004,8 +7279,11 @@
       <c r="S92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="6">
         <v>104610002</v>
       </c>
@@ -7028,7 +7306,7 @@
         <v>130</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I93" s="6">
         <v>1</v>
@@ -7063,8 +7341,11 @@
       <c r="S93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="6">
         <v>104710001</v>
       </c>
@@ -7087,7 +7368,7 @@
         <v>173</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I94" s="6">
         <v>1</v>
@@ -7122,8 +7403,11 @@
       <c r="S94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="6">
         <v>104710002</v>
       </c>
@@ -7146,7 +7430,7 @@
         <v>132</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I95" s="6">
         <v>1</v>
@@ -7181,8 +7465,11 @@
       <c r="S95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="6">
         <v>104810001</v>
       </c>
@@ -7205,7 +7492,7 @@
         <v>176</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I96" s="6">
         <v>1</v>
@@ -7240,8 +7527,11 @@
       <c r="S96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="6">
         <v>104810002</v>
       </c>
@@ -7264,7 +7554,7 @@
         <v>134</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I97" s="6">
         <v>1</v>
@@ -7299,8 +7589,11 @@
       <c r="S97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="6">
         <v>104910001</v>
       </c>
@@ -7323,7 +7616,7 @@
         <v>180</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I98" s="6">
         <v>1</v>
@@ -7358,8 +7651,11 @@
       <c r="S98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="6">
         <v>104910002</v>
       </c>
@@ -7382,7 +7678,7 @@
         <v>136</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I99" s="6">
         <v>1</v>
@@ -7417,8 +7713,11 @@
       <c r="S99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="6">
         <v>105010001</v>
       </c>
@@ -7441,7 +7740,7 @@
         <v>183</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I100" s="6">
         <v>1</v>
@@ -7476,8 +7775,11 @@
       <c r="S100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="6">
         <v>105010002</v>
       </c>
@@ -7500,7 +7802,7 @@
         <v>138</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I101" s="6">
         <v>1</v>
@@ -7535,8 +7837,11 @@
       <c r="S101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="6">
         <v>100120001</v>
       </c>
@@ -7559,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I102" s="6">
         <v>1</v>
@@ -7594,8 +7899,11 @@
       <c r="S102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="6">
         <v>100120002</v>
       </c>
@@ -7618,7 +7926,7 @@
         <v>12</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I103" s="6">
         <v>1</v>
@@ -7653,8 +7961,11 @@
       <c r="S103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="6">
         <v>100220001</v>
       </c>
@@ -7677,7 +7988,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I104" s="6">
         <v>1</v>
@@ -7712,8 +8023,11 @@
       <c r="S104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="6">
         <v>100220002</v>
       </c>
@@ -7736,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I105" s="6">
         <v>1</v>
@@ -7771,8 +8085,11 @@
       <c r="S105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="6">
         <v>100320001</v>
       </c>
@@ -7795,7 +8112,7 @@
         <v>20</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I106" s="6">
         <v>1</v>
@@ -7830,8 +8147,11 @@
       <c r="S106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="1:19">
+      <c r="T106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:20">
       <c r="A107" s="7">
         <v>100320002</v>
       </c>
@@ -7854,7 +8174,7 @@
         <v>25</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I107" s="7">
         <v>1</v>
@@ -7889,8 +8209,11 @@
       <c r="S107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:19">
+      <c r="T107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:20">
       <c r="A108" s="7">
         <v>100420001</v>
       </c>
@@ -7913,7 +8236,7 @@
         <v>30</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I108" s="7">
         <v>1</v>
@@ -7948,8 +8271,11 @@
       <c r="S108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:19">
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:20">
       <c r="A109" s="7">
         <v>100420002</v>
       </c>
@@ -7972,7 +8298,7 @@
         <v>35</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I109" s="7">
         <v>1</v>
@@ -8007,8 +8333,11 @@
       <c r="S109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:19">
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:20">
       <c r="A110" s="7">
         <v>100520001</v>
       </c>
@@ -8031,7 +8360,7 @@
         <v>33</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I110" s="7">
         <v>1</v>
@@ -8066,8 +8395,11 @@
       <c r="S110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="1:19">
+      <c r="T110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:20">
       <c r="A111" s="7">
         <v>100520002</v>
       </c>
@@ -8090,7 +8422,7 @@
         <v>38</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I111" s="7">
         <v>1</v>
@@ -8125,8 +8457,11 @@
       <c r="S111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:19">
+      <c r="T111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:20">
       <c r="A112" s="7">
         <v>100620001</v>
       </c>
@@ -8149,7 +8484,7 @@
         <v>36</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I112" s="7">
         <v>1</v>
@@ -8184,8 +8519,11 @@
       <c r="S112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:19">
+      <c r="T112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:20">
       <c r="A113" s="7">
         <v>100620002</v>
       </c>
@@ -8208,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I113" s="7">
         <v>1</v>
@@ -8243,8 +8581,11 @@
       <c r="S113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="1:19">
+      <c r="T113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:20">
       <c r="A114" s="7">
         <v>100720001</v>
       </c>
@@ -8267,7 +8608,7 @@
         <v>40</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I114" s="7">
         <v>1</v>
@@ -8302,8 +8643,11 @@
       <c r="S114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:19">
+      <c r="T114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:20">
       <c r="A115" s="7">
         <v>100720002</v>
       </c>
@@ -8326,7 +8670,7 @@
         <v>43</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I115" s="7">
         <v>1</v>
@@ -8361,8 +8705,11 @@
       <c r="S115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="1:19">
+      <c r="T115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:20">
       <c r="A116" s="7">
         <v>100820001</v>
       </c>
@@ -8385,7 +8732,7 @@
         <v>43</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I116" s="7">
         <v>1</v>
@@ -8420,8 +8767,11 @@
       <c r="S116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="1:19">
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:20">
       <c r="A117" s="7">
         <v>100820002</v>
       </c>
@@ -8444,7 +8794,7 @@
         <v>45</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I117" s="7">
         <v>1</v>
@@ -8479,8 +8829,11 @@
       <c r="S117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:19">
+      <c r="T117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:20">
       <c r="A118" s="7">
         <v>100920001</v>
       </c>
@@ -8503,7 +8856,7 @@
         <v>46</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I118" s="7">
         <v>1</v>
@@ -8538,8 +8891,11 @@
       <c r="S118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:19">
+      <c r="T118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:20">
       <c r="A119" s="7">
         <v>100920002</v>
       </c>
@@ -8562,7 +8918,7 @@
         <v>47</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I119" s="7">
         <v>1</v>
@@ -8597,8 +8953,11 @@
       <c r="S119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:19">
+      <c r="T119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:20">
       <c r="A120" s="7">
         <v>101020001</v>
       </c>
@@ -8621,7 +8980,7 @@
         <v>50</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I120" s="7">
         <v>1</v>
@@ -8656,8 +9015,11 @@
       <c r="S120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:19">
+      <c r="T120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:20">
       <c r="A121" s="7">
         <v>101020002</v>
       </c>
@@ -8680,7 +9042,7 @@
         <v>50</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I121" s="7">
         <v>1</v>
@@ -8715,8 +9077,11 @@
       <c r="S121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="6">
         <v>101120001</v>
       </c>
@@ -8739,7 +9104,7 @@
         <v>53</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I122" s="6">
         <v>1</v>
@@ -8774,8 +9139,11 @@
       <c r="S122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="6">
         <v>101120002</v>
       </c>
@@ -8798,7 +9166,7 @@
         <v>52</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I123" s="6">
         <v>1</v>
@@ -8833,8 +9201,11 @@
       <c r="S123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="6">
         <v>101220001</v>
       </c>
@@ -8857,7 +9228,7 @@
         <v>56</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I124" s="6">
         <v>1</v>
@@ -8892,8 +9263,11 @@
       <c r="S124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="6">
         <v>101220002</v>
       </c>
@@ -8916,7 +9290,7 @@
         <v>54</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I125" s="6">
         <v>1</v>
@@ -8951,8 +9325,11 @@
       <c r="S125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="6">
         <v>101320001</v>
       </c>
@@ -8975,7 +9352,7 @@
         <v>60</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I126" s="6">
         <v>1</v>
@@ -9010,8 +9387,11 @@
       <c r="S126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="6">
         <v>101320002</v>
       </c>
@@ -9034,7 +9414,7 @@
         <v>56</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I127" s="6">
         <v>1</v>
@@ -9069,8 +9449,11 @@
       <c r="S127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="6">
         <v>101420001</v>
       </c>
@@ -9093,7 +9476,7 @@
         <v>63</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I128" s="6">
         <v>1</v>
@@ -9128,8 +9511,11 @@
       <c r="S128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="6">
         <v>101420002</v>
       </c>
@@ -9152,7 +9538,7 @@
         <v>58</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I129" s="6">
         <v>1</v>
@@ -9187,8 +9573,11 @@
       <c r="S129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="6">
         <v>101520001</v>
       </c>
@@ -9211,7 +9600,7 @@
         <v>66</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I130" s="6">
         <v>1</v>
@@ -9246,8 +9635,11 @@
       <c r="S130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="6">
         <v>101520002</v>
       </c>
@@ -9270,7 +9662,7 @@
         <v>61</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I131" s="6">
         <v>1</v>
@@ -9305,8 +9697,11 @@
       <c r="S131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="6">
         <v>101620001</v>
       </c>
@@ -9329,7 +9724,7 @@
         <v>70</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I132" s="6">
         <v>1</v>
@@ -9364,8 +9759,11 @@
       <c r="S132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="6">
         <v>101620002</v>
       </c>
@@ -9388,7 +9786,7 @@
         <v>63</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I133" s="6">
         <v>1</v>
@@ -9423,8 +9821,11 @@
       <c r="S133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="6">
         <v>101720001</v>
       </c>
@@ -9447,7 +9848,7 @@
         <v>73</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I134" s="6">
         <v>1</v>
@@ -9482,8 +9883,11 @@
       <c r="S134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="6">
         <v>101720002</v>
       </c>
@@ -9506,7 +9910,7 @@
         <v>65</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I135" s="6">
         <v>1</v>
@@ -9541,8 +9945,11 @@
       <c r="S135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="6">
         <v>101820001</v>
       </c>
@@ -9565,7 +9972,7 @@
         <v>76</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -9600,8 +10007,11 @@
       <c r="S136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" s="1" customFormat="1" spans="1:19">
+      <c r="T136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:20">
       <c r="A137" s="7">
         <v>101820002</v>
       </c>
@@ -9624,7 +10034,7 @@
         <v>67</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
@@ -9659,8 +10069,11 @@
       <c r="S137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:19">
+      <c r="T137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:20">
       <c r="A138" s="7">
         <v>101920001</v>
       </c>
@@ -9683,7 +10096,7 @@
         <v>80</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I138" s="7">
         <v>1</v>
@@ -9718,8 +10131,11 @@
       <c r="S138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:19">
+      <c r="T138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:20">
       <c r="A139" s="7">
         <v>101920002</v>
       </c>
@@ -9742,7 +10158,7 @@
         <v>70</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -9777,8 +10193,11 @@
       <c r="S139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:19">
+      <c r="T139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:20">
       <c r="A140" s="7">
         <v>102020001</v>
       </c>
@@ -9801,7 +10220,7 @@
         <v>83</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I140" s="7">
         <v>1</v>
@@ -9836,8 +10255,11 @@
       <c r="S140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:19">
+      <c r="T140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:20">
       <c r="A141" s="7">
         <v>102020002</v>
       </c>
@@ -9860,7 +10282,7 @@
         <v>72</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I141" s="7">
         <v>1</v>
@@ -9895,8 +10317,11 @@
       <c r="S141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:19">
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:20">
       <c r="A142" s="7">
         <v>102120001</v>
       </c>
@@ -9919,7 +10344,7 @@
         <v>86</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I142" s="7">
         <v>1</v>
@@ -9954,8 +10379,11 @@
       <c r="S142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:19">
+      <c r="T142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:20">
       <c r="A143" s="7">
         <v>102120002</v>
       </c>
@@ -9978,7 +10406,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I143" s="7">
         <v>1</v>
@@ -10013,8 +10441,11 @@
       <c r="S143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:19">
+      <c r="T143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:20">
       <c r="A144" s="7">
         <v>102220001</v>
       </c>
@@ -10037,7 +10468,7 @@
         <v>90</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I144" s="7">
         <v>1</v>
@@ -10072,8 +10503,11 @@
       <c r="S144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:19">
+      <c r="T144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:20">
       <c r="A145" s="7">
         <v>102220002</v>
       </c>
@@ -10096,7 +10530,7 @@
         <v>76</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I145" s="7">
         <v>1</v>
@@ -10131,8 +10565,11 @@
       <c r="S145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:19">
+      <c r="T145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:20">
       <c r="A146" s="7">
         <v>102320001</v>
       </c>
@@ -10155,7 +10592,7 @@
         <v>93</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I146" s="7">
         <v>1</v>
@@ -10190,8 +10627,11 @@
       <c r="S146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:19">
+      <c r="T146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:20">
       <c r="A147" s="7">
         <v>102320002</v>
       </c>
@@ -10214,7 +10654,7 @@
         <v>78</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I147" s="7">
         <v>1</v>
@@ -10249,8 +10689,11 @@
       <c r="S147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:19">
+      <c r="T147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:20">
       <c r="A148" s="7">
         <v>102420001</v>
       </c>
@@ -10273,7 +10716,7 @@
         <v>96</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I148" s="7">
         <v>1</v>
@@ -10308,8 +10751,11 @@
       <c r="S148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:19">
+      <c r="T148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:20">
       <c r="A149" s="7">
         <v>102420002</v>
       </c>
@@ -10332,7 +10778,7 @@
         <v>81</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I149" s="7">
         <v>1</v>
@@ -10367,8 +10813,11 @@
       <c r="S149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:19">
+      <c r="T149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:20">
       <c r="A150" s="7">
         <v>102520001</v>
       </c>
@@ -10391,7 +10840,7 @@
         <v>100</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I150" s="7">
         <v>1</v>
@@ -10426,8 +10875,11 @@
       <c r="S150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:19">
+      <c r="T150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:20">
       <c r="A151" s="7">
         <v>102520002</v>
       </c>
@@ -10450,7 +10902,7 @@
         <v>83</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I151" s="7">
         <v>1</v>
@@ -10485,8 +10937,11 @@
       <c r="S151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="6">
         <v>102620001</v>
       </c>
@@ -10509,7 +10964,7 @@
         <v>103</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I152" s="6">
         <v>1</v>
@@ -10544,8 +10999,11 @@
       <c r="S152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="6">
         <v>102620002</v>
       </c>
@@ -10568,7 +11026,7 @@
         <v>85</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I153" s="6">
         <v>1</v>
@@ -10603,8 +11061,11 @@
       <c r="S153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="6">
         <v>102720001</v>
       </c>
@@ -10627,7 +11088,7 @@
         <v>106</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I154" s="6">
         <v>1</v>
@@ -10662,8 +11123,11 @@
       <c r="S154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="6">
         <v>102720002</v>
       </c>
@@ -10686,7 +11150,7 @@
         <v>87</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I155" s="6">
         <v>1</v>
@@ -10721,8 +11185,11 @@
       <c r="S155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="6">
         <v>102820001</v>
       </c>
@@ -10745,7 +11212,7 @@
         <v>110</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I156" s="6">
         <v>1</v>
@@ -10780,8 +11247,11 @@
       <c r="S156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="6">
         <v>102820002</v>
       </c>
@@ -10804,7 +11274,7 @@
         <v>90</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I157" s="6">
         <v>1</v>
@@ -10839,8 +11309,11 @@
       <c r="S157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="6">
         <v>102920001</v>
       </c>
@@ -10863,7 +11336,7 @@
         <v>113</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I158" s="6">
         <v>1</v>
@@ -10898,8 +11371,11 @@
       <c r="S158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="6">
         <v>102920002</v>
       </c>
@@ -10922,7 +11398,7 @@
         <v>92</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I159" s="6">
         <v>1</v>
@@ -10957,8 +11433,11 @@
       <c r="S159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="6">
         <v>103020001</v>
       </c>
@@ -10981,7 +11460,7 @@
         <v>116</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I160" s="6">
         <v>1</v>
@@ -11016,8 +11495,11 @@
       <c r="S160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="6">
         <v>103020002</v>
       </c>
@@ -11040,7 +11522,7 @@
         <v>94</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I161" s="6">
         <v>1</v>
@@ -11075,8 +11557,11 @@
       <c r="S161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="6">
         <v>103120001</v>
       </c>
@@ -11099,7 +11584,7 @@
         <v>120</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I162" s="6">
         <v>1</v>
@@ -11134,8 +11619,11 @@
       <c r="S162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="6">
         <v>103120002</v>
       </c>
@@ -11158,7 +11646,7 @@
         <v>96</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I163" s="6">
         <v>1</v>
@@ -11193,8 +11681,11 @@
       <c r="S163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="6">
         <v>103220001</v>
       </c>
@@ -11217,7 +11708,7 @@
         <v>123</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I164" s="6">
         <v>1</v>
@@ -11252,8 +11743,11 @@
       <c r="S164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="6">
         <v>103220002</v>
       </c>
@@ -11276,7 +11770,7 @@
         <v>98</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I165" s="6">
         <v>1</v>
@@ -11311,8 +11805,11 @@
       <c r="S165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="6">
         <v>103320001</v>
       </c>
@@ -11335,7 +11832,7 @@
         <v>126</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I166" s="6">
         <v>1</v>
@@ -11370,8 +11867,11 @@
       <c r="S166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" s="1" customFormat="1" spans="1:19">
+      <c r="T166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" spans="1:20">
       <c r="A167" s="7">
         <v>103320002</v>
       </c>
@@ -11394,7 +11894,7 @@
         <v>101</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I167" s="7">
         <v>1</v>
@@ -11429,8 +11929,11 @@
       <c r="S167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" s="1" customFormat="1" spans="1:19">
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" spans="1:20">
       <c r="A168" s="7">
         <v>103420001</v>
       </c>
@@ -11453,7 +11956,7 @@
         <v>130</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I168" s="7">
         <v>1</v>
@@ -11488,8 +11991,11 @@
       <c r="S168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" s="1" customFormat="1" spans="1:19">
+      <c r="T168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:20">
       <c r="A169" s="7">
         <v>103420002</v>
       </c>
@@ -11512,7 +12018,7 @@
         <v>103</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I169" s="7">
         <v>1</v>
@@ -11547,8 +12053,11 @@
       <c r="S169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" s="1" customFormat="1" spans="1:19">
+      <c r="T169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:20">
       <c r="A170" s="7">
         <v>103520001</v>
       </c>
@@ -11571,7 +12080,7 @@
         <v>133</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I170" s="7">
         <v>1</v>
@@ -11606,8 +12115,11 @@
       <c r="S170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" s="1" customFormat="1" spans="1:19">
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" spans="1:20">
       <c r="A171" s="7">
         <v>103520002</v>
       </c>
@@ -11630,7 +12142,7 @@
         <v>105</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I171" s="7">
         <v>1</v>
@@ -11665,8 +12177,11 @@
       <c r="S171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" s="1" customFormat="1" spans="1:19">
+      <c r="T171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:20">
       <c r="A172" s="7">
         <v>103620001</v>
       </c>
@@ -11689,7 +12204,7 @@
         <v>136</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I172" s="7">
         <v>1</v>
@@ -11724,8 +12239,11 @@
       <c r="S172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" s="1" customFormat="1" spans="1:19">
+      <c r="T172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="1:20">
       <c r="A173" s="7">
         <v>103620002</v>
       </c>
@@ -11748,7 +12266,7 @@
         <v>107</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I173" s="7">
         <v>1</v>
@@ -11783,8 +12301,11 @@
       <c r="S173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" s="1" customFormat="1" spans="1:19">
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:20">
       <c r="A174" s="7">
         <v>103720001</v>
       </c>
@@ -11807,7 +12328,7 @@
         <v>140</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I174" s="7">
         <v>1</v>
@@ -11842,8 +12363,11 @@
       <c r="S174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" s="1" customFormat="1" spans="1:19">
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:20">
       <c r="A175" s="7">
         <v>103720002</v>
       </c>
@@ -11866,7 +12390,7 @@
         <v>110</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I175" s="7">
         <v>1</v>
@@ -11901,8 +12425,11 @@
       <c r="S175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" s="1" customFormat="1" spans="1:19">
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:20">
       <c r="A176" s="7">
         <v>103820001</v>
       </c>
@@ -11925,7 +12452,7 @@
         <v>143</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I176" s="7">
         <v>1</v>
@@ -11960,8 +12487,11 @@
       <c r="S176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" s="1" customFormat="1" spans="1:19">
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:20">
       <c r="A177" s="7">
         <v>103820002</v>
       </c>
@@ -11984,7 +12514,7 @@
         <v>112</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I177" s="7">
         <v>1</v>
@@ -12019,8 +12549,11 @@
       <c r="S177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" s="1" customFormat="1" spans="1:19">
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:20">
       <c r="A178" s="7">
         <v>103920001</v>
       </c>
@@ -12043,7 +12576,7 @@
         <v>146</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I178" s="7">
         <v>1</v>
@@ -12078,8 +12611,11 @@
       <c r="S178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" s="1" customFormat="1" spans="1:19">
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:20">
       <c r="A179" s="7">
         <v>103920002</v>
       </c>
@@ -12102,7 +12638,7 @@
         <v>114</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I179" s="7">
         <v>1</v>
@@ -12137,8 +12673,11 @@
       <c r="S179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" s="1" customFormat="1" spans="1:19">
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:20">
       <c r="A180" s="7">
         <v>104020001</v>
       </c>
@@ -12161,7 +12700,7 @@
         <v>150</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I180" s="7">
         <v>1</v>
@@ -12196,8 +12735,11 @@
       <c r="S180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" s="1" customFormat="1" spans="1:19">
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" spans="1:20">
       <c r="A181" s="7">
         <v>104020002</v>
       </c>
@@ -12220,7 +12762,7 @@
         <v>116</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I181" s="7">
         <v>1</v>
@@ -12255,8 +12797,11 @@
       <c r="S181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="6">
         <v>104120001</v>
       </c>
@@ -12279,7 +12824,7 @@
         <v>153</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I182" s="6">
         <v>1</v>
@@ -12314,8 +12859,11 @@
       <c r="S182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="6">
         <v>104120002</v>
       </c>
@@ -12338,7 +12886,7 @@
         <v>118</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I183" s="6">
         <v>1</v>
@@ -12373,8 +12921,11 @@
       <c r="S183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="6">
         <v>104220001</v>
       </c>
@@ -12397,7 +12948,7 @@
         <v>156</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I184" s="6">
         <v>1</v>
@@ -12432,8 +12983,11 @@
       <c r="S184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="6">
         <v>104220002</v>
       </c>
@@ -12456,7 +13010,7 @@
         <v>121</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I185" s="6">
         <v>1</v>
@@ -12491,8 +13045,11 @@
       <c r="S185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="6">
         <v>104320001</v>
       </c>
@@ -12515,7 +13072,7 @@
         <v>160</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I186" s="6">
         <v>1</v>
@@ -12550,8 +13107,11 @@
       <c r="S186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="6">
         <v>104320002</v>
       </c>
@@ -12574,7 +13134,7 @@
         <v>123</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I187" s="6">
         <v>1</v>
@@ -12609,8 +13169,11 @@
       <c r="S187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="6">
         <v>104420001</v>
       </c>
@@ -12633,7 +13196,7 @@
         <v>163</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I188" s="6">
         <v>1</v>
@@ -12668,8 +13231,11 @@
       <c r="S188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="6">
         <v>104420002</v>
       </c>
@@ -12692,7 +13258,7 @@
         <v>125</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I189" s="6">
         <v>1</v>
@@ -12727,8 +13293,11 @@
       <c r="S189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="6">
         <v>104520001</v>
       </c>
@@ -12751,7 +13320,7 @@
         <v>166</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I190" s="6">
         <v>1</v>
@@ -12786,8 +13355,11 @@
       <c r="S190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="6">
         <v>104520002</v>
       </c>
@@ -12810,7 +13382,7 @@
         <v>127</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I191" s="6">
         <v>1</v>
@@ -12845,8 +13417,11 @@
       <c r="S191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="6">
         <v>104620001</v>
       </c>
@@ -12869,7 +13444,7 @@
         <v>170</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I192" s="6">
         <v>1</v>
@@ -12904,8 +13479,11 @@
       <c r="S192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="6">
         <v>104620002</v>
       </c>
@@ -12928,7 +13506,7 @@
         <v>130</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I193" s="6">
         <v>1</v>
@@ -12963,8 +13541,11 @@
       <c r="S193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="6">
         <v>104720001</v>
       </c>
@@ -12987,7 +13568,7 @@
         <v>173</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I194" s="6">
         <v>1</v>
@@ -13022,8 +13603,11 @@
       <c r="S194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="6">
         <v>104720002</v>
       </c>
@@ -13046,7 +13630,7 @@
         <v>132</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I195" s="6">
         <v>1</v>
@@ -13081,8 +13665,11 @@
       <c r="S195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="6">
         <v>104820001</v>
       </c>
@@ -13105,7 +13692,7 @@
         <v>176</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I196" s="6">
         <v>1</v>
@@ -13140,8 +13727,11 @@
       <c r="S196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" s="1" customFormat="1" spans="1:19">
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:20">
       <c r="A197" s="7">
         <v>104820002</v>
       </c>
@@ -13164,7 +13754,7 @@
         <v>134</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I197" s="7">
         <v>1</v>
@@ -13199,8 +13789,11 @@
       <c r="S197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" s="1" customFormat="1" spans="1:19">
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:20">
       <c r="A198" s="7">
         <v>104920001</v>
       </c>
@@ -13223,7 +13816,7 @@
         <v>180</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I198" s="7">
         <v>1</v>
@@ -13258,8 +13851,11 @@
       <c r="S198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" s="1" customFormat="1" spans="1:19">
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:20">
       <c r="A199" s="7">
         <v>104920002</v>
       </c>
@@ -13282,7 +13878,7 @@
         <v>136</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I199" s="7">
         <v>1</v>
@@ -13317,8 +13913,11 @@
       <c r="S199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" s="1" customFormat="1" spans="1:19">
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:20">
       <c r="A200" s="7">
         <v>105020001</v>
       </c>
@@ -13341,7 +13940,7 @@
         <v>183</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I200" s="7">
         <v>1</v>
@@ -13376,8 +13975,11 @@
       <c r="S200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" s="1" customFormat="1" spans="1:19">
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:20">
       <c r="A201" s="7">
         <v>105020002</v>
       </c>
@@ -13400,7 +14002,7 @@
         <v>138</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I201" s="7">
         <v>1</v>
@@ -13435,8 +14037,11 @@
       <c r="S201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" s="1" customFormat="1" spans="1:19">
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:20">
       <c r="A202" s="7">
         <v>100130001</v>
       </c>
@@ -13459,7 +14064,7 @@
         <v>50</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I202" s="7">
         <v>1</v>
@@ -13494,8 +14099,11 @@
       <c r="S202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" s="1" customFormat="1" spans="1:19">
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:20">
       <c r="A203" s="7">
         <v>100230001</v>
       </c>
@@ -13518,7 +14126,7 @@
         <v>60</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I203" s="7">
         <v>1</v>
@@ -13553,8 +14161,11 @@
       <c r="S203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" s="1" customFormat="1" spans="1:19">
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:20">
       <c r="A204" s="7">
         <v>100330001</v>
       </c>
@@ -13577,7 +14188,7 @@
         <v>60</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I204" s="7">
         <v>1</v>
@@ -13612,8 +14223,11 @@
       <c r="S204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" s="1" customFormat="1" spans="1:19">
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="1" spans="1:20">
       <c r="A205" s="7">
         <v>100430001</v>
       </c>
@@ -13636,7 +14250,7 @@
         <v>70</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I205" s="7">
         <v>1</v>
@@ -13671,8 +14285,11 @@
       <c r="S205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" s="1" customFormat="1" spans="1:19">
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" spans="1:20">
       <c r="A206" s="7">
         <v>100530001</v>
       </c>
@@ -13695,7 +14312,7 @@
         <v>80</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I206" s="7">
         <v>1</v>
@@ -13730,8 +14347,11 @@
       <c r="S206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" s="1" customFormat="1" spans="1:19">
+      <c r="T206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="1:20">
       <c r="A207" s="7">
         <v>100630001</v>
       </c>
@@ -13754,7 +14374,7 @@
         <v>90</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I207" s="7">
         <v>1</v>
@@ -13789,8 +14409,11 @@
       <c r="S207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" s="1" customFormat="1" spans="1:19">
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" spans="1:20">
       <c r="A208" s="7">
         <v>100730001</v>
       </c>
@@ -13813,7 +14436,7 @@
         <v>100</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I208" s="7">
         <v>1</v>
@@ -13848,8 +14471,11 @@
       <c r="S208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" s="1" customFormat="1" spans="1:19">
+      <c r="T208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" spans="1:20">
       <c r="A209" s="7">
         <v>100830001</v>
       </c>
@@ -13872,7 +14498,7 @@
         <v>110</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I209" s="7">
         <v>1</v>
@@ -13907,8 +14533,11 @@
       <c r="S209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" s="1" customFormat="1" spans="1:19">
+      <c r="T209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:20">
       <c r="A210" s="7">
         <v>100930001</v>
       </c>
@@ -13931,7 +14560,7 @@
         <v>120</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I210" s="7">
         <v>1</v>
@@ -13966,8 +14595,11 @@
       <c r="S210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" s="1" customFormat="1" spans="1:19">
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" spans="1:20">
       <c r="A211" s="7">
         <v>101030001</v>
       </c>
@@ -13990,7 +14622,7 @@
         <v>130</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I211" s="7">
         <v>1</v>
@@ -14025,8 +14657,11 @@
       <c r="S211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="6">
         <v>101130001</v>
       </c>
@@ -14049,7 +14684,7 @@
         <v>140</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I212" s="6">
         <v>1</v>
@@ -14084,8 +14719,11 @@
       <c r="S212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="6">
         <v>101230001</v>
       </c>
@@ -14108,7 +14746,7 @@
         <v>150</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I213" s="6">
         <v>1</v>
@@ -14143,8 +14781,11 @@
       <c r="S213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="6">
         <v>101330001</v>
       </c>
@@ -14167,7 +14808,7 @@
         <v>160</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I214" s="6">
         <v>1</v>
@@ -14202,8 +14843,11 @@
       <c r="S214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="6">
         <v>101430001</v>
       </c>
@@ -14226,7 +14870,7 @@
         <v>170</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I215" s="6">
         <v>1</v>
@@ -14261,8 +14905,11 @@
       <c r="S215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="6">
         <v>101530001</v>
       </c>
@@ -14285,7 +14932,7 @@
         <v>180</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I216" s="6">
         <v>1</v>
@@ -14320,8 +14967,11 @@
       <c r="S216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="T216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" s="6">
         <v>101630001</v>
       </c>
@@ -14344,7 +14994,7 @@
         <v>190</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I217" s="6">
         <v>1</v>
@@ -14379,8 +15029,11 @@
       <c r="S217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:19">
+      <c r="T217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" s="6">
         <v>101730001</v>
       </c>
@@ -14403,7 +15056,7 @@
         <v>200</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I218" s="6">
         <v>1</v>
@@ -14438,8 +15091,11 @@
       <c r="S218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:19">
+      <c r="T218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" s="6">
         <v>101830001</v>
       </c>
@@ -14462,7 +15118,7 @@
         <v>210</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I219" s="6">
         <v>1</v>
@@ -14497,8 +15153,11 @@
       <c r="S219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:19">
+      <c r="T219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" s="6">
         <v>101930001</v>
       </c>
@@ -14521,7 +15180,7 @@
         <v>220</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I220" s="6">
         <v>1</v>
@@ -14556,8 +15215,11 @@
       <c r="S220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:19">
+      <c r="T220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" s="6">
         <v>102030001</v>
       </c>
@@ -14580,7 +15242,7 @@
         <v>230</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I221" s="6">
         <v>1</v>
@@ -14615,8 +15277,11 @@
       <c r="S221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:19">
+      <c r="T221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" s="6">
         <v>102130001</v>
       </c>
@@ -14639,7 +15304,7 @@
         <v>240</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I222" s="6">
         <v>1</v>
@@ -14674,8 +15339,11 @@
       <c r="S222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:19">
+      <c r="T222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" s="6">
         <v>102230001</v>
       </c>
@@ -14698,7 +15366,7 @@
         <v>250</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I223" s="6">
         <v>1</v>
@@ -14733,8 +15401,11 @@
       <c r="S223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:19">
+      <c r="T223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" s="6">
         <v>102330001</v>
       </c>
@@ -14757,7 +15428,7 @@
         <v>260</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I224" s="6">
         <v>1</v>
@@ -14792,8 +15463,11 @@
       <c r="S224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:19">
+      <c r="T224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" s="6">
         <v>102430001</v>
       </c>
@@ -14816,7 +15490,7 @@
         <v>270</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I225" s="6">
         <v>1</v>
@@ -14851,8 +15525,11 @@
       <c r="S225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:19">
+      <c r="T225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" s="6">
         <v>102530001</v>
       </c>
@@ -14875,7 +15552,7 @@
         <v>280</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I226" s="6">
         <v>1</v>
@@ -14910,8 +15587,11 @@
       <c r="S226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" s="1" customFormat="1" spans="1:19">
+      <c r="T226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" s="1" customFormat="1" spans="1:20">
       <c r="A227" s="7">
         <v>102630001</v>
       </c>
@@ -14934,7 +15614,7 @@
         <v>290</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I227" s="7">
         <v>1</v>
@@ -14969,8 +15649,11 @@
       <c r="S227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" s="1" customFormat="1" spans="1:19">
+      <c r="T227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:20">
       <c r="A228" s="7">
         <v>102730001</v>
       </c>
@@ -14993,7 +15676,7 @@
         <v>300</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I228" s="7">
         <v>1</v>
@@ -15028,8 +15711,11 @@
       <c r="S228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" s="1" customFormat="1" spans="1:19">
+      <c r="T228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="1" spans="1:20">
       <c r="A229" s="7">
         <v>102830001</v>
       </c>
@@ -15052,7 +15738,7 @@
         <v>310</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I229" s="7">
         <v>1</v>
@@ -15087,8 +15773,11 @@
       <c r="S229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" s="1" customFormat="1" spans="1:19">
+      <c r="T229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:20">
       <c r="A230" s="7">
         <v>102930001</v>
       </c>
@@ -15111,7 +15800,7 @@
         <v>320</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I230" s="7">
         <v>1</v>
@@ -15146,8 +15835,11 @@
       <c r="S230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" s="1" customFormat="1" spans="1:19">
+      <c r="T230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" s="1" customFormat="1" spans="1:20">
       <c r="A231" s="7">
         <v>103030001</v>
       </c>
@@ -15170,7 +15862,7 @@
         <v>330</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I231" s="7">
         <v>1</v>
@@ -15205,8 +15897,11 @@
       <c r="S231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" s="1" customFormat="1" spans="1:19">
+      <c r="T231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:20">
       <c r="A232" s="7">
         <v>103130001</v>
       </c>
@@ -15229,7 +15924,7 @@
         <v>340</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I232" s="7">
         <v>1</v>
@@ -15264,8 +15959,11 @@
       <c r="S232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" s="1" customFormat="1" spans="1:19">
+      <c r="T232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:20">
       <c r="A233" s="7">
         <v>103230001</v>
       </c>
@@ -15288,7 +15986,7 @@
         <v>350</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I233" s="7">
         <v>1</v>
@@ -15323,8 +16021,11 @@
       <c r="S233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" s="1" customFormat="1" spans="1:19">
+      <c r="T233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" spans="1:20">
       <c r="A234" s="7">
         <v>103330001</v>
       </c>
@@ -15347,7 +16048,7 @@
         <v>360</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I234" s="7">
         <v>1</v>
@@ -15382,8 +16083,11 @@
       <c r="S234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" s="1" customFormat="1" spans="1:19">
+      <c r="T234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" spans="1:20">
       <c r="A235" s="7">
         <v>103430001</v>
       </c>
@@ -15406,7 +16110,7 @@
         <v>370</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I235" s="7">
         <v>1</v>
@@ -15441,8 +16145,11 @@
       <c r="S235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" s="1" customFormat="1" spans="1:19">
+      <c r="T235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:20">
       <c r="A236" s="7">
         <v>103530001</v>
       </c>
@@ -15465,7 +16172,7 @@
         <v>380</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I236" s="7">
         <v>1</v>
@@ -15500,8 +16207,11 @@
       <c r="S236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" s="1" customFormat="1" spans="1:19">
+      <c r="T236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:20">
       <c r="A237" s="7">
         <v>103630001</v>
       </c>
@@ -15524,7 +16234,7 @@
         <v>390</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I237" s="7">
         <v>1</v>
@@ -15559,8 +16269,11 @@
       <c r="S237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" s="1" customFormat="1" spans="1:19">
+      <c r="T237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:20">
       <c r="A238" s="7">
         <v>103730001</v>
       </c>
@@ -15583,7 +16296,7 @@
         <v>400</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
@@ -15618,8 +16331,11 @@
       <c r="S238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" s="1" customFormat="1" spans="1:19">
+      <c r="T238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:20">
       <c r="A239" s="7">
         <v>103830001</v>
       </c>
@@ -15642,7 +16358,7 @@
         <v>410</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I239" s="7">
         <v>1</v>
@@ -15677,8 +16393,11 @@
       <c r="S239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" s="1" customFormat="1" spans="1:19">
+      <c r="T239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:20">
       <c r="A240" s="7">
         <v>103930001</v>
       </c>
@@ -15701,7 +16420,7 @@
         <v>420</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I240" s="7">
         <v>1</v>
@@ -15736,8 +16455,11 @@
       <c r="S240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" s="1" customFormat="1" spans="1:19">
+      <c r="T240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:20">
       <c r="A241" s="7">
         <v>104030001</v>
       </c>
@@ -15760,7 +16482,7 @@
         <v>430</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I241" s="7">
         <v>1</v>
@@ -15795,8 +16517,11 @@
       <c r="S241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:19">
+      <c r="T241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="6">
         <v>104130001</v>
       </c>
@@ -15819,7 +16544,7 @@
         <v>440</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I242" s="6">
         <v>1</v>
@@ -15854,8 +16579,11 @@
       <c r="S242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:19">
+      <c r="T242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" s="6">
         <v>104230001</v>
       </c>
@@ -15878,7 +16606,7 @@
         <v>450</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I243" s="6">
         <v>1</v>
@@ -15913,8 +16641,11 @@
       <c r="S243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:19">
+      <c r="T243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" s="6">
         <v>104330001</v>
       </c>
@@ -15937,7 +16668,7 @@
         <v>460</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I244" s="6">
         <v>1</v>
@@ -15972,8 +16703,11 @@
       <c r="S244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:19">
+      <c r="T244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" s="6">
         <v>104430001</v>
       </c>
@@ -15996,7 +16730,7 @@
         <v>470</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I245" s="6">
         <v>1</v>
@@ -16031,8 +16765,11 @@
       <c r="S245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:19">
+      <c r="T245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" s="6">
         <v>104530001</v>
       </c>
@@ -16055,7 +16792,7 @@
         <v>480</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I246" s="6">
         <v>1</v>
@@ -16090,8 +16827,11 @@
       <c r="S246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:19">
+      <c r="T246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" s="6">
         <v>104630001</v>
       </c>
@@ -16114,7 +16854,7 @@
         <v>490</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I247" s="6">
         <v>1</v>
@@ -16149,8 +16889,11 @@
       <c r="S247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:19">
+      <c r="T247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" s="6">
         <v>104730001</v>
       </c>
@@ -16173,7 +16916,7 @@
         <v>500</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I248" s="6">
         <v>1</v>
@@ -16208,8 +16951,11 @@
       <c r="S248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:19">
+      <c r="T248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" s="6">
         <v>104830001</v>
       </c>
@@ -16232,7 +16978,7 @@
         <v>510</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I249" s="6">
         <v>1</v>
@@ -16267,8 +17013,11 @@
       <c r="S249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:19">
+      <c r="T249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" s="6">
         <v>104930001</v>
       </c>
@@ -16291,7 +17040,7 @@
         <v>520</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I250" s="6">
         <v>1</v>
@@ -16326,8 +17075,11 @@
       <c r="S250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:19">
+      <c r="T250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="6">
         <v>105030001</v>
       </c>
@@ -16350,7 +17102,7 @@
         <v>530</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I251" s="6">
         <v>1</v>
@@ -16383,6 +17135,9 @@
         <v>0</v>
       </c>
       <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
         <v>0</v>
       </c>
     </row>

--- a/other/配置表/g-怪物配置表.xlsx
+++ b/other/配置表/g-怪物配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C990E91-8672-4148-940E-2F1EFC1D1860}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6069D44-BA14-4CA4-8A19-FCB0BF70D2FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W801"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
